--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804BEDD-28B7-46B7-A730-DD4C42500954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0E715-44D9-4483-900A-D4F8D60C274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4387,23 +4387,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4790,10 +4790,10 @@
   <dimension ref="A1:AE745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C731" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H740" sqref="H740"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5074,7 +5074,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5130,7 +5130,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5674,7 +5674,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6164,7 +6164,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6708,7 +6708,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7198,7 +7198,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7360,7 +7360,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="41"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="39" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7742,7 +7742,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="41"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="41"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="41"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="41"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -8230,7 +8230,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="39" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8286,7 +8286,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="41"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="41"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="41"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="39" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8776,7 +8776,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="41"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="41"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -9264,7 +9264,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="41" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9320,7 +9320,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="39"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="2" t="s">
         <v>369</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="2" t="s">
         <v>372</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="2" t="s">
         <v>376</v>
       </c>
@@ -9482,7 +9482,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="39"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="2" t="s">
         <v>379</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="2" t="s">
         <v>383</v>
       </c>
@@ -9590,7 +9590,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="39"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="2" t="s">
         <v>387</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="42" t="s">
         <v>390</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9700,7 +9700,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="1" t="s">
         <v>395</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="38"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="1" t="s">
         <v>398</v>
       </c>
@@ -9808,7 +9808,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="38"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="1" t="s">
         <v>402</v>
       </c>
@@ -9862,7 +9862,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="38"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="1" t="s">
         <v>405</v>
       </c>
@@ -9916,7 +9916,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="38"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="1" t="s">
         <v>409</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="38"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="1" t="s">
         <v>413</v>
       </c>
@@ -10024,7 +10024,7 @@
       <c r="A97" s="4">
         <v>92</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="43" t="s">
         <v>417</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -10080,7 +10080,7 @@
       <c r="A98" s="4">
         <v>93</v>
       </c>
-      <c r="B98" s="42"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="2" t="s">
         <v>422</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="A99" s="4">
         <v>94</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="2" t="s">
         <v>426</v>
       </c>
@@ -10188,7 +10188,7 @@
       <c r="A100" s="4">
         <v>95</v>
       </c>
-      <c r="B100" s="42"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="2" t="s">
         <v>430</v>
       </c>
@@ -10242,7 +10242,7 @@
       <c r="A101" s="4">
         <v>96</v>
       </c>
-      <c r="B101" s="42"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="2" t="s">
         <v>434</v>
       </c>
@@ -10350,7 +10350,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10406,7 +10406,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="38"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="3" t="s">
         <v>447</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="38"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="3" t="s">
         <v>451</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="38"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="3" t="s">
         <v>454</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="38"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="3" t="s">
         <v>458</v>
       </c>
@@ -10622,7 +10622,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10678,7 +10678,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="39"/>
+      <c r="B109" s="41"/>
       <c r="C109" s="4" t="s">
         <v>467</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="39"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="4" t="s">
         <v>471</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="39"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="4" t="s">
         <v>474</v>
       </c>
@@ -10840,7 +10840,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="39"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="4" t="s">
         <v>477</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="39"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="4" t="s">
         <v>481</v>
       </c>
@@ -10948,7 +10948,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="4" t="s">
         <v>485</v>
       </c>
@@ -11002,7 +11002,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -11058,7 +11058,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="38"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="3" t="s">
         <v>495</v>
       </c>
@@ -11112,7 +11112,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="38"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="3" t="s">
         <v>499</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="38"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="3" t="s">
         <v>503</v>
       </c>
@@ -11220,7 +11220,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="38"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="3" t="s">
         <v>507</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="38"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="3" t="s">
         <v>511</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="38"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="3" t="s">
         <v>515</v>
       </c>
@@ -11382,7 +11382,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11438,7 +11438,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="39"/>
+      <c r="B123" s="41"/>
       <c r="C123" s="4" t="s">
         <v>523</v>
       </c>
@@ -11492,7 +11492,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="39"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="4" t="s">
         <v>527</v>
       </c>
@@ -11546,7 +11546,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="4" t="s">
         <v>531</v>
       </c>
@@ -11600,7 +11600,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="39"/>
+      <c r="B126" s="41"/>
       <c r="C126" s="4" t="s">
         <v>535</v>
       </c>
@@ -11654,7 +11654,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11710,7 +11710,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="38"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="3" t="s">
         <v>544</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="38"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="3" t="s">
         <v>548</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="38"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="3" t="s">
         <v>552</v>
       </c>
@@ -11872,7 +11872,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="38"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="3" t="s">
         <v>556</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="41" t="s">
         <v>560</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11982,7 +11982,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="2" t="s">
         <v>564</v>
       </c>
@@ -12625,7 +12625,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12681,7 +12681,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="38"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="1" t="s">
         <v>614</v>
       </c>
@@ -12735,7 +12735,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="38"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="1" t="s">
         <v>618</v>
       </c>
@@ -12789,7 +12789,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="38"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="1" t="s">
         <v>622</v>
       </c>
@@ -12843,7 +12843,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12899,7 +12899,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="38"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="1" t="s">
         <v>630</v>
       </c>
@@ -12953,7 +12953,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="38"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="1" t="s">
         <v>634</v>
       </c>
@@ -13007,7 +13007,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="38"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="1" t="s">
         <v>638</v>
       </c>
@@ -16261,7 +16261,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="39" t="s">
         <v>857</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16320,7 +16320,7 @@
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="41"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16377,7 +16377,7 @@
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="41"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16434,7 +16434,7 @@
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="41"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16491,7 +16491,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="41"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16835,7 +16835,7 @@
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="41" t="s">
+      <c r="B220" s="39" t="s">
         <v>867</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16894,7 +16894,7 @@
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="41"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16951,7 +16951,7 @@
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="41"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -17008,7 +17008,7 @@
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="41"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -17065,7 +17065,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="41"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -17352,7 +17352,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="41" t="s">
+      <c r="B229" s="39" t="s">
         <v>876</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17411,7 +17411,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="41"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17468,7 +17468,7 @@
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="41"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17525,7 +17525,7 @@
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="41"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17582,7 +17582,7 @@
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="41"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17926,7 +17926,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="41" t="s">
+      <c r="B239" s="39" t="s">
         <v>886</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17985,7 +17985,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="41"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -18042,7 +18042,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="41"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -18099,7 +18099,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="41"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -18443,7 +18443,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="41" t="s">
+      <c r="B248" s="39" t="s">
         <v>896</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18502,7 +18502,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="41"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18559,7 +18559,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="41"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18616,7 +18616,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="41"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18673,7 +18673,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="41"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -19017,7 +19017,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="41" t="s">
+      <c r="B258" s="39" t="s">
         <v>904</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -19076,7 +19076,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="41"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -19133,7 +19133,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="41"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -19190,7 +19190,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="41"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -19247,7 +19247,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="41"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19591,7 +19591,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="41" t="s">
+      <c r="B268" s="39" t="s">
         <v>914</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19650,7 +19650,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="41"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19707,7 +19707,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="41"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="4" t="s">
         <v>916</v>
       </c>
@@ -19764,7 +19764,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="41"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="4" t="s">
         <v>918</v>
       </c>
@@ -19821,7 +19821,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="41"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -20108,7 +20108,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="41" t="s">
+      <c r="B277" s="39" t="s">
         <v>927</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -20167,7 +20167,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="41"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="4" t="s">
         <v>929</v>
       </c>
@@ -20224,7 +20224,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="41"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="4" t="s">
         <v>930</v>
       </c>
@@ -20281,7 +20281,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="41"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="4" t="s">
         <v>932</v>
       </c>
@@ -20338,7 +20338,7 @@
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="41"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20682,7 +20682,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="41" t="s">
         <v>939</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20741,7 +20741,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="39"/>
+      <c r="B288" s="41"/>
       <c r="C288" s="2" t="s">
         <v>369</v>
       </c>
@@ -20798,7 +20798,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="39"/>
+      <c r="B289" s="41"/>
       <c r="C289" s="2" t="s">
         <v>372</v>
       </c>
@@ -20855,7 +20855,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="39"/>
+      <c r="B290" s="41"/>
       <c r="C290" s="2" t="s">
         <v>376</v>
       </c>
@@ -20912,7 +20912,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="39"/>
+      <c r="B291" s="41"/>
       <c r="C291" s="2" t="s">
         <v>379</v>
       </c>
@@ -20969,7 +20969,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="39"/>
+      <c r="B292" s="41"/>
       <c r="C292" s="2" t="s">
         <v>383</v>
       </c>
@@ -21026,7 +21026,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="39"/>
+      <c r="B293" s="41"/>
       <c r="C293" s="2" t="s">
         <v>387</v>
       </c>
@@ -21083,7 +21083,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="38" t="s">
+      <c r="B294" s="42" t="s">
         <v>944</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -21142,7 +21142,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="38"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="1" t="s">
         <v>395</v>
       </c>
@@ -21199,7 +21199,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="38"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="1" t="s">
         <v>398</v>
       </c>
@@ -21256,7 +21256,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="38"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="1" t="s">
         <v>402</v>
       </c>
@@ -21313,7 +21313,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="38"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="1" t="s">
         <v>405</v>
       </c>
@@ -21370,7 +21370,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="38"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="1" t="s">
         <v>409</v>
       </c>
@@ -21427,7 +21427,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="38"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="1" t="s">
         <v>413</v>
       </c>
@@ -21484,7 +21484,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="39" t="s">
+      <c r="B301" s="41" t="s">
         <v>950</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21543,7 +21543,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="39"/>
+      <c r="B302" s="41"/>
       <c r="C302" s="2" t="s">
         <v>422</v>
       </c>
@@ -21600,7 +21600,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="39"/>
+      <c r="B303" s="41"/>
       <c r="C303" s="2" t="s">
         <v>426</v>
       </c>
@@ -21657,7 +21657,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="39"/>
+      <c r="B304" s="41"/>
       <c r="C304" s="2" t="s">
         <v>430</v>
       </c>
@@ -21714,7 +21714,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="39"/>
+      <c r="B305" s="41"/>
       <c r="C305" s="2" t="s">
         <v>434</v>
       </c>
@@ -21771,7 +21771,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="39"/>
+      <c r="B306" s="41"/>
       <c r="C306" s="2" t="s">
         <v>438</v>
       </c>
@@ -21828,7 +21828,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="38" t="s">
+      <c r="B307" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21887,7 +21887,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="38"/>
+      <c r="B308" s="42"/>
       <c r="C308" s="3" t="s">
         <v>447</v>
       </c>
@@ -21944,7 +21944,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="38"/>
+      <c r="B309" s="42"/>
       <c r="C309" s="3" t="s">
         <v>451</v>
       </c>
@@ -22001,7 +22001,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="38"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="3" t="s">
         <v>454</v>
       </c>
@@ -22058,7 +22058,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="38"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="3" t="s">
         <v>458</v>
       </c>
@@ -22115,7 +22115,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -22174,7 +22174,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="39"/>
+      <c r="B313" s="41"/>
       <c r="C313" s="4" t="s">
         <v>467</v>
       </c>
@@ -22231,7 +22231,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="39"/>
+      <c r="B314" s="41"/>
       <c r="C314" s="4" t="s">
         <v>471</v>
       </c>
@@ -22288,7 +22288,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="39"/>
+      <c r="B315" s="41"/>
       <c r="C315" s="4" t="s">
         <v>474</v>
       </c>
@@ -22345,7 +22345,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="39"/>
+      <c r="B316" s="41"/>
       <c r="C316" s="4" t="s">
         <v>477</v>
       </c>
@@ -22402,7 +22402,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="39"/>
+      <c r="B317" s="41"/>
       <c r="C317" s="4" t="s">
         <v>481</v>
       </c>
@@ -22459,7 +22459,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="39"/>
+      <c r="B318" s="41"/>
       <c r="C318" s="4" t="s">
         <v>485</v>
       </c>
@@ -22516,7 +22516,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="38" t="s">
+      <c r="B319" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22575,7 +22575,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="38"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="3" t="s">
         <v>495</v>
       </c>
@@ -22632,7 +22632,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="38"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="3" t="s">
         <v>499</v>
       </c>
@@ -22689,7 +22689,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="38"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="3" t="s">
         <v>503</v>
       </c>
@@ -22746,7 +22746,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="38"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="3" t="s">
         <v>507</v>
       </c>
@@ -22803,7 +22803,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="38"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="3" t="s">
         <v>511</v>
       </c>
@@ -22860,7 +22860,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="38"/>
+      <c r="B325" s="42"/>
       <c r="C325" s="3" t="s">
         <v>515</v>
       </c>
@@ -22917,7 +22917,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="39" t="s">
+      <c r="B326" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22976,7 +22976,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="39"/>
+      <c r="B327" s="41"/>
       <c r="C327" s="4" t="s">
         <v>523</v>
       </c>
@@ -23033,7 +23033,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="39"/>
+      <c r="B328" s="41"/>
       <c r="C328" s="4" t="s">
         <v>527</v>
       </c>
@@ -23090,7 +23090,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="39"/>
+      <c r="B329" s="41"/>
       <c r="C329" s="4" t="s">
         <v>531</v>
       </c>
@@ -23147,7 +23147,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="39"/>
+      <c r="B330" s="41"/>
       <c r="C330" s="4" t="s">
         <v>535</v>
       </c>
@@ -23204,7 +23204,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="38" t="s">
+      <c r="B331" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -23263,7 +23263,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="38"/>
+      <c r="B332" s="42"/>
       <c r="C332" s="3" t="s">
         <v>544</v>
       </c>
@@ -23320,7 +23320,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="38"/>
+      <c r="B333" s="42"/>
       <c r="C333" s="3" t="s">
         <v>548</v>
       </c>
@@ -23377,7 +23377,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="38"/>
+      <c r="B334" s="42"/>
       <c r="C334" s="3" t="s">
         <v>552</v>
       </c>
@@ -23434,7 +23434,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="38"/>
+      <c r="B335" s="42"/>
       <c r="C335" s="3" t="s">
         <v>556</v>
       </c>
@@ -23491,7 +23491,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="39" t="s">
+      <c r="B336" s="41" t="s">
         <v>982</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23550,7 +23550,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="39"/>
+      <c r="B337" s="41"/>
       <c r="C337" s="2" t="s">
         <v>564</v>
       </c>
@@ -23607,7 +23607,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="38" t="s">
+      <c r="B338" s="42" t="s">
         <v>567</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23666,7 +23666,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="38"/>
+      <c r="B339" s="42"/>
       <c r="C339" s="1" t="s">
         <v>572</v>
       </c>
@@ -24228,7 +24228,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="38" t="s">
+      <c r="B349" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24287,7 +24287,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="38"/>
+      <c r="B350" s="42"/>
       <c r="C350" s="1" t="s">
         <v>614</v>
       </c>
@@ -24344,7 +24344,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="38"/>
+      <c r="B351" s="42"/>
       <c r="C351" s="1" t="s">
         <v>618</v>
       </c>
@@ -24401,7 +24401,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="38"/>
+      <c r="B352" s="42"/>
       <c r="C352" s="1" t="s">
         <v>622</v>
       </c>
@@ -24458,7 +24458,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="38" t="s">
+      <c r="B353" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24517,7 +24517,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="38"/>
+      <c r="B354" s="42"/>
       <c r="C354" s="1" t="s">
         <v>630</v>
       </c>
@@ -24574,7 +24574,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="38"/>
+      <c r="B355" s="42"/>
       <c r="C355" s="1" t="s">
         <v>634</v>
       </c>
@@ -24631,7 +24631,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="38"/>
+      <c r="B356" s="42"/>
       <c r="C356" s="1" t="s">
         <v>638</v>
       </c>
@@ -28044,7 +28044,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="41" t="s">
+      <c r="B414" s="39" t="s">
         <v>1046</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -28100,7 +28100,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="41"/>
+      <c r="B415" s="39"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -28154,7 +28154,7 @@
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="41"/>
+      <c r="B416" s="39"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -28208,7 +28208,7 @@
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="41"/>
+      <c r="B417" s="39"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -28262,7 +28262,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="41"/>
+      <c r="B418" s="39"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -28593,7 +28593,7 @@
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="41" t="s">
+      <c r="B424" s="39" t="s">
         <v>1057</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28649,7 +28649,7 @@
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="41"/>
+      <c r="B425" s="39"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28703,7 +28703,7 @@
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="41"/>
+      <c r="B426" s="39"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28757,7 +28757,7 @@
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="41"/>
+      <c r="B427" s="39"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
@@ -28811,7 +28811,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="41"/>
+      <c r="B428" s="39"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -29087,7 +29087,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="41" t="s">
+      <c r="B433" s="39" t="s">
         <v>1065</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -29143,7 +29143,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="41"/>
+      <c r="B434" s="39"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -29197,7 +29197,7 @@
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="41"/>
+      <c r="B435" s="39"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -29251,7 +29251,7 @@
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="41"/>
+      <c r="B436" s="39"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
@@ -29305,7 +29305,7 @@
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="41"/>
+      <c r="B437" s="39"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -29636,7 +29636,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="41" t="s">
+      <c r="B443" s="39" t="s">
         <v>1075</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29692,7 +29692,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="41"/>
+      <c r="B444" s="39"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29746,7 +29746,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="41"/>
+      <c r="B445" s="39"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29800,7 +29800,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="41"/>
+      <c r="B446" s="39"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="39" t="s">
+      <c r="B452" s="41" t="s">
         <v>1085</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -30187,7 +30187,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="39"/>
+      <c r="B453" s="41"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -30241,7 +30241,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="39"/>
+      <c r="B454" s="41"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -30295,7 +30295,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="39"/>
+      <c r="B455" s="41"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -30349,7 +30349,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="39"/>
+      <c r="B456" s="41"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -30403,7 +30403,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="38" t="s">
+      <c r="B457" s="42" t="s">
         <v>1088</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30460,7 +30460,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="38"/>
+      <c r="B458" s="42"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30515,7 +30515,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="38"/>
+      <c r="B459" s="42"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30570,7 +30570,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="38"/>
+      <c r="B460" s="42"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30625,7 +30625,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="38"/>
+      <c r="B461" s="42"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30680,7 +30680,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="39" t="s">
+      <c r="B462" s="41" t="s">
         <v>1093</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30736,7 +30736,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="39"/>
+      <c r="B463" s="41"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30790,7 +30790,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="39"/>
+      <c r="B464" s="41"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30844,7 +30844,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="39"/>
+      <c r="B465" s="41"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30898,7 +30898,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="39"/>
+      <c r="B466" s="41"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30952,7 +30952,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="38" t="s">
+      <c r="B467" s="42" t="s">
         <v>1097</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -31009,7 +31009,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="38"/>
+      <c r="B468" s="42"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -31064,7 +31064,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="38"/>
+      <c r="B469" s="42"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -31119,7 +31119,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="38"/>
+      <c r="B470" s="42"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -31174,7 +31174,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="38"/>
+      <c r="B471" s="42"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -31229,7 +31229,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="39" t="s">
+      <c r="B472" s="41" t="s">
         <v>1103</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -31285,7 +31285,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="39"/>
+      <c r="B473" s="41"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -31339,7 +31339,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="39"/>
+      <c r="B474" s="41"/>
       <c r="C474" s="4" t="s">
         <v>1105</v>
       </c>
@@ -31393,7 +31393,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="39"/>
+      <c r="B475" s="41"/>
       <c r="C475" s="4" t="s">
         <v>918</v>
       </c>
@@ -31447,7 +31447,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="39"/>
+      <c r="B476" s="41"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31501,7 +31501,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="38" t="s">
+      <c r="B477" s="42" t="s">
         <v>1108</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31558,7 +31558,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="38"/>
+      <c r="B478" s="42"/>
       <c r="C478" s="3" t="s">
         <v>923</v>
       </c>
@@ -31613,7 +31613,7 @@
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="38"/>
+      <c r="B479" s="42"/>
       <c r="C479" s="3" t="s">
         <v>925</v>
       </c>
@@ -31668,7 +31668,7 @@
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="38"/>
+      <c r="B480" s="42"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31723,7 +31723,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="39" t="s">
+      <c r="B481" s="41" t="s">
         <v>1112</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31779,7 +31779,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="39"/>
+      <c r="B482" s="41"/>
       <c r="C482" s="4" t="s">
         <v>929</v>
       </c>
@@ -31833,7 +31833,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="39"/>
+      <c r="B483" s="41"/>
       <c r="C483" s="4" t="s">
         <v>930</v>
       </c>
@@ -31887,7 +31887,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="39"/>
+      <c r="B484" s="41"/>
       <c r="C484" s="4" t="s">
         <v>932</v>
       </c>
@@ -31941,7 +31941,7 @@
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="39"/>
+      <c r="B485" s="41"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -31995,7 +31995,7 @@
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="38" t="s">
+      <c r="B486" s="42" t="s">
         <v>1117</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -32052,7 +32052,7 @@
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="38"/>
+      <c r="B487" s="42"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -32107,7 +32107,7 @@
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="38"/>
+      <c r="B488" s="42"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -32162,7 +32162,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="38"/>
+      <c r="B489" s="42"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -32217,7 +32217,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="38"/>
+      <c r="B490" s="42"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -32272,7 +32272,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="39" t="s">
+      <c r="B491" s="41" t="s">
         <v>1121</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -32328,7 +32328,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="39"/>
+      <c r="B492" s="41"/>
       <c r="C492" s="2" t="s">
         <v>369</v>
       </c>
@@ -32382,7 +32382,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="39"/>
+      <c r="B493" s="41"/>
       <c r="C493" s="2" t="s">
         <v>372</v>
       </c>
@@ -32436,7 +32436,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="39"/>
+      <c r="B494" s="41"/>
       <c r="C494" s="2" t="s">
         <v>376</v>
       </c>
@@ -32490,7 +32490,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="39"/>
+      <c r="B495" s="41"/>
       <c r="C495" s="2" t="s">
         <v>379</v>
       </c>
@@ -32544,7 +32544,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="39"/>
+      <c r="B496" s="41"/>
       <c r="C496" s="2" t="s">
         <v>383</v>
       </c>
@@ -32598,7 +32598,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="39"/>
+      <c r="B497" s="41"/>
       <c r="C497" s="2" t="s">
         <v>387</v>
       </c>
@@ -32652,7 +32652,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="38" t="s">
+      <c r="B498" s="42" t="s">
         <v>1126</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32708,7 +32708,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="38"/>
+      <c r="B499" s="42"/>
       <c r="C499" s="1" t="s">
         <v>395</v>
       </c>
@@ -32762,7 +32762,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="38"/>
+      <c r="B500" s="42"/>
       <c r="C500" s="1" t="s">
         <v>398</v>
       </c>
@@ -32816,7 +32816,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="38"/>
+      <c r="B501" s="42"/>
       <c r="C501" s="1" t="s">
         <v>402</v>
       </c>
@@ -32870,7 +32870,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="38"/>
+      <c r="B502" s="42"/>
       <c r="C502" s="1" t="s">
         <v>405</v>
       </c>
@@ -32924,7 +32924,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="38"/>
+      <c r="B503" s="42"/>
       <c r="C503" s="1" t="s">
         <v>409</v>
       </c>
@@ -32978,7 +32978,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="38"/>
+      <c r="B504" s="42"/>
       <c r="C504" s="1" t="s">
         <v>413</v>
       </c>
@@ -33032,7 +33032,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="39" t="s">
+      <c r="B505" s="41" t="s">
         <v>1132</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -33088,7 +33088,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="39"/>
+      <c r="B506" s="41"/>
       <c r="C506" s="2" t="s">
         <v>422</v>
       </c>
@@ -33142,7 +33142,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="39"/>
+      <c r="B507" s="41"/>
       <c r="C507" s="2" t="s">
         <v>426</v>
       </c>
@@ -33196,7 +33196,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="39"/>
+      <c r="B508" s="41"/>
       <c r="C508" s="2" t="s">
         <v>430</v>
       </c>
@@ -33250,7 +33250,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="39"/>
+      <c r="B509" s="41"/>
       <c r="C509" s="2" t="s">
         <v>434</v>
       </c>
@@ -33304,7 +33304,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="39"/>
+      <c r="B510" s="41"/>
       <c r="C510" s="2" t="s">
         <v>438</v>
       </c>
@@ -33358,7 +33358,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="38" t="s">
+      <c r="B511" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -33414,7 +33414,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="38"/>
+      <c r="B512" s="42"/>
       <c r="C512" s="3" t="s">
         <v>447</v>
       </c>
@@ -33468,7 +33468,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="38"/>
+      <c r="B513" s="42"/>
       <c r="C513" s="3" t="s">
         <v>451</v>
       </c>
@@ -33522,7 +33522,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="38"/>
+      <c r="B514" s="42"/>
       <c r="C514" s="3" t="s">
         <v>454</v>
       </c>
@@ -33576,7 +33576,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="38"/>
+      <c r="B515" s="42"/>
       <c r="C515" s="3" t="s">
         <v>458</v>
       </c>
@@ -33630,7 +33630,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="39" t="s">
+      <c r="B516" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33686,7 +33686,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="39"/>
+      <c r="B517" s="41"/>
       <c r="C517" s="4" t="s">
         <v>467</v>
       </c>
@@ -33740,7 +33740,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="39"/>
+      <c r="B518" s="41"/>
       <c r="C518" s="4" t="s">
         <v>471</v>
       </c>
@@ -33794,7 +33794,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="39"/>
+      <c r="B519" s="41"/>
       <c r="C519" s="4" t="s">
         <v>474</v>
       </c>
@@ -33848,7 +33848,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="39"/>
+      <c r="B520" s="41"/>
       <c r="C520" s="4" t="s">
         <v>477</v>
       </c>
@@ -33902,7 +33902,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="39"/>
+      <c r="B521" s="41"/>
       <c r="C521" s="4" t="s">
         <v>481</v>
       </c>
@@ -33956,7 +33956,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="39"/>
+      <c r="B522" s="41"/>
       <c r="C522" s="4" t="s">
         <v>485</v>
       </c>
@@ -34010,7 +34010,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="38" t="s">
+      <c r="B523" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -34066,7 +34066,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="38"/>
+      <c r="B524" s="42"/>
       <c r="C524" s="3" t="s">
         <v>495</v>
       </c>
@@ -34120,7 +34120,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="38"/>
+      <c r="B525" s="42"/>
       <c r="C525" s="3" t="s">
         <v>499</v>
       </c>
@@ -34174,7 +34174,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="38"/>
+      <c r="B526" s="42"/>
       <c r="C526" s="3" t="s">
         <v>503</v>
       </c>
@@ -34228,7 +34228,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="38"/>
+      <c r="B527" s="42"/>
       <c r="C527" s="3" t="s">
         <v>507</v>
       </c>
@@ -34282,7 +34282,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="38"/>
+      <c r="B528" s="42"/>
       <c r="C528" s="3" t="s">
         <v>511</v>
       </c>
@@ -34336,7 +34336,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="38"/>
+      <c r="B529" s="42"/>
       <c r="C529" s="3" t="s">
         <v>515</v>
       </c>
@@ -34390,7 +34390,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="39" t="s">
+      <c r="B530" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34446,7 +34446,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="39"/>
+      <c r="B531" s="41"/>
       <c r="C531" s="4" t="s">
         <v>523</v>
       </c>
@@ -34500,7 +34500,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="39"/>
+      <c r="B532" s="41"/>
       <c r="C532" s="4" t="s">
         <v>527</v>
       </c>
@@ -34554,7 +34554,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="39"/>
+      <c r="B533" s="41"/>
       <c r="C533" s="4" t="s">
         <v>531</v>
       </c>
@@ -34608,7 +34608,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="39"/>
+      <c r="B534" s="41"/>
       <c r="C534" s="4" t="s">
         <v>535</v>
       </c>
@@ -34662,7 +34662,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="38" t="s">
+      <c r="B535" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34718,7 +34718,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="38"/>
+      <c r="B536" s="42"/>
       <c r="C536" s="3" t="s">
         <v>544</v>
       </c>
@@ -34772,7 +34772,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="38"/>
+      <c r="B537" s="42"/>
       <c r="C537" s="3" t="s">
         <v>548</v>
       </c>
@@ -34826,7 +34826,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="38"/>
+      <c r="B538" s="42"/>
       <c r="C538" s="3" t="s">
         <v>552</v>
       </c>
@@ -34880,7 +34880,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="38"/>
+      <c r="B539" s="42"/>
       <c r="C539" s="3" t="s">
         <v>556</v>
       </c>
@@ -34934,7 +34934,7 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="39" t="s">
+      <c r="B540" s="41" t="s">
         <v>1165</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -34990,7 +34990,7 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="39"/>
+      <c r="B541" s="41"/>
       <c r="C541" s="2" t="s">
         <v>564</v>
       </c>
@@ -35044,7 +35044,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="38" t="s">
+      <c r="B542" s="42" t="s">
         <v>567</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -35100,7 +35100,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="38"/>
+      <c r="B543" s="42"/>
       <c r="C543" s="1" t="s">
         <v>572</v>
       </c>
@@ -35154,7 +35154,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="38"/>
+      <c r="B544" s="42"/>
       <c r="C544" s="1" t="s">
         <v>576</v>
       </c>
@@ -35633,7 +35633,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="38" t="s">
+      <c r="B553" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35689,7 +35689,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="38"/>
+      <c r="B554" s="42"/>
       <c r="C554" s="1" t="s">
         <v>614</v>
       </c>
@@ -35743,7 +35743,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="38"/>
+      <c r="B555" s="42"/>
       <c r="C555" s="1" t="s">
         <v>618</v>
       </c>
@@ -35797,7 +35797,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="38"/>
+      <c r="B556" s="42"/>
       <c r="C556" s="1" t="s">
         <v>622</v>
       </c>
@@ -35851,7 +35851,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="38" t="s">
+      <c r="B557" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35907,7 +35907,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="38"/>
+      <c r="B558" s="42"/>
       <c r="C558" s="1" t="s">
         <v>630</v>
       </c>
@@ -35961,7 +35961,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="38"/>
+      <c r="B559" s="42"/>
       <c r="C559" s="1" t="s">
         <v>634</v>
       </c>
@@ -36015,7 +36015,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="38"/>
+      <c r="B560" s="42"/>
       <c r="C560" s="1" t="s">
         <v>638</v>
       </c>
@@ -39256,7 +39256,7 @@
       <c r="C618" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="D618" s="43" t="s">
+      <c r="D618" s="38" t="s">
         <v>1364</v>
       </c>
       <c r="E618" s="1" t="s">
@@ -46699,81 +46699,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46782,6 +46707,81 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0E715-44D9-4483-900A-D4F8D60C274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983E252-ECA7-473F-AF5D-34920E98712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1367">
   <si>
     <t>int</t>
   </si>
@@ -4121,6 +4121,14 @@
   </si>
   <si>
     <t>1CEC51124B7EB63E352184AD3F39B3A6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控狗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控小熊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4390,16 +4398,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4790,10 +4798,10 @@
   <dimension ref="A1:AE745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="N211" sqref="N211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5074,7 +5082,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5130,7 +5138,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5184,7 +5192,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5238,7 +5246,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5292,7 +5300,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5346,7 +5354,7 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5402,7 +5410,7 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
@@ -5456,7 +5464,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
@@ -5510,7 +5518,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
@@ -5564,7 +5572,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
@@ -5618,7 +5626,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="42" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5674,7 +5682,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5728,7 +5736,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5782,7 +5790,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5836,7 +5844,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -5890,7 +5898,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5946,7 +5954,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
@@ -6000,7 +6008,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="3" t="s">
         <v>126</v>
       </c>
@@ -6054,7 +6062,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
@@ -6108,7 +6116,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6164,7 +6172,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6218,7 +6226,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6272,7 +6280,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6326,7 +6334,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6436,7 +6444,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
@@ -6490,7 +6498,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="3" t="s">
         <v>163</v>
       </c>
@@ -6544,7 +6552,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -6598,7 +6606,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
@@ -6652,7 +6660,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="42" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6708,7 +6716,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6762,7 +6770,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6816,7 +6824,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -6870,7 +6878,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="41" t="s">
         <v>192</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -6926,7 +6934,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="3" t="s">
         <v>197</v>
       </c>
@@ -6980,7 +6988,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="3" t="s">
         <v>200</v>
       </c>
@@ -7034,7 +7042,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="40"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
@@ -7088,7 +7096,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="3" t="s">
         <v>208</v>
       </c>
@@ -7142,7 +7150,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="42" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7198,7 +7206,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7252,7 +7260,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7306,7 +7314,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7360,7 +7368,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7414,7 +7422,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7470,7 +7478,7 @@
       <c r="A50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="3" t="s">
         <v>235</v>
       </c>
@@ -7524,7 +7532,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="3" t="s">
         <v>238</v>
       </c>
@@ -7578,7 +7586,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
@@ -7632,7 +7640,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="3" t="s">
         <v>246</v>
       </c>
@@ -7686,7 +7694,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="42" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7742,7 +7750,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7796,7 +7804,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="39"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7850,7 +7858,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7904,7 +7912,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -7958,7 +7966,7 @@
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>269</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -8014,7 +8022,7 @@
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="3" t="s">
         <v>274</v>
       </c>
@@ -8068,7 +8076,7 @@
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="3" t="s">
         <v>278</v>
       </c>
@@ -8122,7 +8130,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="3" t="s">
         <v>282</v>
       </c>
@@ -8176,7 +8184,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="3" t="s">
         <v>286</v>
       </c>
@@ -8230,7 +8238,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="42" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8286,7 +8294,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8340,7 +8348,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8394,7 +8402,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="39"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8448,7 +8456,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="39"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8502,7 +8510,7 @@
       <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="41" t="s">
         <v>309</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -8558,7 +8566,7 @@
       <c r="A70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="3" t="s">
         <v>314</v>
       </c>
@@ -8612,7 +8620,7 @@
       <c r="A71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="40"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="3" t="s">
         <v>318</v>
       </c>
@@ -8666,7 +8674,7 @@
       <c r="A72" s="3">
         <v>67</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="3" t="s">
         <v>322</v>
       </c>
@@ -8720,7 +8728,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="42" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8776,7 +8784,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8830,7 +8838,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="39"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8884,7 +8892,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="39"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8938,7 +8946,7 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -8992,7 +9000,7 @@
       <c r="A78" s="3">
         <v>73</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="41" t="s">
         <v>345</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -9048,7 +9056,7 @@
       <c r="A79" s="3">
         <v>74</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="3" t="s">
         <v>350</v>
       </c>
@@ -9102,7 +9110,7 @@
       <c r="A80" s="3">
         <v>75</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="3" t="s">
         <v>353</v>
       </c>
@@ -9156,7 +9164,7 @@
       <c r="A81" s="3">
         <v>76</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="3" t="s">
         <v>356</v>
       </c>
@@ -9210,7 +9218,7 @@
       <c r="A82" s="3">
         <v>77</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="3" t="s">
         <v>360</v>
       </c>
@@ -9264,7 +9272,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="40" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9320,7 +9328,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="41"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="2" t="s">
         <v>369</v>
       </c>
@@ -9374,7 +9382,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="41"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="2" t="s">
         <v>372</v>
       </c>
@@ -9428,7 +9436,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="41"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="2" t="s">
         <v>376</v>
       </c>
@@ -9482,7 +9490,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="41"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="2" t="s">
         <v>379</v>
       </c>
@@ -9536,7 +9544,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="41"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="2" t="s">
         <v>383</v>
       </c>
@@ -9590,7 +9598,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="41"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="2" t="s">
         <v>387</v>
       </c>
@@ -9644,7 +9652,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="39" t="s">
         <v>390</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9700,7 +9708,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="42"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="1" t="s">
         <v>395</v>
       </c>
@@ -9754,7 +9762,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="1" t="s">
         <v>398</v>
       </c>
@@ -9808,7 +9816,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="42"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1" t="s">
         <v>402</v>
       </c>
@@ -9862,7 +9870,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="42"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="1" t="s">
         <v>405</v>
       </c>
@@ -9916,7 +9924,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="42"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="1" t="s">
         <v>409</v>
       </c>
@@ -9970,7 +9978,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="42"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="1" t="s">
         <v>413</v>
       </c>
@@ -10350,7 +10358,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="39" t="s">
         <v>442</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10406,7 +10414,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="42"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="3" t="s">
         <v>447</v>
       </c>
@@ -10460,7 +10468,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="42"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="3" t="s">
         <v>451</v>
       </c>
@@ -10514,7 +10522,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="42"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="3" t="s">
         <v>454</v>
       </c>
@@ -10568,7 +10576,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="42"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="3" t="s">
         <v>458</v>
       </c>
@@ -10622,7 +10630,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="40" t="s">
         <v>462</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10678,7 +10686,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="41"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="4" t="s">
         <v>467</v>
       </c>
@@ -10732,7 +10740,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="41"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="4" t="s">
         <v>471</v>
       </c>
@@ -10786,7 +10794,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="41"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="4" t="s">
         <v>474</v>
       </c>
@@ -10840,7 +10848,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="41"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="4" t="s">
         <v>477</v>
       </c>
@@ -10894,7 +10902,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="41"/>
+      <c r="B113" s="40"/>
       <c r="C113" s="4" t="s">
         <v>481</v>
       </c>
@@ -10948,7 +10956,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="41"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="4" t="s">
         <v>485</v>
       </c>
@@ -11002,7 +11010,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -11058,7 +11066,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="42"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="3" t="s">
         <v>495</v>
       </c>
@@ -11112,7 +11120,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="42"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="3" t="s">
         <v>499</v>
       </c>
@@ -11166,7 +11174,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="42"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="3" t="s">
         <v>503</v>
       </c>
@@ -11220,7 +11228,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="42"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="3" t="s">
         <v>507</v>
       </c>
@@ -11274,7 +11282,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="42"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="3" t="s">
         <v>511</v>
       </c>
@@ -11328,7 +11336,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="42"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="3" t="s">
         <v>515</v>
       </c>
@@ -11382,7 +11390,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="40" t="s">
         <v>518</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11438,7 +11446,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="41"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="4" t="s">
         <v>523</v>
       </c>
@@ -11492,7 +11500,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="41"/>
+      <c r="B124" s="40"/>
       <c r="C124" s="4" t="s">
         <v>527</v>
       </c>
@@ -11546,7 +11554,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="41"/>
+      <c r="B125" s="40"/>
       <c r="C125" s="4" t="s">
         <v>531</v>
       </c>
@@ -11600,7 +11608,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="41"/>
+      <c r="B126" s="40"/>
       <c r="C126" s="4" t="s">
         <v>535</v>
       </c>
@@ -11654,7 +11662,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="42" t="s">
+      <c r="B127" s="39" t="s">
         <v>539</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11710,7 +11718,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="42"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="3" t="s">
         <v>544</v>
       </c>
@@ -11764,7 +11772,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="42"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="3" t="s">
         <v>548</v>
       </c>
@@ -11818,7 +11826,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="42"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="3" t="s">
         <v>552</v>
       </c>
@@ -11872,7 +11880,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="42"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="3" t="s">
         <v>556</v>
       </c>
@@ -11926,7 +11934,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="41" t="s">
+      <c r="B132" s="40" t="s">
         <v>560</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11982,7 +11990,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="41"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="2" t="s">
         <v>564</v>
       </c>
@@ -12625,7 +12633,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="42" t="s">
+      <c r="B145" s="39" t="s">
         <v>609</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12681,7 +12689,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="42"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1" t="s">
         <v>614</v>
       </c>
@@ -12735,7 +12743,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="42"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1" t="s">
         <v>618</v>
       </c>
@@ -12789,7 +12797,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="42"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1" t="s">
         <v>622</v>
       </c>
@@ -12843,7 +12851,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="42" t="s">
+      <c r="B149" s="39" t="s">
         <v>626</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12899,7 +12907,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="42"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="1" t="s">
         <v>630</v>
       </c>
@@ -12953,7 +12961,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="42"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="1" t="s">
         <v>634</v>
       </c>
@@ -13007,7 +13015,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="42"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="1" t="s">
         <v>638</v>
       </c>
@@ -15920,7 +15928,7 @@
       </c>
       <c r="B203" s="23"/>
       <c r="C203" s="1" t="s">
-        <v>834</v>
+        <v>1365</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>835</v>
@@ -15974,7 +15982,7 @@
       </c>
       <c r="B204" s="23"/>
       <c r="C204" s="1" t="s">
-        <v>838</v>
+        <v>1366</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>839</v>
@@ -16261,7 +16269,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="39" t="s">
+      <c r="B210" s="42" t="s">
         <v>857</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16320,7 +16328,7 @@
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="39"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16377,7 +16385,7 @@
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="39"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16434,7 +16442,7 @@
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="39"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16491,7 +16499,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="39"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16548,7 +16556,7 @@
       <c r="A215" s="4">
         <v>506</v>
       </c>
-      <c r="B215" s="40" t="s">
+      <c r="B215" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -16607,7 +16615,7 @@
       <c r="A216" s="4">
         <v>507</v>
       </c>
-      <c r="B216" s="40"/>
+      <c r="B216" s="41"/>
       <c r="C216" s="3" t="s">
         <v>82</v>
       </c>
@@ -16664,7 +16672,7 @@
       <c r="A217" s="4">
         <v>508</v>
       </c>
-      <c r="B217" s="40"/>
+      <c r="B217" s="41"/>
       <c r="C217" s="3" t="s">
         <v>85</v>
       </c>
@@ -16721,7 +16729,7 @@
       <c r="A218" s="4">
         <v>509</v>
       </c>
-      <c r="B218" s="40"/>
+      <c r="B218" s="41"/>
       <c r="C218" s="3" t="s">
         <v>89</v>
       </c>
@@ -16778,7 +16786,7 @@
       <c r="A219" s="4">
         <v>510</v>
       </c>
-      <c r="B219" s="40"/>
+      <c r="B219" s="41"/>
       <c r="C219" s="3" t="s">
         <v>93</v>
       </c>
@@ -16835,7 +16843,7 @@
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="39" t="s">
+      <c r="B220" s="42" t="s">
         <v>867</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16894,7 +16902,7 @@
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="39"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16951,7 +16959,7 @@
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="39"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -17008,7 +17016,7 @@
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="39"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -17065,7 +17073,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="39"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -17122,7 +17130,7 @@
       <c r="A225" s="4">
         <v>516</v>
       </c>
-      <c r="B225" s="40" t="s">
+      <c r="B225" s="41" t="s">
         <v>872</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -17181,7 +17189,7 @@
       <c r="A226" s="4">
         <v>517</v>
       </c>
-      <c r="B226" s="40"/>
+      <c r="B226" s="41"/>
       <c r="C226" s="3" t="s">
         <v>123</v>
       </c>
@@ -17238,7 +17246,7 @@
       <c r="A227" s="4">
         <v>518</v>
       </c>
-      <c r="B227" s="40"/>
+      <c r="B227" s="41"/>
       <c r="C227" s="3" t="s">
         <v>126</v>
       </c>
@@ -17295,7 +17303,7 @@
       <c r="A228" s="4">
         <v>519</v>
       </c>
-      <c r="B228" s="40"/>
+      <c r="B228" s="41"/>
       <c r="C228" s="3" t="s">
         <v>130</v>
       </c>
@@ -17352,7 +17360,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="39" t="s">
+      <c r="B229" s="42" t="s">
         <v>876</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17411,7 +17419,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="39"/>
+      <c r="B230" s="42"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17468,7 +17476,7 @@
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="39"/>
+      <c r="B231" s="42"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17525,7 +17533,7 @@
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="39"/>
+      <c r="B232" s="42"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17582,7 +17590,7 @@
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="39"/>
+      <c r="B233" s="42"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17639,7 +17647,7 @@
       <c r="A234" s="4">
         <v>525</v>
       </c>
-      <c r="B234" s="40" t="s">
+      <c r="B234" s="41" t="s">
         <v>881</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -17698,7 +17706,7 @@
       <c r="A235" s="4">
         <v>526</v>
       </c>
-      <c r="B235" s="40"/>
+      <c r="B235" s="41"/>
       <c r="C235" s="3" t="s">
         <v>160</v>
       </c>
@@ -17755,7 +17763,7 @@
       <c r="A236" s="4">
         <v>527</v>
       </c>
-      <c r="B236" s="40"/>
+      <c r="B236" s="41"/>
       <c r="C236" s="3" t="s">
         <v>163</v>
       </c>
@@ -17812,7 +17820,7 @@
       <c r="A237" s="4">
         <v>528</v>
       </c>
-      <c r="B237" s="40"/>
+      <c r="B237" s="41"/>
       <c r="C237" s="3" t="s">
         <v>167</v>
       </c>
@@ -17869,7 +17877,7 @@
       <c r="A238" s="4">
         <v>529</v>
       </c>
-      <c r="B238" s="40"/>
+      <c r="B238" s="41"/>
       <c r="C238" s="3" t="s">
         <v>171</v>
       </c>
@@ -17926,7 +17934,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="39" t="s">
+      <c r="B239" s="42" t="s">
         <v>886</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17985,7 +17993,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="39"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -18042,7 +18050,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="39"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -18099,7 +18107,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="39"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -18156,7 +18164,7 @@
       <c r="A243" s="4">
         <v>534</v>
       </c>
-      <c r="B243" s="40" t="s">
+      <c r="B243" s="41" t="s">
         <v>891</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -18215,7 +18223,7 @@
       <c r="A244" s="4">
         <v>535</v>
       </c>
-      <c r="B244" s="40"/>
+      <c r="B244" s="41"/>
       <c r="C244" s="3" t="s">
         <v>197</v>
       </c>
@@ -18272,7 +18280,7 @@
       <c r="A245" s="4">
         <v>536</v>
       </c>
-      <c r="B245" s="40"/>
+      <c r="B245" s="41"/>
       <c r="C245" s="3" t="s">
         <v>200</v>
       </c>
@@ -18329,7 +18337,7 @@
       <c r="A246" s="4">
         <v>537</v>
       </c>
-      <c r="B246" s="40"/>
+      <c r="B246" s="41"/>
       <c r="C246" s="3" t="s">
         <v>204</v>
       </c>
@@ -18386,7 +18394,7 @@
       <c r="A247" s="4">
         <v>538</v>
       </c>
-      <c r="B247" s="40"/>
+      <c r="B247" s="41"/>
       <c r="C247" s="3" t="s">
         <v>208</v>
       </c>
@@ -18443,7 +18451,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="39" t="s">
+      <c r="B248" s="42" t="s">
         <v>896</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18502,7 +18510,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="39"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18559,7 +18567,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="39"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18616,7 +18624,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="39"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18673,7 +18681,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="39"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -18730,7 +18738,7 @@
       <c r="A253" s="4">
         <v>544</v>
       </c>
-      <c r="B253" s="40" t="s">
+      <c r="B253" s="41" t="s">
         <v>899</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -18789,7 +18797,7 @@
       <c r="A254" s="4">
         <v>545</v>
       </c>
-      <c r="B254" s="40"/>
+      <c r="B254" s="41"/>
       <c r="C254" s="3" t="s">
         <v>235</v>
       </c>
@@ -18846,7 +18854,7 @@
       <c r="A255" s="4">
         <v>546</v>
       </c>
-      <c r="B255" s="40"/>
+      <c r="B255" s="41"/>
       <c r="C255" s="3" t="s">
         <v>238</v>
       </c>
@@ -18903,7 +18911,7 @@
       <c r="A256" s="4">
         <v>547</v>
       </c>
-      <c r="B256" s="40"/>
+      <c r="B256" s="41"/>
       <c r="C256" s="3" t="s">
         <v>242</v>
       </c>
@@ -18960,7 +18968,7 @@
       <c r="A257" s="4">
         <v>548</v>
       </c>
-      <c r="B257" s="40"/>
+      <c r="B257" s="41"/>
       <c r="C257" s="3" t="s">
         <v>246</v>
       </c>
@@ -19017,7 +19025,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="39" t="s">
+      <c r="B258" s="42" t="s">
         <v>904</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -19076,7 +19084,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="39"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -19133,7 +19141,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="39"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -19190,7 +19198,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="39"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -19247,7 +19255,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="39"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19304,7 +19312,7 @@
       <c r="A263" s="4">
         <v>554</v>
       </c>
-      <c r="B263" s="40" t="s">
+      <c r="B263" s="41" t="s">
         <v>908</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -19363,7 +19371,7 @@
       <c r="A264" s="4">
         <v>555</v>
       </c>
-      <c r="B264" s="40"/>
+      <c r="B264" s="41"/>
       <c r="C264" s="3" t="s">
         <v>274</v>
       </c>
@@ -19420,7 +19428,7 @@
       <c r="A265" s="4">
         <v>556</v>
       </c>
-      <c r="B265" s="40"/>
+      <c r="B265" s="41"/>
       <c r="C265" s="3" t="s">
         <v>278</v>
       </c>
@@ -19477,7 +19485,7 @@
       <c r="A266" s="4">
         <v>557</v>
       </c>
-      <c r="B266" s="40"/>
+      <c r="B266" s="41"/>
       <c r="C266" s="3" t="s">
         <v>282</v>
       </c>
@@ -19534,7 +19542,7 @@
       <c r="A267" s="4">
         <v>558</v>
       </c>
-      <c r="B267" s="40"/>
+      <c r="B267" s="41"/>
       <c r="C267" s="3" t="s">
         <v>286</v>
       </c>
@@ -19591,7 +19599,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="39" t="s">
+      <c r="B268" s="42" t="s">
         <v>914</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19650,7 +19658,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="39"/>
+      <c r="B269" s="42"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19707,7 +19715,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="39"/>
+      <c r="B270" s="42"/>
       <c r="C270" s="4" t="s">
         <v>916</v>
       </c>
@@ -19764,7 +19772,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="39"/>
+      <c r="B271" s="42"/>
       <c r="C271" s="4" t="s">
         <v>918</v>
       </c>
@@ -19821,7 +19829,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="39"/>
+      <c r="B272" s="42"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -19878,7 +19886,7 @@
       <c r="A273" s="4">
         <v>564</v>
       </c>
-      <c r="B273" s="40" t="s">
+      <c r="B273" s="41" t="s">
         <v>920</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -19937,7 +19945,7 @@
       <c r="A274" s="4">
         <v>565</v>
       </c>
-      <c r="B274" s="40"/>
+      <c r="B274" s="41"/>
       <c r="C274" s="3" t="s">
         <v>923</v>
       </c>
@@ -19994,7 +20002,7 @@
       <c r="A275" s="4">
         <v>566</v>
       </c>
-      <c r="B275" s="40"/>
+      <c r="B275" s="41"/>
       <c r="C275" s="3" t="s">
         <v>925</v>
       </c>
@@ -20051,7 +20059,7 @@
       <c r="A276" s="4">
         <v>567</v>
       </c>
-      <c r="B276" s="40"/>
+      <c r="B276" s="41"/>
       <c r="C276" s="3" t="s">
         <v>322</v>
       </c>
@@ -20108,7 +20116,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="39" t="s">
+      <c r="B277" s="42" t="s">
         <v>927</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -20167,7 +20175,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="39"/>
+      <c r="B278" s="42"/>
       <c r="C278" s="4" t="s">
         <v>929</v>
       </c>
@@ -20224,7 +20232,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="39"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="4" t="s">
         <v>930</v>
       </c>
@@ -20281,7 +20289,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="39"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="4" t="s">
         <v>932</v>
       </c>
@@ -20338,7 +20346,7 @@
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="39"/>
+      <c r="B281" s="42"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20395,7 +20403,7 @@
       <c r="A282" s="4">
         <v>573</v>
       </c>
-      <c r="B282" s="40" t="s">
+      <c r="B282" s="41" t="s">
         <v>935</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -20454,7 +20462,7 @@
       <c r="A283" s="4">
         <v>574</v>
       </c>
-      <c r="B283" s="40"/>
+      <c r="B283" s="41"/>
       <c r="C283" s="3" t="s">
         <v>350</v>
       </c>
@@ -20511,7 +20519,7 @@
       <c r="A284" s="4">
         <v>575</v>
       </c>
-      <c r="B284" s="40"/>
+      <c r="B284" s="41"/>
       <c r="C284" s="3" t="s">
         <v>353</v>
       </c>
@@ -20568,7 +20576,7 @@
       <c r="A285" s="4">
         <v>576</v>
       </c>
-      <c r="B285" s="40"/>
+      <c r="B285" s="41"/>
       <c r="C285" s="3" t="s">
         <v>356</v>
       </c>
@@ -20625,7 +20633,7 @@
       <c r="A286" s="4">
         <v>577</v>
       </c>
-      <c r="B286" s="40"/>
+      <c r="B286" s="41"/>
       <c r="C286" s="3" t="s">
         <v>360</v>
       </c>
@@ -20682,7 +20690,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="41" t="s">
+      <c r="B287" s="40" t="s">
         <v>939</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20741,7 +20749,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="41"/>
+      <c r="B288" s="40"/>
       <c r="C288" s="2" t="s">
         <v>369</v>
       </c>
@@ -20798,7 +20806,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="41"/>
+      <c r="B289" s="40"/>
       <c r="C289" s="2" t="s">
         <v>372</v>
       </c>
@@ -20855,7 +20863,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="41"/>
+      <c r="B290" s="40"/>
       <c r="C290" s="2" t="s">
         <v>376</v>
       </c>
@@ -20912,7 +20920,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="41"/>
+      <c r="B291" s="40"/>
       <c r="C291" s="2" t="s">
         <v>379</v>
       </c>
@@ -20969,7 +20977,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="41"/>
+      <c r="B292" s="40"/>
       <c r="C292" s="2" t="s">
         <v>383</v>
       </c>
@@ -21026,7 +21034,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="41"/>
+      <c r="B293" s="40"/>
       <c r="C293" s="2" t="s">
         <v>387</v>
       </c>
@@ -21083,7 +21091,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="42" t="s">
+      <c r="B294" s="39" t="s">
         <v>944</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -21142,7 +21150,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="42"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="1" t="s">
         <v>395</v>
       </c>
@@ -21199,7 +21207,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="42"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="1" t="s">
         <v>398</v>
       </c>
@@ -21256,7 +21264,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="42"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="1" t="s">
         <v>402</v>
       </c>
@@ -21313,7 +21321,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="42"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="1" t="s">
         <v>405</v>
       </c>
@@ -21370,7 +21378,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="42"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="1" t="s">
         <v>409</v>
       </c>
@@ -21427,7 +21435,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="42"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="1" t="s">
         <v>413</v>
       </c>
@@ -21484,7 +21492,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="41" t="s">
+      <c r="B301" s="40" t="s">
         <v>950</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21543,7 +21551,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="41"/>
+      <c r="B302" s="40"/>
       <c r="C302" s="2" t="s">
         <v>422</v>
       </c>
@@ -21600,7 +21608,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="41"/>
+      <c r="B303" s="40"/>
       <c r="C303" s="2" t="s">
         <v>426</v>
       </c>
@@ -21657,7 +21665,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="41"/>
+      <c r="B304" s="40"/>
       <c r="C304" s="2" t="s">
         <v>430</v>
       </c>
@@ -21714,7 +21722,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="41"/>
+      <c r="B305" s="40"/>
       <c r="C305" s="2" t="s">
         <v>434</v>
       </c>
@@ -21771,7 +21779,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="41"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="2" t="s">
         <v>438</v>
       </c>
@@ -21828,7 +21836,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="42" t="s">
+      <c r="B307" s="39" t="s">
         <v>442</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21887,7 +21895,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="42"/>
+      <c r="B308" s="39"/>
       <c r="C308" s="3" t="s">
         <v>447</v>
       </c>
@@ -21944,7 +21952,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="42"/>
+      <c r="B309" s="39"/>
       <c r="C309" s="3" t="s">
         <v>451</v>
       </c>
@@ -22001,7 +22009,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="42"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="3" t="s">
         <v>454</v>
       </c>
@@ -22058,7 +22066,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="42"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="3" t="s">
         <v>458</v>
       </c>
@@ -22115,7 +22123,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="41" t="s">
+      <c r="B312" s="40" t="s">
         <v>462</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -22174,7 +22182,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="41"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="4" t="s">
         <v>467</v>
       </c>
@@ -22231,7 +22239,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="41"/>
+      <c r="B314" s="40"/>
       <c r="C314" s="4" t="s">
         <v>471</v>
       </c>
@@ -22288,7 +22296,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="41"/>
+      <c r="B315" s="40"/>
       <c r="C315" s="4" t="s">
         <v>474</v>
       </c>
@@ -22345,7 +22353,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="41"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="4" t="s">
         <v>477</v>
       </c>
@@ -22402,7 +22410,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="41"/>
+      <c r="B317" s="40"/>
       <c r="C317" s="4" t="s">
         <v>481</v>
       </c>
@@ -22459,7 +22467,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="41"/>
+      <c r="B318" s="40"/>
       <c r="C318" s="4" t="s">
         <v>485</v>
       </c>
@@ -22516,7 +22524,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="42" t="s">
+      <c r="B319" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22575,7 +22583,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="42"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="3" t="s">
         <v>495</v>
       </c>
@@ -22632,7 +22640,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="42"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="3" t="s">
         <v>499</v>
       </c>
@@ -22689,7 +22697,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="42"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="3" t="s">
         <v>503</v>
       </c>
@@ -22746,7 +22754,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="42"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="3" t="s">
         <v>507</v>
       </c>
@@ -22803,7 +22811,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="42"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="3" t="s">
         <v>511</v>
       </c>
@@ -22860,7 +22868,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="42"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="3" t="s">
         <v>515</v>
       </c>
@@ -22917,7 +22925,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="41" t="s">
+      <c r="B326" s="40" t="s">
         <v>518</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22976,7 +22984,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="41"/>
+      <c r="B327" s="40"/>
       <c r="C327" s="4" t="s">
         <v>523</v>
       </c>
@@ -23033,7 +23041,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="41"/>
+      <c r="B328" s="40"/>
       <c r="C328" s="4" t="s">
         <v>527</v>
       </c>
@@ -23090,7 +23098,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="41"/>
+      <c r="B329" s="40"/>
       <c r="C329" s="4" t="s">
         <v>531</v>
       </c>
@@ -23147,7 +23155,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="41"/>
+      <c r="B330" s="40"/>
       <c r="C330" s="4" t="s">
         <v>535</v>
       </c>
@@ -23204,7 +23212,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="42" t="s">
+      <c r="B331" s="39" t="s">
         <v>539</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -23263,7 +23271,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="42"/>
+      <c r="B332" s="39"/>
       <c r="C332" s="3" t="s">
         <v>544</v>
       </c>
@@ -23320,7 +23328,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="42"/>
+      <c r="B333" s="39"/>
       <c r="C333" s="3" t="s">
         <v>548</v>
       </c>
@@ -23377,7 +23385,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="42"/>
+      <c r="B334" s="39"/>
       <c r="C334" s="3" t="s">
         <v>552</v>
       </c>
@@ -23434,7 +23442,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="42"/>
+      <c r="B335" s="39"/>
       <c r="C335" s="3" t="s">
         <v>556</v>
       </c>
@@ -23491,7 +23499,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="41" t="s">
+      <c r="B336" s="40" t="s">
         <v>982</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23550,7 +23558,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="41"/>
+      <c r="B337" s="40"/>
       <c r="C337" s="2" t="s">
         <v>564</v>
       </c>
@@ -23607,7 +23615,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="42" t="s">
+      <c r="B338" s="39" t="s">
         <v>567</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23666,7 +23674,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="42"/>
+      <c r="B339" s="39"/>
       <c r="C339" s="1" t="s">
         <v>572</v>
       </c>
@@ -24228,7 +24236,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="42" t="s">
+      <c r="B349" s="39" t="s">
         <v>609</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24287,7 +24295,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="42"/>
+      <c r="B350" s="39"/>
       <c r="C350" s="1" t="s">
         <v>614</v>
       </c>
@@ -24344,7 +24352,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="42"/>
+      <c r="B351" s="39"/>
       <c r="C351" s="1" t="s">
         <v>618</v>
       </c>
@@ -24401,7 +24409,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="42"/>
+      <c r="B352" s="39"/>
       <c r="C352" s="1" t="s">
         <v>622</v>
       </c>
@@ -24458,7 +24466,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="42" t="s">
+      <c r="B353" s="39" t="s">
         <v>626</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24517,7 +24525,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="42"/>
+      <c r="B354" s="39"/>
       <c r="C354" s="1" t="s">
         <v>630</v>
       </c>
@@ -24574,7 +24582,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="42"/>
+      <c r="B355" s="39"/>
       <c r="C355" s="1" t="s">
         <v>634</v>
       </c>
@@ -24631,7 +24639,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="42"/>
+      <c r="B356" s="39"/>
       <c r="C356" s="1" t="s">
         <v>638</v>
       </c>
@@ -28044,7 +28052,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="39" t="s">
+      <c r="B414" s="42" t="s">
         <v>1046</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -28100,7 +28108,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="39"/>
+      <c r="B415" s="42"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -28154,7 +28162,7 @@
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="39"/>
+      <c r="B416" s="42"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -28208,7 +28216,7 @@
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="39"/>
+      <c r="B417" s="42"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -28262,7 +28270,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="39"/>
+      <c r="B418" s="42"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -28316,7 +28324,7 @@
       <c r="A419" s="4">
         <v>1006</v>
       </c>
-      <c r="B419" s="40" t="s">
+      <c r="B419" s="41" t="s">
         <v>1051</v>
       </c>
       <c r="C419" s="3" t="s">
@@ -28373,7 +28381,7 @@
       <c r="A420" s="4">
         <v>1007</v>
       </c>
-      <c r="B420" s="40"/>
+      <c r="B420" s="41"/>
       <c r="C420" s="3" t="s">
         <v>82</v>
       </c>
@@ -28428,7 +28436,7 @@
       <c r="A421" s="4">
         <v>1008</v>
       </c>
-      <c r="B421" s="40"/>
+      <c r="B421" s="41"/>
       <c r="C421" s="3" t="s">
         <v>85</v>
       </c>
@@ -28483,7 +28491,7 @@
       <c r="A422" s="4">
         <v>1009</v>
       </c>
-      <c r="B422" s="40"/>
+      <c r="B422" s="41"/>
       <c r="C422" s="3" t="s">
         <v>89</v>
       </c>
@@ -28538,7 +28546,7 @@
       <c r="A423" s="4">
         <v>1010</v>
       </c>
-      <c r="B423" s="40"/>
+      <c r="B423" s="41"/>
       <c r="C423" s="3" t="s">
         <v>93</v>
       </c>
@@ -28593,7 +28601,7 @@
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="39" t="s">
+      <c r="B424" s="42" t="s">
         <v>1057</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28649,7 +28657,7 @@
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="39"/>
+      <c r="B425" s="42"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28703,7 +28711,7 @@
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="39"/>
+      <c r="B426" s="42"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28757,7 +28765,7 @@
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="39"/>
+      <c r="B427" s="42"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
@@ -28811,7 +28819,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="39"/>
+      <c r="B428" s="42"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -28865,7 +28873,7 @@
       <c r="A429" s="4">
         <v>1016</v>
       </c>
-      <c r="B429" s="40" t="s">
+      <c r="B429" s="41" t="s">
         <v>1062</v>
       </c>
       <c r="C429" s="3" t="s">
@@ -28922,7 +28930,7 @@
       <c r="A430" s="4">
         <v>1017</v>
       </c>
-      <c r="B430" s="40"/>
+      <c r="B430" s="41"/>
       <c r="C430" s="3" t="s">
         <v>123</v>
       </c>
@@ -28977,7 +28985,7 @@
       <c r="A431" s="4">
         <v>1018</v>
       </c>
-      <c r="B431" s="40"/>
+      <c r="B431" s="41"/>
       <c r="C431" s="3" t="s">
         <v>126</v>
       </c>
@@ -29032,7 +29040,7 @@
       <c r="A432" s="4">
         <v>1019</v>
       </c>
-      <c r="B432" s="40"/>
+      <c r="B432" s="41"/>
       <c r="C432" s="3" t="s">
         <v>130</v>
       </c>
@@ -29087,7 +29095,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="39" t="s">
+      <c r="B433" s="42" t="s">
         <v>1065</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -29143,7 +29151,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="39"/>
+      <c r="B434" s="42"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -29197,7 +29205,7 @@
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="39"/>
+      <c r="B435" s="42"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -29251,7 +29259,7 @@
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="39"/>
+      <c r="B436" s="42"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
@@ -29305,7 +29313,7 @@
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="39"/>
+      <c r="B437" s="42"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -29359,7 +29367,7 @@
       <c r="A438" s="4">
         <v>1025</v>
       </c>
-      <c r="B438" s="40" t="s">
+      <c r="B438" s="41" t="s">
         <v>1070</v>
       </c>
       <c r="C438" s="3" t="s">
@@ -29416,7 +29424,7 @@
       <c r="A439" s="4">
         <v>1026</v>
       </c>
-      <c r="B439" s="40"/>
+      <c r="B439" s="41"/>
       <c r="C439" s="3" t="s">
         <v>160</v>
       </c>
@@ -29471,7 +29479,7 @@
       <c r="A440" s="4">
         <v>1027</v>
       </c>
-      <c r="B440" s="40"/>
+      <c r="B440" s="41"/>
       <c r="C440" s="3" t="s">
         <v>163</v>
       </c>
@@ -29526,7 +29534,7 @@
       <c r="A441" s="4">
         <v>1028</v>
       </c>
-      <c r="B441" s="40"/>
+      <c r="B441" s="41"/>
       <c r="C441" s="3" t="s">
         <v>167</v>
       </c>
@@ -29581,7 +29589,7 @@
       <c r="A442" s="4">
         <v>1029</v>
       </c>
-      <c r="B442" s="40"/>
+      <c r="B442" s="41"/>
       <c r="C442" s="3" t="s">
         <v>171</v>
       </c>
@@ -29636,7 +29644,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="39" t="s">
+      <c r="B443" s="42" t="s">
         <v>1075</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29692,7 +29700,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="39"/>
+      <c r="B444" s="42"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29746,7 +29754,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="39"/>
+      <c r="B445" s="42"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29800,7 +29808,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="39"/>
+      <c r="B446" s="42"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -29854,7 +29862,7 @@
       <c r="A447" s="4">
         <v>1034</v>
       </c>
-      <c r="B447" s="40" t="s">
+      <c r="B447" s="41" t="s">
         <v>1080</v>
       </c>
       <c r="C447" s="3" t="s">
@@ -29911,7 +29919,7 @@
       <c r="A448" s="4">
         <v>1035</v>
       </c>
-      <c r="B448" s="40"/>
+      <c r="B448" s="41"/>
       <c r="C448" s="3" t="s">
         <v>197</v>
       </c>
@@ -29966,7 +29974,7 @@
       <c r="A449" s="4">
         <v>1036</v>
       </c>
-      <c r="B449" s="40"/>
+      <c r="B449" s="41"/>
       <c r="C449" s="3" t="s">
         <v>200</v>
       </c>
@@ -30021,7 +30029,7 @@
       <c r="A450" s="4">
         <v>1037</v>
       </c>
-      <c r="B450" s="40"/>
+      <c r="B450" s="41"/>
       <c r="C450" s="3" t="s">
         <v>204</v>
       </c>
@@ -30076,7 +30084,7 @@
       <c r="A451" s="4">
         <v>1038</v>
       </c>
-      <c r="B451" s="40"/>
+      <c r="B451" s="41"/>
       <c r="C451" s="3" t="s">
         <v>208</v>
       </c>
@@ -30131,7 +30139,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="41" t="s">
+      <c r="B452" s="40" t="s">
         <v>1085</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -30187,7 +30195,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="41"/>
+      <c r="B453" s="40"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -30241,7 +30249,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="41"/>
+      <c r="B454" s="40"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -30295,7 +30303,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="41"/>
+      <c r="B455" s="40"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -30349,7 +30357,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="41"/>
+      <c r="B456" s="40"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -30403,7 +30411,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="42" t="s">
+      <c r="B457" s="39" t="s">
         <v>1088</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30460,7 +30468,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="42"/>
+      <c r="B458" s="39"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30515,7 +30523,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="42"/>
+      <c r="B459" s="39"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30570,7 +30578,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="42"/>
+      <c r="B460" s="39"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30625,7 +30633,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="42"/>
+      <c r="B461" s="39"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30680,7 +30688,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="41" t="s">
+      <c r="B462" s="40" t="s">
         <v>1093</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30736,7 +30744,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="41"/>
+      <c r="B463" s="40"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30790,7 +30798,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="41"/>
+      <c r="B464" s="40"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30844,7 +30852,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="41"/>
+      <c r="B465" s="40"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30898,7 +30906,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="41"/>
+      <c r="B466" s="40"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30952,7 +30960,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="42" t="s">
+      <c r="B467" s="39" t="s">
         <v>1097</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -31009,7 +31017,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="42"/>
+      <c r="B468" s="39"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -31064,7 +31072,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="42"/>
+      <c r="B469" s="39"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -31119,7 +31127,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="42"/>
+      <c r="B470" s="39"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -31174,7 +31182,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="42"/>
+      <c r="B471" s="39"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -31229,7 +31237,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="41" t="s">
+      <c r="B472" s="40" t="s">
         <v>1103</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -31285,7 +31293,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="41"/>
+      <c r="B473" s="40"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -31339,7 +31347,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="41"/>
+      <c r="B474" s="40"/>
       <c r="C474" s="4" t="s">
         <v>1105</v>
       </c>
@@ -31393,7 +31401,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="41"/>
+      <c r="B475" s="40"/>
       <c r="C475" s="4" t="s">
         <v>918</v>
       </c>
@@ -31447,7 +31455,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="41"/>
+      <c r="B476" s="40"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31501,7 +31509,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="42" t="s">
+      <c r="B477" s="39" t="s">
         <v>1108</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31558,7 +31566,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="42"/>
+      <c r="B478" s="39"/>
       <c r="C478" s="3" t="s">
         <v>923</v>
       </c>
@@ -31613,7 +31621,7 @@
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="42"/>
+      <c r="B479" s="39"/>
       <c r="C479" s="3" t="s">
         <v>925</v>
       </c>
@@ -31668,7 +31676,7 @@
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="42"/>
+      <c r="B480" s="39"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31723,7 +31731,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="41" t="s">
+      <c r="B481" s="40" t="s">
         <v>1112</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31779,7 +31787,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="41"/>
+      <c r="B482" s="40"/>
       <c r="C482" s="4" t="s">
         <v>929</v>
       </c>
@@ -31833,7 +31841,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="41"/>
+      <c r="B483" s="40"/>
       <c r="C483" s="4" t="s">
         <v>930</v>
       </c>
@@ -31887,7 +31895,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="41"/>
+      <c r="B484" s="40"/>
       <c r="C484" s="4" t="s">
         <v>932</v>
       </c>
@@ -31941,7 +31949,7 @@
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="41"/>
+      <c r="B485" s="40"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -31995,7 +32003,7 @@
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="42" t="s">
+      <c r="B486" s="39" t="s">
         <v>1117</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -32052,7 +32060,7 @@
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="42"/>
+      <c r="B487" s="39"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -32107,7 +32115,7 @@
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="42"/>
+      <c r="B488" s="39"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -32162,7 +32170,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="42"/>
+      <c r="B489" s="39"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -32217,7 +32225,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="42"/>
+      <c r="B490" s="39"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -32272,7 +32280,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="41" t="s">
+      <c r="B491" s="40" t="s">
         <v>1121</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -32328,7 +32336,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="41"/>
+      <c r="B492" s="40"/>
       <c r="C492" s="2" t="s">
         <v>369</v>
       </c>
@@ -32382,7 +32390,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="41"/>
+      <c r="B493" s="40"/>
       <c r="C493" s="2" t="s">
         <v>372</v>
       </c>
@@ -32436,7 +32444,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="41"/>
+      <c r="B494" s="40"/>
       <c r="C494" s="2" t="s">
         <v>376</v>
       </c>
@@ -32490,7 +32498,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="41"/>
+      <c r="B495" s="40"/>
       <c r="C495" s="2" t="s">
         <v>379</v>
       </c>
@@ -32544,7 +32552,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="41"/>
+      <c r="B496" s="40"/>
       <c r="C496" s="2" t="s">
         <v>383</v>
       </c>
@@ -32598,7 +32606,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="41"/>
+      <c r="B497" s="40"/>
       <c r="C497" s="2" t="s">
         <v>387</v>
       </c>
@@ -32652,7 +32660,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="42" t="s">
+      <c r="B498" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32708,7 +32716,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="42"/>
+      <c r="B499" s="39"/>
       <c r="C499" s="1" t="s">
         <v>395</v>
       </c>
@@ -32762,7 +32770,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="42"/>
+      <c r="B500" s="39"/>
       <c r="C500" s="1" t="s">
         <v>398</v>
       </c>
@@ -32816,7 +32824,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="42"/>
+      <c r="B501" s="39"/>
       <c r="C501" s="1" t="s">
         <v>402</v>
       </c>
@@ -32870,7 +32878,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="42"/>
+      <c r="B502" s="39"/>
       <c r="C502" s="1" t="s">
         <v>405</v>
       </c>
@@ -32924,7 +32932,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="42"/>
+      <c r="B503" s="39"/>
       <c r="C503" s="1" t="s">
         <v>409</v>
       </c>
@@ -32978,7 +32986,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="42"/>
+      <c r="B504" s="39"/>
       <c r="C504" s="1" t="s">
         <v>413</v>
       </c>
@@ -33032,7 +33040,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="41" t="s">
+      <c r="B505" s="40" t="s">
         <v>1132</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -33088,7 +33096,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="41"/>
+      <c r="B506" s="40"/>
       <c r="C506" s="2" t="s">
         <v>422</v>
       </c>
@@ -33142,7 +33150,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="41"/>
+      <c r="B507" s="40"/>
       <c r="C507" s="2" t="s">
         <v>426</v>
       </c>
@@ -33196,7 +33204,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="41"/>
+      <c r="B508" s="40"/>
       <c r="C508" s="2" t="s">
         <v>430</v>
       </c>
@@ -33250,7 +33258,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="41"/>
+      <c r="B509" s="40"/>
       <c r="C509" s="2" t="s">
         <v>434</v>
       </c>
@@ -33304,7 +33312,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="41"/>
+      <c r="B510" s="40"/>
       <c r="C510" s="2" t="s">
         <v>438</v>
       </c>
@@ -33358,7 +33366,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="42" t="s">
+      <c r="B511" s="39" t="s">
         <v>442</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -33414,7 +33422,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="42"/>
+      <c r="B512" s="39"/>
       <c r="C512" s="3" t="s">
         <v>447</v>
       </c>
@@ -33468,7 +33476,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="42"/>
+      <c r="B513" s="39"/>
       <c r="C513" s="3" t="s">
         <v>451</v>
       </c>
@@ -33522,7 +33530,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="42"/>
+      <c r="B514" s="39"/>
       <c r="C514" s="3" t="s">
         <v>454</v>
       </c>
@@ -33576,7 +33584,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="42"/>
+      <c r="B515" s="39"/>
       <c r="C515" s="3" t="s">
         <v>458</v>
       </c>
@@ -33630,7 +33638,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="41" t="s">
+      <c r="B516" s="40" t="s">
         <v>462</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33686,7 +33694,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="41"/>
+      <c r="B517" s="40"/>
       <c r="C517" s="4" t="s">
         <v>467</v>
       </c>
@@ -33740,7 +33748,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="41"/>
+      <c r="B518" s="40"/>
       <c r="C518" s="4" t="s">
         <v>471</v>
       </c>
@@ -33794,7 +33802,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="41"/>
+      <c r="B519" s="40"/>
       <c r="C519" s="4" t="s">
         <v>474</v>
       </c>
@@ -33848,7 +33856,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="41"/>
+      <c r="B520" s="40"/>
       <c r="C520" s="4" t="s">
         <v>477</v>
       </c>
@@ -33902,7 +33910,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="41"/>
+      <c r="B521" s="40"/>
       <c r="C521" s="4" t="s">
         <v>481</v>
       </c>
@@ -33956,7 +33964,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="41"/>
+      <c r="B522" s="40"/>
       <c r="C522" s="4" t="s">
         <v>485</v>
       </c>
@@ -34010,7 +34018,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="42" t="s">
+      <c r="B523" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -34066,7 +34074,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="42"/>
+      <c r="B524" s="39"/>
       <c r="C524" s="3" t="s">
         <v>495</v>
       </c>
@@ -34120,7 +34128,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="42"/>
+      <c r="B525" s="39"/>
       <c r="C525" s="3" t="s">
         <v>499</v>
       </c>
@@ -34174,7 +34182,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="42"/>
+      <c r="B526" s="39"/>
       <c r="C526" s="3" t="s">
         <v>503</v>
       </c>
@@ -34228,7 +34236,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="42"/>
+      <c r="B527" s="39"/>
       <c r="C527" s="3" t="s">
         <v>507</v>
       </c>
@@ -34282,7 +34290,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="42"/>
+      <c r="B528" s="39"/>
       <c r="C528" s="3" t="s">
         <v>511</v>
       </c>
@@ -34336,7 +34344,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="42"/>
+      <c r="B529" s="39"/>
       <c r="C529" s="3" t="s">
         <v>515</v>
       </c>
@@ -34390,7 +34398,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="41" t="s">
+      <c r="B530" s="40" t="s">
         <v>518</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34446,7 +34454,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="41"/>
+      <c r="B531" s="40"/>
       <c r="C531" s="4" t="s">
         <v>523</v>
       </c>
@@ -34500,7 +34508,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="41"/>
+      <c r="B532" s="40"/>
       <c r="C532" s="4" t="s">
         <v>527</v>
       </c>
@@ -34554,7 +34562,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="41"/>
+      <c r="B533" s="40"/>
       <c r="C533" s="4" t="s">
         <v>531</v>
       </c>
@@ -34608,7 +34616,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="41"/>
+      <c r="B534" s="40"/>
       <c r="C534" s="4" t="s">
         <v>535</v>
       </c>
@@ -34662,7 +34670,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="42" t="s">
+      <c r="B535" s="39" t="s">
         <v>539</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34718,7 +34726,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="42"/>
+      <c r="B536" s="39"/>
       <c r="C536" s="3" t="s">
         <v>544</v>
       </c>
@@ -34772,7 +34780,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="42"/>
+      <c r="B537" s="39"/>
       <c r="C537" s="3" t="s">
         <v>548</v>
       </c>
@@ -34826,7 +34834,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="42"/>
+      <c r="B538" s="39"/>
       <c r="C538" s="3" t="s">
         <v>552</v>
       </c>
@@ -34880,7 +34888,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="42"/>
+      <c r="B539" s="39"/>
       <c r="C539" s="3" t="s">
         <v>556</v>
       </c>
@@ -34934,7 +34942,7 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="41" t="s">
+      <c r="B540" s="40" t="s">
         <v>1165</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -34990,7 +34998,7 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="41"/>
+      <c r="B541" s="40"/>
       <c r="C541" s="2" t="s">
         <v>564</v>
       </c>
@@ -35044,7 +35052,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="42" t="s">
+      <c r="B542" s="39" t="s">
         <v>567</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -35100,7 +35108,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="42"/>
+      <c r="B543" s="39"/>
       <c r="C543" s="1" t="s">
         <v>572</v>
       </c>
@@ -35154,7 +35162,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="42"/>
+      <c r="B544" s="39"/>
       <c r="C544" s="1" t="s">
         <v>576</v>
       </c>
@@ -35633,7 +35641,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="42" t="s">
+      <c r="B553" s="39" t="s">
         <v>609</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35689,7 +35697,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="42"/>
+      <c r="B554" s="39"/>
       <c r="C554" s="1" t="s">
         <v>614</v>
       </c>
@@ -35743,7 +35751,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="42"/>
+      <c r="B555" s="39"/>
       <c r="C555" s="1" t="s">
         <v>618</v>
       </c>
@@ -35797,7 +35805,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="42"/>
+      <c r="B556" s="39"/>
       <c r="C556" s="1" t="s">
         <v>622</v>
       </c>
@@ -35851,7 +35859,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="42" t="s">
+      <c r="B557" s="39" t="s">
         <v>626</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35907,7 +35915,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="42"/>
+      <c r="B558" s="39"/>
       <c r="C558" s="1" t="s">
         <v>630</v>
       </c>
@@ -35961,7 +35969,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="42"/>
+      <c r="B559" s="39"/>
       <c r="C559" s="1" t="s">
         <v>634</v>
       </c>
@@ -36015,7 +36023,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="42"/>
+      <c r="B560" s="39"/>
       <c r="C560" s="1" t="s">
         <v>638</v>
       </c>
@@ -46699,6 +46707,81 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46707,81 +46790,6 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983E252-ECA7-473F-AF5D-34920E98712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA80AB48-9155-4FCF-88C2-9594C9DFBFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4398,16 +4398,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4798,10 +4798,10 @@
   <dimension ref="A1:AE745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B657" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N211" sqref="N211"/>
+      <selection pane="bottomRight" activeCell="L680" sqref="L680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5082,7 +5082,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5138,7 +5138,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5410,7 +5410,7 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
@@ -5626,7 +5626,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5682,7 +5682,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5954,7 +5954,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="3" t="s">
         <v>126</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6172,7 +6172,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6444,7 +6444,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="3" t="s">
         <v>163</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6716,7 +6716,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>192</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -6934,7 +6934,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="41"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="3" t="s">
         <v>197</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="3" t="s">
         <v>200</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="3" t="s">
         <v>208</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="39" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7206,7 +7206,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="42"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7478,7 +7478,7 @@
       <c r="A50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="3" t="s">
         <v>235</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="3" t="s">
         <v>238</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="3" t="s">
         <v>246</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="39" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7750,7 +7750,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="40" t="s">
         <v>269</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -8022,7 +8022,7 @@
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="41"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="3" t="s">
         <v>274</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="41"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="3" t="s">
         <v>278</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="41"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="3" t="s">
         <v>282</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="41"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="3" t="s">
         <v>286</v>
       </c>
@@ -8238,7 +8238,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="39" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8294,7 +8294,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="42"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="42"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="40" t="s">
         <v>309</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -8566,7 +8566,7 @@
       <c r="A70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="41"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="3" t="s">
         <v>314</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="A71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="41"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="3" t="s">
         <v>318</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="A72" s="3">
         <v>67</v>
       </c>
-      <c r="B72" s="41"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="3" t="s">
         <v>322</v>
       </c>
@@ -8728,7 +8728,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="39" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8784,7 +8784,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="42"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="42"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="A78" s="3">
         <v>73</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="40" t="s">
         <v>345</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -9056,7 +9056,7 @@
       <c r="A79" s="3">
         <v>74</v>
       </c>
-      <c r="B79" s="41"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="3" t="s">
         <v>350</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="A80" s="3">
         <v>75</v>
       </c>
-      <c r="B80" s="41"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="3" t="s">
         <v>353</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="A81" s="3">
         <v>76</v>
       </c>
-      <c r="B81" s="41"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="3" t="s">
         <v>356</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="A82" s="3">
         <v>77</v>
       </c>
-      <c r="B82" s="41"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="3" t="s">
         <v>360</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="41" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9328,7 +9328,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="2" t="s">
         <v>369</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="2" t="s">
         <v>372</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="2" t="s">
         <v>376</v>
       </c>
@@ -9490,7 +9490,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="2" t="s">
         <v>379</v>
       </c>
@@ -9544,7 +9544,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="2" t="s">
         <v>383</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="40"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="2" t="s">
         <v>387</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="42" t="s">
         <v>390</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9708,7 +9708,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="39"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="1" t="s">
         <v>395</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="1" t="s">
         <v>398</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="1" t="s">
         <v>402</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="39"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="1" t="s">
         <v>405</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="39"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="1" t="s">
         <v>409</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="39"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="1" t="s">
         <v>413</v>
       </c>
@@ -10358,7 +10358,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10414,7 +10414,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="39"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="3" t="s">
         <v>447</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="39"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="3" t="s">
         <v>451</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="39"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="3" t="s">
         <v>454</v>
       </c>
@@ -10576,7 +10576,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="39"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="3" t="s">
         <v>458</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10686,7 +10686,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="40"/>
+      <c r="B109" s="41"/>
       <c r="C109" s="4" t="s">
         <v>467</v>
       </c>
@@ -10740,7 +10740,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="40"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="4" t="s">
         <v>471</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="40"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="4" t="s">
         <v>474</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="40"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="4" t="s">
         <v>477</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="40"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="4" t="s">
         <v>481</v>
       </c>
@@ -10956,7 +10956,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="40"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="4" t="s">
         <v>485</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -11066,7 +11066,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="39"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="3" t="s">
         <v>495</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="3" t="s">
         <v>499</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="39"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="3" t="s">
         <v>503</v>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="39"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="3" t="s">
         <v>507</v>
       </c>
@@ -11282,7 +11282,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="39"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="3" t="s">
         <v>511</v>
       </c>
@@ -11336,7 +11336,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="39"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="3" t="s">
         <v>515</v>
       </c>
@@ -11390,7 +11390,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11446,7 +11446,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="40"/>
+      <c r="B123" s="41"/>
       <c r="C123" s="4" t="s">
         <v>523</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="40"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="4" t="s">
         <v>527</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="40"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="4" t="s">
         <v>531</v>
       </c>
@@ -11608,7 +11608,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="40"/>
+      <c r="B126" s="41"/>
       <c r="C126" s="4" t="s">
         <v>535</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11718,7 +11718,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="39"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="3" t="s">
         <v>544</v>
       </c>
@@ -11772,7 +11772,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="39"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="3" t="s">
         <v>548</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="39"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="3" t="s">
         <v>552</v>
       </c>
@@ -11880,7 +11880,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="39"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="3" t="s">
         <v>556</v>
       </c>
@@ -11934,7 +11934,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="41" t="s">
         <v>560</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11990,7 +11990,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="40"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="2" t="s">
         <v>564</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12689,7 +12689,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="39"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="1" t="s">
         <v>614</v>
       </c>
@@ -12743,7 +12743,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="39"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="1" t="s">
         <v>618</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="39"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="1" t="s">
         <v>622</v>
       </c>
@@ -12851,7 +12851,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12907,7 +12907,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="39"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="1" t="s">
         <v>630</v>
       </c>
@@ -12961,7 +12961,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="39"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="1" t="s">
         <v>634</v>
       </c>
@@ -13015,7 +13015,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="39"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="1" t="s">
         <v>638</v>
       </c>
@@ -16269,7 +16269,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="42" t="s">
+      <c r="B210" s="39" t="s">
         <v>857</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16328,7 +16328,7 @@
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="42"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16385,7 +16385,7 @@
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="42"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16442,7 +16442,7 @@
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="42"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16499,7 +16499,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="42"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16556,7 +16556,7 @@
       <c r="A215" s="4">
         <v>506</v>
       </c>
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="40" t="s">
         <v>862</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -16615,7 +16615,7 @@
       <c r="A216" s="4">
         <v>507</v>
       </c>
-      <c r="B216" s="41"/>
+      <c r="B216" s="40"/>
       <c r="C216" s="3" t="s">
         <v>82</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="A217" s="4">
         <v>508</v>
       </c>
-      <c r="B217" s="41"/>
+      <c r="B217" s="40"/>
       <c r="C217" s="3" t="s">
         <v>85</v>
       </c>
@@ -16729,7 +16729,7 @@
       <c r="A218" s="4">
         <v>509</v>
       </c>
-      <c r="B218" s="41"/>
+      <c r="B218" s="40"/>
       <c r="C218" s="3" t="s">
         <v>89</v>
       </c>
@@ -16786,7 +16786,7 @@
       <c r="A219" s="4">
         <v>510</v>
       </c>
-      <c r="B219" s="41"/>
+      <c r="B219" s="40"/>
       <c r="C219" s="3" t="s">
         <v>93</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="42" t="s">
+      <c r="B220" s="39" t="s">
         <v>867</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16902,7 +16902,7 @@
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="42"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16959,7 +16959,7 @@
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="42"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -17016,7 +17016,7 @@
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="42"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -17073,7 +17073,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="42"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -17130,7 +17130,7 @@
       <c r="A225" s="4">
         <v>516</v>
       </c>
-      <c r="B225" s="41" t="s">
+      <c r="B225" s="40" t="s">
         <v>872</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -17189,7 +17189,7 @@
       <c r="A226" s="4">
         <v>517</v>
       </c>
-      <c r="B226" s="41"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="3" t="s">
         <v>123</v>
       </c>
@@ -17246,7 +17246,7 @@
       <c r="A227" s="4">
         <v>518</v>
       </c>
-      <c r="B227" s="41"/>
+      <c r="B227" s="40"/>
       <c r="C227" s="3" t="s">
         <v>126</v>
       </c>
@@ -17303,7 +17303,7 @@
       <c r="A228" s="4">
         <v>519</v>
       </c>
-      <c r="B228" s="41"/>
+      <c r="B228" s="40"/>
       <c r="C228" s="3" t="s">
         <v>130</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="42" t="s">
+      <c r="B229" s="39" t="s">
         <v>876</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17419,7 +17419,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="42"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17476,7 +17476,7 @@
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="42"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17533,7 +17533,7 @@
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="42"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17590,7 +17590,7 @@
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="42"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="A234" s="4">
         <v>525</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="40" t="s">
         <v>881</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -17706,7 +17706,7 @@
       <c r="A235" s="4">
         <v>526</v>
       </c>
-      <c r="B235" s="41"/>
+      <c r="B235" s="40"/>
       <c r="C235" s="3" t="s">
         <v>160</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="A236" s="4">
         <v>527</v>
       </c>
-      <c r="B236" s="41"/>
+      <c r="B236" s="40"/>
       <c r="C236" s="3" t="s">
         <v>163</v>
       </c>
@@ -17820,7 +17820,7 @@
       <c r="A237" s="4">
         <v>528</v>
       </c>
-      <c r="B237" s="41"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="3" t="s">
         <v>167</v>
       </c>
@@ -17877,7 +17877,7 @@
       <c r="A238" s="4">
         <v>529</v>
       </c>
-      <c r="B238" s="41"/>
+      <c r="B238" s="40"/>
       <c r="C238" s="3" t="s">
         <v>171</v>
       </c>
@@ -17934,7 +17934,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="42" t="s">
+      <c r="B239" s="39" t="s">
         <v>886</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17993,7 +17993,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="42"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="42"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -18107,7 +18107,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="42"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -18164,7 +18164,7 @@
       <c r="A243" s="4">
         <v>534</v>
       </c>
-      <c r="B243" s="41" t="s">
+      <c r="B243" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -18223,7 +18223,7 @@
       <c r="A244" s="4">
         <v>535</v>
       </c>
-      <c r="B244" s="41"/>
+      <c r="B244" s="40"/>
       <c r="C244" s="3" t="s">
         <v>197</v>
       </c>
@@ -18280,7 +18280,7 @@
       <c r="A245" s="4">
         <v>536</v>
       </c>
-      <c r="B245" s="41"/>
+      <c r="B245" s="40"/>
       <c r="C245" s="3" t="s">
         <v>200</v>
       </c>
@@ -18337,7 +18337,7 @@
       <c r="A246" s="4">
         <v>537</v>
       </c>
-      <c r="B246" s="41"/>
+      <c r="B246" s="40"/>
       <c r="C246" s="3" t="s">
         <v>204</v>
       </c>
@@ -18394,7 +18394,7 @@
       <c r="A247" s="4">
         <v>538</v>
       </c>
-      <c r="B247" s="41"/>
+      <c r="B247" s="40"/>
       <c r="C247" s="3" t="s">
         <v>208</v>
       </c>
@@ -18451,7 +18451,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="42" t="s">
+      <c r="B248" s="39" t="s">
         <v>896</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18510,7 +18510,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="42"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18567,7 +18567,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="42"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18624,7 +18624,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="42"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18681,7 +18681,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="42"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -18738,7 +18738,7 @@
       <c r="A253" s="4">
         <v>544</v>
       </c>
-      <c r="B253" s="41" t="s">
+      <c r="B253" s="40" t="s">
         <v>899</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -18797,7 +18797,7 @@
       <c r="A254" s="4">
         <v>545</v>
       </c>
-      <c r="B254" s="41"/>
+      <c r="B254" s="40"/>
       <c r="C254" s="3" t="s">
         <v>235</v>
       </c>
@@ -18854,7 +18854,7 @@
       <c r="A255" s="4">
         <v>546</v>
       </c>
-      <c r="B255" s="41"/>
+      <c r="B255" s="40"/>
       <c r="C255" s="3" t="s">
         <v>238</v>
       </c>
@@ -18911,7 +18911,7 @@
       <c r="A256" s="4">
         <v>547</v>
       </c>
-      <c r="B256" s="41"/>
+      <c r="B256" s="40"/>
       <c r="C256" s="3" t="s">
         <v>242</v>
       </c>
@@ -18968,7 +18968,7 @@
       <c r="A257" s="4">
         <v>548</v>
       </c>
-      <c r="B257" s="41"/>
+      <c r="B257" s="40"/>
       <c r="C257" s="3" t="s">
         <v>246</v>
       </c>
@@ -19025,7 +19025,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="42" t="s">
+      <c r="B258" s="39" t="s">
         <v>904</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -19084,7 +19084,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="42"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -19141,7 +19141,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="42"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="42"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -19255,7 +19255,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="42"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19312,7 +19312,7 @@
       <c r="A263" s="4">
         <v>554</v>
       </c>
-      <c r="B263" s="41" t="s">
+      <c r="B263" s="40" t="s">
         <v>908</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -19371,7 +19371,7 @@
       <c r="A264" s="4">
         <v>555</v>
       </c>
-      <c r="B264" s="41"/>
+      <c r="B264" s="40"/>
       <c r="C264" s="3" t="s">
         <v>274</v>
       </c>
@@ -19428,7 +19428,7 @@
       <c r="A265" s="4">
         <v>556</v>
       </c>
-      <c r="B265" s="41"/>
+      <c r="B265" s="40"/>
       <c r="C265" s="3" t="s">
         <v>278</v>
       </c>
@@ -19485,7 +19485,7 @@
       <c r="A266" s="4">
         <v>557</v>
       </c>
-      <c r="B266" s="41"/>
+      <c r="B266" s="40"/>
       <c r="C266" s="3" t="s">
         <v>282</v>
       </c>
@@ -19542,7 +19542,7 @@
       <c r="A267" s="4">
         <v>558</v>
       </c>
-      <c r="B267" s="41"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="3" t="s">
         <v>286</v>
       </c>
@@ -19599,7 +19599,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="42" t="s">
+      <c r="B268" s="39" t="s">
         <v>914</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19658,7 +19658,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="42"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19715,7 +19715,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="42"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="4" t="s">
         <v>916</v>
       </c>
@@ -19772,7 +19772,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="42"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="4" t="s">
         <v>918</v>
       </c>
@@ -19829,7 +19829,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="42"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -19886,7 +19886,7 @@
       <c r="A273" s="4">
         <v>564</v>
       </c>
-      <c r="B273" s="41" t="s">
+      <c r="B273" s="40" t="s">
         <v>920</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -19945,7 +19945,7 @@
       <c r="A274" s="4">
         <v>565</v>
       </c>
-      <c r="B274" s="41"/>
+      <c r="B274" s="40"/>
       <c r="C274" s="3" t="s">
         <v>923</v>
       </c>
@@ -20002,7 +20002,7 @@
       <c r="A275" s="4">
         <v>566</v>
       </c>
-      <c r="B275" s="41"/>
+      <c r="B275" s="40"/>
       <c r="C275" s="3" t="s">
         <v>925</v>
       </c>
@@ -20059,7 +20059,7 @@
       <c r="A276" s="4">
         <v>567</v>
       </c>
-      <c r="B276" s="41"/>
+      <c r="B276" s="40"/>
       <c r="C276" s="3" t="s">
         <v>322</v>
       </c>
@@ -20116,7 +20116,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="42" t="s">
+      <c r="B277" s="39" t="s">
         <v>927</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -20175,7 +20175,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="42"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="4" t="s">
         <v>929</v>
       </c>
@@ -20232,7 +20232,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="42"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="4" t="s">
         <v>930</v>
       </c>
@@ -20289,7 +20289,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="42"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="4" t="s">
         <v>932</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="42"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20403,7 +20403,7 @@
       <c r="A282" s="4">
         <v>573</v>
       </c>
-      <c r="B282" s="41" t="s">
+      <c r="B282" s="40" t="s">
         <v>935</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -20462,7 +20462,7 @@
       <c r="A283" s="4">
         <v>574</v>
       </c>
-      <c r="B283" s="41"/>
+      <c r="B283" s="40"/>
       <c r="C283" s="3" t="s">
         <v>350</v>
       </c>
@@ -20519,7 +20519,7 @@
       <c r="A284" s="4">
         <v>575</v>
       </c>
-      <c r="B284" s="41"/>
+      <c r="B284" s="40"/>
       <c r="C284" s="3" t="s">
         <v>353</v>
       </c>
@@ -20576,7 +20576,7 @@
       <c r="A285" s="4">
         <v>576</v>
       </c>
-      <c r="B285" s="41"/>
+      <c r="B285" s="40"/>
       <c r="C285" s="3" t="s">
         <v>356</v>
       </c>
@@ -20633,7 +20633,7 @@
       <c r="A286" s="4">
         <v>577</v>
       </c>
-      <c r="B286" s="41"/>
+      <c r="B286" s="40"/>
       <c r="C286" s="3" t="s">
         <v>360</v>
       </c>
@@ -20690,7 +20690,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="40" t="s">
+      <c r="B287" s="41" t="s">
         <v>939</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20749,7 +20749,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="40"/>
+      <c r="B288" s="41"/>
       <c r="C288" s="2" t="s">
         <v>369</v>
       </c>
@@ -20806,7 +20806,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="40"/>
+      <c r="B289" s="41"/>
       <c r="C289" s="2" t="s">
         <v>372</v>
       </c>
@@ -20863,7 +20863,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="40"/>
+      <c r="B290" s="41"/>
       <c r="C290" s="2" t="s">
         <v>376</v>
       </c>
@@ -20920,7 +20920,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="40"/>
+      <c r="B291" s="41"/>
       <c r="C291" s="2" t="s">
         <v>379</v>
       </c>
@@ -20977,7 +20977,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="40"/>
+      <c r="B292" s="41"/>
       <c r="C292" s="2" t="s">
         <v>383</v>
       </c>
@@ -21034,7 +21034,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="40"/>
+      <c r="B293" s="41"/>
       <c r="C293" s="2" t="s">
         <v>387</v>
       </c>
@@ -21091,7 +21091,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="39" t="s">
+      <c r="B294" s="42" t="s">
         <v>944</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -21150,7 +21150,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="39"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="1" t="s">
         <v>395</v>
       </c>
@@ -21207,7 +21207,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="39"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="1" t="s">
         <v>398</v>
       </c>
@@ -21264,7 +21264,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="39"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="1" t="s">
         <v>402</v>
       </c>
@@ -21321,7 +21321,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="39"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="1" t="s">
         <v>405</v>
       </c>
@@ -21378,7 +21378,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="39"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="1" t="s">
         <v>409</v>
       </c>
@@ -21435,7 +21435,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="39"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="1" t="s">
         <v>413</v>
       </c>
@@ -21492,7 +21492,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="40" t="s">
+      <c r="B301" s="41" t="s">
         <v>950</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21551,7 +21551,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="40"/>
+      <c r="B302" s="41"/>
       <c r="C302" s="2" t="s">
         <v>422</v>
       </c>
@@ -21608,7 +21608,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="40"/>
+      <c r="B303" s="41"/>
       <c r="C303" s="2" t="s">
         <v>426</v>
       </c>
@@ -21665,7 +21665,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="40"/>
+      <c r="B304" s="41"/>
       <c r="C304" s="2" t="s">
         <v>430</v>
       </c>
@@ -21722,7 +21722,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="40"/>
+      <c r="B305" s="41"/>
       <c r="C305" s="2" t="s">
         <v>434</v>
       </c>
@@ -21779,7 +21779,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="40"/>
+      <c r="B306" s="41"/>
       <c r="C306" s="2" t="s">
         <v>438</v>
       </c>
@@ -21836,7 +21836,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="39" t="s">
+      <c r="B307" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21895,7 +21895,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="39"/>
+      <c r="B308" s="42"/>
       <c r="C308" s="3" t="s">
         <v>447</v>
       </c>
@@ -21952,7 +21952,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="39"/>
+      <c r="B309" s="42"/>
       <c r="C309" s="3" t="s">
         <v>451</v>
       </c>
@@ -22009,7 +22009,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="39"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="3" t="s">
         <v>454</v>
       </c>
@@ -22066,7 +22066,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="39"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="3" t="s">
         <v>458</v>
       </c>
@@ -22123,7 +22123,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="40" t="s">
+      <c r="B312" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -22182,7 +22182,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="40"/>
+      <c r="B313" s="41"/>
       <c r="C313" s="4" t="s">
         <v>467</v>
       </c>
@@ -22239,7 +22239,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="40"/>
+      <c r="B314" s="41"/>
       <c r="C314" s="4" t="s">
         <v>471</v>
       </c>
@@ -22296,7 +22296,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="40"/>
+      <c r="B315" s="41"/>
       <c r="C315" s="4" t="s">
         <v>474</v>
       </c>
@@ -22353,7 +22353,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="40"/>
+      <c r="B316" s="41"/>
       <c r="C316" s="4" t="s">
         <v>477</v>
       </c>
@@ -22410,7 +22410,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="40"/>
+      <c r="B317" s="41"/>
       <c r="C317" s="4" t="s">
         <v>481</v>
       </c>
@@ -22467,7 +22467,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="40"/>
+      <c r="B318" s="41"/>
       <c r="C318" s="4" t="s">
         <v>485</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="39" t="s">
+      <c r="B319" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22583,7 +22583,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="39"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="3" t="s">
         <v>495</v>
       </c>
@@ -22640,7 +22640,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="39"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="3" t="s">
         <v>499</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="39"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="3" t="s">
         <v>503</v>
       </c>
@@ -22754,7 +22754,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="39"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="3" t="s">
         <v>507</v>
       </c>
@@ -22811,7 +22811,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="39"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="3" t="s">
         <v>511</v>
       </c>
@@ -22868,7 +22868,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="39"/>
+      <c r="B325" s="42"/>
       <c r="C325" s="3" t="s">
         <v>515</v>
       </c>
@@ -22925,7 +22925,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="40" t="s">
+      <c r="B326" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22984,7 +22984,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="40"/>
+      <c r="B327" s="41"/>
       <c r="C327" s="4" t="s">
         <v>523</v>
       </c>
@@ -23041,7 +23041,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="40"/>
+      <c r="B328" s="41"/>
       <c r="C328" s="4" t="s">
         <v>527</v>
       </c>
@@ -23098,7 +23098,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="40"/>
+      <c r="B329" s="41"/>
       <c r="C329" s="4" t="s">
         <v>531</v>
       </c>
@@ -23155,7 +23155,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="40"/>
+      <c r="B330" s="41"/>
       <c r="C330" s="4" t="s">
         <v>535</v>
       </c>
@@ -23212,7 +23212,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="39" t="s">
+      <c r="B331" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -23271,7 +23271,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="39"/>
+      <c r="B332" s="42"/>
       <c r="C332" s="3" t="s">
         <v>544</v>
       </c>
@@ -23328,7 +23328,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="39"/>
+      <c r="B333" s="42"/>
       <c r="C333" s="3" t="s">
         <v>548</v>
       </c>
@@ -23385,7 +23385,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="39"/>
+      <c r="B334" s="42"/>
       <c r="C334" s="3" t="s">
         <v>552</v>
       </c>
@@ -23442,7 +23442,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="39"/>
+      <c r="B335" s="42"/>
       <c r="C335" s="3" t="s">
         <v>556</v>
       </c>
@@ -23499,7 +23499,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="40" t="s">
+      <c r="B336" s="41" t="s">
         <v>982</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23558,7 +23558,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="40"/>
+      <c r="B337" s="41"/>
       <c r="C337" s="2" t="s">
         <v>564</v>
       </c>
@@ -23615,7 +23615,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="39" t="s">
+      <c r="B338" s="42" t="s">
         <v>567</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23674,7 +23674,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="39"/>
+      <c r="B339" s="42"/>
       <c r="C339" s="1" t="s">
         <v>572</v>
       </c>
@@ -24236,7 +24236,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="39" t="s">
+      <c r="B349" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24295,7 +24295,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="39"/>
+      <c r="B350" s="42"/>
       <c r="C350" s="1" t="s">
         <v>614</v>
       </c>
@@ -24352,7 +24352,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="39"/>
+      <c r="B351" s="42"/>
       <c r="C351" s="1" t="s">
         <v>618</v>
       </c>
@@ -24409,7 +24409,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="39"/>
+      <c r="B352" s="42"/>
       <c r="C352" s="1" t="s">
         <v>622</v>
       </c>
@@ -24466,7 +24466,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="39" t="s">
+      <c r="B353" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24525,7 +24525,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="39"/>
+      <c r="B354" s="42"/>
       <c r="C354" s="1" t="s">
         <v>630</v>
       </c>
@@ -24582,7 +24582,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="39"/>
+      <c r="B355" s="42"/>
       <c r="C355" s="1" t="s">
         <v>634</v>
       </c>
@@ -24639,7 +24639,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="39"/>
+      <c r="B356" s="42"/>
       <c r="C356" s="1" t="s">
         <v>638</v>
       </c>
@@ -28052,7 +28052,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="42" t="s">
+      <c r="B414" s="39" t="s">
         <v>1046</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -28108,7 +28108,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="42"/>
+      <c r="B415" s="39"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -28162,7 +28162,7 @@
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="42"/>
+      <c r="B416" s="39"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -28216,7 +28216,7 @@
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="42"/>
+      <c r="B417" s="39"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -28270,7 +28270,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="42"/>
+      <c r="B418" s="39"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -28324,7 +28324,7 @@
       <c r="A419" s="4">
         <v>1006</v>
       </c>
-      <c r="B419" s="41" t="s">
+      <c r="B419" s="40" t="s">
         <v>1051</v>
       </c>
       <c r="C419" s="3" t="s">
@@ -28381,7 +28381,7 @@
       <c r="A420" s="4">
         <v>1007</v>
       </c>
-      <c r="B420" s="41"/>
+      <c r="B420" s="40"/>
       <c r="C420" s="3" t="s">
         <v>82</v>
       </c>
@@ -28436,7 +28436,7 @@
       <c r="A421" s="4">
         <v>1008</v>
       </c>
-      <c r="B421" s="41"/>
+      <c r="B421" s="40"/>
       <c r="C421" s="3" t="s">
         <v>85</v>
       </c>
@@ -28491,7 +28491,7 @@
       <c r="A422" s="4">
         <v>1009</v>
       </c>
-      <c r="B422" s="41"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="3" t="s">
         <v>89</v>
       </c>
@@ -28546,7 +28546,7 @@
       <c r="A423" s="4">
         <v>1010</v>
       </c>
-      <c r="B423" s="41"/>
+      <c r="B423" s="40"/>
       <c r="C423" s="3" t="s">
         <v>93</v>
       </c>
@@ -28601,7 +28601,7 @@
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="42" t="s">
+      <c r="B424" s="39" t="s">
         <v>1057</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28657,7 +28657,7 @@
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="42"/>
+      <c r="B425" s="39"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28711,7 +28711,7 @@
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="42"/>
+      <c r="B426" s="39"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28765,7 +28765,7 @@
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="42"/>
+      <c r="B427" s="39"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
@@ -28819,7 +28819,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="42"/>
+      <c r="B428" s="39"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -28873,7 +28873,7 @@
       <c r="A429" s="4">
         <v>1016</v>
       </c>
-      <c r="B429" s="41" t="s">
+      <c r="B429" s="40" t="s">
         <v>1062</v>
       </c>
       <c r="C429" s="3" t="s">
@@ -28930,7 +28930,7 @@
       <c r="A430" s="4">
         <v>1017</v>
       </c>
-      <c r="B430" s="41"/>
+      <c r="B430" s="40"/>
       <c r="C430" s="3" t="s">
         <v>123</v>
       </c>
@@ -28985,7 +28985,7 @@
       <c r="A431" s="4">
         <v>1018</v>
       </c>
-      <c r="B431" s="41"/>
+      <c r="B431" s="40"/>
       <c r="C431" s="3" t="s">
         <v>126</v>
       </c>
@@ -29040,7 +29040,7 @@
       <c r="A432" s="4">
         <v>1019</v>
       </c>
-      <c r="B432" s="41"/>
+      <c r="B432" s="40"/>
       <c r="C432" s="3" t="s">
         <v>130</v>
       </c>
@@ -29095,7 +29095,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="42" t="s">
+      <c r="B433" s="39" t="s">
         <v>1065</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -29151,7 +29151,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="42"/>
+      <c r="B434" s="39"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -29205,7 +29205,7 @@
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="42"/>
+      <c r="B435" s="39"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -29259,7 +29259,7 @@
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="42"/>
+      <c r="B436" s="39"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
@@ -29313,7 +29313,7 @@
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="42"/>
+      <c r="B437" s="39"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -29367,7 +29367,7 @@
       <c r="A438" s="4">
         <v>1025</v>
       </c>
-      <c r="B438" s="41" t="s">
+      <c r="B438" s="40" t="s">
         <v>1070</v>
       </c>
       <c r="C438" s="3" t="s">
@@ -29424,7 +29424,7 @@
       <c r="A439" s="4">
         <v>1026</v>
       </c>
-      <c r="B439" s="41"/>
+      <c r="B439" s="40"/>
       <c r="C439" s="3" t="s">
         <v>160</v>
       </c>
@@ -29479,7 +29479,7 @@
       <c r="A440" s="4">
         <v>1027</v>
       </c>
-      <c r="B440" s="41"/>
+      <c r="B440" s="40"/>
       <c r="C440" s="3" t="s">
         <v>163</v>
       </c>
@@ -29534,7 +29534,7 @@
       <c r="A441" s="4">
         <v>1028</v>
       </c>
-      <c r="B441" s="41"/>
+      <c r="B441" s="40"/>
       <c r="C441" s="3" t="s">
         <v>167</v>
       </c>
@@ -29589,7 +29589,7 @@
       <c r="A442" s="4">
         <v>1029</v>
       </c>
-      <c r="B442" s="41"/>
+      <c r="B442" s="40"/>
       <c r="C442" s="3" t="s">
         <v>171</v>
       </c>
@@ -29644,7 +29644,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="42" t="s">
+      <c r="B443" s="39" t="s">
         <v>1075</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29700,7 +29700,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="42"/>
+      <c r="B444" s="39"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29754,7 +29754,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="42"/>
+      <c r="B445" s="39"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29808,7 +29808,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="42"/>
+      <c r="B446" s="39"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -29862,7 +29862,7 @@
       <c r="A447" s="4">
         <v>1034</v>
       </c>
-      <c r="B447" s="41" t="s">
+      <c r="B447" s="40" t="s">
         <v>1080</v>
       </c>
       <c r="C447" s="3" t="s">
@@ -29919,7 +29919,7 @@
       <c r="A448" s="4">
         <v>1035</v>
       </c>
-      <c r="B448" s="41"/>
+      <c r="B448" s="40"/>
       <c r="C448" s="3" t="s">
         <v>197</v>
       </c>
@@ -29974,7 +29974,7 @@
       <c r="A449" s="4">
         <v>1036</v>
       </c>
-      <c r="B449" s="41"/>
+      <c r="B449" s="40"/>
       <c r="C449" s="3" t="s">
         <v>200</v>
       </c>
@@ -30029,7 +30029,7 @@
       <c r="A450" s="4">
         <v>1037</v>
       </c>
-      <c r="B450" s="41"/>
+      <c r="B450" s="40"/>
       <c r="C450" s="3" t="s">
         <v>204</v>
       </c>
@@ -30084,7 +30084,7 @@
       <c r="A451" s="4">
         <v>1038</v>
       </c>
-      <c r="B451" s="41"/>
+      <c r="B451" s="40"/>
       <c r="C451" s="3" t="s">
         <v>208</v>
       </c>
@@ -30139,7 +30139,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="40" t="s">
+      <c r="B452" s="41" t="s">
         <v>1085</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -30195,7 +30195,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="40"/>
+      <c r="B453" s="41"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -30249,7 +30249,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="40"/>
+      <c r="B454" s="41"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -30303,7 +30303,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="40"/>
+      <c r="B455" s="41"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -30357,7 +30357,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="40"/>
+      <c r="B456" s="41"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -30411,7 +30411,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="39" t="s">
+      <c r="B457" s="42" t="s">
         <v>1088</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30468,7 +30468,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="39"/>
+      <c r="B458" s="42"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30523,7 +30523,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="39"/>
+      <c r="B459" s="42"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30578,7 +30578,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="39"/>
+      <c r="B460" s="42"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30633,7 +30633,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="39"/>
+      <c r="B461" s="42"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30688,7 +30688,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="40" t="s">
+      <c r="B462" s="41" t="s">
         <v>1093</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30744,7 +30744,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="40"/>
+      <c r="B463" s="41"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30798,7 +30798,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="40"/>
+      <c r="B464" s="41"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30852,7 +30852,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="40"/>
+      <c r="B465" s="41"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30906,7 +30906,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="40"/>
+      <c r="B466" s="41"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30960,7 +30960,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="39" t="s">
+      <c r="B467" s="42" t="s">
         <v>1097</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -31017,7 +31017,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="39"/>
+      <c r="B468" s="42"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -31072,7 +31072,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="39"/>
+      <c r="B469" s="42"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -31127,7 +31127,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="39"/>
+      <c r="B470" s="42"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -31182,7 +31182,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="39"/>
+      <c r="B471" s="42"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -31237,7 +31237,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="40" t="s">
+      <c r="B472" s="41" t="s">
         <v>1103</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -31293,7 +31293,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="40"/>
+      <c r="B473" s="41"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -31347,7 +31347,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="40"/>
+      <c r="B474" s="41"/>
       <c r="C474" s="4" t="s">
         <v>1105</v>
       </c>
@@ -31401,7 +31401,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="40"/>
+      <c r="B475" s="41"/>
       <c r="C475" s="4" t="s">
         <v>918</v>
       </c>
@@ -31455,7 +31455,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="40"/>
+      <c r="B476" s="41"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31509,7 +31509,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="39" t="s">
+      <c r="B477" s="42" t="s">
         <v>1108</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31566,7 +31566,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="39"/>
+      <c r="B478" s="42"/>
       <c r="C478" s="3" t="s">
         <v>923</v>
       </c>
@@ -31621,7 +31621,7 @@
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="39"/>
+      <c r="B479" s="42"/>
       <c r="C479" s="3" t="s">
         <v>925</v>
       </c>
@@ -31676,7 +31676,7 @@
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="39"/>
+      <c r="B480" s="42"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31731,7 +31731,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="40" t="s">
+      <c r="B481" s="41" t="s">
         <v>1112</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31787,7 +31787,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="40"/>
+      <c r="B482" s="41"/>
       <c r="C482" s="4" t="s">
         <v>929</v>
       </c>
@@ -31841,7 +31841,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="40"/>
+      <c r="B483" s="41"/>
       <c r="C483" s="4" t="s">
         <v>930</v>
       </c>
@@ -31895,7 +31895,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="40"/>
+      <c r="B484" s="41"/>
       <c r="C484" s="4" t="s">
         <v>932</v>
       </c>
@@ -31949,7 +31949,7 @@
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="40"/>
+      <c r="B485" s="41"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -32003,7 +32003,7 @@
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="39" t="s">
+      <c r="B486" s="42" t="s">
         <v>1117</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -32060,7 +32060,7 @@
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="39"/>
+      <c r="B487" s="42"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -32115,7 +32115,7 @@
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="39"/>
+      <c r="B488" s="42"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -32170,7 +32170,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="39"/>
+      <c r="B489" s="42"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -32225,7 +32225,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="39"/>
+      <c r="B490" s="42"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -32280,7 +32280,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="40" t="s">
+      <c r="B491" s="41" t="s">
         <v>1121</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -32336,7 +32336,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="40"/>
+      <c r="B492" s="41"/>
       <c r="C492" s="2" t="s">
         <v>369</v>
       </c>
@@ -32390,7 +32390,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="40"/>
+      <c r="B493" s="41"/>
       <c r="C493" s="2" t="s">
         <v>372</v>
       </c>
@@ -32444,7 +32444,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="40"/>
+      <c r="B494" s="41"/>
       <c r="C494" s="2" t="s">
         <v>376</v>
       </c>
@@ -32498,7 +32498,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="40"/>
+      <c r="B495" s="41"/>
       <c r="C495" s="2" t="s">
         <v>379</v>
       </c>
@@ -32552,7 +32552,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="40"/>
+      <c r="B496" s="41"/>
       <c r="C496" s="2" t="s">
         <v>383</v>
       </c>
@@ -32606,7 +32606,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="40"/>
+      <c r="B497" s="41"/>
       <c r="C497" s="2" t="s">
         <v>387</v>
       </c>
@@ -32660,7 +32660,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="39" t="s">
+      <c r="B498" s="42" t="s">
         <v>1126</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32716,7 +32716,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="39"/>
+      <c r="B499" s="42"/>
       <c r="C499" s="1" t="s">
         <v>395</v>
       </c>
@@ -32770,7 +32770,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="39"/>
+      <c r="B500" s="42"/>
       <c r="C500" s="1" t="s">
         <v>398</v>
       </c>
@@ -32824,7 +32824,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="39"/>
+      <c r="B501" s="42"/>
       <c r="C501" s="1" t="s">
         <v>402</v>
       </c>
@@ -32878,7 +32878,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="39"/>
+      <c r="B502" s="42"/>
       <c r="C502" s="1" t="s">
         <v>405</v>
       </c>
@@ -32932,7 +32932,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="39"/>
+      <c r="B503" s="42"/>
       <c r="C503" s="1" t="s">
         <v>409</v>
       </c>
@@ -32986,7 +32986,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="39"/>
+      <c r="B504" s="42"/>
       <c r="C504" s="1" t="s">
         <v>413</v>
       </c>
@@ -33040,7 +33040,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="40" t="s">
+      <c r="B505" s="41" t="s">
         <v>1132</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -33096,7 +33096,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="40"/>
+      <c r="B506" s="41"/>
       <c r="C506" s="2" t="s">
         <v>422</v>
       </c>
@@ -33150,7 +33150,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="40"/>
+      <c r="B507" s="41"/>
       <c r="C507" s="2" t="s">
         <v>426</v>
       </c>
@@ -33204,7 +33204,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="40"/>
+      <c r="B508" s="41"/>
       <c r="C508" s="2" t="s">
         <v>430</v>
       </c>
@@ -33258,7 +33258,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="40"/>
+      <c r="B509" s="41"/>
       <c r="C509" s="2" t="s">
         <v>434</v>
       </c>
@@ -33312,7 +33312,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="40"/>
+      <c r="B510" s="41"/>
       <c r="C510" s="2" t="s">
         <v>438</v>
       </c>
@@ -33366,7 +33366,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="39" t="s">
+      <c r="B511" s="42" t="s">
         <v>442</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -33422,7 +33422,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="39"/>
+      <c r="B512" s="42"/>
       <c r="C512" s="3" t="s">
         <v>447</v>
       </c>
@@ -33476,7 +33476,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="39"/>
+      <c r="B513" s="42"/>
       <c r="C513" s="3" t="s">
         <v>451</v>
       </c>
@@ -33530,7 +33530,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="39"/>
+      <c r="B514" s="42"/>
       <c r="C514" s="3" t="s">
         <v>454</v>
       </c>
@@ -33584,7 +33584,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="39"/>
+      <c r="B515" s="42"/>
       <c r="C515" s="3" t="s">
         <v>458</v>
       </c>
@@ -33638,7 +33638,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="40" t="s">
+      <c r="B516" s="41" t="s">
         <v>462</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33694,7 +33694,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="40"/>
+      <c r="B517" s="41"/>
       <c r="C517" s="4" t="s">
         <v>467</v>
       </c>
@@ -33748,7 +33748,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="40"/>
+      <c r="B518" s="41"/>
       <c r="C518" s="4" t="s">
         <v>471</v>
       </c>
@@ -33802,7 +33802,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="40"/>
+      <c r="B519" s="41"/>
       <c r="C519" s="4" t="s">
         <v>474</v>
       </c>
@@ -33856,7 +33856,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="40"/>
+      <c r="B520" s="41"/>
       <c r="C520" s="4" t="s">
         <v>477</v>
       </c>
@@ -33910,7 +33910,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="40"/>
+      <c r="B521" s="41"/>
       <c r="C521" s="4" t="s">
         <v>481</v>
       </c>
@@ -33964,7 +33964,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="40"/>
+      <c r="B522" s="41"/>
       <c r="C522" s="4" t="s">
         <v>485</v>
       </c>
@@ -34018,7 +34018,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="39" t="s">
+      <c r="B523" s="42" t="s">
         <v>490</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -34074,7 +34074,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="39"/>
+      <c r="B524" s="42"/>
       <c r="C524" s="3" t="s">
         <v>495</v>
       </c>
@@ -34128,7 +34128,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="39"/>
+      <c r="B525" s="42"/>
       <c r="C525" s="3" t="s">
         <v>499</v>
       </c>
@@ -34182,7 +34182,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="39"/>
+      <c r="B526" s="42"/>
       <c r="C526" s="3" t="s">
         <v>503</v>
       </c>
@@ -34236,7 +34236,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="39"/>
+      <c r="B527" s="42"/>
       <c r="C527" s="3" t="s">
         <v>507</v>
       </c>
@@ -34290,7 +34290,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="39"/>
+      <c r="B528" s="42"/>
       <c r="C528" s="3" t="s">
         <v>511</v>
       </c>
@@ -34344,7 +34344,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="39"/>
+      <c r="B529" s="42"/>
       <c r="C529" s="3" t="s">
         <v>515</v>
       </c>
@@ -34398,7 +34398,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="40" t="s">
+      <c r="B530" s="41" t="s">
         <v>518</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34454,7 +34454,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="40"/>
+      <c r="B531" s="41"/>
       <c r="C531" s="4" t="s">
         <v>523</v>
       </c>
@@ -34508,7 +34508,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="40"/>
+      <c r="B532" s="41"/>
       <c r="C532" s="4" t="s">
         <v>527</v>
       </c>
@@ -34562,7 +34562,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="40"/>
+      <c r="B533" s="41"/>
       <c r="C533" s="4" t="s">
         <v>531</v>
       </c>
@@ -34616,7 +34616,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="40"/>
+      <c r="B534" s="41"/>
       <c r="C534" s="4" t="s">
         <v>535</v>
       </c>
@@ -34670,7 +34670,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="39" t="s">
+      <c r="B535" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34726,7 +34726,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="39"/>
+      <c r="B536" s="42"/>
       <c r="C536" s="3" t="s">
         <v>544</v>
       </c>
@@ -34780,7 +34780,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="39"/>
+      <c r="B537" s="42"/>
       <c r="C537" s="3" t="s">
         <v>548</v>
       </c>
@@ -34834,7 +34834,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="39"/>
+      <c r="B538" s="42"/>
       <c r="C538" s="3" t="s">
         <v>552</v>
       </c>
@@ -34888,7 +34888,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="39"/>
+      <c r="B539" s="42"/>
       <c r="C539" s="3" t="s">
         <v>556</v>
       </c>
@@ -34942,7 +34942,7 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="40" t="s">
+      <c r="B540" s="41" t="s">
         <v>1165</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -34998,7 +34998,7 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="40"/>
+      <c r="B541" s="41"/>
       <c r="C541" s="2" t="s">
         <v>564</v>
       </c>
@@ -35052,7 +35052,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="39" t="s">
+      <c r="B542" s="42" t="s">
         <v>567</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -35108,7 +35108,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="39"/>
+      <c r="B543" s="42"/>
       <c r="C543" s="1" t="s">
         <v>572</v>
       </c>
@@ -35162,7 +35162,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="39"/>
+      <c r="B544" s="42"/>
       <c r="C544" s="1" t="s">
         <v>576</v>
       </c>
@@ -35641,7 +35641,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="39" t="s">
+      <c r="B553" s="42" t="s">
         <v>609</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35697,7 +35697,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="39"/>
+      <c r="B554" s="42"/>
       <c r="C554" s="1" t="s">
         <v>614</v>
       </c>
@@ -35751,7 +35751,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="39"/>
+      <c r="B555" s="42"/>
       <c r="C555" s="1" t="s">
         <v>618</v>
       </c>
@@ -35805,7 +35805,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="39"/>
+      <c r="B556" s="42"/>
       <c r="C556" s="1" t="s">
         <v>622</v>
       </c>
@@ -35859,7 +35859,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="39" t="s">
+      <c r="B557" s="42" t="s">
         <v>626</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35915,7 +35915,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="39"/>
+      <c r="B558" s="42"/>
       <c r="C558" s="1" t="s">
         <v>630</v>
       </c>
@@ -35969,7 +35969,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="39"/>
+      <c r="B559" s="42"/>
       <c r="C559" s="1" t="s">
         <v>634</v>
       </c>
@@ -36023,7 +36023,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="39"/>
+      <c r="B560" s="42"/>
       <c r="C560" s="1" t="s">
         <v>638</v>
       </c>
@@ -41882,8 +41882,8 @@
       <c r="C661" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="D661" s="27" t="s">
-        <v>1225</v>
+      <c r="D661" s="38" t="s">
+        <v>1364</v>
       </c>
       <c r="E661" s="1" t="s">
         <v>1226</v>
@@ -46707,81 +46707,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46790,6 +46715,81 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56D5C85-B4A7-4665-8A65-EB9D6CCAC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A89B5B-335A-49FE-9DC3-6F79036F6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4171,6 +4171,7 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4391,16 +4392,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4670,10 +4671,10 @@
   <dimension ref="A1:Z745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
-      <selection pane="bottomRight" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomRight" activeCell="J497" sqref="J497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4950,7 +4951,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5006,7 +5007,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5060,7 +5061,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5114,7 +5115,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5222,7 +5223,7 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5278,7 +5279,7 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
@@ -5332,7 +5333,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
@@ -5386,7 +5387,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
@@ -5440,7 +5441,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
@@ -5494,7 +5495,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5550,7 +5551,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5658,7 +5659,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5712,7 +5713,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -5766,7 +5767,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5822,7 +5823,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
         <v>126</v>
       </c>
@@ -5930,7 +5931,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
@@ -5984,7 +5985,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6040,7 +6041,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6094,7 +6095,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6148,7 +6149,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6202,7 +6203,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6256,7 +6257,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6312,7 +6313,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="3" t="s">
         <v>163</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -6474,7 +6475,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
@@ -6528,7 +6529,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6584,7 +6585,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6638,7 +6639,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6692,7 +6693,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -6746,7 +6747,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>192</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -6802,7 +6803,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="3" t="s">
         <v>197</v>
       </c>
@@ -6856,7 +6857,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="3" t="s">
         <v>200</v>
       </c>
@@ -6910,7 +6911,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
@@ -6964,7 +6965,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="3" t="s">
         <v>208</v>
       </c>
@@ -7018,7 +7019,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="37" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7074,7 +7075,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7128,7 +7129,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7182,7 +7183,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7236,7 +7237,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7290,7 +7291,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7346,7 +7347,7 @@
       <c r="A50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="3" t="s">
         <v>235</v>
       </c>
@@ -7400,7 +7401,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="3" t="s">
         <v>238</v>
       </c>
@@ -7454,7 +7455,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
@@ -7508,7 +7509,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="39"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="3" t="s">
         <v>246</v>
       </c>
@@ -7562,7 +7563,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="37" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7618,7 +7619,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7672,7 +7673,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7726,7 +7727,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7780,7 +7781,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -7834,7 +7835,7 @@
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>269</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -7890,7 +7891,7 @@
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="3" t="s">
         <v>274</v>
       </c>
@@ -7944,7 +7945,7 @@
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="3" t="s">
         <v>278</v>
       </c>
@@ -7998,7 +7999,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="39"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="3" t="s">
         <v>282</v>
       </c>
@@ -8052,7 +8053,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="3" t="s">
         <v>286</v>
       </c>
@@ -8106,7 +8107,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="37" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8162,7 +8163,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8216,7 +8217,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8270,7 +8271,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8324,7 +8325,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="40"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8378,7 +8379,7 @@
       <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="38" t="s">
         <v>309</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -8434,7 +8435,7 @@
       <c r="A70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="39"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="3" t="s">
         <v>314</v>
       </c>
@@ -8488,7 +8489,7 @@
       <c r="A71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="39"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="3" t="s">
         <v>318</v>
       </c>
@@ -8542,7 +8543,7 @@
       <c r="A72" s="3">
         <v>67</v>
       </c>
-      <c r="B72" s="39"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="3" t="s">
         <v>322</v>
       </c>
@@ -8596,7 +8597,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8652,7 +8653,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8706,7 +8707,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8760,7 +8761,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="40"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8814,7 +8815,7 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -8868,7 +8869,7 @@
       <c r="A78" s="3">
         <v>73</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="38" t="s">
         <v>345</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -8924,7 +8925,7 @@
       <c r="A79" s="3">
         <v>74</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="3" t="s">
         <v>350</v>
       </c>
@@ -8978,7 +8979,7 @@
       <c r="A80" s="3">
         <v>75</v>
       </c>
-      <c r="B80" s="39"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="3" t="s">
         <v>353</v>
       </c>
@@ -9032,7 +9033,7 @@
       <c r="A81" s="3">
         <v>76</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="3" t="s">
         <v>356</v>
       </c>
@@ -9086,7 +9087,7 @@
       <c r="A82" s="3">
         <v>77</v>
       </c>
-      <c r="B82" s="39"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="3" t="s">
         <v>360</v>
       </c>
@@ -9140,7 +9141,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="39" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9196,7 +9197,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="38"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="2" t="s">
         <v>368</v>
       </c>
@@ -9250,7 +9251,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="38"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="2" t="s">
         <v>371</v>
       </c>
@@ -9304,7 +9305,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="38"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="2" t="s">
         <v>374</v>
       </c>
@@ -9358,7 +9359,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="2" t="s">
         <v>377</v>
       </c>
@@ -9412,7 +9413,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="38"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="2" t="s">
         <v>380</v>
       </c>
@@ -9466,7 +9467,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="38"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="2" t="s">
         <v>384</v>
       </c>
@@ -9520,7 +9521,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="40" t="s">
         <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9576,7 +9577,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="1" t="s">
         <v>392</v>
       </c>
@@ -9630,7 +9631,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="37"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="1" t="s">
         <v>395</v>
       </c>
@@ -9684,7 +9685,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="37"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="1" t="s">
         <v>399</v>
       </c>
@@ -9738,7 +9739,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="37"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="1" t="s">
         <v>402</v>
       </c>
@@ -9792,7 +9793,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="37"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="1" t="s">
         <v>406</v>
       </c>
@@ -9846,7 +9847,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="37"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="1" t="s">
         <v>410</v>
       </c>
@@ -10226,7 +10227,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="40" t="s">
         <v>439</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10282,7 +10283,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="3" t="s">
         <v>444</v>
       </c>
@@ -10336,7 +10337,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="3" t="s">
         <v>448</v>
       </c>
@@ -10390,7 +10391,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="37"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="3" t="s">
         <v>451</v>
       </c>
@@ -10444,7 +10445,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="37"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="3" t="s">
         <v>455</v>
       </c>
@@ -10498,7 +10499,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="39" t="s">
         <v>459</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10554,7 +10555,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="38"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="4" t="s">
         <v>464</v>
       </c>
@@ -10608,7 +10609,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="38"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="4" t="s">
         <v>468</v>
       </c>
@@ -10662,7 +10663,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="38"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="4" t="s">
         <v>471</v>
       </c>
@@ -10716,7 +10717,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="38"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="4" t="s">
         <v>474</v>
       </c>
@@ -10770,7 +10771,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="38"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="4" t="s">
         <v>478</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="38"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="4" t="s">
         <v>482</v>
       </c>
@@ -10878,7 +10879,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="40" t="s">
         <v>487</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -10934,7 +10935,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="37"/>
+      <c r="B116" s="40"/>
       <c r="C116" s="3" t="s">
         <v>492</v>
       </c>
@@ -10988,7 +10989,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="37"/>
+      <c r="B117" s="40"/>
       <c r="C117" s="3" t="s">
         <v>496</v>
       </c>
@@ -11042,7 +11043,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="37"/>
+      <c r="B118" s="40"/>
       <c r="C118" s="3" t="s">
         <v>500</v>
       </c>
@@ -11096,7 +11097,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="37"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="3" t="s">
         <v>504</v>
       </c>
@@ -11150,7 +11151,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="37"/>
+      <c r="B120" s="40"/>
       <c r="C120" s="3" t="s">
         <v>508</v>
       </c>
@@ -11204,7 +11205,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="37"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="3" t="s">
         <v>512</v>
       </c>
@@ -11258,7 +11259,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="39" t="s">
         <v>515</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11314,7 +11315,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="38"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="4" t="s">
         <v>520</v>
       </c>
@@ -11368,7 +11369,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="38"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="4" t="s">
         <v>524</v>
       </c>
@@ -11422,7 +11423,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="38"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="4" t="s">
         <v>528</v>
       </c>
@@ -11476,7 +11477,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="38"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="4" t="s">
         <v>532</v>
       </c>
@@ -11530,7 +11531,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="40" t="s">
         <v>536</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11586,7 +11587,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="37"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="3" t="s">
         <v>541</v>
       </c>
@@ -11640,7 +11641,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="37"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="3" t="s">
         <v>545</v>
       </c>
@@ -11694,7 +11695,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="37"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="3" t="s">
         <v>549</v>
       </c>
@@ -11748,7 +11749,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="37"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="3" t="s">
         <v>553</v>
       </c>
@@ -11802,7 +11803,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="39" t="s">
         <v>557</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11858,7 +11859,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="38"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="2" t="s">
         <v>561</v>
       </c>
@@ -12501,7 +12502,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="37" t="s">
+      <c r="B145" s="40" t="s">
         <v>606</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12557,7 +12558,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="37"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="1" t="s">
         <v>611</v>
       </c>
@@ -12611,7 +12612,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="37"/>
+      <c r="B147" s="40"/>
       <c r="C147" s="1" t="s">
         <v>615</v>
       </c>
@@ -12665,7 +12666,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="37"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="1" t="s">
         <v>619</v>
       </c>
@@ -12719,7 +12720,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="40" t="s">
         <v>623</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12775,7 +12776,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="37"/>
+      <c r="B150" s="40"/>
       <c r="C150" s="1" t="s">
         <v>627</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="37"/>
+      <c r="B151" s="40"/>
       <c r="C151" s="1" t="s">
         <v>631</v>
       </c>
@@ -12883,7 +12884,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="37"/>
+      <c r="B152" s="40"/>
       <c r="C152" s="1" t="s">
         <v>635</v>
       </c>
@@ -15980,7 +15981,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="40" t="s">
+      <c r="B210" s="37" t="s">
         <v>854</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16039,7 +16040,7 @@
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="40"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16096,7 +16097,7 @@
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="40"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16153,7 +16154,7 @@
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="40"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16210,7 +16211,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="40"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16267,7 +16268,7 @@
       <c r="A215" s="4">
         <v>506</v>
       </c>
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="38" t="s">
         <v>859</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -16326,7 +16327,7 @@
       <c r="A216" s="4">
         <v>507</v>
       </c>
-      <c r="B216" s="39"/>
+      <c r="B216" s="38"/>
       <c r="C216" s="3" t="s">
         <v>82</v>
       </c>
@@ -16383,7 +16384,7 @@
       <c r="A217" s="4">
         <v>508</v>
       </c>
-      <c r="B217" s="39"/>
+      <c r="B217" s="38"/>
       <c r="C217" s="3" t="s">
         <v>85</v>
       </c>
@@ -16440,7 +16441,7 @@
       <c r="A218" s="4">
         <v>509</v>
       </c>
-      <c r="B218" s="39"/>
+      <c r="B218" s="38"/>
       <c r="C218" s="3" t="s">
         <v>89</v>
       </c>
@@ -16497,7 +16498,7 @@
       <c r="A219" s="4">
         <v>510</v>
       </c>
-      <c r="B219" s="39"/>
+      <c r="B219" s="38"/>
       <c r="C219" s="3" t="s">
         <v>93</v>
       </c>
@@ -16554,7 +16555,7 @@
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="40" t="s">
+      <c r="B220" s="37" t="s">
         <v>864</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16613,7 +16614,7 @@
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="40"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16670,7 +16671,7 @@
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="40"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -16727,7 +16728,7 @@
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="40"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -16784,7 +16785,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="40"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -16841,7 +16842,7 @@
       <c r="A225" s="4">
         <v>516</v>
       </c>
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="38" t="s">
         <v>869</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -16900,7 +16901,7 @@
       <c r="A226" s="4">
         <v>517</v>
       </c>
-      <c r="B226" s="39"/>
+      <c r="B226" s="38"/>
       <c r="C226" s="3" t="s">
         <v>123</v>
       </c>
@@ -16957,7 +16958,7 @@
       <c r="A227" s="4">
         <v>518</v>
       </c>
-      <c r="B227" s="39"/>
+      <c r="B227" s="38"/>
       <c r="C227" s="3" t="s">
         <v>126</v>
       </c>
@@ -17014,7 +17015,7 @@
       <c r="A228" s="4">
         <v>519</v>
       </c>
-      <c r="B228" s="39"/>
+      <c r="B228" s="38"/>
       <c r="C228" s="3" t="s">
         <v>130</v>
       </c>
@@ -17071,7 +17072,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="40" t="s">
+      <c r="B229" s="37" t="s">
         <v>873</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17130,7 +17131,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="40"/>
+      <c r="B230" s="37"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17187,7 +17188,7 @@
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="40"/>
+      <c r="B231" s="37"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17244,7 +17245,7 @@
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="40"/>
+      <c r="B232" s="37"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17301,7 +17302,7 @@
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="40"/>
+      <c r="B233" s="37"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17358,7 +17359,7 @@
       <c r="A234" s="4">
         <v>525</v>
       </c>
-      <c r="B234" s="39" t="s">
+      <c r="B234" s="38" t="s">
         <v>878</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -17417,7 +17418,7 @@
       <c r="A235" s="4">
         <v>526</v>
       </c>
-      <c r="B235" s="39"/>
+      <c r="B235" s="38"/>
       <c r="C235" s="3" t="s">
         <v>160</v>
       </c>
@@ -17474,7 +17475,7 @@
       <c r="A236" s="4">
         <v>527</v>
       </c>
-      <c r="B236" s="39"/>
+      <c r="B236" s="38"/>
       <c r="C236" s="3" t="s">
         <v>163</v>
       </c>
@@ -17531,7 +17532,7 @@
       <c r="A237" s="4">
         <v>528</v>
       </c>
-      <c r="B237" s="39"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="3" t="s">
         <v>167</v>
       </c>
@@ -17588,7 +17589,7 @@
       <c r="A238" s="4">
         <v>529</v>
       </c>
-      <c r="B238" s="39"/>
+      <c r="B238" s="38"/>
       <c r="C238" s="3" t="s">
         <v>171</v>
       </c>
@@ -17645,7 +17646,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="40" t="s">
+      <c r="B239" s="37" t="s">
         <v>883</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17704,7 +17705,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="40"/>
+      <c r="B240" s="37"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -17761,7 +17762,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="40"/>
+      <c r="B241" s="37"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -17818,7 +17819,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="40"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -17875,7 +17876,7 @@
       <c r="A243" s="4">
         <v>534</v>
       </c>
-      <c r="B243" s="39" t="s">
+      <c r="B243" s="38" t="s">
         <v>888</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -17934,7 +17935,7 @@
       <c r="A244" s="4">
         <v>535</v>
       </c>
-      <c r="B244" s="39"/>
+      <c r="B244" s="38"/>
       <c r="C244" s="3" t="s">
         <v>197</v>
       </c>
@@ -17991,7 +17992,7 @@
       <c r="A245" s="4">
         <v>536</v>
       </c>
-      <c r="B245" s="39"/>
+      <c r="B245" s="38"/>
       <c r="C245" s="3" t="s">
         <v>200</v>
       </c>
@@ -18048,7 +18049,7 @@
       <c r="A246" s="4">
         <v>537</v>
       </c>
-      <c r="B246" s="39"/>
+      <c r="B246" s="38"/>
       <c r="C246" s="3" t="s">
         <v>204</v>
       </c>
@@ -18105,7 +18106,7 @@
       <c r="A247" s="4">
         <v>538</v>
       </c>
-      <c r="B247" s="39"/>
+      <c r="B247" s="38"/>
       <c r="C247" s="3" t="s">
         <v>208</v>
       </c>
@@ -18162,7 +18163,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="40" t="s">
+      <c r="B248" s="37" t="s">
         <v>893</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18221,7 +18222,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="40"/>
+      <c r="B249" s="37"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18278,7 +18279,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="40"/>
+      <c r="B250" s="37"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18335,7 +18336,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="40"/>
+      <c r="B251" s="37"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18392,7 +18393,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="40"/>
+      <c r="B252" s="37"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -18449,7 +18450,7 @@
       <c r="A253" s="4">
         <v>544</v>
       </c>
-      <c r="B253" s="39" t="s">
+      <c r="B253" s="38" t="s">
         <v>896</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -18508,7 +18509,7 @@
       <c r="A254" s="4">
         <v>545</v>
       </c>
-      <c r="B254" s="39"/>
+      <c r="B254" s="38"/>
       <c r="C254" s="3" t="s">
         <v>235</v>
       </c>
@@ -18565,7 +18566,7 @@
       <c r="A255" s="4">
         <v>546</v>
       </c>
-      <c r="B255" s="39"/>
+      <c r="B255" s="38"/>
       <c r="C255" s="3" t="s">
         <v>238</v>
       </c>
@@ -18622,7 +18623,7 @@
       <c r="A256" s="4">
         <v>547</v>
       </c>
-      <c r="B256" s="39"/>
+      <c r="B256" s="38"/>
       <c r="C256" s="3" t="s">
         <v>242</v>
       </c>
@@ -18679,7 +18680,7 @@
       <c r="A257" s="4">
         <v>548</v>
       </c>
-      <c r="B257" s="39"/>
+      <c r="B257" s="38"/>
       <c r="C257" s="3" t="s">
         <v>246</v>
       </c>
@@ -18736,7 +18737,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="40" t="s">
+      <c r="B258" s="37" t="s">
         <v>901</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -18795,7 +18796,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="40"/>
+      <c r="B259" s="37"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -18852,7 +18853,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="40"/>
+      <c r="B260" s="37"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -18909,7 +18910,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="40"/>
+      <c r="B261" s="37"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -18966,7 +18967,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="40"/>
+      <c r="B262" s="37"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19023,7 +19024,7 @@
       <c r="A263" s="4">
         <v>554</v>
       </c>
-      <c r="B263" s="39" t="s">
+      <c r="B263" s="38" t="s">
         <v>905</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -19082,7 +19083,7 @@
       <c r="A264" s="4">
         <v>555</v>
       </c>
-      <c r="B264" s="39"/>
+      <c r="B264" s="38"/>
       <c r="C264" s="3" t="s">
         <v>274</v>
       </c>
@@ -19139,7 +19140,7 @@
       <c r="A265" s="4">
         <v>556</v>
       </c>
-      <c r="B265" s="39"/>
+      <c r="B265" s="38"/>
       <c r="C265" s="3" t="s">
         <v>278</v>
       </c>
@@ -19196,7 +19197,7 @@
       <c r="A266" s="4">
         <v>557</v>
       </c>
-      <c r="B266" s="39"/>
+      <c r="B266" s="38"/>
       <c r="C266" s="3" t="s">
         <v>282</v>
       </c>
@@ -19253,7 +19254,7 @@
       <c r="A267" s="4">
         <v>558</v>
       </c>
-      <c r="B267" s="39"/>
+      <c r="B267" s="38"/>
       <c r="C267" s="3" t="s">
         <v>286</v>
       </c>
@@ -19310,7 +19311,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="40" t="s">
+      <c r="B268" s="37" t="s">
         <v>911</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19369,7 +19370,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="40"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19426,7 +19427,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="40"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="4" t="s">
         <v>913</v>
       </c>
@@ -19483,7 +19484,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="40"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="4" t="s">
         <v>915</v>
       </c>
@@ -19540,7 +19541,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="40"/>
+      <c r="B272" s="37"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -19597,7 +19598,7 @@
       <c r="A273" s="4">
         <v>564</v>
       </c>
-      <c r="B273" s="39" t="s">
+      <c r="B273" s="38" t="s">
         <v>917</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -19656,7 +19657,7 @@
       <c r="A274" s="4">
         <v>565</v>
       </c>
-      <c r="B274" s="39"/>
+      <c r="B274" s="38"/>
       <c r="C274" s="3" t="s">
         <v>920</v>
       </c>
@@ -19713,7 +19714,7 @@
       <c r="A275" s="4">
         <v>566</v>
       </c>
-      <c r="B275" s="39"/>
+      <c r="B275" s="38"/>
       <c r="C275" s="3" t="s">
         <v>922</v>
       </c>
@@ -19770,7 +19771,7 @@
       <c r="A276" s="4">
         <v>567</v>
       </c>
-      <c r="B276" s="39"/>
+      <c r="B276" s="38"/>
       <c r="C276" s="3" t="s">
         <v>322</v>
       </c>
@@ -19827,7 +19828,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="40" t="s">
+      <c r="B277" s="37" t="s">
         <v>924</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -19886,7 +19887,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="40"/>
+      <c r="B278" s="37"/>
       <c r="C278" s="4" t="s">
         <v>926</v>
       </c>
@@ -19943,7 +19944,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="40"/>
+      <c r="B279" s="37"/>
       <c r="C279" s="4" t="s">
         <v>927</v>
       </c>
@@ -20000,7 +20001,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="40"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="4" t="s">
         <v>929</v>
       </c>
@@ -20057,7 +20058,7 @@
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="40"/>
+      <c r="B281" s="37"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20114,7 +20115,7 @@
       <c r="A282" s="4">
         <v>573</v>
       </c>
-      <c r="B282" s="39" t="s">
+      <c r="B282" s="38" t="s">
         <v>932</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -20173,7 +20174,7 @@
       <c r="A283" s="4">
         <v>574</v>
       </c>
-      <c r="B283" s="39"/>
+      <c r="B283" s="38"/>
       <c r="C283" s="3" t="s">
         <v>350</v>
       </c>
@@ -20230,7 +20231,7 @@
       <c r="A284" s="4">
         <v>575</v>
       </c>
-      <c r="B284" s="39"/>
+      <c r="B284" s="38"/>
       <c r="C284" s="3" t="s">
         <v>353</v>
       </c>
@@ -20287,7 +20288,7 @@
       <c r="A285" s="4">
         <v>576</v>
       </c>
-      <c r="B285" s="39"/>
+      <c r="B285" s="38"/>
       <c r="C285" s="3" t="s">
         <v>356</v>
       </c>
@@ -20344,7 +20345,7 @@
       <c r="A286" s="4">
         <v>577</v>
       </c>
-      <c r="B286" s="39"/>
+      <c r="B286" s="38"/>
       <c r="C286" s="3" t="s">
         <v>360</v>
       </c>
@@ -20401,7 +20402,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="38" t="s">
+      <c r="B287" s="39" t="s">
         <v>936</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20460,7 +20461,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="38"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="2" t="s">
         <v>368</v>
       </c>
@@ -20517,7 +20518,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="38"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="2" t="s">
         <v>371</v>
       </c>
@@ -20574,7 +20575,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="38"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="2" t="s">
         <v>374</v>
       </c>
@@ -20631,7 +20632,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="38"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="2" t="s">
         <v>377</v>
       </c>
@@ -20688,7 +20689,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="38"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="2" t="s">
         <v>380</v>
       </c>
@@ -20745,7 +20746,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="38"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="2" t="s">
         <v>384</v>
       </c>
@@ -20802,7 +20803,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B294" s="40" t="s">
         <v>941</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -20861,7 +20862,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="37"/>
+      <c r="B295" s="40"/>
       <c r="C295" s="1" t="s">
         <v>392</v>
       </c>
@@ -20918,7 +20919,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="37"/>
+      <c r="B296" s="40"/>
       <c r="C296" s="1" t="s">
         <v>395</v>
       </c>
@@ -20975,7 +20976,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="37"/>
+      <c r="B297" s="40"/>
       <c r="C297" s="1" t="s">
         <v>399</v>
       </c>
@@ -21032,7 +21033,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="37"/>
+      <c r="B298" s="40"/>
       <c r="C298" s="1" t="s">
         <v>402</v>
       </c>
@@ -21089,7 +21090,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="37"/>
+      <c r="B299" s="40"/>
       <c r="C299" s="1" t="s">
         <v>406</v>
       </c>
@@ -21146,7 +21147,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="37"/>
+      <c r="B300" s="40"/>
       <c r="C300" s="1" t="s">
         <v>410</v>
       </c>
@@ -21203,7 +21204,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="38" t="s">
+      <c r="B301" s="39" t="s">
         <v>947</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21262,7 +21263,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="38"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="2" t="s">
         <v>419</v>
       </c>
@@ -21319,7 +21320,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="38"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="2" t="s">
         <v>423</v>
       </c>
@@ -21376,7 +21377,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="38"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="2" t="s">
         <v>427</v>
       </c>
@@ -21433,7 +21434,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="38"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="2" t="s">
         <v>431</v>
       </c>
@@ -21490,7 +21491,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="38"/>
+      <c r="B306" s="39"/>
       <c r="C306" s="2" t="s">
         <v>435</v>
       </c>
@@ -21547,7 +21548,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="37" t="s">
+      <c r="B307" s="40" t="s">
         <v>439</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21606,7 +21607,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="37"/>
+      <c r="B308" s="40"/>
       <c r="C308" s="3" t="s">
         <v>444</v>
       </c>
@@ -21663,7 +21664,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="37"/>
+      <c r="B309" s="40"/>
       <c r="C309" s="3" t="s">
         <v>448</v>
       </c>
@@ -21720,7 +21721,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="37"/>
+      <c r="B310" s="40"/>
       <c r="C310" s="3" t="s">
         <v>451</v>
       </c>
@@ -21777,7 +21778,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="37"/>
+      <c r="B311" s="40"/>
       <c r="C311" s="3" t="s">
         <v>455</v>
       </c>
@@ -21834,7 +21835,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="38" t="s">
+      <c r="B312" s="39" t="s">
         <v>459</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -21893,7 +21894,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="38"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="4" t="s">
         <v>464</v>
       </c>
@@ -21950,7 +21951,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="38"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="4" t="s">
         <v>468</v>
       </c>
@@ -22007,7 +22008,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="38"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="4" t="s">
         <v>471</v>
       </c>
@@ -22064,7 +22065,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="38"/>
+      <c r="B316" s="39"/>
       <c r="C316" s="4" t="s">
         <v>474</v>
       </c>
@@ -22121,7 +22122,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="38"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="4" t="s">
         <v>478</v>
       </c>
@@ -22178,7 +22179,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="38"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="4" t="s">
         <v>482</v>
       </c>
@@ -22235,7 +22236,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="37" t="s">
+      <c r="B319" s="40" t="s">
         <v>487</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22294,7 +22295,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="37"/>
+      <c r="B320" s="40"/>
       <c r="C320" s="3" t="s">
         <v>492</v>
       </c>
@@ -22351,7 +22352,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="37"/>
+      <c r="B321" s="40"/>
       <c r="C321" s="3" t="s">
         <v>496</v>
       </c>
@@ -22408,7 +22409,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="37"/>
+      <c r="B322" s="40"/>
       <c r="C322" s="3" t="s">
         <v>500</v>
       </c>
@@ -22465,7 +22466,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="37"/>
+      <c r="B323" s="40"/>
       <c r="C323" s="3" t="s">
         <v>504</v>
       </c>
@@ -22522,7 +22523,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="37"/>
+      <c r="B324" s="40"/>
       <c r="C324" s="3" t="s">
         <v>508</v>
       </c>
@@ -22579,7 +22580,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="37"/>
+      <c r="B325" s="40"/>
       <c r="C325" s="3" t="s">
         <v>512</v>
       </c>
@@ -22636,7 +22637,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="38" t="s">
+      <c r="B326" s="39" t="s">
         <v>515</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22695,7 +22696,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="38"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="4" t="s">
         <v>520</v>
       </c>
@@ -22752,7 +22753,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="38"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="4" t="s">
         <v>524</v>
       </c>
@@ -22809,7 +22810,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="38"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="4" t="s">
         <v>528</v>
       </c>
@@ -22866,7 +22867,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="38"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="4" t="s">
         <v>532</v>
       </c>
@@ -22923,7 +22924,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="37" t="s">
+      <c r="B331" s="40" t="s">
         <v>536</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -22982,7 +22983,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="37"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="3" t="s">
         <v>541</v>
       </c>
@@ -23039,7 +23040,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="37"/>
+      <c r="B333" s="40"/>
       <c r="C333" s="3" t="s">
         <v>545</v>
       </c>
@@ -23096,7 +23097,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="37"/>
+      <c r="B334" s="40"/>
       <c r="C334" s="3" t="s">
         <v>549</v>
       </c>
@@ -23153,7 +23154,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="37"/>
+      <c r="B335" s="40"/>
       <c r="C335" s="3" t="s">
         <v>553</v>
       </c>
@@ -23210,7 +23211,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="38" t="s">
+      <c r="B336" s="39" t="s">
         <v>979</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23269,7 +23270,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="38"/>
+      <c r="B337" s="39"/>
       <c r="C337" s="2" t="s">
         <v>561</v>
       </c>
@@ -23326,7 +23327,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="37" t="s">
+      <c r="B338" s="40" t="s">
         <v>564</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23385,7 +23386,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="37"/>
+      <c r="B339" s="40"/>
       <c r="C339" s="1" t="s">
         <v>569</v>
       </c>
@@ -23947,7 +23948,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="37" t="s">
+      <c r="B349" s="40" t="s">
         <v>606</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24006,7 +24007,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="37"/>
+      <c r="B350" s="40"/>
       <c r="C350" s="1" t="s">
         <v>611</v>
       </c>
@@ -24063,7 +24064,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="37"/>
+      <c r="B351" s="40"/>
       <c r="C351" s="1" t="s">
         <v>615</v>
       </c>
@@ -24120,7 +24121,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="37"/>
+      <c r="B352" s="40"/>
       <c r="C352" s="1" t="s">
         <v>619</v>
       </c>
@@ -24177,7 +24178,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="37" t="s">
+      <c r="B353" s="40" t="s">
         <v>623</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24236,7 +24237,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="37"/>
+      <c r="B354" s="40"/>
       <c r="C354" s="1" t="s">
         <v>627</v>
       </c>
@@ -24293,7 +24294,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="37"/>
+      <c r="B355" s="40"/>
       <c r="C355" s="1" t="s">
         <v>631</v>
       </c>
@@ -24350,7 +24351,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="37"/>
+      <c r="B356" s="40"/>
       <c r="C356" s="1" t="s">
         <v>635</v>
       </c>
@@ -27606,7 +27607,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="40" t="s">
+      <c r="B414" s="37" t="s">
         <v>1043</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -27662,7 +27663,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="40"/>
+      <c r="B415" s="37"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -27716,7 +27717,7 @@
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="40"/>
+      <c r="B416" s="37"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -27770,7 +27771,7 @@
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="40"/>
+      <c r="B417" s="37"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -27824,7 +27825,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="40"/>
+      <c r="B418" s="37"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -27878,7 +27879,7 @@
       <c r="A419" s="4">
         <v>1006</v>
       </c>
-      <c r="B419" s="39" t="s">
+      <c r="B419" s="38" t="s">
         <v>1048</v>
       </c>
       <c r="C419" s="3" t="s">
@@ -27935,7 +27936,7 @@
       <c r="A420" s="4">
         <v>1007</v>
       </c>
-      <c r="B420" s="39"/>
+      <c r="B420" s="38"/>
       <c r="C420" s="3" t="s">
         <v>82</v>
       </c>
@@ -27990,7 +27991,7 @@
       <c r="A421" s="4">
         <v>1008</v>
       </c>
-      <c r="B421" s="39"/>
+      <c r="B421" s="38"/>
       <c r="C421" s="3" t="s">
         <v>85</v>
       </c>
@@ -28045,7 +28046,7 @@
       <c r="A422" s="4">
         <v>1009</v>
       </c>
-      <c r="B422" s="39"/>
+      <c r="B422" s="38"/>
       <c r="C422" s="3" t="s">
         <v>89</v>
       </c>
@@ -28100,7 +28101,7 @@
       <c r="A423" s="4">
         <v>1010</v>
       </c>
-      <c r="B423" s="39"/>
+      <c r="B423" s="38"/>
       <c r="C423" s="3" t="s">
         <v>93</v>
       </c>
@@ -28155,7 +28156,7 @@
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="40" t="s">
+      <c r="B424" s="37" t="s">
         <v>1054</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28211,7 +28212,7 @@
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="40"/>
+      <c r="B425" s="37"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28265,7 +28266,7 @@
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="40"/>
+      <c r="B426" s="37"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28319,7 +28320,7 @@
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="40"/>
+      <c r="B427" s="37"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
@@ -28373,7 +28374,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="40"/>
+      <c r="B428" s="37"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -28427,7 +28428,7 @@
       <c r="A429" s="4">
         <v>1016</v>
       </c>
-      <c r="B429" s="39" t="s">
+      <c r="B429" s="38" t="s">
         <v>1059</v>
       </c>
       <c r="C429" s="3" t="s">
@@ -28484,7 +28485,7 @@
       <c r="A430" s="4">
         <v>1017</v>
       </c>
-      <c r="B430" s="39"/>
+      <c r="B430" s="38"/>
       <c r="C430" s="3" t="s">
         <v>123</v>
       </c>
@@ -28539,7 +28540,7 @@
       <c r="A431" s="4">
         <v>1018</v>
       </c>
-      <c r="B431" s="39"/>
+      <c r="B431" s="38"/>
       <c r="C431" s="3" t="s">
         <v>126</v>
       </c>
@@ -28594,7 +28595,7 @@
       <c r="A432" s="4">
         <v>1019</v>
       </c>
-      <c r="B432" s="39"/>
+      <c r="B432" s="38"/>
       <c r="C432" s="3" t="s">
         <v>130</v>
       </c>
@@ -28649,7 +28650,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="40" t="s">
+      <c r="B433" s="37" t="s">
         <v>1062</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -28705,7 +28706,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="40"/>
+      <c r="B434" s="37"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -28759,7 +28760,7 @@
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="40"/>
+      <c r="B435" s="37"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -28813,7 +28814,7 @@
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="40"/>
+      <c r="B436" s="37"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
@@ -28867,7 +28868,7 @@
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="40"/>
+      <c r="B437" s="37"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -28921,7 +28922,7 @@
       <c r="A438" s="4">
         <v>1025</v>
       </c>
-      <c r="B438" s="39" t="s">
+      <c r="B438" s="38" t="s">
         <v>1067</v>
       </c>
       <c r="C438" s="3" t="s">
@@ -28978,7 +28979,7 @@
       <c r="A439" s="4">
         <v>1026</v>
       </c>
-      <c r="B439" s="39"/>
+      <c r="B439" s="38"/>
       <c r="C439" s="3" t="s">
         <v>160</v>
       </c>
@@ -29033,7 +29034,7 @@
       <c r="A440" s="4">
         <v>1027</v>
       </c>
-      <c r="B440" s="39"/>
+      <c r="B440" s="38"/>
       <c r="C440" s="3" t="s">
         <v>163</v>
       </c>
@@ -29088,7 +29089,7 @@
       <c r="A441" s="4">
         <v>1028</v>
       </c>
-      <c r="B441" s="39"/>
+      <c r="B441" s="38"/>
       <c r="C441" s="3" t="s">
         <v>167</v>
       </c>
@@ -29143,7 +29144,7 @@
       <c r="A442" s="4">
         <v>1029</v>
       </c>
-      <c r="B442" s="39"/>
+      <c r="B442" s="38"/>
       <c r="C442" s="3" t="s">
         <v>171</v>
       </c>
@@ -29198,7 +29199,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="40" t="s">
+      <c r="B443" s="37" t="s">
         <v>1072</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29254,7 +29255,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="40"/>
+      <c r="B444" s="37"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29308,7 +29309,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="40"/>
+      <c r="B445" s="37"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29362,7 +29363,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="40"/>
+      <c r="B446" s="37"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -29416,7 +29417,7 @@
       <c r="A447" s="4">
         <v>1034</v>
       </c>
-      <c r="B447" s="39" t="s">
+      <c r="B447" s="38" t="s">
         <v>1077</v>
       </c>
       <c r="C447" s="3" t="s">
@@ -29473,7 +29474,7 @@
       <c r="A448" s="4">
         <v>1035</v>
       </c>
-      <c r="B448" s="39"/>
+      <c r="B448" s="38"/>
       <c r="C448" s="3" t="s">
         <v>197</v>
       </c>
@@ -29528,7 +29529,7 @@
       <c r="A449" s="4">
         <v>1036</v>
       </c>
-      <c r="B449" s="39"/>
+      <c r="B449" s="38"/>
       <c r="C449" s="3" t="s">
         <v>200</v>
       </c>
@@ -29583,7 +29584,7 @@
       <c r="A450" s="4">
         <v>1037</v>
       </c>
-      <c r="B450" s="39"/>
+      <c r="B450" s="38"/>
       <c r="C450" s="3" t="s">
         <v>204</v>
       </c>
@@ -29638,7 +29639,7 @@
       <c r="A451" s="4">
         <v>1038</v>
       </c>
-      <c r="B451" s="39"/>
+      <c r="B451" s="38"/>
       <c r="C451" s="3" t="s">
         <v>208</v>
       </c>
@@ -29693,7 +29694,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="38" t="s">
+      <c r="B452" s="39" t="s">
         <v>1082</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -29749,7 +29750,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="38"/>
+      <c r="B453" s="39"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -29803,7 +29804,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="38"/>
+      <c r="B454" s="39"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -29857,7 +29858,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="38"/>
+      <c r="B455" s="39"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -29911,7 +29912,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="38"/>
+      <c r="B456" s="39"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -29965,7 +29966,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="37" t="s">
+      <c r="B457" s="40" t="s">
         <v>1085</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30022,7 +30023,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="37"/>
+      <c r="B458" s="40"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30077,7 +30078,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="37"/>
+      <c r="B459" s="40"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30132,7 +30133,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="37"/>
+      <c r="B460" s="40"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30187,7 +30188,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="37"/>
+      <c r="B461" s="40"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30242,7 +30243,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="38" t="s">
+      <c r="B462" s="39" t="s">
         <v>1090</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30298,7 +30299,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="38"/>
+      <c r="B463" s="39"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30352,7 +30353,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="38"/>
+      <c r="B464" s="39"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30406,7 +30407,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="38"/>
+      <c r="B465" s="39"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30460,7 +30461,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="38"/>
+      <c r="B466" s="39"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30514,7 +30515,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="37" t="s">
+      <c r="B467" s="40" t="s">
         <v>1094</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -30571,7 +30572,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="37"/>
+      <c r="B468" s="40"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -30626,7 +30627,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="37"/>
+      <c r="B469" s="40"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -30681,7 +30682,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="37"/>
+      <c r="B470" s="40"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -30736,7 +30737,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="37"/>
+      <c r="B471" s="40"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -30791,7 +30792,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="38" t="s">
+      <c r="B472" s="39" t="s">
         <v>1100</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -30847,7 +30848,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="38"/>
+      <c r="B473" s="39"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -30901,7 +30902,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="38"/>
+      <c r="B474" s="39"/>
       <c r="C474" s="4" t="s">
         <v>1102</v>
       </c>
@@ -30955,7 +30956,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="38"/>
+      <c r="B475" s="39"/>
       <c r="C475" s="4" t="s">
         <v>915</v>
       </c>
@@ -31009,7 +31010,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="38"/>
+      <c r="B476" s="39"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31063,7 +31064,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="37" t="s">
+      <c r="B477" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31120,7 +31121,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="37"/>
+      <c r="B478" s="40"/>
       <c r="C478" s="3" t="s">
         <v>920</v>
       </c>
@@ -31175,7 +31176,7 @@
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="37"/>
+      <c r="B479" s="40"/>
       <c r="C479" s="3" t="s">
         <v>922</v>
       </c>
@@ -31230,7 +31231,7 @@
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="37"/>
+      <c r="B480" s="40"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31285,7 +31286,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="38" t="s">
+      <c r="B481" s="39" t="s">
         <v>1109</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31341,7 +31342,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="38"/>
+      <c r="B482" s="39"/>
       <c r="C482" s="4" t="s">
         <v>926</v>
       </c>
@@ -31395,7 +31396,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="38"/>
+      <c r="B483" s="39"/>
       <c r="C483" s="4" t="s">
         <v>927</v>
       </c>
@@ -31449,7 +31450,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="38"/>
+      <c r="B484" s="39"/>
       <c r="C484" s="4" t="s">
         <v>929</v>
       </c>
@@ -31503,7 +31504,7 @@
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="38"/>
+      <c r="B485" s="39"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -31557,7 +31558,7 @@
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="37" t="s">
+      <c r="B486" s="40" t="s">
         <v>1114</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -31614,7 +31615,7 @@
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="37"/>
+      <c r="B487" s="40"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -31669,7 +31670,7 @@
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="37"/>
+      <c r="B488" s="40"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -31724,7 +31725,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="37"/>
+      <c r="B489" s="40"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -31779,7 +31780,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="37"/>
+      <c r="B490" s="40"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -31834,7 +31835,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="38" t="s">
+      <c r="B491" s="39" t="s">
         <v>1118</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -31890,7 +31891,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="38"/>
+      <c r="B492" s="39"/>
       <c r="C492" s="2" t="s">
         <v>368</v>
       </c>
@@ -31944,7 +31945,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="38"/>
+      <c r="B493" s="39"/>
       <c r="C493" s="2" t="s">
         <v>371</v>
       </c>
@@ -31998,7 +31999,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="38"/>
+      <c r="B494" s="39"/>
       <c r="C494" s="2" t="s">
         <v>374</v>
       </c>
@@ -32052,7 +32053,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="38"/>
+      <c r="B495" s="39"/>
       <c r="C495" s="2" t="s">
         <v>377</v>
       </c>
@@ -32106,7 +32107,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="38"/>
+      <c r="B496" s="39"/>
       <c r="C496" s="2" t="s">
         <v>380</v>
       </c>
@@ -32160,7 +32161,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="38"/>
+      <c r="B497" s="39"/>
       <c r="C497" s="2" t="s">
         <v>384</v>
       </c>
@@ -32214,7 +32215,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="37" t="s">
+      <c r="B498" s="40" t="s">
         <v>1123</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32270,7 +32271,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="37"/>
+      <c r="B499" s="40"/>
       <c r="C499" s="1" t="s">
         <v>392</v>
       </c>
@@ -32324,7 +32325,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="37"/>
+      <c r="B500" s="40"/>
       <c r="C500" s="1" t="s">
         <v>395</v>
       </c>
@@ -32378,7 +32379,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="37"/>
+      <c r="B501" s="40"/>
       <c r="C501" s="1" t="s">
         <v>399</v>
       </c>
@@ -32432,7 +32433,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="37"/>
+      <c r="B502" s="40"/>
       <c r="C502" s="1" t="s">
         <v>402</v>
       </c>
@@ -32486,7 +32487,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="37"/>
+      <c r="B503" s="40"/>
       <c r="C503" s="1" t="s">
         <v>406</v>
       </c>
@@ -32540,7 +32541,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="37"/>
+      <c r="B504" s="40"/>
       <c r="C504" s="1" t="s">
         <v>410</v>
       </c>
@@ -32594,7 +32595,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="38" t="s">
+      <c r="B505" s="39" t="s">
         <v>1129</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -32650,7 +32651,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="38"/>
+      <c r="B506" s="39"/>
       <c r="C506" s="2" t="s">
         <v>419</v>
       </c>
@@ -32704,7 +32705,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="38"/>
+      <c r="B507" s="39"/>
       <c r="C507" s="2" t="s">
         <v>423</v>
       </c>
@@ -32758,7 +32759,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="38"/>
+      <c r="B508" s="39"/>
       <c r="C508" s="2" t="s">
         <v>427</v>
       </c>
@@ -32812,7 +32813,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="38"/>
+      <c r="B509" s="39"/>
       <c r="C509" s="2" t="s">
         <v>431</v>
       </c>
@@ -32866,7 +32867,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="38"/>
+      <c r="B510" s="39"/>
       <c r="C510" s="2" t="s">
         <v>435</v>
       </c>
@@ -32920,7 +32921,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="37" t="s">
+      <c r="B511" s="40" t="s">
         <v>439</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -32976,7 +32977,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="37"/>
+      <c r="B512" s="40"/>
       <c r="C512" s="3" t="s">
         <v>444</v>
       </c>
@@ -33030,7 +33031,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="37"/>
+      <c r="B513" s="40"/>
       <c r="C513" s="3" t="s">
         <v>448</v>
       </c>
@@ -33084,7 +33085,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="37"/>
+      <c r="B514" s="40"/>
       <c r="C514" s="3" t="s">
         <v>451</v>
       </c>
@@ -33138,7 +33139,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="37"/>
+      <c r="B515" s="40"/>
       <c r="C515" s="3" t="s">
         <v>455</v>
       </c>
@@ -33192,7 +33193,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="38" t="s">
+      <c r="B516" s="39" t="s">
         <v>459</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33248,7 +33249,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="38"/>
+      <c r="B517" s="39"/>
       <c r="C517" s="4" t="s">
         <v>464</v>
       </c>
@@ -33302,7 +33303,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="38"/>
+      <c r="B518" s="39"/>
       <c r="C518" s="4" t="s">
         <v>468</v>
       </c>
@@ -33356,7 +33357,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="38"/>
+      <c r="B519" s="39"/>
       <c r="C519" s="4" t="s">
         <v>471</v>
       </c>
@@ -33410,7 +33411,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="38"/>
+      <c r="B520" s="39"/>
       <c r="C520" s="4" t="s">
         <v>474</v>
       </c>
@@ -33464,7 +33465,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="38"/>
+      <c r="B521" s="39"/>
       <c r="C521" s="4" t="s">
         <v>478</v>
       </c>
@@ -33518,7 +33519,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="38"/>
+      <c r="B522" s="39"/>
       <c r="C522" s="4" t="s">
         <v>482</v>
       </c>
@@ -33572,7 +33573,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="37" t="s">
+      <c r="B523" s="40" t="s">
         <v>487</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -33628,7 +33629,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="37"/>
+      <c r="B524" s="40"/>
       <c r="C524" s="3" t="s">
         <v>492</v>
       </c>
@@ -33682,7 +33683,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="37"/>
+      <c r="B525" s="40"/>
       <c r="C525" s="3" t="s">
         <v>496</v>
       </c>
@@ -33736,7 +33737,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="37"/>
+      <c r="B526" s="40"/>
       <c r="C526" s="3" t="s">
         <v>500</v>
       </c>
@@ -33790,7 +33791,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="37"/>
+      <c r="B527" s="40"/>
       <c r="C527" s="3" t="s">
         <v>504</v>
       </c>
@@ -33844,7 +33845,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="37"/>
+      <c r="B528" s="40"/>
       <c r="C528" s="3" t="s">
         <v>508</v>
       </c>
@@ -33898,7 +33899,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="37"/>
+      <c r="B529" s="40"/>
       <c r="C529" s="3" t="s">
         <v>512</v>
       </c>
@@ -33952,7 +33953,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="38" t="s">
+      <c r="B530" s="39" t="s">
         <v>515</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34008,7 +34009,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="38"/>
+      <c r="B531" s="39"/>
       <c r="C531" s="4" t="s">
         <v>520</v>
       </c>
@@ -34062,7 +34063,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="38"/>
+      <c r="B532" s="39"/>
       <c r="C532" s="4" t="s">
         <v>524</v>
       </c>
@@ -34116,7 +34117,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="38"/>
+      <c r="B533" s="39"/>
       <c r="C533" s="4" t="s">
         <v>528</v>
       </c>
@@ -34170,7 +34171,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="38"/>
+      <c r="B534" s="39"/>
       <c r="C534" s="4" t="s">
         <v>532</v>
       </c>
@@ -34224,7 +34225,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="37" t="s">
+      <c r="B535" s="40" t="s">
         <v>536</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34280,7 +34281,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="37"/>
+      <c r="B536" s="40"/>
       <c r="C536" s="3" t="s">
         <v>541</v>
       </c>
@@ -34334,7 +34335,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="37"/>
+      <c r="B537" s="40"/>
       <c r="C537" s="3" t="s">
         <v>545</v>
       </c>
@@ -34388,7 +34389,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="37"/>
+      <c r="B538" s="40"/>
       <c r="C538" s="3" t="s">
         <v>549</v>
       </c>
@@ -34442,7 +34443,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="37"/>
+      <c r="B539" s="40"/>
       <c r="C539" s="3" t="s">
         <v>553</v>
       </c>
@@ -34496,7 +34497,7 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="38" t="s">
+      <c r="B540" s="39" t="s">
         <v>1162</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -34552,7 +34553,7 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="38"/>
+      <c r="B541" s="39"/>
       <c r="C541" s="2" t="s">
         <v>561</v>
       </c>
@@ -34606,7 +34607,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="37" t="s">
+      <c r="B542" s="40" t="s">
         <v>564</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -34662,7 +34663,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="37"/>
+      <c r="B543" s="40"/>
       <c r="C543" s="1" t="s">
         <v>569</v>
       </c>
@@ -34716,7 +34717,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="37"/>
+      <c r="B544" s="40"/>
       <c r="C544" s="1" t="s">
         <v>573</v>
       </c>
@@ -35195,7 +35196,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="37" t="s">
+      <c r="B553" s="40" t="s">
         <v>606</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35251,7 +35252,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="37"/>
+      <c r="B554" s="40"/>
       <c r="C554" s="1" t="s">
         <v>611</v>
       </c>
@@ -35305,7 +35306,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="37"/>
+      <c r="B555" s="40"/>
       <c r="C555" s="1" t="s">
         <v>615</v>
       </c>
@@ -35359,7 +35360,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="37"/>
+      <c r="B556" s="40"/>
       <c r="C556" s="1" t="s">
         <v>619</v>
       </c>
@@ -35413,7 +35414,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="37" t="s">
+      <c r="B557" s="40" t="s">
         <v>623</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35469,7 +35470,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="37"/>
+      <c r="B558" s="40"/>
       <c r="C558" s="1" t="s">
         <v>627</v>
       </c>
@@ -35523,7 +35524,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="37"/>
+      <c r="B559" s="40"/>
       <c r="C559" s="1" t="s">
         <v>631</v>
       </c>
@@ -35577,7 +35578,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="37"/>
+      <c r="B560" s="40"/>
       <c r="C560" s="1" t="s">
         <v>635</v>
       </c>
@@ -46104,81 +46105,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46187,6 +46113,81 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A89B5B-335A-49FE-9DC3-6F79036F6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD22731-B890-4790-9708-F5DBF8369D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1371">
   <si>
     <t>int</t>
   </si>
@@ -4130,13 +4130,37 @@
   </si>
   <si>
     <t>27300|28000</t>
+  </si>
+  <si>
+    <t>ABA7434545378E170D093C928820B2D4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB0D664D4F411795A3827FA44F32B787</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>64019A8D458E21832A8A3BA6E4C55C38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9A4F2E8B4C6273152439BA82FF87553A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3D335A04535D7E1584B5BB88B1A0486</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4182030946FD332A2FD83E83B2662B1F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -4173,6 +4197,17 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4219,7 +4254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4292,11 +4327,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4392,20 +4442,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4671,10 +4733,10 @@
   <dimension ref="A1:Z745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
-      <selection pane="bottomRight" activeCell="J497" sqref="J497"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4951,7 +5013,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -4969,8 +5031,8 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
-        <v>338684</v>
+      <c r="I6" s="42">
+        <v>407032</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>61</v>
@@ -5003,11 +5065,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5023,8 +5085,8 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
-        <v>342455</v>
+      <c r="I7" s="42">
+        <v>407036</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>61</v>
@@ -5057,11 +5119,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5077,8 +5139,8 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
-        <v>338643</v>
+      <c r="I8" s="43">
+        <v>407056</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>61</v>
@@ -5111,11 +5173,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5131,8 +5193,8 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
-        <v>338634</v>
+      <c r="I9" s="43">
+        <v>407008</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>61</v>
@@ -5169,7 +5231,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5185,8 +5247,8 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <v>338635</v>
+      <c r="I10" s="42">
+        <v>407031</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>75</v>
@@ -5223,7 +5285,7 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5241,8 +5303,8 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
-        <v>338639</v>
+      <c r="I11" s="42">
+        <v>407014</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>61</v>
@@ -5279,7 +5341,7 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
@@ -5295,8 +5357,8 @@
       <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>338629</v>
+      <c r="I12" s="42">
+        <v>407046</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>61</v>
@@ -5333,7 +5395,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
@@ -5349,8 +5411,8 @@
       <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
-        <v>338683</v>
+      <c r="I13" s="42">
+        <v>407009</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>61</v>
@@ -5387,7 +5449,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
@@ -5403,8 +5465,8 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
-        <v>338646</v>
+      <c r="I14" s="42">
+        <v>407061</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>61</v>
@@ -5441,7 +5503,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
@@ -5457,8 +5519,8 @@
       <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
-        <v>338680</v>
+      <c r="I15" s="42">
+        <v>407006</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>75</v>
@@ -5491,11 +5553,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5513,8 +5575,8 @@
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
-        <v>338640</v>
+      <c r="I16" s="42">
+        <v>407026</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>61</v>
@@ -5547,11 +5609,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5567,8 +5629,8 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
-        <v>338656</v>
+      <c r="I17" s="43">
+        <v>407024</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>61</v>
@@ -5601,11 +5663,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5621,8 +5683,8 @@
       <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="4">
-        <v>338638</v>
+      <c r="I18" s="43">
+        <v>407058</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>61</v>
@@ -5655,11 +5717,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5675,8 +5737,8 @@
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <v>338657</v>
+      <c r="I19" s="43">
+        <v>407023</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>75</v>
@@ -5713,7 +5775,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -5729,8 +5791,8 @@
       <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
-        <v>338652</v>
+      <c r="I20" s="42">
+        <v>407055</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>116</v>
@@ -5767,7 +5829,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5785,8 +5847,8 @@
       <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <v>176427</v>
+      <c r="I21" s="42">
+        <v>407011</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>61</v>
@@ -5823,7 +5885,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
@@ -5839,8 +5901,8 @@
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
-        <v>338648</v>
+      <c r="I22" s="42">
+        <v>407063</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>61</v>
@@ -5877,7 +5939,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="3" t="s">
         <v>126</v>
       </c>
@@ -5893,8 +5955,8 @@
       <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="3">
-        <v>338631</v>
+      <c r="I23" s="42">
+        <v>407002</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>75</v>
@@ -5931,7 +5993,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3" t="s">
         <v>130</v>
       </c>
@@ -5947,8 +6009,8 @@
       <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="3">
-        <v>338653</v>
+      <c r="I24" s="42">
+        <v>407029</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>75</v>
@@ -5985,7 +6047,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6003,8 +6065,8 @@
       <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
-        <v>338686</v>
+      <c r="I25" s="42">
+        <v>407059</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>61</v>
@@ -6041,7 +6103,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6057,8 +6119,8 @@
       <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
-        <v>338681</v>
+      <c r="I26" s="42">
+        <v>406989</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>61</v>
@@ -6091,11 +6153,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6111,8 +6173,8 @@
       <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="4">
-        <v>338640</v>
+      <c r="I27" s="45">
+        <v>407052</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>61</v>
@@ -6145,11 +6207,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6165,8 +6227,8 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4">
-        <v>338657</v>
+      <c r="I28" s="43">
+        <v>407033</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>61</v>
@@ -6199,11 +6261,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6219,8 +6281,8 @@
       <c r="H29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="4">
-        <v>338633</v>
+      <c r="I29" s="43">
+        <v>407007</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>153</v>
@@ -6253,11 +6315,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6275,8 +6337,8 @@
       <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="3">
-        <v>338641</v>
+      <c r="I30" s="43">
+        <v>407049</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>61</v>
@@ -6313,7 +6375,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
@@ -6329,8 +6391,8 @@
       <c r="H31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" s="3">
-        <v>338687</v>
+      <c r="I31" s="42">
+        <v>407040</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>61</v>
@@ -6367,7 +6429,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="3" t="s">
         <v>163</v>
       </c>
@@ -6383,8 +6445,8 @@
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="3">
-        <v>176409</v>
+      <c r="I32" s="42">
+        <v>407044</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>61</v>
@@ -6421,7 +6483,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -6437,8 +6499,8 @@
       <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="3">
-        <v>338628</v>
+      <c r="I33" s="42">
+        <v>407050</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>75</v>
@@ -6475,7 +6537,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
@@ -6491,8 +6553,8 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="3">
-        <v>338685</v>
+      <c r="I34" s="42">
+        <v>407022</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>153</v>
@@ -6529,7 +6591,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6547,8 +6609,8 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4">
-        <v>338651</v>
+      <c r="I35" s="42">
+        <v>407042</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>61</v>
@@ -6585,7 +6647,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6601,8 +6663,8 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
-        <v>338682</v>
+      <c r="I36" s="42">
+        <v>407013</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>61</v>
@@ -6639,7 +6701,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6655,8 +6717,8 @@
       <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37" s="4">
-        <v>338632</v>
+      <c r="I37" s="42">
+        <v>407048</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>61</v>
@@ -6693,7 +6755,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -6747,14 +6809,14 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>194</v>
+      <c r="D39" s="44" t="s">
+        <v>1370</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>195</v>
@@ -6765,8 +6827,8 @@
       <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="3">
-        <v>338647</v>
+      <c r="I39" s="42">
+        <v>407017</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>61</v>
@@ -6803,7 +6865,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="3" t="s">
         <v>197</v>
       </c>
@@ -6819,8 +6881,8 @@
       <c r="H40" s="4">
         <v>1</v>
       </c>
-      <c r="I40" s="3">
-        <v>338690</v>
+      <c r="I40" s="42">
+        <v>407020</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>61</v>
@@ -6853,11 +6915,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="3" t="s">
         <v>200</v>
       </c>
@@ -6873,8 +6935,8 @@
       <c r="H41" s="4">
         <v>1</v>
       </c>
-      <c r="I41" s="3">
-        <v>338649</v>
+      <c r="I41" s="42">
+        <v>407019</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>61</v>
@@ -6907,11 +6969,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
@@ -6927,8 +6989,8 @@
       <c r="H42" s="4">
         <v>1</v>
       </c>
-      <c r="I42" s="3">
-        <v>338650</v>
+      <c r="I42" s="43">
+        <v>407021</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>75</v>
@@ -6965,7 +7027,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="3" t="s">
         <v>208</v>
       </c>
@@ -6981,8 +7043,8 @@
       <c r="H43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="3">
-        <v>338689</v>
+      <c r="I43" s="42">
+        <v>407057</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>153</v>
@@ -7019,7 +7081,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="40" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7075,7 +7137,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7129,7 +7191,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7183,7 +7245,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7237,7 +7299,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7291,7 +7353,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="39" t="s">
         <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7347,7 +7409,7 @@
       <c r="A50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="3" t="s">
         <v>235</v>
       </c>
@@ -7401,7 +7463,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="3" t="s">
         <v>238</v>
       </c>
@@ -7455,7 +7517,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
@@ -7509,7 +7571,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="3" t="s">
         <v>246</v>
       </c>
@@ -7563,7 +7625,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="40" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7619,7 +7681,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7635,8 +7697,8 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="I55" s="4">
-        <v>180211</v>
+      <c r="I55" s="42">
+        <v>407015</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>116</v>
@@ -7673,7 +7735,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7727,7 +7789,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7781,7 +7843,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -7835,7 +7897,7 @@
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="39" t="s">
         <v>269</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -7891,7 +7953,7 @@
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="3" t="s">
         <v>274</v>
       </c>
@@ -7945,7 +8007,7 @@
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="3" t="s">
         <v>278</v>
       </c>
@@ -7999,7 +8061,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="3" t="s">
         <v>282</v>
       </c>
@@ -8053,7 +8115,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="3" t="s">
         <v>286</v>
       </c>
@@ -8107,7 +8169,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="40" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8163,7 +8225,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8179,8 +8241,8 @@
       <c r="H65" s="4">
         <v>1</v>
       </c>
-      <c r="I65" s="4">
-        <v>338688</v>
+      <c r="I65" s="42">
+        <v>407039</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>153</v>
@@ -8217,7 +8279,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8271,7 +8333,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8287,8 +8349,8 @@
       <c r="H67" s="4">
         <v>1</v>
       </c>
-      <c r="I67" s="4">
-        <v>180204</v>
+      <c r="I67" s="42">
+        <v>407030</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>116</v>
@@ -8325,7 +8387,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8341,8 +8403,8 @@
       <c r="H68" s="4">
         <v>1</v>
       </c>
-      <c r="I68" s="4">
-        <v>338642</v>
+      <c r="I68" s="42">
+        <v>407045</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>116</v>
@@ -8379,7 +8441,7 @@
       <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="39" t="s">
         <v>309</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -8397,8 +8459,8 @@
       <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="I69" s="3">
-        <v>180203</v>
+      <c r="I69" s="42">
+        <v>407010</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>116</v>
@@ -8435,7 +8497,7 @@
       <c r="A70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="3" t="s">
         <v>314</v>
       </c>
@@ -8485,11 +8547,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="3" t="s">
         <v>318</v>
       </c>
@@ -8539,11 +8601,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>67</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="3" t="s">
         <v>322</v>
       </c>
@@ -8559,8 +8621,8 @@
       <c r="H72" s="4">
         <v>1</v>
       </c>
-      <c r="I72" s="3">
-        <v>338645</v>
+      <c r="I72" s="43">
+        <v>407038</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>116</v>
@@ -8597,7 +8659,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="40" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8615,8 +8677,8 @@
       <c r="H73" s="4">
         <v>1</v>
       </c>
-      <c r="I73" s="4">
-        <v>338692</v>
+      <c r="I73" s="42">
+        <v>407016</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>153</v>
@@ -8653,7 +8715,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8669,8 +8731,8 @@
       <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I74" s="4">
-        <v>180210</v>
+      <c r="I74" s="45">
+        <v>407001</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>116</v>
@@ -8707,7 +8769,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8761,7 +8823,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8811,11 +8873,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -8831,8 +8893,8 @@
       <c r="H77" s="4">
         <v>1</v>
       </c>
-      <c r="I77" s="4">
-        <v>338691</v>
+      <c r="I77" s="42">
+        <v>407041</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>116</v>
@@ -8865,11 +8927,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>73</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="39" t="s">
         <v>345</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -8887,8 +8949,8 @@
       <c r="H78" s="4">
         <v>1</v>
       </c>
-      <c r="I78" s="3">
-        <v>338655</v>
+      <c r="I78" s="43">
+        <v>407004</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>153</v>
@@ -8921,11 +8983,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>74</v>
       </c>
-      <c r="B79" s="38"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="3" t="s">
         <v>350</v>
       </c>
@@ -8941,8 +9003,8 @@
       <c r="H79" s="4">
         <v>1</v>
       </c>
-      <c r="I79" s="3">
-        <v>338654</v>
+      <c r="I79" s="42">
+        <v>407034</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>153</v>
@@ -8975,11 +9037,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>75</v>
       </c>
-      <c r="B80" s="38"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="3" t="s">
         <v>353</v>
       </c>
@@ -8995,8 +9057,8 @@
       <c r="H80" s="4">
         <v>1</v>
       </c>
-      <c r="I80" s="3">
-        <v>338644</v>
+      <c r="I80" s="43">
+        <v>407012</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>153</v>
@@ -9033,7 +9095,7 @@
       <c r="A81" s="3">
         <v>76</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="3" t="s">
         <v>356</v>
       </c>
@@ -9049,8 +9111,8 @@
       <c r="H81" s="4">
         <v>1</v>
       </c>
-      <c r="I81" s="3">
-        <v>338637</v>
+      <c r="I81" s="42">
+        <v>407028</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>153</v>
@@ -9087,7 +9149,7 @@
       <c r="A82" s="3">
         <v>77</v>
       </c>
-      <c r="B82" s="38"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="3" t="s">
         <v>360</v>
       </c>
@@ -9141,7 +9203,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9197,7 +9259,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="39"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="2" t="s">
         <v>368</v>
       </c>
@@ -9251,7 +9313,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="2" t="s">
         <v>371</v>
       </c>
@@ -9305,7 +9367,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="2" t="s">
         <v>374</v>
       </c>
@@ -9359,7 +9421,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="39"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="2" t="s">
         <v>377</v>
       </c>
@@ -9413,7 +9475,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="2" t="s">
         <v>380</v>
       </c>
@@ -9467,7 +9529,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="39"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="2" t="s">
         <v>384</v>
       </c>
@@ -9521,7 +9583,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="37" t="s">
         <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9577,7 +9639,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="40"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="1" t="s">
         <v>392</v>
       </c>
@@ -9631,7 +9693,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="1" t="s">
         <v>395</v>
       </c>
@@ -9685,7 +9747,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="1" t="s">
         <v>399</v>
       </c>
@@ -9739,7 +9801,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="1" t="s">
         <v>402</v>
       </c>
@@ -9793,7 +9855,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="1" t="s">
         <v>406</v>
       </c>
@@ -9847,7 +9909,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="1" t="s">
         <v>410</v>
       </c>
@@ -10227,7 +10289,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="37" t="s">
         <v>439</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10283,7 +10345,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="40"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="3" t="s">
         <v>444</v>
       </c>
@@ -10337,7 +10399,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="40"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="3" t="s">
         <v>448</v>
       </c>
@@ -10391,7 +10453,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="40"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="3" t="s">
         <v>451</v>
       </c>
@@ -10445,7 +10507,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="40"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="3" t="s">
         <v>455</v>
       </c>
@@ -10499,7 +10561,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="38" t="s">
         <v>459</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10555,7 +10617,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="39"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="4" t="s">
         <v>464</v>
       </c>
@@ -10609,7 +10671,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="39"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="4" t="s">
         <v>468</v>
       </c>
@@ -10663,7 +10725,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="39"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="4" t="s">
         <v>471</v>
       </c>
@@ -10717,7 +10779,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="39"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="4" t="s">
         <v>474</v>
       </c>
@@ -10771,7 +10833,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="39"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="4" t="s">
         <v>478</v>
       </c>
@@ -10825,7 +10887,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="4" t="s">
         <v>482</v>
       </c>
@@ -10879,7 +10941,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="37" t="s">
         <v>487</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -10935,7 +10997,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="40"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="3" t="s">
         <v>492</v>
       </c>
@@ -10989,7 +11051,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="40"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="3" t="s">
         <v>496</v>
       </c>
@@ -11043,7 +11105,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="40"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="3" t="s">
         <v>500</v>
       </c>
@@ -11097,7 +11159,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="40"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="3" t="s">
         <v>504</v>
       </c>
@@ -11151,7 +11213,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="40"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="3" t="s">
         <v>508</v>
       </c>
@@ -11205,7 +11267,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="40"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="3" t="s">
         <v>512</v>
       </c>
@@ -11259,7 +11321,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="38" t="s">
         <v>515</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11315,7 +11377,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="39"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="4" t="s">
         <v>520</v>
       </c>
@@ -11369,7 +11431,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="39"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="4" t="s">
         <v>524</v>
       </c>
@@ -11423,7 +11485,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="4" t="s">
         <v>528</v>
       </c>
@@ -11477,7 +11539,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="39"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="4" t="s">
         <v>532</v>
       </c>
@@ -11531,7 +11593,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11587,7 +11649,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="40"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="3" t="s">
         <v>541</v>
       </c>
@@ -11641,7 +11703,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="40"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="3" t="s">
         <v>545</v>
       </c>
@@ -11695,7 +11757,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="40"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="3" t="s">
         <v>549</v>
       </c>
@@ -11749,7 +11811,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="40"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="3" t="s">
         <v>553</v>
       </c>
@@ -11803,7 +11865,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="38" t="s">
         <v>557</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11859,7 +11921,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="2" t="s">
         <v>561</v>
       </c>
@@ -12502,7 +12564,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="40" t="s">
+      <c r="B145" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12558,7 +12620,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="40"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="1" t="s">
         <v>611</v>
       </c>
@@ -12612,7 +12674,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="40"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="1" t="s">
         <v>615</v>
       </c>
@@ -12666,7 +12728,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="40"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="1" t="s">
         <v>619</v>
       </c>
@@ -12720,7 +12782,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="40" t="s">
+      <c r="B149" s="37" t="s">
         <v>623</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12776,7 +12838,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="40"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="1" t="s">
         <v>627</v>
       </c>
@@ -12830,7 +12892,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="40"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="1" t="s">
         <v>631</v>
       </c>
@@ -12846,8 +12908,8 @@
       <c r="H151" s="3">
         <v>1</v>
       </c>
-      <c r="I151" s="3">
-        <v>210196</v>
+      <c r="I151" s="42">
+        <v>407043</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>153</v>
@@ -12884,7 +12946,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="40"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="1" t="s">
         <v>635</v>
       </c>
@@ -13763,8 +13825,8 @@
       <c r="H168" s="2">
         <v>1</v>
       </c>
-      <c r="I168" s="2">
-        <v>210601</v>
+      <c r="I168" s="42">
+        <v>407062</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>116</v>
@@ -13806,8 +13868,8 @@
       <c r="C169" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>704</v>
+      <c r="D169" s="44" t="s">
+        <v>1368</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>705</v>
@@ -13818,8 +13880,8 @@
       <c r="H169" s="3">
         <v>1</v>
       </c>
-      <c r="I169" s="3">
-        <v>210765</v>
+      <c r="I169" s="42">
+        <v>407058</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>61</v>
@@ -15006,8 +15068,8 @@
       <c r="H191" s="3">
         <v>1</v>
       </c>
-      <c r="I191" s="3">
-        <v>212418</v>
+      <c r="I191" s="42">
+        <v>407047</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>61</v>
@@ -15438,8 +15500,8 @@
       <c r="H199" s="3">
         <v>1</v>
       </c>
-      <c r="I199" s="3">
-        <v>212415</v>
+      <c r="I199" s="42">
+        <v>407051</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>153</v>
@@ -15546,8 +15608,8 @@
       <c r="H201" s="3">
         <v>1</v>
       </c>
-      <c r="I201" s="3">
-        <v>215633</v>
+      <c r="I201" s="42">
+        <v>407018</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>75</v>
@@ -15600,8 +15662,8 @@
       <c r="H202" s="3">
         <v>1</v>
       </c>
-      <c r="I202" s="3">
-        <v>215634</v>
+      <c r="I202" s="42">
+        <v>407037</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>75</v>
@@ -15762,8 +15824,8 @@
       <c r="H205" s="3">
         <v>1</v>
       </c>
-      <c r="I205" s="3">
-        <v>215635</v>
+      <c r="I205" s="42">
+        <v>407035</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>116</v>
@@ -15981,7 +16043,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="37" t="s">
+      <c r="B210" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16002,8 +16064,8 @@
       <c r="H210" s="4">
         <v>1</v>
       </c>
-      <c r="I210" s="4">
-        <v>338684</v>
+      <c r="I210" s="42">
+        <v>407032</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>61</v>
@@ -16036,11 +16098,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="37"/>
+      <c r="B211" s="40"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16059,8 +16121,8 @@
       <c r="H211" s="4">
         <v>1</v>
       </c>
-      <c r="I211" s="4">
-        <v>342455</v>
+      <c r="I211" s="42">
+        <v>407036</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>61</v>
@@ -16093,11 +16155,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="37"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16116,8 +16178,8 @@
       <c r="H212" s="4">
         <v>1</v>
       </c>
-      <c r="I212" s="4">
-        <v>338643</v>
+      <c r="I212" s="43">
+        <v>407056</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>61</v>
@@ -16150,11 +16212,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="37"/>
+      <c r="B213" s="40"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16173,8 +16235,8 @@
       <c r="H213" s="4">
         <v>1</v>
       </c>
-      <c r="I213" s="4">
-        <v>338634</v>
+      <c r="I213" s="43">
+        <v>407008</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>61</v>
@@ -16211,7 +16273,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="37"/>
+      <c r="B214" s="40"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16230,8 +16292,8 @@
       <c r="H214" s="4">
         <v>1</v>
       </c>
-      <c r="I214" s="4">
-        <v>338635</v>
+      <c r="I214" s="42">
+        <v>407031</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>75</v>
@@ -16268,7 +16330,7 @@
       <c r="A215" s="4">
         <v>506</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="39" t="s">
         <v>859</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -16289,8 +16351,8 @@
       <c r="H215" s="4">
         <v>1</v>
       </c>
-      <c r="I215" s="3">
-        <v>338639</v>
+      <c r="I215" s="42">
+        <v>407014</v>
       </c>
       <c r="J215" s="3" t="s">
         <v>61</v>
@@ -16327,7 +16389,7 @@
       <c r="A216" s="4">
         <v>507</v>
       </c>
-      <c r="B216" s="38"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="3" t="s">
         <v>82</v>
       </c>
@@ -16346,8 +16408,8 @@
       <c r="H216" s="4">
         <v>1</v>
       </c>
-      <c r="I216" s="3">
-        <v>338629</v>
+      <c r="I216" s="42">
+        <v>407046</v>
       </c>
       <c r="J216" s="3" t="s">
         <v>61</v>
@@ -16384,7 +16446,7 @@
       <c r="A217" s="4">
         <v>508</v>
       </c>
-      <c r="B217" s="38"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="3" t="s">
         <v>85</v>
       </c>
@@ -16403,8 +16465,8 @@
       <c r="H217" s="4">
         <v>1</v>
       </c>
-      <c r="I217" s="3">
-        <v>338683</v>
+      <c r="I217" s="42">
+        <v>407009</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>61</v>
@@ -16441,7 +16503,7 @@
       <c r="A218" s="4">
         <v>509</v>
       </c>
-      <c r="B218" s="38"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="3" t="s">
         <v>89</v>
       </c>
@@ -16460,8 +16522,8 @@
       <c r="H218" s="4">
         <v>1</v>
       </c>
-      <c r="I218" s="3">
-        <v>338646</v>
+      <c r="I218" s="42">
+        <v>407061</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>61</v>
@@ -16498,7 +16560,7 @@
       <c r="A219" s="4">
         <v>510</v>
       </c>
-      <c r="B219" s="38"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="3" t="s">
         <v>93</v>
       </c>
@@ -16517,8 +16579,8 @@
       <c r="H219" s="4">
         <v>1</v>
       </c>
-      <c r="I219" s="3">
-        <v>338680</v>
+      <c r="I219" s="42">
+        <v>407006</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>75</v>
@@ -16551,11 +16613,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="37" t="s">
+      <c r="B220" s="40" t="s">
         <v>864</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16576,8 +16638,8 @@
       <c r="H220" s="4">
         <v>1</v>
       </c>
-      <c r="I220" s="4">
-        <v>338640</v>
+      <c r="I220" s="42">
+        <v>407026</v>
       </c>
       <c r="J220" s="4" t="s">
         <v>61</v>
@@ -16610,11 +16672,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="37"/>
+      <c r="B221" s="40"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16633,8 +16695,8 @@
       <c r="H221" s="4">
         <v>1</v>
       </c>
-      <c r="I221" s="4">
-        <v>338656</v>
+      <c r="I221" s="43">
+        <v>407024</v>
       </c>
       <c r="J221" s="4" t="s">
         <v>61</v>
@@ -16667,11 +16729,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="37"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -16690,8 +16752,8 @@
       <c r="H222" s="4">
         <v>1</v>
       </c>
-      <c r="I222" s="4">
-        <v>338638</v>
+      <c r="I222" s="43">
+        <v>407058</v>
       </c>
       <c r="J222" s="4" t="s">
         <v>61</v>
@@ -16724,11 +16786,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="37"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -16747,8 +16809,8 @@
       <c r="H223" s="4">
         <v>1</v>
       </c>
-      <c r="I223" s="4">
-        <v>338657</v>
+      <c r="I223" s="43">
+        <v>407023</v>
       </c>
       <c r="J223" s="4" t="s">
         <v>75</v>
@@ -16785,7 +16847,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="37"/>
+      <c r="B224" s="40"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -16804,8 +16866,8 @@
       <c r="H224" s="4">
         <v>1</v>
       </c>
-      <c r="I224" s="4">
-        <v>338652</v>
+      <c r="I224" s="42">
+        <v>407055</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>116</v>
@@ -16842,7 +16904,7 @@
       <c r="A225" s="4">
         <v>516</v>
       </c>
-      <c r="B225" s="38" t="s">
+      <c r="B225" s="39" t="s">
         <v>869</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -16863,8 +16925,8 @@
       <c r="H225" s="4">
         <v>1</v>
       </c>
-      <c r="I225" s="3">
-        <v>338636</v>
+      <c r="I225" s="42">
+        <v>407011</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>61</v>
@@ -16901,7 +16963,7 @@
       <c r="A226" s="4">
         <v>517</v>
       </c>
-      <c r="B226" s="38"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="3" t="s">
         <v>123</v>
       </c>
@@ -16920,8 +16982,8 @@
       <c r="H226" s="4">
         <v>1</v>
       </c>
-      <c r="I226" s="3">
-        <v>338648</v>
+      <c r="I226" s="42">
+        <v>407063</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>61</v>
@@ -16958,7 +17020,7 @@
       <c r="A227" s="4">
         <v>518</v>
       </c>
-      <c r="B227" s="38"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="3" t="s">
         <v>126</v>
       </c>
@@ -16977,8 +17039,8 @@
       <c r="H227" s="4">
         <v>1</v>
       </c>
-      <c r="I227" s="3">
-        <v>338631</v>
+      <c r="I227" s="42">
+        <v>407002</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>75</v>
@@ -17015,7 +17077,7 @@
       <c r="A228" s="4">
         <v>519</v>
       </c>
-      <c r="B228" s="38"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="3" t="s">
         <v>130</v>
       </c>
@@ -17034,8 +17096,8 @@
       <c r="H228" s="4">
         <v>1</v>
       </c>
-      <c r="I228" s="3">
-        <v>338653</v>
+      <c r="I228" s="42">
+        <v>407029</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>75</v>
@@ -17072,7 +17134,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="37" t="s">
+      <c r="B229" s="40" t="s">
         <v>873</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17093,8 +17155,8 @@
       <c r="H229" s="4">
         <v>1</v>
       </c>
-      <c r="I229" s="4">
-        <v>338686</v>
+      <c r="I229" s="42">
+        <v>407059</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>61</v>
@@ -17131,7 +17193,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="37"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17150,8 +17212,8 @@
       <c r="H230" s="4">
         <v>1</v>
       </c>
-      <c r="I230" s="4">
-        <v>338681</v>
+      <c r="I230" s="42">
+        <v>406989</v>
       </c>
       <c r="J230" s="4" t="s">
         <v>61</v>
@@ -17184,11 +17246,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="37"/>
+      <c r="B231" s="40"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17207,8 +17269,8 @@
       <c r="H231" s="4">
         <v>1</v>
       </c>
-      <c r="I231" s="4">
-        <v>338640</v>
+      <c r="I231" s="45">
+        <v>407052</v>
       </c>
       <c r="J231" s="4" t="s">
         <v>61</v>
@@ -17241,11 +17303,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="37"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17264,8 +17326,8 @@
       <c r="H232" s="4">
         <v>1</v>
       </c>
-      <c r="I232" s="4">
-        <v>338657</v>
+      <c r="I232" s="43">
+        <v>407033</v>
       </c>
       <c r="J232" s="4" t="s">
         <v>61</v>
@@ -17298,11 +17360,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="37"/>
+      <c r="B233" s="40"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17321,8 +17383,8 @@
       <c r="H233" s="4">
         <v>1</v>
       </c>
-      <c r="I233" s="4">
-        <v>338633</v>
+      <c r="I233" s="43">
+        <v>407007</v>
       </c>
       <c r="J233" s="4" t="s">
         <v>153</v>
@@ -17355,11 +17417,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4">
         <v>525</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="39" t="s">
         <v>878</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -17380,8 +17442,8 @@
       <c r="H234" s="4">
         <v>1</v>
       </c>
-      <c r="I234" s="3">
-        <v>338641</v>
+      <c r="I234" s="43">
+        <v>407049</v>
       </c>
       <c r="J234" s="3" t="s">
         <v>61</v>
@@ -17418,7 +17480,7 @@
       <c r="A235" s="4">
         <v>526</v>
       </c>
-      <c r="B235" s="38"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="3" t="s">
         <v>160</v>
       </c>
@@ -17437,8 +17499,8 @@
       <c r="H235" s="4">
         <v>1</v>
       </c>
-      <c r="I235" s="3">
-        <v>338687</v>
+      <c r="I235" s="42">
+        <v>407040</v>
       </c>
       <c r="J235" s="3" t="s">
         <v>61</v>
@@ -17475,7 +17537,7 @@
       <c r="A236" s="4">
         <v>527</v>
       </c>
-      <c r="B236" s="38"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="3" t="s">
         <v>163</v>
       </c>
@@ -17494,8 +17556,8 @@
       <c r="H236" s="4">
         <v>1</v>
       </c>
-      <c r="I236" s="3">
-        <v>176409</v>
+      <c r="I236" s="42">
+        <v>407044</v>
       </c>
       <c r="J236" s="3" t="s">
         <v>61</v>
@@ -17532,7 +17594,7 @@
       <c r="A237" s="4">
         <v>528</v>
       </c>
-      <c r="B237" s="38"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="3" t="s">
         <v>167</v>
       </c>
@@ -17551,8 +17613,8 @@
       <c r="H237" s="4">
         <v>1</v>
       </c>
-      <c r="I237" s="3">
-        <v>338628</v>
+      <c r="I237" s="42">
+        <v>407050</v>
       </c>
       <c r="J237" s="3" t="s">
         <v>75</v>
@@ -17589,7 +17651,7 @@
       <c r="A238" s="4">
         <v>529</v>
       </c>
-      <c r="B238" s="38"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="3" t="s">
         <v>171</v>
       </c>
@@ -17608,8 +17670,8 @@
       <c r="H238" s="4">
         <v>1</v>
       </c>
-      <c r="I238" s="3">
-        <v>338685</v>
+      <c r="I238" s="42">
+        <v>407022</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>153</v>
@@ -17646,7 +17708,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="37" t="s">
+      <c r="B239" s="40" t="s">
         <v>883</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17667,8 +17729,8 @@
       <c r="H239" s="4">
         <v>1</v>
       </c>
-      <c r="I239" s="4">
-        <v>338651</v>
+      <c r="I239" s="42">
+        <v>407042</v>
       </c>
       <c r="J239" s="4" t="s">
         <v>61</v>
@@ -17705,7 +17767,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="37"/>
+      <c r="B240" s="40"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -17724,8 +17786,8 @@
       <c r="H240" s="4">
         <v>1</v>
       </c>
-      <c r="I240" s="4">
-        <v>338682</v>
+      <c r="I240" s="42">
+        <v>407013</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>61</v>
@@ -17762,7 +17824,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="37"/>
+      <c r="B241" s="40"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -17781,8 +17843,8 @@
       <c r="H241" s="4">
         <v>1</v>
       </c>
-      <c r="I241" s="4">
-        <v>338632</v>
+      <c r="I241" s="42">
+        <v>407048</v>
       </c>
       <c r="J241" s="4" t="s">
         <v>61</v>
@@ -17819,7 +17881,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="37"/>
+      <c r="B242" s="40"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -17876,7 +17938,7 @@
       <c r="A243" s="4">
         <v>534</v>
       </c>
-      <c r="B243" s="38" t="s">
+      <c r="B243" s="39" t="s">
         <v>888</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -17897,8 +17959,8 @@
       <c r="H243" s="4">
         <v>1</v>
       </c>
-      <c r="I243" s="3">
-        <v>338647</v>
+      <c r="I243" s="42">
+        <v>407017</v>
       </c>
       <c r="J243" s="3" t="s">
         <v>61</v>
@@ -17935,7 +17997,7 @@
       <c r="A244" s="4">
         <v>535</v>
       </c>
-      <c r="B244" s="38"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="3" t="s">
         <v>197</v>
       </c>
@@ -17954,8 +18016,8 @@
       <c r="H244" s="4">
         <v>1</v>
       </c>
-      <c r="I244" s="3">
-        <v>338690</v>
+      <c r="I244" s="42">
+        <v>407020</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>61</v>
@@ -17988,11 +18050,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4">
         <v>536</v>
       </c>
-      <c r="B245" s="38"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="3" t="s">
         <v>200</v>
       </c>
@@ -18011,8 +18073,8 @@
       <c r="H245" s="4">
         <v>1</v>
       </c>
-      <c r="I245" s="3">
-        <v>338649</v>
+      <c r="I245" s="42">
+        <v>407019</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>61</v>
@@ -18045,11 +18107,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4">
         <v>537</v>
       </c>
-      <c r="B246" s="38"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="3" t="s">
         <v>204</v>
       </c>
@@ -18068,8 +18130,8 @@
       <c r="H246" s="4">
         <v>1</v>
       </c>
-      <c r="I246" s="3">
-        <v>338650</v>
+      <c r="I246" s="43">
+        <v>407021</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>75</v>
@@ -18106,7 +18168,7 @@
       <c r="A247" s="4">
         <v>538</v>
       </c>
-      <c r="B247" s="38"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="3" t="s">
         <v>208</v>
       </c>
@@ -18125,8 +18187,8 @@
       <c r="H247" s="4">
         <v>1</v>
       </c>
-      <c r="I247" s="3">
-        <v>338689</v>
+      <c r="I247" s="42">
+        <v>407057</v>
       </c>
       <c r="J247" s="3" t="s">
         <v>153</v>
@@ -18163,7 +18225,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="37" t="s">
+      <c r="B248" s="40" t="s">
         <v>893</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18222,7 +18284,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="37"/>
+      <c r="B249" s="40"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18279,7 +18341,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="37"/>
+      <c r="B250" s="40"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18336,7 +18398,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="37"/>
+      <c r="B251" s="40"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18393,7 +18455,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="37"/>
+      <c r="B252" s="40"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -18450,7 +18512,7 @@
       <c r="A253" s="4">
         <v>544</v>
       </c>
-      <c r="B253" s="38" t="s">
+      <c r="B253" s="39" t="s">
         <v>896</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -18509,7 +18571,7 @@
       <c r="A254" s="4">
         <v>545</v>
       </c>
-      <c r="B254" s="38"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="3" t="s">
         <v>235</v>
       </c>
@@ -18566,7 +18628,7 @@
       <c r="A255" s="4">
         <v>546</v>
       </c>
-      <c r="B255" s="38"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="3" t="s">
         <v>238</v>
       </c>
@@ -18623,7 +18685,7 @@
       <c r="A256" s="4">
         <v>547</v>
       </c>
-      <c r="B256" s="38"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="3" t="s">
         <v>242</v>
       </c>
@@ -18680,7 +18742,7 @@
       <c r="A257" s="4">
         <v>548</v>
       </c>
-      <c r="B257" s="38"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="3" t="s">
         <v>246</v>
       </c>
@@ -18737,7 +18799,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="37" t="s">
+      <c r="B258" s="40" t="s">
         <v>901</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -18796,7 +18858,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="37"/>
+      <c r="B259" s="40"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -18815,8 +18877,8 @@
       <c r="H259" s="4">
         <v>1</v>
       </c>
-      <c r="I259" s="4">
-        <v>180211</v>
+      <c r="I259" s="42">
+        <v>407015</v>
       </c>
       <c r="J259" s="4" t="s">
         <v>116</v>
@@ -18853,7 +18915,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="37"/>
+      <c r="B260" s="40"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -18910,7 +18972,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="37"/>
+      <c r="B261" s="40"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -18967,7 +19029,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="37"/>
+      <c r="B262" s="40"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19024,7 +19086,7 @@
       <c r="A263" s="4">
         <v>554</v>
       </c>
-      <c r="B263" s="38" t="s">
+      <c r="B263" s="39" t="s">
         <v>905</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -19083,7 +19145,7 @@
       <c r="A264" s="4">
         <v>555</v>
       </c>
-      <c r="B264" s="38"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="3" t="s">
         <v>274</v>
       </c>
@@ -19140,7 +19202,7 @@
       <c r="A265" s="4">
         <v>556</v>
       </c>
-      <c r="B265" s="38"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="3" t="s">
         <v>278</v>
       </c>
@@ -19197,7 +19259,7 @@
       <c r="A266" s="4">
         <v>557</v>
       </c>
-      <c r="B266" s="38"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="3" t="s">
         <v>282</v>
       </c>
@@ -19254,7 +19316,7 @@
       <c r="A267" s="4">
         <v>558</v>
       </c>
-      <c r="B267" s="38"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="3" t="s">
         <v>286</v>
       </c>
@@ -19311,7 +19373,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="37" t="s">
+      <c r="B268" s="40" t="s">
         <v>911</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19370,7 +19432,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="37"/>
+      <c r="B269" s="40"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19389,8 +19451,8 @@
       <c r="H269" s="4">
         <v>1</v>
       </c>
-      <c r="I269" s="4">
-        <v>338688</v>
+      <c r="I269" s="42">
+        <v>407039</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>153</v>
@@ -19427,7 +19489,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="37"/>
+      <c r="B270" s="40"/>
       <c r="C270" s="4" t="s">
         <v>913</v>
       </c>
@@ -19484,7 +19546,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="37"/>
+      <c r="B271" s="40"/>
       <c r="C271" s="4" t="s">
         <v>915</v>
       </c>
@@ -19503,8 +19565,8 @@
       <c r="H271" s="4">
         <v>1</v>
       </c>
-      <c r="I271" s="4">
-        <v>180204</v>
+      <c r="I271" s="42">
+        <v>407030</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>116</v>
@@ -19541,7 +19603,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="37"/>
+      <c r="B272" s="40"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -19560,8 +19622,8 @@
       <c r="H272" s="4">
         <v>1</v>
       </c>
-      <c r="I272" s="4">
-        <v>338642</v>
+      <c r="I272" s="42">
+        <v>407045</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>116</v>
@@ -19598,7 +19660,7 @@
       <c r="A273" s="4">
         <v>564</v>
       </c>
-      <c r="B273" s="38" t="s">
+      <c r="B273" s="39" t="s">
         <v>917</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -19619,8 +19681,8 @@
       <c r="H273" s="4">
         <v>1</v>
       </c>
-      <c r="I273" s="3">
-        <v>180203</v>
+      <c r="I273" s="42">
+        <v>407010</v>
       </c>
       <c r="J273" s="3" t="s">
         <v>116</v>
@@ -19657,7 +19719,7 @@
       <c r="A274" s="4">
         <v>565</v>
       </c>
-      <c r="B274" s="38"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="3" t="s">
         <v>920</v>
       </c>
@@ -19710,11 +19772,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="4">
         <v>566</v>
       </c>
-      <c r="B275" s="38"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="3" t="s">
         <v>922</v>
       </c>
@@ -19767,11 +19829,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="4">
         <v>567</v>
       </c>
-      <c r="B276" s="38"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="3" t="s">
         <v>322</v>
       </c>
@@ -19790,8 +19852,8 @@
       <c r="H276" s="4">
         <v>1</v>
       </c>
-      <c r="I276" s="3">
-        <v>338645</v>
+      <c r="I276" s="43">
+        <v>407038</v>
       </c>
       <c r="J276" s="3" t="s">
         <v>116</v>
@@ -19828,7 +19890,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="37" t="s">
+      <c r="B277" s="40" t="s">
         <v>924</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -19849,8 +19911,8 @@
       <c r="H277" s="4">
         <v>1</v>
       </c>
-      <c r="I277" s="4">
-        <v>338692</v>
+      <c r="I277" s="42">
+        <v>407016</v>
       </c>
       <c r="J277" s="4" t="s">
         <v>153</v>
@@ -19887,7 +19949,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="37"/>
+      <c r="B278" s="40"/>
       <c r="C278" s="4" t="s">
         <v>926</v>
       </c>
@@ -19906,8 +19968,8 @@
       <c r="H278" s="4">
         <v>1</v>
       </c>
-      <c r="I278" s="4">
-        <v>180210</v>
+      <c r="I278" s="45">
+        <v>407001</v>
       </c>
       <c r="J278" s="4" t="s">
         <v>116</v>
@@ -19944,7 +20006,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="37"/>
+      <c r="B279" s="40"/>
       <c r="C279" s="4" t="s">
         <v>927</v>
       </c>
@@ -20001,7 +20063,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="37"/>
+      <c r="B280" s="40"/>
       <c r="C280" s="4" t="s">
         <v>929</v>
       </c>
@@ -20054,11 +20116,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="37"/>
+      <c r="B281" s="40"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20077,8 +20139,8 @@
       <c r="H281" s="4">
         <v>1</v>
       </c>
-      <c r="I281" s="4">
-        <v>338691</v>
+      <c r="I281" s="42">
+        <v>407041</v>
       </c>
       <c r="J281" s="4" t="s">
         <v>116</v>
@@ -20111,11 +20173,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="4">
         <v>573</v>
       </c>
-      <c r="B282" s="38" t="s">
+      <c r="B282" s="39" t="s">
         <v>932</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -20136,8 +20198,8 @@
       <c r="H282" s="4">
         <v>1</v>
       </c>
-      <c r="I282" s="3">
-        <v>338655</v>
+      <c r="I282" s="43">
+        <v>407004</v>
       </c>
       <c r="J282" s="3" t="s">
         <v>153</v>
@@ -20170,11 +20232,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="4">
         <v>574</v>
       </c>
-      <c r="B283" s="38"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="3" t="s">
         <v>350</v>
       </c>
@@ -20193,8 +20255,8 @@
       <c r="H283" s="4">
         <v>1</v>
       </c>
-      <c r="I283" s="3">
-        <v>338654</v>
+      <c r="I283" s="42">
+        <v>407034</v>
       </c>
       <c r="J283" s="3" t="s">
         <v>153</v>
@@ -20227,11 +20289,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="4">
         <v>575</v>
       </c>
-      <c r="B284" s="38"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="3" t="s">
         <v>353</v>
       </c>
@@ -20250,8 +20312,8 @@
       <c r="H284" s="4">
         <v>1</v>
       </c>
-      <c r="I284" s="3">
-        <v>338644</v>
+      <c r="I284" s="43">
+        <v>407012</v>
       </c>
       <c r="J284" s="3" t="s">
         <v>153</v>
@@ -20288,7 +20350,7 @@
       <c r="A285" s="4">
         <v>576</v>
       </c>
-      <c r="B285" s="38"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="3" t="s">
         <v>356</v>
       </c>
@@ -20307,8 +20369,8 @@
       <c r="H285" s="4">
         <v>1</v>
       </c>
-      <c r="I285" s="3">
-        <v>338637</v>
+      <c r="I285" s="42">
+        <v>407028</v>
       </c>
       <c r="J285" s="3" t="s">
         <v>153</v>
@@ -20345,7 +20407,7 @@
       <c r="A286" s="4">
         <v>577</v>
       </c>
-      <c r="B286" s="38"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="3" t="s">
         <v>360</v>
       </c>
@@ -20402,7 +20464,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="38" t="s">
         <v>936</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20461,7 +20523,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="39"/>
+      <c r="B288" s="38"/>
       <c r="C288" s="2" t="s">
         <v>368</v>
       </c>
@@ -20518,7 +20580,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="39"/>
+      <c r="B289" s="38"/>
       <c r="C289" s="2" t="s">
         <v>371</v>
       </c>
@@ -20575,7 +20637,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="39"/>
+      <c r="B290" s="38"/>
       <c r="C290" s="2" t="s">
         <v>374</v>
       </c>
@@ -20632,7 +20694,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="39"/>
+      <c r="B291" s="38"/>
       <c r="C291" s="2" t="s">
         <v>377</v>
       </c>
@@ -20689,7 +20751,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="39"/>
+      <c r="B292" s="38"/>
       <c r="C292" s="2" t="s">
         <v>380</v>
       </c>
@@ -20746,7 +20808,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="39"/>
+      <c r="B293" s="38"/>
       <c r="C293" s="2" t="s">
         <v>384</v>
       </c>
@@ -20803,7 +20865,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="40" t="s">
+      <c r="B294" s="37" t="s">
         <v>941</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -20862,7 +20924,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="40"/>
+      <c r="B295" s="37"/>
       <c r="C295" s="1" t="s">
         <v>392</v>
       </c>
@@ -20919,7 +20981,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="40"/>
+      <c r="B296" s="37"/>
       <c r="C296" s="1" t="s">
         <v>395</v>
       </c>
@@ -20976,7 +21038,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="40"/>
+      <c r="B297" s="37"/>
       <c r="C297" s="1" t="s">
         <v>399</v>
       </c>
@@ -21033,7 +21095,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="40"/>
+      <c r="B298" s="37"/>
       <c r="C298" s="1" t="s">
         <v>402</v>
       </c>
@@ -21090,7 +21152,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="40"/>
+      <c r="B299" s="37"/>
       <c r="C299" s="1" t="s">
         <v>406</v>
       </c>
@@ -21147,7 +21209,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="40"/>
+      <c r="B300" s="37"/>
       <c r="C300" s="1" t="s">
         <v>410</v>
       </c>
@@ -21204,7 +21266,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="39" t="s">
+      <c r="B301" s="38" t="s">
         <v>947</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21263,7 +21325,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="39"/>
+      <c r="B302" s="38"/>
       <c r="C302" s="2" t="s">
         <v>419</v>
       </c>
@@ -21320,7 +21382,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="39"/>
+      <c r="B303" s="38"/>
       <c r="C303" s="2" t="s">
         <v>423</v>
       </c>
@@ -21377,7 +21439,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="39"/>
+      <c r="B304" s="38"/>
       <c r="C304" s="2" t="s">
         <v>427</v>
       </c>
@@ -21434,7 +21496,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="39"/>
+      <c r="B305" s="38"/>
       <c r="C305" s="2" t="s">
         <v>431</v>
       </c>
@@ -21491,7 +21553,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="39"/>
+      <c r="B306" s="38"/>
       <c r="C306" s="2" t="s">
         <v>435</v>
       </c>
@@ -21548,7 +21610,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="40" t="s">
+      <c r="B307" s="37" t="s">
         <v>439</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21607,7 +21669,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="40"/>
+      <c r="B308" s="37"/>
       <c r="C308" s="3" t="s">
         <v>444</v>
       </c>
@@ -21664,7 +21726,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="40"/>
+      <c r="B309" s="37"/>
       <c r="C309" s="3" t="s">
         <v>448</v>
       </c>
@@ -21721,7 +21783,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="40"/>
+      <c r="B310" s="37"/>
       <c r="C310" s="3" t="s">
         <v>451</v>
       </c>
@@ -21778,7 +21840,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="40"/>
+      <c r="B311" s="37"/>
       <c r="C311" s="3" t="s">
         <v>455</v>
       </c>
@@ -21835,7 +21897,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="38" t="s">
         <v>459</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -21894,7 +21956,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="39"/>
+      <c r="B313" s="38"/>
       <c r="C313" s="4" t="s">
         <v>464</v>
       </c>
@@ -21951,7 +22013,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="39"/>
+      <c r="B314" s="38"/>
       <c r="C314" s="4" t="s">
         <v>468</v>
       </c>
@@ -22008,7 +22070,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="39"/>
+      <c r="B315" s="38"/>
       <c r="C315" s="4" t="s">
         <v>471</v>
       </c>
@@ -22065,7 +22127,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="39"/>
+      <c r="B316" s="38"/>
       <c r="C316" s="4" t="s">
         <v>474</v>
       </c>
@@ -22122,7 +22184,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="39"/>
+      <c r="B317" s="38"/>
       <c r="C317" s="4" t="s">
         <v>478</v>
       </c>
@@ -22179,7 +22241,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="39"/>
+      <c r="B318" s="38"/>
       <c r="C318" s="4" t="s">
         <v>482</v>
       </c>
@@ -22236,7 +22298,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="40" t="s">
+      <c r="B319" s="37" t="s">
         <v>487</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22295,7 +22357,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="40"/>
+      <c r="B320" s="37"/>
       <c r="C320" s="3" t="s">
         <v>492</v>
       </c>
@@ -22352,7 +22414,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="40"/>
+      <c r="B321" s="37"/>
       <c r="C321" s="3" t="s">
         <v>496</v>
       </c>
@@ -22409,7 +22471,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="40"/>
+      <c r="B322" s="37"/>
       <c r="C322" s="3" t="s">
         <v>500</v>
       </c>
@@ -22466,7 +22528,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="40"/>
+      <c r="B323" s="37"/>
       <c r="C323" s="3" t="s">
         <v>504</v>
       </c>
@@ -22523,7 +22585,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="40"/>
+      <c r="B324" s="37"/>
       <c r="C324" s="3" t="s">
         <v>508</v>
       </c>
@@ -22580,7 +22642,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="40"/>
+      <c r="B325" s="37"/>
       <c r="C325" s="3" t="s">
         <v>512</v>
       </c>
@@ -22637,7 +22699,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="39" t="s">
+      <c r="B326" s="38" t="s">
         <v>515</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22696,7 +22758,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="39"/>
+      <c r="B327" s="38"/>
       <c r="C327" s="4" t="s">
         <v>520</v>
       </c>
@@ -22753,7 +22815,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="39"/>
+      <c r="B328" s="38"/>
       <c r="C328" s="4" t="s">
         <v>524</v>
       </c>
@@ -22810,7 +22872,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="39"/>
+      <c r="B329" s="38"/>
       <c r="C329" s="4" t="s">
         <v>528</v>
       </c>
@@ -22867,7 +22929,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="39"/>
+      <c r="B330" s="38"/>
       <c r="C330" s="4" t="s">
         <v>532</v>
       </c>
@@ -22924,7 +22986,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="40" t="s">
+      <c r="B331" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -22983,7 +23045,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="40"/>
+      <c r="B332" s="37"/>
       <c r="C332" s="3" t="s">
         <v>541</v>
       </c>
@@ -23040,7 +23102,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="40"/>
+      <c r="B333" s="37"/>
       <c r="C333" s="3" t="s">
         <v>545</v>
       </c>
@@ -23097,7 +23159,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="40"/>
+      <c r="B334" s="37"/>
       <c r="C334" s="3" t="s">
         <v>549</v>
       </c>
@@ -23154,7 +23216,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="40"/>
+      <c r="B335" s="37"/>
       <c r="C335" s="3" t="s">
         <v>553</v>
       </c>
@@ -23211,7 +23273,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="39" t="s">
+      <c r="B336" s="38" t="s">
         <v>979</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23270,7 +23332,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="39"/>
+      <c r="B337" s="38"/>
       <c r="C337" s="2" t="s">
         <v>561</v>
       </c>
@@ -23327,7 +23389,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="40" t="s">
+      <c r="B338" s="37" t="s">
         <v>564</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23386,7 +23448,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="40"/>
+      <c r="B339" s="37"/>
       <c r="C339" s="1" t="s">
         <v>569</v>
       </c>
@@ -23948,7 +24010,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="40" t="s">
+      <c r="B349" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24007,7 +24069,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="40"/>
+      <c r="B350" s="37"/>
       <c r="C350" s="1" t="s">
         <v>611</v>
       </c>
@@ -24064,7 +24126,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="40"/>
+      <c r="B351" s="37"/>
       <c r="C351" s="1" t="s">
         <v>615</v>
       </c>
@@ -24121,7 +24183,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="40"/>
+      <c r="B352" s="37"/>
       <c r="C352" s="1" t="s">
         <v>619</v>
       </c>
@@ -24178,7 +24240,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="40" t="s">
+      <c r="B353" s="37" t="s">
         <v>623</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24237,7 +24299,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="40"/>
+      <c r="B354" s="37"/>
       <c r="C354" s="1" t="s">
         <v>627</v>
       </c>
@@ -24294,7 +24356,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="40"/>
+      <c r="B355" s="37"/>
       <c r="C355" s="1" t="s">
         <v>631</v>
       </c>
@@ -24313,8 +24375,8 @@
       <c r="H355" s="3">
         <v>1</v>
       </c>
-      <c r="I355" s="3">
-        <v>210196</v>
+      <c r="I355" s="42">
+        <v>407043</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>153</v>
@@ -24351,7 +24413,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="40"/>
+      <c r="B356" s="37"/>
       <c r="C356" s="1" t="s">
         <v>635</v>
       </c>
@@ -25281,8 +25343,8 @@
       <c r="H372" s="2">
         <v>1</v>
       </c>
-      <c r="I372" s="2">
-        <v>210601</v>
+      <c r="I372" s="42">
+        <v>407062</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>116</v>
@@ -25339,8 +25401,8 @@
       <c r="H373" s="3">
         <v>1</v>
       </c>
-      <c r="I373" s="3">
-        <v>210765</v>
+      <c r="I373" s="42">
+        <v>407058</v>
       </c>
       <c r="J373" s="1" t="s">
         <v>61</v>
@@ -26593,8 +26655,8 @@
       <c r="H395" s="3">
         <v>1</v>
       </c>
-      <c r="I395" s="3">
-        <v>212418</v>
+      <c r="I395" s="42">
+        <v>407047</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>61</v>
@@ -27049,8 +27111,8 @@
       <c r="H403" s="3">
         <v>1</v>
       </c>
-      <c r="I403" s="3">
-        <v>212415</v>
+      <c r="I403" s="42">
+        <v>407051</v>
       </c>
       <c r="J403" s="1" t="s">
         <v>153</v>
@@ -27163,8 +27225,8 @@
       <c r="H405" s="3">
         <v>1</v>
       </c>
-      <c r="I405" s="3">
-        <v>215633</v>
+      <c r="I405" s="42">
+        <v>407018</v>
       </c>
       <c r="J405" s="1" t="s">
         <v>75</v>
@@ -27220,8 +27282,8 @@
       <c r="H406" s="3">
         <v>1</v>
       </c>
-      <c r="I406" s="3">
-        <v>215634</v>
+      <c r="I406" s="42">
+        <v>407037</v>
       </c>
       <c r="J406" s="1" t="s">
         <v>75</v>
@@ -27391,8 +27453,8 @@
       <c r="H409" s="3">
         <v>1</v>
       </c>
-      <c r="I409" s="3">
-        <v>215635</v>
+      <c r="I409" s="42">
+        <v>407035</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>116</v>
@@ -27607,7 +27669,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="37" t="s">
+      <c r="B414" s="40" t="s">
         <v>1043</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -27628,8 +27690,8 @@
       <c r="H414" s="4">
         <v>1</v>
       </c>
-      <c r="I414" s="4">
-        <v>338684</v>
+      <c r="I414" s="42">
+        <v>407032</v>
       </c>
       <c r="J414" s="4" t="s">
         <v>61</v>
@@ -27663,7 +27725,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="37"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -27682,8 +27744,8 @@
       <c r="H415" s="4">
         <v>1</v>
       </c>
-      <c r="I415" s="4">
-        <v>342455</v>
+      <c r="I415" s="42">
+        <v>407036</v>
       </c>
       <c r="J415" s="4" t="s">
         <v>61</v>
@@ -27713,11 +27775,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="37"/>
+      <c r="B416" s="40"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -27736,8 +27798,8 @@
       <c r="H416" s="4">
         <v>1</v>
       </c>
-      <c r="I416" s="4">
-        <v>338643</v>
+      <c r="I416" s="42">
+        <v>407056</v>
       </c>
       <c r="J416" s="4" t="s">
         <v>61</v>
@@ -27767,11 +27829,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="37"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -27790,8 +27852,8 @@
       <c r="H417" s="4">
         <v>1</v>
       </c>
-      <c r="I417" s="4">
-        <v>338634</v>
+      <c r="I417" s="43">
+        <v>407008</v>
       </c>
       <c r="J417" s="4" t="s">
         <v>61</v>
@@ -27825,7 +27887,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="37"/>
+      <c r="B418" s="40"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -27844,8 +27906,8 @@
       <c r="H418" s="4">
         <v>1</v>
       </c>
-      <c r="I418" s="4">
-        <v>338635</v>
+      <c r="I418" s="42">
+        <v>407031</v>
       </c>
       <c r="J418" s="4" t="s">
         <v>75</v>
@@ -27879,7 +27941,7 @@
       <c r="A419" s="4">
         <v>1006</v>
       </c>
-      <c r="B419" s="38" t="s">
+      <c r="B419" s="39" t="s">
         <v>1048</v>
       </c>
       <c r="C419" s="3" t="s">
@@ -27900,8 +27962,8 @@
       <c r="H419" s="4">
         <v>1</v>
       </c>
-      <c r="I419" s="3">
-        <v>338639</v>
+      <c r="I419" s="42">
+        <v>407014</v>
       </c>
       <c r="J419" s="3" t="s">
         <v>61</v>
@@ -27936,7 +27998,7 @@
       <c r="A420" s="4">
         <v>1007</v>
       </c>
-      <c r="B420" s="38"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="3" t="s">
         <v>82</v>
       </c>
@@ -27955,8 +28017,8 @@
       <c r="H420" s="4">
         <v>1</v>
       </c>
-      <c r="I420" s="3">
-        <v>338629</v>
+      <c r="I420" s="42">
+        <v>407046</v>
       </c>
       <c r="J420" s="3" t="s">
         <v>61</v>
@@ -27991,7 +28053,7 @@
       <c r="A421" s="4">
         <v>1008</v>
       </c>
-      <c r="B421" s="38"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="3" t="s">
         <v>85</v>
       </c>
@@ -28010,8 +28072,8 @@
       <c r="H421" s="4">
         <v>1</v>
       </c>
-      <c r="I421" s="3">
-        <v>338683</v>
+      <c r="I421" s="42">
+        <v>407009</v>
       </c>
       <c r="J421" s="3" t="s">
         <v>61</v>
@@ -28046,7 +28108,7 @@
       <c r="A422" s="4">
         <v>1009</v>
       </c>
-      <c r="B422" s="38"/>
+      <c r="B422" s="39"/>
       <c r="C422" s="3" t="s">
         <v>89</v>
       </c>
@@ -28065,8 +28127,8 @@
       <c r="H422" s="4">
         <v>1</v>
       </c>
-      <c r="I422" s="3">
-        <v>338646</v>
+      <c r="I422" s="42">
+        <v>407061</v>
       </c>
       <c r="J422" s="3" t="s">
         <v>61</v>
@@ -28101,7 +28163,7 @@
       <c r="A423" s="4">
         <v>1010</v>
       </c>
-      <c r="B423" s="38"/>
+      <c r="B423" s="39"/>
       <c r="C423" s="3" t="s">
         <v>93</v>
       </c>
@@ -28120,8 +28182,8 @@
       <c r="H423" s="4">
         <v>1</v>
       </c>
-      <c r="I423" s="3">
-        <v>338680</v>
+      <c r="I423" s="42">
+        <v>407006</v>
       </c>
       <c r="J423" s="3" t="s">
         <v>75</v>
@@ -28152,11 +28214,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="37" t="s">
+      <c r="B424" s="40" t="s">
         <v>1054</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28177,8 +28239,8 @@
       <c r="H424" s="4">
         <v>1</v>
       </c>
-      <c r="I424" s="4">
-        <v>338640</v>
+      <c r="I424" s="42">
+        <v>407026</v>
       </c>
       <c r="J424" s="4" t="s">
         <v>61</v>
@@ -28208,11 +28270,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="37"/>
+      <c r="B425" s="40"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28231,8 +28293,8 @@
       <c r="H425" s="4">
         <v>1</v>
       </c>
-      <c r="I425" s="4">
-        <v>338656</v>
+      <c r="I425" s="43">
+        <v>407024</v>
       </c>
       <c r="J425" s="4" t="s">
         <v>61</v>
@@ -28262,11 +28324,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="37"/>
+      <c r="B426" s="40"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28285,8 +28347,8 @@
       <c r="H426" s="4">
         <v>1</v>
       </c>
-      <c r="I426" s="4">
-        <v>338638</v>
+      <c r="I426" s="43">
+        <v>407058</v>
       </c>
       <c r="J426" s="4" t="s">
         <v>61</v>
@@ -28316,16 +28378,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="37"/>
+      <c r="B427" s="40"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D427" s="4" t="s">
-        <v>110</v>
+      <c r="D427" s="35" t="s">
+        <v>1366</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>111</v>
@@ -28339,8 +28401,8 @@
       <c r="H427" s="4">
         <v>1</v>
       </c>
-      <c r="I427" s="4">
-        <v>338657</v>
+      <c r="I427" s="43">
+        <v>407023</v>
       </c>
       <c r="J427" s="4" t="s">
         <v>75</v>
@@ -28374,7 +28436,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="37"/>
+      <c r="B428" s="40"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -28393,8 +28455,8 @@
       <c r="H428" s="4">
         <v>1</v>
       </c>
-      <c r="I428" s="4">
-        <v>338652</v>
+      <c r="I428" s="42">
+        <v>407055</v>
       </c>
       <c r="J428" s="4" t="s">
         <v>116</v>
@@ -28428,7 +28490,7 @@
       <c r="A429" s="4">
         <v>1016</v>
       </c>
-      <c r="B429" s="38" t="s">
+      <c r="B429" s="39" t="s">
         <v>1059</v>
       </c>
       <c r="C429" s="3" t="s">
@@ -28449,8 +28511,8 @@
       <c r="H429" s="4">
         <v>1</v>
       </c>
-      <c r="I429" s="3">
-        <v>176427</v>
+      <c r="I429" s="42">
+        <v>407011</v>
       </c>
       <c r="J429" s="3" t="s">
         <v>61</v>
@@ -28485,7 +28547,7 @@
       <c r="A430" s="4">
         <v>1017</v>
       </c>
-      <c r="B430" s="38"/>
+      <c r="B430" s="39"/>
       <c r="C430" s="3" t="s">
         <v>123</v>
       </c>
@@ -28504,8 +28566,8 @@
       <c r="H430" s="4">
         <v>1</v>
       </c>
-      <c r="I430" s="3">
-        <v>338648</v>
+      <c r="I430" s="42">
+        <v>407063</v>
       </c>
       <c r="J430" s="3" t="s">
         <v>61</v>
@@ -28540,7 +28602,7 @@
       <c r="A431" s="4">
         <v>1018</v>
       </c>
-      <c r="B431" s="38"/>
+      <c r="B431" s="39"/>
       <c r="C431" s="3" t="s">
         <v>126</v>
       </c>
@@ -28559,8 +28621,8 @@
       <c r="H431" s="4">
         <v>1</v>
       </c>
-      <c r="I431" s="3">
-        <v>338631</v>
+      <c r="I431" s="42">
+        <v>407002</v>
       </c>
       <c r="J431" s="3" t="s">
         <v>75</v>
@@ -28595,7 +28657,7 @@
       <c r="A432" s="4">
         <v>1019</v>
       </c>
-      <c r="B432" s="38"/>
+      <c r="B432" s="39"/>
       <c r="C432" s="3" t="s">
         <v>130</v>
       </c>
@@ -28614,8 +28676,8 @@
       <c r="H432" s="4">
         <v>1</v>
       </c>
-      <c r="I432" s="3">
-        <v>338653</v>
+      <c r="I432" s="42">
+        <v>407029</v>
       </c>
       <c r="J432" s="3" t="s">
         <v>75</v>
@@ -28650,7 +28712,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="37" t="s">
+      <c r="B433" s="40" t="s">
         <v>1062</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -28671,8 +28733,8 @@
       <c r="H433" s="4">
         <v>1</v>
       </c>
-      <c r="I433" s="4">
-        <v>338686</v>
+      <c r="I433" s="42">
+        <v>407059</v>
       </c>
       <c r="J433" s="4" t="s">
         <v>61</v>
@@ -28706,7 +28768,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="37"/>
+      <c r="B434" s="40"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -28725,8 +28787,8 @@
       <c r="H434" s="4">
         <v>1</v>
       </c>
-      <c r="I434" s="4">
-        <v>338681</v>
+      <c r="I434" s="42">
+        <v>406989</v>
       </c>
       <c r="J434" s="4" t="s">
         <v>61</v>
@@ -28756,11 +28818,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="37"/>
+      <c r="B435" s="40"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -28779,8 +28841,8 @@
       <c r="H435" s="4">
         <v>1</v>
       </c>
-      <c r="I435" s="4">
-        <v>338640</v>
+      <c r="I435" s="45">
+        <v>407052</v>
       </c>
       <c r="J435" s="4" t="s">
         <v>61</v>
@@ -28810,16 +28872,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="37"/>
+      <c r="B436" s="40"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D436" s="4" t="s">
-        <v>147</v>
+      <c r="D436" s="35" t="s">
+        <v>1367</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>148</v>
@@ -28833,8 +28895,8 @@
       <c r="H436" s="4">
         <v>1</v>
       </c>
-      <c r="I436" s="4">
-        <v>338657</v>
+      <c r="I436" s="43">
+        <v>407033</v>
       </c>
       <c r="J436" s="4" t="s">
         <v>61</v>
@@ -28864,11 +28926,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="37"/>
+      <c r="B437" s="40"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -28887,8 +28949,8 @@
       <c r="H437" s="4">
         <v>1</v>
       </c>
-      <c r="I437" s="4">
-        <v>338633</v>
+      <c r="I437" s="43">
+        <v>407007</v>
       </c>
       <c r="J437" s="4" t="s">
         <v>153</v>
@@ -28918,11 +28980,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A438" s="4">
         <v>1025</v>
       </c>
-      <c r="B438" s="38" t="s">
+      <c r="B438" s="39" t="s">
         <v>1067</v>
       </c>
       <c r="C438" s="3" t="s">
@@ -28943,8 +29005,8 @@
       <c r="H438" s="4">
         <v>1</v>
       </c>
-      <c r="I438" s="3">
-        <v>338641</v>
+      <c r="I438" s="43">
+        <v>407049</v>
       </c>
       <c r="J438" s="3" t="s">
         <v>61</v>
@@ -28979,7 +29041,7 @@
       <c r="A439" s="4">
         <v>1026</v>
       </c>
-      <c r="B439" s="38"/>
+      <c r="B439" s="39"/>
       <c r="C439" s="3" t="s">
         <v>160</v>
       </c>
@@ -28998,8 +29060,8 @@
       <c r="H439" s="4">
         <v>1</v>
       </c>
-      <c r="I439" s="3">
-        <v>338687</v>
+      <c r="I439" s="42">
+        <v>407040</v>
       </c>
       <c r="J439" s="3" t="s">
         <v>61</v>
@@ -29034,7 +29096,7 @@
       <c r="A440" s="4">
         <v>1027</v>
       </c>
-      <c r="B440" s="38"/>
+      <c r="B440" s="39"/>
       <c r="C440" s="3" t="s">
         <v>163</v>
       </c>
@@ -29053,8 +29115,8 @@
       <c r="H440" s="4">
         <v>1</v>
       </c>
-      <c r="I440" s="3">
-        <v>338627</v>
+      <c r="I440" s="42">
+        <v>407044</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>61</v>
@@ -29089,7 +29151,7 @@
       <c r="A441" s="4">
         <v>1028</v>
       </c>
-      <c r="B441" s="38"/>
+      <c r="B441" s="39"/>
       <c r="C441" s="3" t="s">
         <v>167</v>
       </c>
@@ -29108,8 +29170,8 @@
       <c r="H441" s="4">
         <v>1</v>
       </c>
-      <c r="I441" s="3">
-        <v>338628</v>
+      <c r="I441" s="42">
+        <v>407050</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>75</v>
@@ -29144,7 +29206,7 @@
       <c r="A442" s="4">
         <v>1029</v>
       </c>
-      <c r="B442" s="38"/>
+      <c r="B442" s="39"/>
       <c r="C442" s="3" t="s">
         <v>171</v>
       </c>
@@ -29163,8 +29225,8 @@
       <c r="H442" s="4">
         <v>1</v>
       </c>
-      <c r="I442" s="3">
-        <v>338685</v>
+      <c r="I442" s="42">
+        <v>407022</v>
       </c>
       <c r="J442" s="3" t="s">
         <v>153</v>
@@ -29199,7 +29261,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="37" t="s">
+      <c r="B443" s="40" t="s">
         <v>1072</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29220,8 +29282,8 @@
       <c r="H443" s="4">
         <v>1</v>
       </c>
-      <c r="I443" s="4">
-        <v>338651</v>
+      <c r="I443" s="42">
+        <v>407042</v>
       </c>
       <c r="J443" s="4" t="s">
         <v>61</v>
@@ -29255,7 +29317,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="37"/>
+      <c r="B444" s="40"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29274,8 +29336,8 @@
       <c r="H444" s="4">
         <v>1</v>
       </c>
-      <c r="I444" s="4">
-        <v>338682</v>
+      <c r="I444" s="42">
+        <v>407013</v>
       </c>
       <c r="J444" s="4" t="s">
         <v>61</v>
@@ -29309,7 +29371,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="37"/>
+      <c r="B445" s="40"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29328,8 +29390,8 @@
       <c r="H445" s="4">
         <v>1</v>
       </c>
-      <c r="I445" s="4">
-        <v>338632</v>
+      <c r="I445" s="42">
+        <v>407048</v>
       </c>
       <c r="J445" s="4" t="s">
         <v>61</v>
@@ -29363,7 +29425,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="37"/>
+      <c r="B446" s="40"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -29417,7 +29479,7 @@
       <c r="A447" s="4">
         <v>1034</v>
       </c>
-      <c r="B447" s="38" t="s">
+      <c r="B447" s="39" t="s">
         <v>1077</v>
       </c>
       <c r="C447" s="3" t="s">
@@ -29438,8 +29500,8 @@
       <c r="H447" s="4">
         <v>1</v>
       </c>
-      <c r="I447" s="3">
-        <v>338647</v>
+      <c r="I447" s="42">
+        <v>407017</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>61</v>
@@ -29474,12 +29536,12 @@
       <c r="A448" s="4">
         <v>1035</v>
       </c>
-      <c r="B448" s="38"/>
+      <c r="B448" s="39"/>
       <c r="C448" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D448" s="3" t="s">
-        <v>198</v>
+      <c r="D448" s="44" t="s">
+        <v>1369</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>199</v>
@@ -29493,8 +29555,8 @@
       <c r="H448" s="4">
         <v>1</v>
       </c>
-      <c r="I448" s="3">
-        <v>338690</v>
+      <c r="I448" s="42">
+        <v>407020</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>61</v>
@@ -29525,11 +29587,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A449" s="4">
         <v>1036</v>
       </c>
-      <c r="B449" s="38"/>
+      <c r="B449" s="39"/>
       <c r="C449" s="3" t="s">
         <v>200</v>
       </c>
@@ -29548,8 +29610,8 @@
       <c r="H449" s="4">
         <v>1</v>
       </c>
-      <c r="I449" s="3">
-        <v>338649</v>
+      <c r="I449" s="42">
+        <v>407019</v>
       </c>
       <c r="J449" s="3" t="s">
         <v>61</v>
@@ -29580,11 +29642,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" s="4">
         <v>1037</v>
       </c>
-      <c r="B450" s="38"/>
+      <c r="B450" s="39"/>
       <c r="C450" s="3" t="s">
         <v>204</v>
       </c>
@@ -29603,8 +29665,8 @@
       <c r="H450" s="4">
         <v>1</v>
       </c>
-      <c r="I450" s="3">
-        <v>338650</v>
+      <c r="I450" s="43">
+        <v>407021</v>
       </c>
       <c r="J450" s="3" t="s">
         <v>75</v>
@@ -29639,7 +29701,7 @@
       <c r="A451" s="4">
         <v>1038</v>
       </c>
-      <c r="B451" s="38"/>
+      <c r="B451" s="39"/>
       <c r="C451" s="3" t="s">
         <v>208</v>
       </c>
@@ -29658,8 +29720,8 @@
       <c r="H451" s="4">
         <v>1</v>
       </c>
-      <c r="I451" s="3">
-        <v>338689</v>
+      <c r="I451" s="42">
+        <v>407057</v>
       </c>
       <c r="J451" s="3" t="s">
         <v>153</v>
@@ -29694,7 +29756,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="39" t="s">
+      <c r="B452" s="38" t="s">
         <v>1082</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -29750,7 +29812,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="39"/>
+      <c r="B453" s="38"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -29804,7 +29866,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="39"/>
+      <c r="B454" s="38"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -29858,7 +29920,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="39"/>
+      <c r="B455" s="38"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -29912,7 +29974,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="39"/>
+      <c r="B456" s="38"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -29966,7 +30028,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="40" t="s">
+      <c r="B457" s="37" t="s">
         <v>1085</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30023,7 +30085,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="40"/>
+      <c r="B458" s="37"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30078,7 +30140,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="40"/>
+      <c r="B459" s="37"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30133,7 +30195,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="40"/>
+      <c r="B460" s="37"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30188,7 +30250,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="40"/>
+      <c r="B461" s="37"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30243,7 +30305,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="39" t="s">
+      <c r="B462" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30299,7 +30361,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="39"/>
+      <c r="B463" s="38"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30318,8 +30380,8 @@
       <c r="H463" s="4">
         <v>1</v>
       </c>
-      <c r="I463" s="4">
-        <v>180211</v>
+      <c r="I463" s="42">
+        <v>407015</v>
       </c>
       <c r="J463" s="4" t="s">
         <v>116</v>
@@ -30353,7 +30415,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="39"/>
+      <c r="B464" s="38"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30407,7 +30469,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="39"/>
+      <c r="B465" s="38"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30461,7 +30523,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="39"/>
+      <c r="B466" s="38"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30515,7 +30577,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="40" t="s">
+      <c r="B467" s="37" t="s">
         <v>1094</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -30572,7 +30634,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="40"/>
+      <c r="B468" s="37"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -30627,7 +30689,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="40"/>
+      <c r="B469" s="37"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -30682,7 +30744,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="40"/>
+      <c r="B470" s="37"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -30737,7 +30799,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="40"/>
+      <c r="B471" s="37"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -30792,7 +30854,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="39" t="s">
+      <c r="B472" s="38" t="s">
         <v>1100</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -30848,7 +30910,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="39"/>
+      <c r="B473" s="38"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -30867,8 +30929,8 @@
       <c r="H473" s="4">
         <v>1</v>
       </c>
-      <c r="I473" s="4">
-        <v>338688</v>
+      <c r="I473" s="42">
+        <v>407039</v>
       </c>
       <c r="J473" s="4" t="s">
         <v>153</v>
@@ -30902,7 +30964,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="39"/>
+      <c r="B474" s="38"/>
       <c r="C474" s="4" t="s">
         <v>1102</v>
       </c>
@@ -30956,7 +31018,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="39"/>
+      <c r="B475" s="38"/>
       <c r="C475" s="4" t="s">
         <v>915</v>
       </c>
@@ -30975,8 +31037,8 @@
       <c r="H475" s="4">
         <v>1</v>
       </c>
-      <c r="I475" s="4">
-        <v>180204</v>
+      <c r="I475" s="42">
+        <v>407030</v>
       </c>
       <c r="J475" s="4" t="s">
         <v>116</v>
@@ -31010,7 +31072,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="39"/>
+      <c r="B476" s="38"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31029,8 +31091,8 @@
       <c r="H476" s="4">
         <v>1</v>
       </c>
-      <c r="I476" s="4">
-        <v>338642</v>
+      <c r="I476" s="42">
+        <v>407045</v>
       </c>
       <c r="J476" s="4" t="s">
         <v>116</v>
@@ -31064,7 +31126,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="40" t="s">
+      <c r="B477" s="37" t="s">
         <v>1105</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31085,8 +31147,8 @@
       <c r="H477" s="4">
         <v>1</v>
       </c>
-      <c r="I477" s="3">
-        <v>180203</v>
+      <c r="I477" s="42">
+        <v>407010</v>
       </c>
       <c r="J477" s="3" t="s">
         <v>116</v>
@@ -31121,7 +31183,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="40"/>
+      <c r="B478" s="37"/>
       <c r="C478" s="3" t="s">
         <v>920</v>
       </c>
@@ -31172,11 +31234,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="40"/>
+      <c r="B479" s="37"/>
       <c r="C479" s="3" t="s">
         <v>922</v>
       </c>
@@ -31227,11 +31289,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="40"/>
+      <c r="B480" s="37"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31250,8 +31312,8 @@
       <c r="H480" s="4">
         <v>1</v>
       </c>
-      <c r="I480" s="3">
-        <v>338645</v>
+      <c r="I480" s="43">
+        <v>407038</v>
       </c>
       <c r="J480" s="3" t="s">
         <v>116</v>
@@ -31286,7 +31348,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="39" t="s">
+      <c r="B481" s="38" t="s">
         <v>1109</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31307,8 +31369,8 @@
       <c r="H481" s="4">
         <v>1</v>
       </c>
-      <c r="I481" s="4">
-        <v>338692</v>
+      <c r="I481" s="42">
+        <v>407016</v>
       </c>
       <c r="J481" s="4" t="s">
         <v>153</v>
@@ -31342,7 +31404,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="39"/>
+      <c r="B482" s="38"/>
       <c r="C482" s="4" t="s">
         <v>926</v>
       </c>
@@ -31361,8 +31423,8 @@
       <c r="H482" s="4">
         <v>1</v>
       </c>
-      <c r="I482" s="4">
-        <v>180210</v>
+      <c r="I482" s="45">
+        <v>407001</v>
       </c>
       <c r="J482" s="4" t="s">
         <v>116</v>
@@ -31396,7 +31458,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="39"/>
+      <c r="B483" s="38"/>
       <c r="C483" s="4" t="s">
         <v>927</v>
       </c>
@@ -31450,7 +31512,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="39"/>
+      <c r="B484" s="38"/>
       <c r="C484" s="4" t="s">
         <v>929</v>
       </c>
@@ -31500,11 +31562,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:23" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="39"/>
+      <c r="B485" s="38"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -31523,8 +31585,8 @@
       <c r="H485" s="4">
         <v>1</v>
       </c>
-      <c r="I485" s="4">
-        <v>338691</v>
+      <c r="I485" s="42">
+        <v>407041</v>
       </c>
       <c r="J485" s="4" t="s">
         <v>116</v>
@@ -31554,11 +31616,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="40" t="s">
+      <c r="B486" s="37" t="s">
         <v>1114</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -31579,8 +31641,8 @@
       <c r="H486" s="4">
         <v>1</v>
       </c>
-      <c r="I486" s="3">
-        <v>338655</v>
+      <c r="I486" s="43">
+        <v>407004</v>
       </c>
       <c r="J486" s="3" t="s">
         <v>153</v>
@@ -31611,11 +31673,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="40"/>
+      <c r="B487" s="37"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -31634,8 +31696,8 @@
       <c r="H487" s="4">
         <v>1</v>
       </c>
-      <c r="I487" s="3">
-        <v>338654</v>
+      <c r="I487" s="42">
+        <v>407034</v>
       </c>
       <c r="J487" s="3" t="s">
         <v>153</v>
@@ -31666,11 +31728,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:23" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="40"/>
+      <c r="B488" s="37"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -31689,8 +31751,8 @@
       <c r="H488" s="4">
         <v>1</v>
       </c>
-      <c r="I488" s="3">
-        <v>338644</v>
+      <c r="I488" s="43">
+        <v>407012</v>
       </c>
       <c r="J488" s="3" t="s">
         <v>153</v>
@@ -31725,7 +31787,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="40"/>
+      <c r="B489" s="37"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -31744,8 +31806,8 @@
       <c r="H489" s="4">
         <v>1</v>
       </c>
-      <c r="I489" s="3">
-        <v>338637</v>
+      <c r="I489" s="42">
+        <v>407028</v>
       </c>
       <c r="J489" s="3" t="s">
         <v>153</v>
@@ -31780,7 +31842,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="40"/>
+      <c r="B490" s="37"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -31835,7 +31897,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="39" t="s">
+      <c r="B491" s="38" t="s">
         <v>1118</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -31891,7 +31953,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="39"/>
+      <c r="B492" s="38"/>
       <c r="C492" s="2" t="s">
         <v>368</v>
       </c>
@@ -31945,7 +32007,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="39"/>
+      <c r="B493" s="38"/>
       <c r="C493" s="2" t="s">
         <v>371</v>
       </c>
@@ -31999,7 +32061,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="39"/>
+      <c r="B494" s="38"/>
       <c r="C494" s="2" t="s">
         <v>374</v>
       </c>
@@ -32053,7 +32115,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="39"/>
+      <c r="B495" s="38"/>
       <c r="C495" s="2" t="s">
         <v>377</v>
       </c>
@@ -32107,7 +32169,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="39"/>
+      <c r="B496" s="38"/>
       <c r="C496" s="2" t="s">
         <v>380</v>
       </c>
@@ -32161,7 +32223,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="39"/>
+      <c r="B497" s="38"/>
       <c r="C497" s="2" t="s">
         <v>384</v>
       </c>
@@ -32215,7 +32277,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="40" t="s">
+      <c r="B498" s="37" t="s">
         <v>1123</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32271,7 +32333,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="40"/>
+      <c r="B499" s="37"/>
       <c r="C499" s="1" t="s">
         <v>392</v>
       </c>
@@ -32325,7 +32387,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="40"/>
+      <c r="B500" s="37"/>
       <c r="C500" s="1" t="s">
         <v>395</v>
       </c>
@@ -32379,7 +32441,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="40"/>
+      <c r="B501" s="37"/>
       <c r="C501" s="1" t="s">
         <v>399</v>
       </c>
@@ -32433,7 +32495,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="40"/>
+      <c r="B502" s="37"/>
       <c r="C502" s="1" t="s">
         <v>402</v>
       </c>
@@ -32487,7 +32549,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="40"/>
+      <c r="B503" s="37"/>
       <c r="C503" s="1" t="s">
         <v>406</v>
       </c>
@@ -32541,7 +32603,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="40"/>
+      <c r="B504" s="37"/>
       <c r="C504" s="1" t="s">
         <v>410</v>
       </c>
@@ -32595,7 +32657,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="39" t="s">
+      <c r="B505" s="38" t="s">
         <v>1129</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -32651,7 +32713,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="39"/>
+      <c r="B506" s="38"/>
       <c r="C506" s="2" t="s">
         <v>419</v>
       </c>
@@ -32705,7 +32767,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="39"/>
+      <c r="B507" s="38"/>
       <c r="C507" s="2" t="s">
         <v>423</v>
       </c>
@@ -32759,7 +32821,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="39"/>
+      <c r="B508" s="38"/>
       <c r="C508" s="2" t="s">
         <v>427</v>
       </c>
@@ -32813,7 +32875,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="39"/>
+      <c r="B509" s="38"/>
       <c r="C509" s="2" t="s">
         <v>431</v>
       </c>
@@ -32867,7 +32929,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="39"/>
+      <c r="B510" s="38"/>
       <c r="C510" s="2" t="s">
         <v>435</v>
       </c>
@@ -32921,7 +32983,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="40" t="s">
+      <c r="B511" s="37" t="s">
         <v>439</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -32977,7 +33039,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="40"/>
+      <c r="B512" s="37"/>
       <c r="C512" s="3" t="s">
         <v>444</v>
       </c>
@@ -33031,7 +33093,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="40"/>
+      <c r="B513" s="37"/>
       <c r="C513" s="3" t="s">
         <v>448</v>
       </c>
@@ -33085,7 +33147,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="40"/>
+      <c r="B514" s="37"/>
       <c r="C514" s="3" t="s">
         <v>451</v>
       </c>
@@ -33139,7 +33201,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="40"/>
+      <c r="B515" s="37"/>
       <c r="C515" s="3" t="s">
         <v>455</v>
       </c>
@@ -33193,7 +33255,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="39" t="s">
+      <c r="B516" s="38" t="s">
         <v>459</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33249,7 +33311,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="39"/>
+      <c r="B517" s="38"/>
       <c r="C517" s="4" t="s">
         <v>464</v>
       </c>
@@ -33303,7 +33365,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="39"/>
+      <c r="B518" s="38"/>
       <c r="C518" s="4" t="s">
         <v>468</v>
       </c>
@@ -33357,7 +33419,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="39"/>
+      <c r="B519" s="38"/>
       <c r="C519" s="4" t="s">
         <v>471</v>
       </c>
@@ -33411,7 +33473,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="39"/>
+      <c r="B520" s="38"/>
       <c r="C520" s="4" t="s">
         <v>474</v>
       </c>
@@ -33465,7 +33527,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="39"/>
+      <c r="B521" s="38"/>
       <c r="C521" s="4" t="s">
         <v>478</v>
       </c>
@@ -33519,7 +33581,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="39"/>
+      <c r="B522" s="38"/>
       <c r="C522" s="4" t="s">
         <v>482</v>
       </c>
@@ -33573,7 +33635,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="40" t="s">
+      <c r="B523" s="37" t="s">
         <v>487</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -33629,7 +33691,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="40"/>
+      <c r="B524" s="37"/>
       <c r="C524" s="3" t="s">
         <v>492</v>
       </c>
@@ -33683,7 +33745,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="40"/>
+      <c r="B525" s="37"/>
       <c r="C525" s="3" t="s">
         <v>496</v>
       </c>
@@ -33737,7 +33799,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="40"/>
+      <c r="B526" s="37"/>
       <c r="C526" s="3" t="s">
         <v>500</v>
       </c>
@@ -33791,7 +33853,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="40"/>
+      <c r="B527" s="37"/>
       <c r="C527" s="3" t="s">
         <v>504</v>
       </c>
@@ -33845,7 +33907,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="40"/>
+      <c r="B528" s="37"/>
       <c r="C528" s="3" t="s">
         <v>508</v>
       </c>
@@ -33899,7 +33961,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="40"/>
+      <c r="B529" s="37"/>
       <c r="C529" s="3" t="s">
         <v>512</v>
       </c>
@@ -33953,7 +34015,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="39" t="s">
+      <c r="B530" s="38" t="s">
         <v>515</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34009,7 +34071,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="39"/>
+      <c r="B531" s="38"/>
       <c r="C531" s="4" t="s">
         <v>520</v>
       </c>
@@ -34063,7 +34125,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="39"/>
+      <c r="B532" s="38"/>
       <c r="C532" s="4" t="s">
         <v>524</v>
       </c>
@@ -34117,7 +34179,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="39"/>
+      <c r="B533" s="38"/>
       <c r="C533" s="4" t="s">
         <v>528</v>
       </c>
@@ -34171,7 +34233,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="39"/>
+      <c r="B534" s="38"/>
       <c r="C534" s="4" t="s">
         <v>532</v>
       </c>
@@ -34225,7 +34287,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="40" t="s">
+      <c r="B535" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34281,7 +34343,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="40"/>
+      <c r="B536" s="37"/>
       <c r="C536" s="3" t="s">
         <v>541</v>
       </c>
@@ -34335,7 +34397,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="40"/>
+      <c r="B537" s="37"/>
       <c r="C537" s="3" t="s">
         <v>545</v>
       </c>
@@ -34389,7 +34451,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="40"/>
+      <c r="B538" s="37"/>
       <c r="C538" s="3" t="s">
         <v>549</v>
       </c>
@@ -34443,7 +34505,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="40"/>
+      <c r="B539" s="37"/>
       <c r="C539" s="3" t="s">
         <v>553</v>
       </c>
@@ -34497,7 +34559,7 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="39" t="s">
+      <c r="B540" s="38" t="s">
         <v>1162</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -34553,7 +34615,7 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="39"/>
+      <c r="B541" s="38"/>
       <c r="C541" s="2" t="s">
         <v>561</v>
       </c>
@@ -34607,7 +34669,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="40" t="s">
+      <c r="B542" s="37" t="s">
         <v>564</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -34663,7 +34725,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="40"/>
+      <c r="B543" s="37"/>
       <c r="C543" s="1" t="s">
         <v>569</v>
       </c>
@@ -34717,7 +34779,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="40"/>
+      <c r="B544" s="37"/>
       <c r="C544" s="1" t="s">
         <v>573</v>
       </c>
@@ -35196,7 +35258,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="40" t="s">
+      <c r="B553" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35252,7 +35314,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="40"/>
+      <c r="B554" s="37"/>
       <c r="C554" s="1" t="s">
         <v>611</v>
       </c>
@@ -35306,7 +35368,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="40"/>
+      <c r="B555" s="37"/>
       <c r="C555" s="1" t="s">
         <v>615</v>
       </c>
@@ -35360,7 +35422,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="40"/>
+      <c r="B556" s="37"/>
       <c r="C556" s="1" t="s">
         <v>619</v>
       </c>
@@ -35414,7 +35476,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="40" t="s">
+      <c r="B557" s="37" t="s">
         <v>623</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35470,7 +35532,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="40"/>
+      <c r="B558" s="37"/>
       <c r="C558" s="1" t="s">
         <v>627</v>
       </c>
@@ -35524,7 +35586,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="40"/>
+      <c r="B559" s="37"/>
       <c r="C559" s="1" t="s">
         <v>631</v>
       </c>
@@ -35543,8 +35605,8 @@
       <c r="H559" s="3">
         <v>1</v>
       </c>
-      <c r="I559" s="3">
-        <v>210196</v>
+      <c r="I559" s="42">
+        <v>407043</v>
       </c>
       <c r="J559" s="1" t="s">
         <v>153</v>
@@ -35578,7 +35640,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="40"/>
+      <c r="B560" s="37"/>
       <c r="C560" s="1" t="s">
         <v>635</v>
       </c>
@@ -36460,8 +36522,8 @@
       <c r="H576" s="2">
         <v>1</v>
       </c>
-      <c r="I576" s="2">
-        <v>210601</v>
+      <c r="I576" s="42">
+        <v>407062</v>
       </c>
       <c r="J576" s="2" t="s">
         <v>116</v>
@@ -36515,8 +36577,8 @@
       <c r="H577" s="3">
         <v>1</v>
       </c>
-      <c r="I577" s="3">
-        <v>210765</v>
+      <c r="I577" s="42">
+        <v>407058</v>
       </c>
       <c r="J577" s="1" t="s">
         <v>61</v>
@@ -37688,8 +37750,8 @@
       <c r="C599" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D599" s="3" t="s">
-        <v>788</v>
+      <c r="D599" s="44" t="s">
+        <v>1365</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>789</v>
@@ -37703,8 +37765,8 @@
       <c r="H599" s="3">
         <v>1</v>
       </c>
-      <c r="I599" s="3">
-        <v>212418</v>
+      <c r="I599" s="42">
+        <v>407047</v>
       </c>
       <c r="J599" s="1" t="s">
         <v>61</v>
@@ -38135,8 +38197,8 @@
       <c r="H607" s="3">
         <v>1</v>
       </c>
-      <c r="I607" s="3">
-        <v>212415</v>
+      <c r="I607" s="42">
+        <v>407051</v>
       </c>
       <c r="J607" s="1" t="s">
         <v>153</v>
@@ -38243,8 +38305,8 @@
       <c r="H609" s="3">
         <v>1</v>
       </c>
-      <c r="I609" s="3">
-        <v>215633</v>
+      <c r="I609" s="42">
+        <v>407018</v>
       </c>
       <c r="J609" s="1" t="s">
         <v>75</v>
@@ -38297,8 +38359,8 @@
       <c r="H610" s="3">
         <v>1</v>
       </c>
-      <c r="I610" s="3">
-        <v>215634</v>
+      <c r="I610" s="42">
+        <v>407037</v>
       </c>
       <c r="J610" s="1" t="s">
         <v>75</v>
@@ -38459,8 +38521,8 @@
       <c r="H613" s="3">
         <v>1</v>
       </c>
-      <c r="I613" s="3">
-        <v>215635</v>
+      <c r="I613" s="42">
+        <v>407035</v>
       </c>
       <c r="J613" s="1" t="s">
         <v>116</v>
@@ -46105,6 +46167,81 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46113,81 +46250,6 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pet-simulator/Excel/PetARR_宠物表.xlsx
+++ b/pet-simulator/Excel/PetARR_宠物表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0080DB-1BFC-4B67-83CB-56C3D4AA42AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3463,9 +3469,6 @@
     <t>24500000|25200000</t>
   </si>
   <si>
-    <t>27300000|24700000</t>
-  </si>
-  <si>
     <t>40300000|42000000</t>
   </si>
   <si>
@@ -4122,10 +4125,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>876000000|88000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>305400000|360000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4138,10 +4137,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60500|60400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20500|21000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4167,13 +4162,25 @@
   </si>
   <si>
     <t>89000|91100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24700000|27300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>87600000|88000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60400|60500</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4360,7 +4367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4468,22 +4475,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4749,14 +4753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y745"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B274" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
-      <selection pane="bottomRight" activeCell="P287" sqref="P287:P293"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5032,7 +5036,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5088,7 +5092,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
@@ -5196,7 +5200,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -5250,7 +5254,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
@@ -5576,7 +5580,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5632,7 +5636,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5686,7 +5690,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
@@ -5740,7 +5744,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -5794,7 +5798,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
@@ -6066,7 +6070,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="45" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6122,7 +6126,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
@@ -6176,7 +6180,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="4" t="s">
         <v>142</v>
       </c>
@@ -6230,7 +6234,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
@@ -6284,7 +6288,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>150</v>
       </c>
@@ -6610,7 +6614,7 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6666,7 +6670,7 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="4" t="s">
         <v>180</v>
       </c>
@@ -6720,7 +6724,7 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="4" t="s">
         <v>184</v>
       </c>
@@ -6774,7 +6778,7 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>193</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>195</v>
@@ -7100,7 +7104,7 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="45" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7156,7 +7160,7 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>216</v>
       </c>
@@ -7210,7 +7214,7 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
@@ -7264,7 +7268,7 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>222</v>
       </c>
@@ -7318,7 +7322,7 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="43"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="4" t="s">
         <v>226</v>
       </c>
@@ -7644,7 +7648,7 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="45" t="s">
         <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7700,7 +7704,7 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="43"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="4" t="s">
         <v>255</v>
       </c>
@@ -7754,7 +7758,7 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="43"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>261</v>
       </c>
@@ -7862,7 +7866,7 @@
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="43"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>265</v>
       </c>
@@ -8188,7 +8192,7 @@
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
         <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -8244,7 +8248,7 @@
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="43"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="4" t="s">
         <v>295</v>
       </c>
@@ -8298,7 +8302,7 @@
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="43"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="4" t="s">
         <v>298</v>
       </c>
@@ -8352,7 +8356,7 @@
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="43"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="4" t="s">
         <v>302</v>
       </c>
@@ -8406,7 +8410,7 @@
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="43"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="4" t="s">
         <v>305</v>
       </c>
@@ -8678,7 +8682,7 @@
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="45" t="s">
         <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -8734,7 +8738,7 @@
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="43"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
         <v>330</v>
       </c>
@@ -8788,7 +8792,7 @@
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
         <v>333</v>
       </c>
@@ -8842,7 +8846,7 @@
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="43"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>337</v>
       </c>
@@ -8896,7 +8900,7 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="43"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
         <v>341</v>
       </c>
@@ -9222,7 +9226,7 @@
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>364</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9259,7 +9263,7 @@
         <v>1078</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Q83" s="4">
         <v>1400</v>
@@ -9278,7 +9282,7 @@
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="45"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="2" t="s">
         <v>368</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>1079</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Q84" s="4">
         <v>1400</v>
@@ -9332,7 +9336,7 @@
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="45"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="2" t="s">
         <v>371</v>
       </c>
@@ -9367,7 +9371,7 @@
         <v>1080</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Q85" s="4">
         <v>1400</v>
@@ -9386,7 +9390,7 @@
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="45"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="2" t="s">
         <v>374</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>1081</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Q86" s="4">
         <v>1400</v>
@@ -9440,7 +9444,7 @@
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="45"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="2" t="s">
         <v>377</v>
       </c>
@@ -9475,7 +9479,7 @@
         <v>1082</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Q87" s="4">
         <v>1400</v>
@@ -9494,7 +9498,7 @@
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="45"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="2" t="s">
         <v>380</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>1083</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Q88" s="4">
         <v>1400</v>
@@ -9548,7 +9552,7 @@
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="45"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="2" t="s">
         <v>384</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>1084</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Q89" s="4">
         <v>1400</v>
@@ -9602,7 +9606,7 @@
       <c r="A90" s="3">
         <v>85</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="42" t="s">
         <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9638,8 +9642,8 @@
       <c r="N90" s="3">
         <v>1085</v>
       </c>
-      <c r="P90" s="41" t="s">
-        <v>1362</v>
+      <c r="P90" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="Q90" s="3">
         <v>1400</v>
@@ -9658,7 +9662,7 @@
       <c r="A91" s="3">
         <v>86</v>
       </c>
-      <c r="B91" s="46"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="1" t="s">
         <v>391</v>
       </c>
@@ -9692,8 +9696,8 @@
       <c r="N91" s="3">
         <v>1086</v>
       </c>
-      <c r="P91" s="41" t="s">
-        <v>1362</v>
+      <c r="P91" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="Q91" s="3">
         <v>1400</v>
@@ -9712,7 +9716,7 @@
       <c r="A92" s="3">
         <v>87</v>
       </c>
-      <c r="B92" s="46"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="1" t="s">
         <v>394</v>
       </c>
@@ -9746,8 +9750,8 @@
       <c r="N92" s="3">
         <v>1087</v>
       </c>
-      <c r="P92" s="41" t="s">
-        <v>1363</v>
+      <c r="P92" s="2" t="s">
+        <v>1361</v>
       </c>
       <c r="Q92" s="3">
         <v>1400</v>
@@ -9766,7 +9770,7 @@
       <c r="A93" s="3">
         <v>88</v>
       </c>
-      <c r="B93" s="46"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="1" t="s">
         <v>397</v>
       </c>
@@ -9800,8 +9804,8 @@
       <c r="N93" s="3">
         <v>1088</v>
       </c>
-      <c r="P93" s="41" t="s">
-        <v>1363</v>
+      <c r="P93" s="2" t="s">
+        <v>1361</v>
       </c>
       <c r="Q93" s="3">
         <v>1400</v>
@@ -9820,7 +9824,7 @@
       <c r="A94" s="3">
         <v>89</v>
       </c>
-      <c r="B94" s="46"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="1" t="s">
         <v>400</v>
       </c>
@@ -9854,8 +9858,8 @@
       <c r="N94" s="3">
         <v>1089</v>
       </c>
-      <c r="P94" s="41" t="s">
-        <v>1364</v>
+      <c r="P94" s="2" t="s">
+        <v>1371</v>
       </c>
       <c r="Q94" s="3">
         <v>1400</v>
@@ -9874,7 +9878,7 @@
       <c r="A95" s="3">
         <v>90</v>
       </c>
-      <c r="B95" s="46"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="1" t="s">
         <v>403</v>
       </c>
@@ -9908,8 +9912,8 @@
       <c r="N95" s="3">
         <v>1090</v>
       </c>
-      <c r="P95" s="41" t="s">
-        <v>1370</v>
+      <c r="P95" s="2" t="s">
+        <v>1367</v>
       </c>
       <c r="Q95" s="3">
         <v>1400</v>
@@ -9928,7 +9932,7 @@
       <c r="A96" s="3">
         <v>91</v>
       </c>
-      <c r="B96" s="46"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="1" t="s">
         <v>406</v>
       </c>
@@ -9962,8 +9966,8 @@
       <c r="N96" s="3">
         <v>1091</v>
       </c>
-      <c r="P96" s="41" t="s">
-        <v>1369</v>
+      <c r="P96" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="Q96" s="3">
         <v>1400</v>
@@ -9982,7 +9986,7 @@
       <c r="A97" s="4">
         <v>92</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -10038,7 +10042,7 @@
       <c r="A98" s="4">
         <v>93</v>
       </c>
-      <c r="B98" s="47"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="2" t="s">
         <v>414</v>
       </c>
@@ -10092,7 +10096,7 @@
       <c r="A99" s="4">
         <v>94</v>
       </c>
-      <c r="B99" s="47"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="2" t="s">
         <v>418</v>
       </c>
@@ -10146,7 +10150,7 @@
       <c r="A100" s="4">
         <v>95</v>
       </c>
-      <c r="B100" s="47"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="2" t="s">
         <v>422</v>
       </c>
@@ -10200,7 +10204,7 @@
       <c r="A101" s="4">
         <v>96</v>
       </c>
-      <c r="B101" s="47"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="2" t="s">
         <v>426</v>
       </c>
@@ -10308,7 +10312,7 @@
       <c r="A103" s="3">
         <v>98</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -10364,7 +10368,7 @@
       <c r="A104" s="3">
         <v>99</v>
       </c>
-      <c r="B104" s="46"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="3" t="s">
         <v>439</v>
       </c>
@@ -10418,7 +10422,7 @@
       <c r="A105" s="3">
         <v>100</v>
       </c>
-      <c r="B105" s="46"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="3" t="s">
         <v>443</v>
       </c>
@@ -10472,7 +10476,7 @@
       <c r="A106" s="3">
         <v>101</v>
       </c>
-      <c r="B106" s="46"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="3" t="s">
         <v>446</v>
       </c>
@@ -10526,7 +10530,7 @@
       <c r="A107" s="3">
         <v>102</v>
       </c>
-      <c r="B107" s="46"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="3" t="s">
         <v>450</v>
       </c>
@@ -10580,7 +10584,7 @@
       <c r="A108" s="4">
         <v>103</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="43" t="s">
         <v>454</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -10636,7 +10640,7 @@
       <c r="A109" s="4">
         <v>104</v>
       </c>
-      <c r="B109" s="45"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="4" t="s">
         <v>459</v>
       </c>
@@ -10690,7 +10694,7 @@
       <c r="A110" s="4">
         <v>105</v>
       </c>
-      <c r="B110" s="45"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="4" t="s">
         <v>463</v>
       </c>
@@ -10744,7 +10748,7 @@
       <c r="A111" s="4">
         <v>106</v>
       </c>
-      <c r="B111" s="45"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="4" t="s">
         <v>466</v>
       </c>
@@ -10798,7 +10802,7 @@
       <c r="A112" s="4">
         <v>107</v>
       </c>
-      <c r="B112" s="45"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="4" t="s">
         <v>469</v>
       </c>
@@ -10852,7 +10856,7 @@
       <c r="A113" s="4">
         <v>108</v>
       </c>
-      <c r="B113" s="45"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="4" t="s">
         <v>473</v>
       </c>
@@ -10906,7 +10910,7 @@
       <c r="A114" s="4">
         <v>109</v>
       </c>
-      <c r="B114" s="45"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="4" t="s">
         <v>477</v>
       </c>
@@ -10960,7 +10964,7 @@
       <c r="A115" s="3">
         <v>110</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="42" t="s">
         <v>482</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -11016,7 +11020,7 @@
       <c r="A116" s="3">
         <v>111</v>
       </c>
-      <c r="B116" s="46"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="3" t="s">
         <v>487</v>
       </c>
@@ -11070,7 +11074,7 @@
       <c r="A117" s="3">
         <v>112</v>
       </c>
-      <c r="B117" s="46"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="3" t="s">
         <v>491</v>
       </c>
@@ -11124,7 +11128,7 @@
       <c r="A118" s="3">
         <v>113</v>
       </c>
-      <c r="B118" s="46"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="3" t="s">
         <v>495</v>
       </c>
@@ -11178,7 +11182,7 @@
       <c r="A119" s="3">
         <v>114</v>
       </c>
-      <c r="B119" s="46"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="3" t="s">
         <v>499</v>
       </c>
@@ -11232,7 +11236,7 @@
       <c r="A120" s="3">
         <v>115</v>
       </c>
-      <c r="B120" s="46"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="3" t="s">
         <v>503</v>
       </c>
@@ -11286,7 +11290,7 @@
       <c r="A121" s="3">
         <v>116</v>
       </c>
-      <c r="B121" s="46"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="3" t="s">
         <v>507</v>
       </c>
@@ -11340,7 +11344,7 @@
       <c r="A122" s="4">
         <v>117</v>
       </c>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="43" t="s">
         <v>510</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -11396,7 +11400,7 @@
       <c r="A123" s="4">
         <v>118</v>
       </c>
-      <c r="B123" s="45"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="4" t="s">
         <v>515</v>
       </c>
@@ -11450,7 +11454,7 @@
       <c r="A124" s="4">
         <v>119</v>
       </c>
-      <c r="B124" s="45"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="4" t="s">
         <v>519</v>
       </c>
@@ -11504,7 +11508,7 @@
       <c r="A125" s="4">
         <v>120</v>
       </c>
-      <c r="B125" s="45"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="4" t="s">
         <v>523</v>
       </c>
@@ -11558,7 +11562,7 @@
       <c r="A126" s="4">
         <v>121</v>
       </c>
-      <c r="B126" s="45"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="4" t="s">
         <v>527</v>
       </c>
@@ -11612,7 +11616,7 @@
       <c r="A127" s="3">
         <v>122</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="42" t="s">
         <v>531</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -11668,7 +11672,7 @@
       <c r="A128" s="3">
         <v>123</v>
       </c>
-      <c r="B128" s="46"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="3" t="s">
         <v>536</v>
       </c>
@@ -11722,7 +11726,7 @@
       <c r="A129" s="3">
         <v>124</v>
       </c>
-      <c r="B129" s="46"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="3" t="s">
         <v>540</v>
       </c>
@@ -11776,7 +11780,7 @@
       <c r="A130" s="3">
         <v>125</v>
       </c>
-      <c r="B130" s="46"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="3" t="s">
         <v>544</v>
       </c>
@@ -11830,7 +11834,7 @@
       <c r="A131" s="3">
         <v>126</v>
       </c>
-      <c r="B131" s="46"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="3" t="s">
         <v>548</v>
       </c>
@@ -11884,7 +11888,7 @@
       <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="43" t="s">
         <v>552</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11940,7 +11944,7 @@
       <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B133" s="45"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="2" t="s">
         <v>556</v>
       </c>
@@ -12583,7 +12587,7 @@
       <c r="A145" s="3">
         <v>140</v>
       </c>
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="42" t="s">
         <v>601</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -12639,7 +12643,7 @@
       <c r="A146" s="3">
         <v>141</v>
       </c>
-      <c r="B146" s="46"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="1" t="s">
         <v>606</v>
       </c>
@@ -12693,7 +12697,7 @@
       <c r="A147" s="3">
         <v>142</v>
       </c>
-      <c r="B147" s="46"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="1" t="s">
         <v>610</v>
       </c>
@@ -12747,7 +12751,7 @@
       <c r="A148" s="3">
         <v>143</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="1" t="s">
         <v>614</v>
       </c>
@@ -12801,7 +12805,7 @@
       <c r="A149" s="3">
         <v>144</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="42" t="s">
         <v>618</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -12857,7 +12861,7 @@
       <c r="A150" s="3">
         <v>145</v>
       </c>
-      <c r="B150" s="46"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="1" t="s">
         <v>622</v>
       </c>
@@ -12911,7 +12915,7 @@
       <c r="A151" s="3">
         <v>146</v>
       </c>
-      <c r="B151" s="46"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="1" t="s">
         <v>626</v>
       </c>
@@ -12965,7 +12969,7 @@
       <c r="A152" s="3">
         <v>147</v>
       </c>
-      <c r="B152" s="46"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="1" t="s">
         <v>630</v>
       </c>
@@ -13878,7 +13882,7 @@
         <v>698</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>700</v>
@@ -14664,7 +14668,7 @@
         <v>1178</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="Q183" s="3">
         <v>1800</v>
@@ -14718,7 +14722,7 @@
         <v>1179</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Q184" s="3">
         <v>1800</v>
@@ -14772,7 +14776,7 @@
         <v>1180</v>
       </c>
       <c r="P185" s="39" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Q185" s="3">
         <v>1800</v>
@@ -14880,7 +14884,7 @@
         <v>1182</v>
       </c>
       <c r="P187" s="39" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Q187" s="3">
         <v>1800</v>
@@ -14934,7 +14938,7 @@
         <v>1183</v>
       </c>
       <c r="P188" s="39" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Q188" s="3">
         <v>1800</v>
@@ -14988,7 +14992,7 @@
         <v>1184</v>
       </c>
       <c r="P189" s="39" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Q189" s="3">
         <v>1800</v>
@@ -15096,7 +15100,7 @@
         <v>1186</v>
       </c>
       <c r="P191" s="39" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Q191" s="3">
         <v>1800</v>
@@ -15150,7 +15154,7 @@
         <v>1187</v>
       </c>
       <c r="P192" s="39" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="Q192" s="3">
         <v>1800</v>
@@ -16052,7 +16056,7 @@
       <c r="A210" s="4">
         <v>501</v>
       </c>
-      <c r="B210" s="43" t="s">
+      <c r="B210" s="45" t="s">
         <v>844</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -16111,7 +16115,7 @@
       <c r="A211" s="4">
         <v>502</v>
       </c>
-      <c r="B211" s="43"/>
+      <c r="B211" s="45"/>
       <c r="C211" s="4" t="s">
         <v>63</v>
       </c>
@@ -16168,7 +16172,7 @@
       <c r="A212" s="4">
         <v>503</v>
       </c>
-      <c r="B212" s="43"/>
+      <c r="B212" s="45"/>
       <c r="C212" s="4" t="s">
         <v>66</v>
       </c>
@@ -16225,7 +16229,7 @@
       <c r="A213" s="4">
         <v>504</v>
       </c>
-      <c r="B213" s="43"/>
+      <c r="B213" s="45"/>
       <c r="C213" s="4" t="s">
         <v>69</v>
       </c>
@@ -16282,7 +16286,7 @@
       <c r="A214" s="4">
         <v>505</v>
       </c>
-      <c r="B214" s="43"/>
+      <c r="B214" s="45"/>
       <c r="C214" s="4" t="s">
         <v>72</v>
       </c>
@@ -16626,7 +16630,7 @@
       <c r="A220" s="4">
         <v>511</v>
       </c>
-      <c r="B220" s="43" t="s">
+      <c r="B220" s="45" t="s">
         <v>854</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -16685,7 +16689,7 @@
       <c r="A221" s="4">
         <v>512</v>
       </c>
-      <c r="B221" s="43"/>
+      <c r="B221" s="45"/>
       <c r="C221" s="4" t="s">
         <v>102</v>
       </c>
@@ -16742,7 +16746,7 @@
       <c r="A222" s="4">
         <v>513</v>
       </c>
-      <c r="B222" s="43"/>
+      <c r="B222" s="45"/>
       <c r="C222" s="4" t="s">
         <v>106</v>
       </c>
@@ -16799,7 +16803,7 @@
       <c r="A223" s="4">
         <v>514</v>
       </c>
-      <c r="B223" s="43"/>
+      <c r="B223" s="45"/>
       <c r="C223" s="4" t="s">
         <v>109</v>
       </c>
@@ -16856,7 +16860,7 @@
       <c r="A224" s="4">
         <v>515</v>
       </c>
-      <c r="B224" s="43"/>
+      <c r="B224" s="45"/>
       <c r="C224" s="4" t="s">
         <v>113</v>
       </c>
@@ -17143,7 +17147,7 @@
       <c r="A229" s="4">
         <v>520</v>
       </c>
-      <c r="B229" s="43" t="s">
+      <c r="B229" s="45" t="s">
         <v>863</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -17202,7 +17206,7 @@
       <c r="A230" s="4">
         <v>521</v>
       </c>
-      <c r="B230" s="43"/>
+      <c r="B230" s="45"/>
       <c r="C230" s="4" t="s">
         <v>139</v>
       </c>
@@ -17259,7 +17263,7 @@
       <c r="A231" s="4">
         <v>522</v>
       </c>
-      <c r="B231" s="43"/>
+      <c r="B231" s="45"/>
       <c r="C231" s="4" t="s">
         <v>142</v>
       </c>
@@ -17316,7 +17320,7 @@
       <c r="A232" s="4">
         <v>523</v>
       </c>
-      <c r="B232" s="43"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="4" t="s">
         <v>146</v>
       </c>
@@ -17373,7 +17377,7 @@
       <c r="A233" s="4">
         <v>524</v>
       </c>
-      <c r="B233" s="43"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="4" t="s">
         <v>150</v>
       </c>
@@ -17717,7 +17721,7 @@
       <c r="A239" s="4">
         <v>530</v>
       </c>
-      <c r="B239" s="43" t="s">
+      <c r="B239" s="45" t="s">
         <v>873</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -17776,7 +17780,7 @@
       <c r="A240" s="4">
         <v>531</v>
       </c>
-      <c r="B240" s="43"/>
+      <c r="B240" s="45"/>
       <c r="C240" s="4" t="s">
         <v>180</v>
       </c>
@@ -17833,7 +17837,7 @@
       <c r="A241" s="4">
         <v>532</v>
       </c>
-      <c r="B241" s="43"/>
+      <c r="B241" s="45"/>
       <c r="C241" s="4" t="s">
         <v>184</v>
       </c>
@@ -17890,7 +17894,7 @@
       <c r="A242" s="4">
         <v>533</v>
       </c>
-      <c r="B242" s="43"/>
+      <c r="B242" s="45"/>
       <c r="C242" s="4" t="s">
         <v>188</v>
       </c>
@@ -18234,7 +18238,7 @@
       <c r="A248" s="4">
         <v>539</v>
       </c>
-      <c r="B248" s="43" t="s">
+      <c r="B248" s="45" t="s">
         <v>883</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -18293,7 +18297,7 @@
       <c r="A249" s="4">
         <v>540</v>
       </c>
-      <c r="B249" s="43"/>
+      <c r="B249" s="45"/>
       <c r="C249" s="4" t="s">
         <v>216</v>
       </c>
@@ -18350,7 +18354,7 @@
       <c r="A250" s="4">
         <v>541</v>
       </c>
-      <c r="B250" s="43"/>
+      <c r="B250" s="45"/>
       <c r="C250" s="4" t="s">
         <v>219</v>
       </c>
@@ -18407,7 +18411,7 @@
       <c r="A251" s="4">
         <v>542</v>
       </c>
-      <c r="B251" s="43"/>
+      <c r="B251" s="45"/>
       <c r="C251" s="4" t="s">
         <v>222</v>
       </c>
@@ -18464,7 +18468,7 @@
       <c r="A252" s="4">
         <v>543</v>
       </c>
-      <c r="B252" s="43"/>
+      <c r="B252" s="45"/>
       <c r="C252" s="4" t="s">
         <v>226</v>
       </c>
@@ -18808,7 +18812,7 @@
       <c r="A258" s="4">
         <v>549</v>
       </c>
-      <c r="B258" s="43" t="s">
+      <c r="B258" s="45" t="s">
         <v>891</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -18867,7 +18871,7 @@
       <c r="A259" s="4">
         <v>550</v>
       </c>
-      <c r="B259" s="43"/>
+      <c r="B259" s="45"/>
       <c r="C259" s="4" t="s">
         <v>255</v>
       </c>
@@ -18924,7 +18928,7 @@
       <c r="A260" s="4">
         <v>551</v>
       </c>
-      <c r="B260" s="43"/>
+      <c r="B260" s="45"/>
       <c r="C260" s="4" t="s">
         <v>258</v>
       </c>
@@ -18981,7 +18985,7 @@
       <c r="A261" s="4">
         <v>552</v>
       </c>
-      <c r="B261" s="43"/>
+      <c r="B261" s="45"/>
       <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
@@ -19038,7 +19042,7 @@
       <c r="A262" s="4">
         <v>553</v>
       </c>
-      <c r="B262" s="43"/>
+      <c r="B262" s="45"/>
       <c r="C262" s="4" t="s">
         <v>265</v>
       </c>
@@ -19382,7 +19386,7 @@
       <c r="A268" s="4">
         <v>559</v>
       </c>
-      <c r="B268" s="43" t="s">
+      <c r="B268" s="45" t="s">
         <v>901</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -19441,7 +19445,7 @@
       <c r="A269" s="4">
         <v>560</v>
       </c>
-      <c r="B269" s="43"/>
+      <c r="B269" s="45"/>
       <c r="C269" s="4" t="s">
         <v>295</v>
       </c>
@@ -19498,7 +19502,7 @@
       <c r="A270" s="4">
         <v>561</v>
       </c>
-      <c r="B270" s="43"/>
+      <c r="B270" s="45"/>
       <c r="C270" s="4" t="s">
         <v>903</v>
       </c>
@@ -19555,7 +19559,7 @@
       <c r="A271" s="4">
         <v>562</v>
       </c>
-      <c r="B271" s="43"/>
+      <c r="B271" s="45"/>
       <c r="C271" s="4" t="s">
         <v>905</v>
       </c>
@@ -19612,7 +19616,7 @@
       <c r="A272" s="4">
         <v>563</v>
       </c>
-      <c r="B272" s="43"/>
+      <c r="B272" s="45"/>
       <c r="C272" s="4" t="s">
         <v>305</v>
       </c>
@@ -19899,7 +19903,7 @@
       <c r="A277" s="4">
         <v>568</v>
       </c>
-      <c r="B277" s="43" t="s">
+      <c r="B277" s="45" t="s">
         <v>914</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -19958,7 +19962,7 @@
       <c r="A278" s="4">
         <v>569</v>
       </c>
-      <c r="B278" s="43"/>
+      <c r="B278" s="45"/>
       <c r="C278" s="4" t="s">
         <v>916</v>
       </c>
@@ -20015,7 +20019,7 @@
       <c r="A279" s="4">
         <v>570</v>
       </c>
-      <c r="B279" s="43"/>
+      <c r="B279" s="45"/>
       <c r="C279" s="4" t="s">
         <v>917</v>
       </c>
@@ -20072,7 +20076,7 @@
       <c r="A280" s="4">
         <v>571</v>
       </c>
-      <c r="B280" s="43"/>
+      <c r="B280" s="45"/>
       <c r="C280" s="4" t="s">
         <v>919</v>
       </c>
@@ -20129,7 +20133,7 @@
       <c r="A281" s="4">
         <v>572</v>
       </c>
-      <c r="B281" s="43"/>
+      <c r="B281" s="45"/>
       <c r="C281" s="4" t="s">
         <v>341</v>
       </c>
@@ -20473,7 +20477,7 @@
       <c r="A287" s="4">
         <v>578</v>
       </c>
-      <c r="B287" s="45" t="s">
+      <c r="B287" s="43" t="s">
         <v>926</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -20513,7 +20517,7 @@
         <v>846</v>
       </c>
       <c r="P287" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="Q287" s="4">
         <v>1400</v>
@@ -20524,7 +20528,7 @@
       <c r="S287" s="4">
         <v>1</v>
       </c>
-      <c r="U287" s="41"/>
+      <c r="U287" s="2"/>
       <c r="W287" s="4">
         <v>0</v>
       </c>
@@ -20533,7 +20537,7 @@
       <c r="A288" s="4">
         <v>579</v>
       </c>
-      <c r="B288" s="45"/>
+      <c r="B288" s="43"/>
       <c r="C288" s="2" t="s">
         <v>368</v>
       </c>
@@ -20571,7 +20575,7 @@
         <v>846</v>
       </c>
       <c r="P288" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="Q288" s="4">
         <v>1400</v>
@@ -20582,7 +20586,7 @@
       <c r="S288" s="4">
         <v>1</v>
       </c>
-      <c r="U288" s="41"/>
+      <c r="U288" s="2"/>
       <c r="W288" s="4">
         <v>0</v>
       </c>
@@ -20591,7 +20595,7 @@
       <c r="A289" s="4">
         <v>580</v>
       </c>
-      <c r="B289" s="45"/>
+      <c r="B289" s="43"/>
       <c r="C289" s="2" t="s">
         <v>371</v>
       </c>
@@ -20629,7 +20633,7 @@
         <v>846</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="Q289" s="4">
         <v>1400</v>
@@ -20640,7 +20644,7 @@
       <c r="S289" s="4">
         <v>1</v>
       </c>
-      <c r="U289" s="41"/>
+      <c r="U289" s="2"/>
       <c r="W289" s="4">
         <v>0</v>
       </c>
@@ -20649,7 +20653,7 @@
       <c r="A290" s="4">
         <v>581</v>
       </c>
-      <c r="B290" s="45"/>
+      <c r="B290" s="43"/>
       <c r="C290" s="2" t="s">
         <v>374</v>
       </c>
@@ -20687,7 +20691,7 @@
         <v>846</v>
       </c>
       <c r="P290" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="Q290" s="4">
         <v>1400</v>
@@ -20698,7 +20702,7 @@
       <c r="S290" s="4">
         <v>1</v>
       </c>
-      <c r="U290" s="41"/>
+      <c r="U290" s="2"/>
       <c r="W290" s="4">
         <v>0</v>
       </c>
@@ -20707,7 +20711,7 @@
       <c r="A291" s="4">
         <v>582</v>
       </c>
-      <c r="B291" s="45"/>
+      <c r="B291" s="43"/>
       <c r="C291" s="2" t="s">
         <v>377</v>
       </c>
@@ -20745,7 +20749,7 @@
         <v>846</v>
       </c>
       <c r="P291" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="Q291" s="4">
         <v>1400</v>
@@ -20756,7 +20760,7 @@
       <c r="S291" s="4">
         <v>1</v>
       </c>
-      <c r="U291" s="41"/>
+      <c r="U291" s="2"/>
       <c r="W291" s="4">
         <v>0</v>
       </c>
@@ -20765,7 +20769,7 @@
       <c r="A292" s="4">
         <v>583</v>
       </c>
-      <c r="B292" s="45"/>
+      <c r="B292" s="43"/>
       <c r="C292" s="2" t="s">
         <v>380</v>
       </c>
@@ -20803,7 +20807,7 @@
         <v>846</v>
       </c>
       <c r="P292" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="Q292" s="4">
         <v>1400</v>
@@ -20814,7 +20818,7 @@
       <c r="S292" s="4">
         <v>1</v>
       </c>
-      <c r="U292" s="41"/>
+      <c r="U292" s="2"/>
       <c r="W292" s="4">
         <v>0</v>
       </c>
@@ -20823,7 +20827,7 @@
       <c r="A293" s="4">
         <v>584</v>
       </c>
-      <c r="B293" s="45"/>
+      <c r="B293" s="43"/>
       <c r="C293" s="2" t="s">
         <v>384</v>
       </c>
@@ -20861,7 +20865,7 @@
         <v>846</v>
       </c>
       <c r="P293" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="Q293" s="4">
         <v>1400</v>
@@ -20872,7 +20876,7 @@
       <c r="S293" s="4">
         <v>1</v>
       </c>
-      <c r="U293" s="41"/>
+      <c r="U293" s="2"/>
       <c r="W293" s="4">
         <v>0</v>
       </c>
@@ -20881,7 +20885,7 @@
       <c r="A294" s="3">
         <v>585</v>
       </c>
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="42" t="s">
         <v>927</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -20940,7 +20944,7 @@
       <c r="A295" s="3">
         <v>586</v>
       </c>
-      <c r="B295" s="46"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="1" t="s">
         <v>391</v>
       </c>
@@ -20997,7 +21001,7 @@
       <c r="A296" s="3">
         <v>587</v>
       </c>
-      <c r="B296" s="46"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="1" t="s">
         <v>394</v>
       </c>
@@ -21054,7 +21058,7 @@
       <c r="A297" s="3">
         <v>588</v>
       </c>
-      <c r="B297" s="46"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="1" t="s">
         <v>397</v>
       </c>
@@ -21111,7 +21115,7 @@
       <c r="A298" s="3">
         <v>589</v>
       </c>
-      <c r="B298" s="46"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="1" t="s">
         <v>400</v>
       </c>
@@ -21168,7 +21172,7 @@
       <c r="A299" s="3">
         <v>590</v>
       </c>
-      <c r="B299" s="46"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="1" t="s">
         <v>403</v>
       </c>
@@ -21225,7 +21229,7 @@
       <c r="A300" s="3">
         <v>591</v>
       </c>
-      <c r="B300" s="46"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="1" t="s">
         <v>406</v>
       </c>
@@ -21282,7 +21286,7 @@
       <c r="A301" s="4">
         <v>592</v>
       </c>
-      <c r="B301" s="45" t="s">
+      <c r="B301" s="43" t="s">
         <v>933</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -21341,7 +21345,7 @@
       <c r="A302" s="4">
         <v>593</v>
       </c>
-      <c r="B302" s="45"/>
+      <c r="B302" s="43"/>
       <c r="C302" s="2" t="s">
         <v>414</v>
       </c>
@@ -21398,7 +21402,7 @@
       <c r="A303" s="4">
         <v>594</v>
       </c>
-      <c r="B303" s="45"/>
+      <c r="B303" s="43"/>
       <c r="C303" s="2" t="s">
         <v>418</v>
       </c>
@@ -21455,7 +21459,7 @@
       <c r="A304" s="4">
         <v>595</v>
       </c>
-      <c r="B304" s="45"/>
+      <c r="B304" s="43"/>
       <c r="C304" s="2" t="s">
         <v>422</v>
       </c>
@@ -21512,7 +21516,7 @@
       <c r="A305" s="4">
         <v>596</v>
       </c>
-      <c r="B305" s="45"/>
+      <c r="B305" s="43"/>
       <c r="C305" s="2" t="s">
         <v>426</v>
       </c>
@@ -21569,7 +21573,7 @@
       <c r="A306" s="4">
         <v>597</v>
       </c>
-      <c r="B306" s="45"/>
+      <c r="B306" s="43"/>
       <c r="C306" s="2" t="s">
         <v>430</v>
       </c>
@@ -21626,7 +21630,7 @@
       <c r="A307" s="4">
         <v>598</v>
       </c>
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -21685,7 +21689,7 @@
       <c r="A308" s="4">
         <v>599</v>
       </c>
-      <c r="B308" s="46"/>
+      <c r="B308" s="42"/>
       <c r="C308" s="3" t="s">
         <v>439</v>
       </c>
@@ -21742,7 +21746,7 @@
       <c r="A309" s="4">
         <v>600</v>
       </c>
-      <c r="B309" s="46"/>
+      <c r="B309" s="42"/>
       <c r="C309" s="3" t="s">
         <v>443</v>
       </c>
@@ -21799,7 +21803,7 @@
       <c r="A310" s="4">
         <v>601</v>
       </c>
-      <c r="B310" s="46"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="3" t="s">
         <v>446</v>
       </c>
@@ -21856,7 +21860,7 @@
       <c r="A311" s="4">
         <v>602</v>
       </c>
-      <c r="B311" s="46"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="3" t="s">
         <v>450</v>
       </c>
@@ -21913,7 +21917,7 @@
       <c r="A312" s="4">
         <v>603</v>
       </c>
-      <c r="B312" s="45" t="s">
+      <c r="B312" s="43" t="s">
         <v>454</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -21972,7 +21976,7 @@
       <c r="A313" s="4">
         <v>604</v>
       </c>
-      <c r="B313" s="45"/>
+      <c r="B313" s="43"/>
       <c r="C313" s="4" t="s">
         <v>459</v>
       </c>
@@ -22029,7 +22033,7 @@
       <c r="A314" s="4">
         <v>605</v>
       </c>
-      <c r="B314" s="45"/>
+      <c r="B314" s="43"/>
       <c r="C314" s="4" t="s">
         <v>463</v>
       </c>
@@ -22086,7 +22090,7 @@
       <c r="A315" s="4">
         <v>606</v>
       </c>
-      <c r="B315" s="45"/>
+      <c r="B315" s="43"/>
       <c r="C315" s="4" t="s">
         <v>466</v>
       </c>
@@ -22143,7 +22147,7 @@
       <c r="A316" s="4">
         <v>607</v>
       </c>
-      <c r="B316" s="45"/>
+      <c r="B316" s="43"/>
       <c r="C316" s="4" t="s">
         <v>469</v>
       </c>
@@ -22200,7 +22204,7 @@
       <c r="A317" s="4">
         <v>608</v>
       </c>
-      <c r="B317" s="45"/>
+      <c r="B317" s="43"/>
       <c r="C317" s="4" t="s">
         <v>473</v>
       </c>
@@ -22257,7 +22261,7 @@
       <c r="A318" s="4">
         <v>609</v>
       </c>
-      <c r="B318" s="45"/>
+      <c r="B318" s="43"/>
       <c r="C318" s="4" t="s">
         <v>477</v>
       </c>
@@ -22314,7 +22318,7 @@
       <c r="A319" s="4">
         <v>610</v>
       </c>
-      <c r="B319" s="46" t="s">
+      <c r="B319" s="42" t="s">
         <v>482</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -22373,7 +22377,7 @@
       <c r="A320" s="4">
         <v>611</v>
       </c>
-      <c r="B320" s="46"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="3" t="s">
         <v>487</v>
       </c>
@@ -22430,7 +22434,7 @@
       <c r="A321" s="4">
         <v>612</v>
       </c>
-      <c r="B321" s="46"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="3" t="s">
         <v>491</v>
       </c>
@@ -22487,7 +22491,7 @@
       <c r="A322" s="4">
         <v>613</v>
       </c>
-      <c r="B322" s="46"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="3" t="s">
         <v>495</v>
       </c>
@@ -22544,7 +22548,7 @@
       <c r="A323" s="4">
         <v>614</v>
       </c>
-      <c r="B323" s="46"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="3" t="s">
         <v>499</v>
       </c>
@@ -22601,7 +22605,7 @@
       <c r="A324" s="4">
         <v>615</v>
       </c>
-      <c r="B324" s="46"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="3" t="s">
         <v>503</v>
       </c>
@@ -22658,7 +22662,7 @@
       <c r="A325" s="4">
         <v>616</v>
       </c>
-      <c r="B325" s="46"/>
+      <c r="B325" s="42"/>
       <c r="C325" s="3" t="s">
         <v>507</v>
       </c>
@@ -22715,7 +22719,7 @@
       <c r="A326" s="4">
         <v>617</v>
       </c>
-      <c r="B326" s="45" t="s">
+      <c r="B326" s="43" t="s">
         <v>510</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -22774,7 +22778,7 @@
       <c r="A327" s="4">
         <v>618</v>
       </c>
-      <c r="B327" s="45"/>
+      <c r="B327" s="43"/>
       <c r="C327" s="4" t="s">
         <v>515</v>
       </c>
@@ -22831,7 +22835,7 @@
       <c r="A328" s="4">
         <v>619</v>
       </c>
-      <c r="B328" s="45"/>
+      <c r="B328" s="43"/>
       <c r="C328" s="4" t="s">
         <v>519</v>
       </c>
@@ -22888,7 +22892,7 @@
       <c r="A329" s="4">
         <v>620</v>
       </c>
-      <c r="B329" s="45"/>
+      <c r="B329" s="43"/>
       <c r="C329" s="4" t="s">
         <v>523</v>
       </c>
@@ -22945,7 +22949,7 @@
       <c r="A330" s="4">
         <v>621</v>
       </c>
-      <c r="B330" s="45"/>
+      <c r="B330" s="43"/>
       <c r="C330" s="4" t="s">
         <v>527</v>
       </c>
@@ -23002,7 +23006,7 @@
       <c r="A331" s="4">
         <v>622</v>
       </c>
-      <c r="B331" s="46" t="s">
+      <c r="B331" s="42" t="s">
         <v>531</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -23061,7 +23065,7 @@
       <c r="A332" s="4">
         <v>623</v>
       </c>
-      <c r="B332" s="46"/>
+      <c r="B332" s="42"/>
       <c r="C332" s="3" t="s">
         <v>536</v>
       </c>
@@ -23118,7 +23122,7 @@
       <c r="A333" s="4">
         <v>624</v>
       </c>
-      <c r="B333" s="46"/>
+      <c r="B333" s="42"/>
       <c r="C333" s="3" t="s">
         <v>540</v>
       </c>
@@ -23175,7 +23179,7 @@
       <c r="A334" s="4">
         <v>625</v>
       </c>
-      <c r="B334" s="46"/>
+      <c r="B334" s="42"/>
       <c r="C334" s="3" t="s">
         <v>544</v>
       </c>
@@ -23232,7 +23236,7 @@
       <c r="A335" s="4">
         <v>626</v>
       </c>
-      <c r="B335" s="46"/>
+      <c r="B335" s="42"/>
       <c r="C335" s="3" t="s">
         <v>548</v>
       </c>
@@ -23289,7 +23293,7 @@
       <c r="A336" s="4">
         <v>627</v>
       </c>
-      <c r="B336" s="45" t="s">
+      <c r="B336" s="43" t="s">
         <v>965</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -23348,7 +23352,7 @@
       <c r="A337" s="4">
         <v>628</v>
       </c>
-      <c r="B337" s="45"/>
+      <c r="B337" s="43"/>
       <c r="C337" s="2" t="s">
         <v>556</v>
       </c>
@@ -23405,7 +23409,7 @@
       <c r="A338" s="4">
         <v>629</v>
       </c>
-      <c r="B338" s="46" t="s">
+      <c r="B338" s="42" t="s">
         <v>559</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -23464,7 +23468,7 @@
       <c r="A339" s="4">
         <v>630</v>
       </c>
-      <c r="B339" s="46"/>
+      <c r="B339" s="42"/>
       <c r="C339" s="1" t="s">
         <v>564</v>
       </c>
@@ -24026,7 +24030,7 @@
       <c r="A349" s="3">
         <v>640</v>
       </c>
-      <c r="B349" s="46" t="s">
+      <c r="B349" s="42" t="s">
         <v>601</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -24085,7 +24089,7 @@
       <c r="A350" s="3">
         <v>641</v>
       </c>
-      <c r="B350" s="46"/>
+      <c r="B350" s="42"/>
       <c r="C350" s="1" t="s">
         <v>606</v>
       </c>
@@ -24142,7 +24146,7 @@
       <c r="A351" s="3">
         <v>642</v>
       </c>
-      <c r="B351" s="46"/>
+      <c r="B351" s="42"/>
       <c r="C351" s="1" t="s">
         <v>610</v>
       </c>
@@ -24199,7 +24203,7 @@
       <c r="A352" s="3">
         <v>643</v>
       </c>
-      <c r="B352" s="46"/>
+      <c r="B352" s="42"/>
       <c r="C352" s="1" t="s">
         <v>614</v>
       </c>
@@ -24256,7 +24260,7 @@
       <c r="A353" s="3">
         <v>644</v>
       </c>
-      <c r="B353" s="46" t="s">
+      <c r="B353" s="42" t="s">
         <v>618</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -24315,7 +24319,7 @@
       <c r="A354" s="3">
         <v>645</v>
       </c>
-      <c r="B354" s="46"/>
+      <c r="B354" s="42"/>
       <c r="C354" s="1" t="s">
         <v>622</v>
       </c>
@@ -24372,7 +24376,7 @@
       <c r="A355" s="3">
         <v>646</v>
       </c>
-      <c r="B355" s="46"/>
+      <c r="B355" s="42"/>
       <c r="C355" s="1" t="s">
         <v>626</v>
       </c>
@@ -24429,7 +24433,7 @@
       <c r="A356" s="3">
         <v>647</v>
       </c>
-      <c r="B356" s="46"/>
+      <c r="B356" s="42"/>
       <c r="C356" s="1" t="s">
         <v>630</v>
       </c>
@@ -25654,7 +25658,7 @@
         <v>846</v>
       </c>
       <c r="P377" s="39" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q377" s="3">
         <v>1800</v>
@@ -27675,7 +27679,7 @@
       <c r="A414" s="4">
         <v>1001</v>
       </c>
-      <c r="B414" s="43" t="s">
+      <c r="B414" s="45" t="s">
         <v>1028</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -27731,7 +27735,7 @@
       <c r="A415" s="4">
         <v>1002</v>
       </c>
-      <c r="B415" s="43"/>
+      <c r="B415" s="45"/>
       <c r="C415" s="4" t="s">
         <v>63</v>
       </c>
@@ -27785,7 +27789,7 @@
       <c r="A416" s="4">
         <v>1003</v>
       </c>
-      <c r="B416" s="43"/>
+      <c r="B416" s="45"/>
       <c r="C416" s="4" t="s">
         <v>66</v>
       </c>
@@ -27839,7 +27843,7 @@
       <c r="A417" s="4">
         <v>1004</v>
       </c>
-      <c r="B417" s="43"/>
+      <c r="B417" s="45"/>
       <c r="C417" s="4" t="s">
         <v>69</v>
       </c>
@@ -27893,7 +27897,7 @@
       <c r="A418" s="4">
         <v>1005</v>
       </c>
-      <c r="B418" s="43"/>
+      <c r="B418" s="45"/>
       <c r="C418" s="4" t="s">
         <v>72</v>
       </c>
@@ -28224,7 +28228,7 @@
       <c r="A424" s="4">
         <v>1011</v>
       </c>
-      <c r="B424" s="43" t="s">
+      <c r="B424" s="45" t="s">
         <v>1039</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -28280,7 +28284,7 @@
       <c r="A425" s="4">
         <v>1012</v>
       </c>
-      <c r="B425" s="43"/>
+      <c r="B425" s="45"/>
       <c r="C425" s="4" t="s">
         <v>102</v>
       </c>
@@ -28334,7 +28338,7 @@
       <c r="A426" s="4">
         <v>1013</v>
       </c>
-      <c r="B426" s="43"/>
+      <c r="B426" s="45"/>
       <c r="C426" s="4" t="s">
         <v>106</v>
       </c>
@@ -28388,12 +28392,12 @@
       <c r="A427" s="4">
         <v>1014</v>
       </c>
-      <c r="B427" s="43"/>
+      <c r="B427" s="45"/>
       <c r="C427" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D427" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>111</v>
@@ -28442,7 +28446,7 @@
       <c r="A428" s="4">
         <v>1015</v>
       </c>
-      <c r="B428" s="43"/>
+      <c r="B428" s="45"/>
       <c r="C428" s="4" t="s">
         <v>113</v>
       </c>
@@ -28718,7 +28722,7 @@
       <c r="A433" s="4">
         <v>1020</v>
       </c>
-      <c r="B433" s="43" t="s">
+      <c r="B433" s="45" t="s">
         <v>1047</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -28774,7 +28778,7 @@
       <c r="A434" s="4">
         <v>1021</v>
       </c>
-      <c r="B434" s="43"/>
+      <c r="B434" s="45"/>
       <c r="C434" s="4" t="s">
         <v>139</v>
       </c>
@@ -28828,7 +28832,7 @@
       <c r="A435" s="4">
         <v>1022</v>
       </c>
-      <c r="B435" s="43"/>
+      <c r="B435" s="45"/>
       <c r="C435" s="4" t="s">
         <v>142</v>
       </c>
@@ -28882,12 +28886,12 @@
       <c r="A436" s="4">
         <v>1023</v>
       </c>
-      <c r="B436" s="43"/>
+      <c r="B436" s="45"/>
       <c r="C436" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D436" s="35" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>148</v>
@@ -28936,7 +28940,7 @@
       <c r="A437" s="4">
         <v>1024</v>
       </c>
-      <c r="B437" s="43"/>
+      <c r="B437" s="45"/>
       <c r="C437" s="4" t="s">
         <v>150</v>
       </c>
@@ -29267,7 +29271,7 @@
       <c r="A443" s="4">
         <v>1030</v>
       </c>
-      <c r="B443" s="43" t="s">
+      <c r="B443" s="45" t="s">
         <v>1057</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -29323,7 +29327,7 @@
       <c r="A444" s="4">
         <v>1031</v>
       </c>
-      <c r="B444" s="43"/>
+      <c r="B444" s="45"/>
       <c r="C444" s="4" t="s">
         <v>180</v>
       </c>
@@ -29377,7 +29381,7 @@
       <c r="A445" s="4">
         <v>1032</v>
       </c>
-      <c r="B445" s="43"/>
+      <c r="B445" s="45"/>
       <c r="C445" s="4" t="s">
         <v>184</v>
       </c>
@@ -29431,7 +29435,7 @@
       <c r="A446" s="4">
         <v>1033</v>
       </c>
-      <c r="B446" s="43"/>
+      <c r="B446" s="45"/>
       <c r="C446" s="4" t="s">
         <v>188</v>
       </c>
@@ -29547,7 +29551,7 @@
         <v>197</v>
       </c>
       <c r="D448" s="39" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>199</v>
@@ -29762,7 +29766,7 @@
       <c r="A452" s="4">
         <v>1039</v>
       </c>
-      <c r="B452" s="45" t="s">
+      <c r="B452" s="43" t="s">
         <v>1067</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -29818,7 +29822,7 @@
       <c r="A453" s="4">
         <v>1040</v>
       </c>
-      <c r="B453" s="45"/>
+      <c r="B453" s="43"/>
       <c r="C453" s="4" t="s">
         <v>216</v>
       </c>
@@ -29872,7 +29876,7 @@
       <c r="A454" s="4">
         <v>1041</v>
       </c>
-      <c r="B454" s="45"/>
+      <c r="B454" s="43"/>
       <c r="C454" s="4" t="s">
         <v>219</v>
       </c>
@@ -29926,7 +29930,7 @@
       <c r="A455" s="4">
         <v>1042</v>
       </c>
-      <c r="B455" s="45"/>
+      <c r="B455" s="43"/>
       <c r="C455" s="4" t="s">
         <v>222</v>
       </c>
@@ -29980,7 +29984,7 @@
       <c r="A456" s="4">
         <v>1043</v>
       </c>
-      <c r="B456" s="45"/>
+      <c r="B456" s="43"/>
       <c r="C456" s="4" t="s">
         <v>226</v>
       </c>
@@ -30034,7 +30038,7 @@
       <c r="A457" s="4">
         <v>1044</v>
       </c>
-      <c r="B457" s="46" t="s">
+      <c r="B457" s="42" t="s">
         <v>1070</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -30091,7 +30095,7 @@
       <c r="A458" s="4">
         <v>1045</v>
       </c>
-      <c r="B458" s="46"/>
+      <c r="B458" s="42"/>
       <c r="C458" s="3" t="s">
         <v>235</v>
       </c>
@@ -30146,7 +30150,7 @@
       <c r="A459" s="4">
         <v>1046</v>
       </c>
-      <c r="B459" s="46"/>
+      <c r="B459" s="42"/>
       <c r="C459" s="3" t="s">
         <v>238</v>
       </c>
@@ -30201,7 +30205,7 @@
       <c r="A460" s="4">
         <v>1047</v>
       </c>
-      <c r="B460" s="46"/>
+      <c r="B460" s="42"/>
       <c r="C460" s="3" t="s">
         <v>242</v>
       </c>
@@ -30256,7 +30260,7 @@
       <c r="A461" s="4">
         <v>1048</v>
       </c>
-      <c r="B461" s="46"/>
+      <c r="B461" s="42"/>
       <c r="C461" s="3" t="s">
         <v>246</v>
       </c>
@@ -30311,7 +30315,7 @@
       <c r="A462" s="4">
         <v>1049</v>
       </c>
-      <c r="B462" s="45" t="s">
+      <c r="B462" s="43" t="s">
         <v>1075</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -30367,7 +30371,7 @@
       <c r="A463" s="4">
         <v>1050</v>
       </c>
-      <c r="B463" s="45"/>
+      <c r="B463" s="43"/>
       <c r="C463" s="4" t="s">
         <v>255</v>
       </c>
@@ -30421,7 +30425,7 @@
       <c r="A464" s="4">
         <v>1051</v>
       </c>
-      <c r="B464" s="45"/>
+      <c r="B464" s="43"/>
       <c r="C464" s="4" t="s">
         <v>258</v>
       </c>
@@ -30475,7 +30479,7 @@
       <c r="A465" s="4">
         <v>1052</v>
       </c>
-      <c r="B465" s="45"/>
+      <c r="B465" s="43"/>
       <c r="C465" s="4" t="s">
         <v>261</v>
       </c>
@@ -30529,7 +30533,7 @@
       <c r="A466" s="4">
         <v>1053</v>
       </c>
-      <c r="B466" s="45"/>
+      <c r="B466" s="43"/>
       <c r="C466" s="4" t="s">
         <v>265</v>
       </c>
@@ -30583,7 +30587,7 @@
       <c r="A467" s="4">
         <v>1054</v>
       </c>
-      <c r="B467" s="46" t="s">
+      <c r="B467" s="42" t="s">
         <v>1079</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -30640,7 +30644,7 @@
       <c r="A468" s="4">
         <v>1055</v>
       </c>
-      <c r="B468" s="46"/>
+      <c r="B468" s="42"/>
       <c r="C468" s="3" t="s">
         <v>274</v>
       </c>
@@ -30695,7 +30699,7 @@
       <c r="A469" s="4">
         <v>1056</v>
       </c>
-      <c r="B469" s="46"/>
+      <c r="B469" s="42"/>
       <c r="C469" s="3" t="s">
         <v>278</v>
       </c>
@@ -30750,7 +30754,7 @@
       <c r="A470" s="4">
         <v>1057</v>
       </c>
-      <c r="B470" s="46"/>
+      <c r="B470" s="42"/>
       <c r="C470" s="3" t="s">
         <v>282</v>
       </c>
@@ -30805,7 +30809,7 @@
       <c r="A471" s="4">
         <v>1058</v>
       </c>
-      <c r="B471" s="46"/>
+      <c r="B471" s="42"/>
       <c r="C471" s="3" t="s">
         <v>286</v>
       </c>
@@ -30860,7 +30864,7 @@
       <c r="A472" s="4">
         <v>1059</v>
       </c>
-      <c r="B472" s="45" t="s">
+      <c r="B472" s="43" t="s">
         <v>1085</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -30916,7 +30920,7 @@
       <c r="A473" s="4">
         <v>1060</v>
       </c>
-      <c r="B473" s="45"/>
+      <c r="B473" s="43"/>
       <c r="C473" s="4" t="s">
         <v>295</v>
       </c>
@@ -30970,7 +30974,7 @@
       <c r="A474" s="4">
         <v>1061</v>
       </c>
-      <c r="B474" s="45"/>
+      <c r="B474" s="43"/>
       <c r="C474" s="4" t="s">
         <v>1087</v>
       </c>
@@ -31024,7 +31028,7 @@
       <c r="A475" s="4">
         <v>1062</v>
       </c>
-      <c r="B475" s="45"/>
+      <c r="B475" s="43"/>
       <c r="C475" s="4" t="s">
         <v>905</v>
       </c>
@@ -31078,7 +31082,7 @@
       <c r="A476" s="4">
         <v>1063</v>
       </c>
-      <c r="B476" s="45"/>
+      <c r="B476" s="43"/>
       <c r="C476" s="4" t="s">
         <v>305</v>
       </c>
@@ -31132,7 +31136,7 @@
       <c r="A477" s="4">
         <v>1064</v>
       </c>
-      <c r="B477" s="46" t="s">
+      <c r="B477" s="42" t="s">
         <v>1090</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -31189,7 +31193,7 @@
       <c r="A478" s="4">
         <v>1065</v>
       </c>
-      <c r="B478" s="46"/>
+      <c r="B478" s="42"/>
       <c r="C478" s="3" t="s">
         <v>910</v>
       </c>
@@ -31244,7 +31248,7 @@
       <c r="A479" s="4">
         <v>1066</v>
       </c>
-      <c r="B479" s="46"/>
+      <c r="B479" s="42"/>
       <c r="C479" s="3" t="s">
         <v>912</v>
       </c>
@@ -31299,7 +31303,7 @@
       <c r="A480" s="4">
         <v>1067</v>
       </c>
-      <c r="B480" s="46"/>
+      <c r="B480" s="42"/>
       <c r="C480" s="3" t="s">
         <v>322</v>
       </c>
@@ -31354,7 +31358,7 @@
       <c r="A481" s="4">
         <v>1068</v>
       </c>
-      <c r="B481" s="45" t="s">
+      <c r="B481" s="43" t="s">
         <v>1094</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -31410,7 +31414,7 @@
       <c r="A482" s="4">
         <v>1069</v>
       </c>
-      <c r="B482" s="45"/>
+      <c r="B482" s="43"/>
       <c r="C482" s="4" t="s">
         <v>916</v>
       </c>
@@ -31464,7 +31468,7 @@
       <c r="A483" s="4">
         <v>1070</v>
       </c>
-      <c r="B483" s="45"/>
+      <c r="B483" s="43"/>
       <c r="C483" s="4" t="s">
         <v>917</v>
       </c>
@@ -31518,7 +31522,7 @@
       <c r="A484" s="4">
         <v>1071</v>
       </c>
-      <c r="B484" s="45"/>
+      <c r="B484" s="43"/>
       <c r="C484" s="4" t="s">
         <v>919</v>
       </c>
@@ -31572,7 +31576,7 @@
       <c r="A485" s="4">
         <v>1072</v>
       </c>
-      <c r="B485" s="45"/>
+      <c r="B485" s="43"/>
       <c r="C485" s="4" t="s">
         <v>341</v>
       </c>
@@ -31626,7 +31630,7 @@
       <c r="A486" s="4">
         <v>1073</v>
       </c>
-      <c r="B486" s="46" t="s">
+      <c r="B486" s="42" t="s">
         <v>1099</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -31683,7 +31687,7 @@
       <c r="A487" s="4">
         <v>1074</v>
       </c>
-      <c r="B487" s="46"/>
+      <c r="B487" s="42"/>
       <c r="C487" s="3" t="s">
         <v>350</v>
       </c>
@@ -31738,7 +31742,7 @@
       <c r="A488" s="4">
         <v>1075</v>
       </c>
-      <c r="B488" s="46"/>
+      <c r="B488" s="42"/>
       <c r="C488" s="3" t="s">
         <v>353</v>
       </c>
@@ -31793,7 +31797,7 @@
       <c r="A489" s="4">
         <v>1076</v>
       </c>
-      <c r="B489" s="46"/>
+      <c r="B489" s="42"/>
       <c r="C489" s="3" t="s">
         <v>356</v>
       </c>
@@ -31848,7 +31852,7 @@
       <c r="A490" s="4">
         <v>1077</v>
       </c>
-      <c r="B490" s="46"/>
+      <c r="B490" s="42"/>
       <c r="C490" s="3" t="s">
         <v>360</v>
       </c>
@@ -31903,7 +31907,7 @@
       <c r="A491" s="4">
         <v>1078</v>
       </c>
-      <c r="B491" s="45" t="s">
+      <c r="B491" s="43" t="s">
         <v>1103</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -31959,7 +31963,7 @@
       <c r="A492" s="4">
         <v>1079</v>
       </c>
-      <c r="B492" s="45"/>
+      <c r="B492" s="43"/>
       <c r="C492" s="2" t="s">
         <v>368</v>
       </c>
@@ -32013,7 +32017,7 @@
       <c r="A493" s="4">
         <v>1080</v>
       </c>
-      <c r="B493" s="45"/>
+      <c r="B493" s="43"/>
       <c r="C493" s="2" t="s">
         <v>371</v>
       </c>
@@ -32067,7 +32071,7 @@
       <c r="A494" s="4">
         <v>1081</v>
       </c>
-      <c r="B494" s="45"/>
+      <c r="B494" s="43"/>
       <c r="C494" s="2" t="s">
         <v>374</v>
       </c>
@@ -32121,7 +32125,7 @@
       <c r="A495" s="4">
         <v>1082</v>
       </c>
-      <c r="B495" s="45"/>
+      <c r="B495" s="43"/>
       <c r="C495" s="2" t="s">
         <v>377</v>
       </c>
@@ -32175,7 +32179,7 @@
       <c r="A496" s="4">
         <v>1083</v>
       </c>
-      <c r="B496" s="45"/>
+      <c r="B496" s="43"/>
       <c r="C496" s="2" t="s">
         <v>380</v>
       </c>
@@ -32229,7 +32233,7 @@
       <c r="A497" s="4">
         <v>1084</v>
       </c>
-      <c r="B497" s="45"/>
+      <c r="B497" s="43"/>
       <c r="C497" s="2" t="s">
         <v>384</v>
       </c>
@@ -32283,7 +32287,7 @@
       <c r="A498" s="3">
         <v>1085</v>
       </c>
-      <c r="B498" s="46" t="s">
+      <c r="B498" s="42" t="s">
         <v>1108</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -32339,7 +32343,7 @@
       <c r="A499" s="3">
         <v>1086</v>
       </c>
-      <c r="B499" s="46"/>
+      <c r="B499" s="42"/>
       <c r="C499" s="1" t="s">
         <v>391</v>
       </c>
@@ -32393,7 +32397,7 @@
       <c r="A500" s="3">
         <v>1087</v>
       </c>
-      <c r="B500" s="46"/>
+      <c r="B500" s="42"/>
       <c r="C500" s="1" t="s">
         <v>394</v>
       </c>
@@ -32447,7 +32451,7 @@
       <c r="A501" s="3">
         <v>1088</v>
       </c>
-      <c r="B501" s="46"/>
+      <c r="B501" s="42"/>
       <c r="C501" s="1" t="s">
         <v>397</v>
       </c>
@@ -32501,7 +32505,7 @@
       <c r="A502" s="3">
         <v>1089</v>
       </c>
-      <c r="B502" s="46"/>
+      <c r="B502" s="42"/>
       <c r="C502" s="1" t="s">
         <v>400</v>
       </c>
@@ -32555,7 +32559,7 @@
       <c r="A503" s="3">
         <v>1090</v>
       </c>
-      <c r="B503" s="46"/>
+      <c r="B503" s="42"/>
       <c r="C503" s="1" t="s">
         <v>403</v>
       </c>
@@ -32609,7 +32613,7 @@
       <c r="A504" s="3">
         <v>1091</v>
       </c>
-      <c r="B504" s="46"/>
+      <c r="B504" s="42"/>
       <c r="C504" s="1" t="s">
         <v>406</v>
       </c>
@@ -32663,7 +32667,7 @@
       <c r="A505" s="4">
         <v>1092</v>
       </c>
-      <c r="B505" s="45" t="s">
+      <c r="B505" s="43" t="s">
         <v>1114</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -32719,7 +32723,7 @@
       <c r="A506" s="4">
         <v>1093</v>
       </c>
-      <c r="B506" s="45"/>
+      <c r="B506" s="43"/>
       <c r="C506" s="2" t="s">
         <v>414</v>
       </c>
@@ -32773,7 +32777,7 @@
       <c r="A507" s="4">
         <v>1094</v>
       </c>
-      <c r="B507" s="45"/>
+      <c r="B507" s="43"/>
       <c r="C507" s="2" t="s">
         <v>418</v>
       </c>
@@ -32827,7 +32831,7 @@
       <c r="A508" s="4">
         <v>1095</v>
       </c>
-      <c r="B508" s="45"/>
+      <c r="B508" s="43"/>
       <c r="C508" s="2" t="s">
         <v>422</v>
       </c>
@@ -32881,7 +32885,7 @@
       <c r="A509" s="4">
         <v>1096</v>
       </c>
-      <c r="B509" s="45"/>
+      <c r="B509" s="43"/>
       <c r="C509" s="2" t="s">
         <v>426</v>
       </c>
@@ -32935,7 +32939,7 @@
       <c r="A510" s="4">
         <v>1097</v>
       </c>
-      <c r="B510" s="45"/>
+      <c r="B510" s="43"/>
       <c r="C510" s="2" t="s">
         <v>430</v>
       </c>
@@ -32989,7 +32993,7 @@
       <c r="A511" s="4">
         <v>1098</v>
       </c>
-      <c r="B511" s="46" t="s">
+      <c r="B511" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -33045,7 +33049,7 @@
       <c r="A512" s="4">
         <v>1099</v>
       </c>
-      <c r="B512" s="46"/>
+      <c r="B512" s="42"/>
       <c r="C512" s="3" t="s">
         <v>439</v>
       </c>
@@ -33099,7 +33103,7 @@
       <c r="A513" s="4">
         <v>1100</v>
       </c>
-      <c r="B513" s="46"/>
+      <c r="B513" s="42"/>
       <c r="C513" s="3" t="s">
         <v>443</v>
       </c>
@@ -33153,7 +33157,7 @@
       <c r="A514" s="4">
         <v>1101</v>
       </c>
-      <c r="B514" s="46"/>
+      <c r="B514" s="42"/>
       <c r="C514" s="3" t="s">
         <v>446</v>
       </c>
@@ -33207,7 +33211,7 @@
       <c r="A515" s="4">
         <v>1102</v>
       </c>
-      <c r="B515" s="46"/>
+      <c r="B515" s="42"/>
       <c r="C515" s="3" t="s">
         <v>450</v>
       </c>
@@ -33261,7 +33265,7 @@
       <c r="A516" s="4">
         <v>1103</v>
       </c>
-      <c r="B516" s="45" t="s">
+      <c r="B516" s="43" t="s">
         <v>454</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -33317,7 +33321,7 @@
       <c r="A517" s="4">
         <v>1104</v>
       </c>
-      <c r="B517" s="45"/>
+      <c r="B517" s="43"/>
       <c r="C517" s="4" t="s">
         <v>459</v>
       </c>
@@ -33371,7 +33375,7 @@
       <c r="A518" s="4">
         <v>1105</v>
       </c>
-      <c r="B518" s="45"/>
+      <c r="B518" s="43"/>
       <c r="C518" s="4" t="s">
         <v>463</v>
       </c>
@@ -33425,7 +33429,7 @@
       <c r="A519" s="4">
         <v>1106</v>
       </c>
-      <c r="B519" s="45"/>
+      <c r="B519" s="43"/>
       <c r="C519" s="4" t="s">
         <v>466</v>
       </c>
@@ -33479,7 +33483,7 @@
       <c r="A520" s="4">
         <v>1107</v>
       </c>
-      <c r="B520" s="45"/>
+      <c r="B520" s="43"/>
       <c r="C520" s="4" t="s">
         <v>469</v>
       </c>
@@ -33533,7 +33537,7 @@
       <c r="A521" s="4">
         <v>1108</v>
       </c>
-      <c r="B521" s="45"/>
+      <c r="B521" s="43"/>
       <c r="C521" s="4" t="s">
         <v>473</v>
       </c>
@@ -33587,7 +33591,7 @@
       <c r="A522" s="4">
         <v>1109</v>
       </c>
-      <c r="B522" s="45"/>
+      <c r="B522" s="43"/>
       <c r="C522" s="4" t="s">
         <v>477</v>
       </c>
@@ -33641,7 +33645,7 @@
       <c r="A523" s="4">
         <v>1110</v>
       </c>
-      <c r="B523" s="46" t="s">
+      <c r="B523" s="42" t="s">
         <v>482</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -33697,7 +33701,7 @@
       <c r="A524" s="4">
         <v>1111</v>
       </c>
-      <c r="B524" s="46"/>
+      <c r="B524" s="42"/>
       <c r="C524" s="3" t="s">
         <v>487</v>
       </c>
@@ -33751,7 +33755,7 @@
       <c r="A525" s="4">
         <v>1112</v>
       </c>
-      <c r="B525" s="46"/>
+      <c r="B525" s="42"/>
       <c r="C525" s="3" t="s">
         <v>491</v>
       </c>
@@ -33805,7 +33809,7 @@
       <c r="A526" s="4">
         <v>1113</v>
       </c>
-      <c r="B526" s="46"/>
+      <c r="B526" s="42"/>
       <c r="C526" s="3" t="s">
         <v>495</v>
       </c>
@@ -33859,7 +33863,7 @@
       <c r="A527" s="4">
         <v>1114</v>
       </c>
-      <c r="B527" s="46"/>
+      <c r="B527" s="42"/>
       <c r="C527" s="3" t="s">
         <v>499</v>
       </c>
@@ -33913,7 +33917,7 @@
       <c r="A528" s="4">
         <v>1115</v>
       </c>
-      <c r="B528" s="46"/>
+      <c r="B528" s="42"/>
       <c r="C528" s="3" t="s">
         <v>503</v>
       </c>
@@ -33967,7 +33971,7 @@
       <c r="A529" s="4">
         <v>1116</v>
       </c>
-      <c r="B529" s="46"/>
+      <c r="B529" s="42"/>
       <c r="C529" s="3" t="s">
         <v>507</v>
       </c>
@@ -34021,7 +34025,7 @@
       <c r="A530" s="4">
         <v>1117</v>
       </c>
-      <c r="B530" s="45" t="s">
+      <c r="B530" s="43" t="s">
         <v>510</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -34077,7 +34081,7 @@
       <c r="A531" s="4">
         <v>1118</v>
       </c>
-      <c r="B531" s="45"/>
+      <c r="B531" s="43"/>
       <c r="C531" s="4" t="s">
         <v>515</v>
       </c>
@@ -34131,7 +34135,7 @@
       <c r="A532" s="4">
         <v>1119</v>
       </c>
-      <c r="B532" s="45"/>
+      <c r="B532" s="43"/>
       <c r="C532" s="4" t="s">
         <v>519</v>
       </c>
@@ -34185,7 +34189,7 @@
       <c r="A533" s="4">
         <v>1120</v>
       </c>
-      <c r="B533" s="45"/>
+      <c r="B533" s="43"/>
       <c r="C533" s="4" t="s">
         <v>523</v>
       </c>
@@ -34239,7 +34243,7 @@
       <c r="A534" s="4">
         <v>1121</v>
       </c>
-      <c r="B534" s="45"/>
+      <c r="B534" s="43"/>
       <c r="C534" s="4" t="s">
         <v>527</v>
       </c>
@@ -34293,7 +34297,7 @@
       <c r="A535" s="4">
         <v>1122</v>
       </c>
-      <c r="B535" s="46" t="s">
+      <c r="B535" s="42" t="s">
         <v>531</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -34349,7 +34353,7 @@
       <c r="A536" s="4">
         <v>1123</v>
       </c>
-      <c r="B536" s="46"/>
+      <c r="B536" s="42"/>
       <c r="C536" s="3" t="s">
         <v>536</v>
       </c>
@@ -34403,7 +34407,7 @@
       <c r="A537" s="4">
         <v>1124</v>
       </c>
-      <c r="B537" s="46"/>
+      <c r="B537" s="42"/>
       <c r="C537" s="3" t="s">
         <v>540</v>
       </c>
@@ -34438,7 +34442,7 @@
         <v>1030</v>
       </c>
       <c r="P537" s="1" t="s">
-        <v>1144</v>
+        <v>1369</v>
       </c>
       <c r="Q537" s="3">
         <v>1800</v>
@@ -34457,7 +34461,7 @@
       <c r="A538" s="4">
         <v>1125</v>
       </c>
-      <c r="B538" s="46"/>
+      <c r="B538" s="42"/>
       <c r="C538" s="3" t="s">
         <v>544</v>
       </c>
@@ -34492,7 +34496,7 @@
         <v>1030</v>
       </c>
       <c r="P538" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Q538" s="3">
         <v>1800</v>
@@ -34511,7 +34515,7 @@
       <c r="A539" s="4">
         <v>1126</v>
       </c>
-      <c r="B539" s="46"/>
+      <c r="B539" s="42"/>
       <c r="C539" s="3" t="s">
         <v>548</v>
       </c>
@@ -34546,7 +34550,7 @@
         <v>1030</v>
       </c>
       <c r="P539" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q539" s="3">
         <v>1800</v>
@@ -34565,8 +34569,8 @@
       <c r="A540" s="4">
         <v>1127</v>
       </c>
-      <c r="B540" s="45" t="s">
-        <v>1147</v>
+      <c r="B540" s="43" t="s">
+        <v>1146</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>553</v>
@@ -34621,12 +34625,12 @@
       <c r="A541" s="4">
         <v>1128</v>
       </c>
-      <c r="B541" s="45"/>
+      <c r="B541" s="43"/>
       <c r="C541" s="2" t="s">
         <v>556</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E541" s="3" t="s">
         <v>558</v>
@@ -34675,7 +34679,7 @@
       <c r="A542" s="4">
         <v>1129</v>
       </c>
-      <c r="B542" s="46" t="s">
+      <c r="B542" s="42" t="s">
         <v>559</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -34731,7 +34735,7 @@
       <c r="A543" s="4">
         <v>1130</v>
       </c>
-      <c r="B543" s="46"/>
+      <c r="B543" s="42"/>
       <c r="C543" s="1" t="s">
         <v>564</v>
       </c>
@@ -34785,7 +34789,7 @@
       <c r="A544" s="1">
         <v>1131</v>
       </c>
-      <c r="B544" s="46"/>
+      <c r="B544" s="42"/>
       <c r="C544" s="1" t="s">
         <v>568</v>
       </c>
@@ -34820,7 +34824,7 @@
         <v>1030</v>
       </c>
       <c r="P544" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q544" s="1">
         <v>1800</v>
@@ -34980,7 +34984,7 @@
         <v>1030</v>
       </c>
       <c r="P547" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q547" s="3">
         <v>1800</v>
@@ -35033,7 +35037,7 @@
         <v>1030</v>
       </c>
       <c r="P548" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q548" s="3">
         <v>1800</v>
@@ -35192,7 +35196,7 @@
         <v>1030</v>
       </c>
       <c r="P551" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q551" s="5">
         <v>1800</v>
@@ -35245,7 +35249,7 @@
         <v>1030</v>
       </c>
       <c r="P552" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q552" s="5">
         <v>1800</v>
@@ -35264,7 +35268,7 @@
       <c r="A553" s="3">
         <v>1140</v>
       </c>
-      <c r="B553" s="46" t="s">
+      <c r="B553" s="42" t="s">
         <v>601</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -35301,7 +35305,7 @@
         <v>1030</v>
       </c>
       <c r="P553" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q553" s="3">
         <v>1800</v>
@@ -35320,7 +35324,7 @@
       <c r="A554" s="3">
         <v>1141</v>
       </c>
-      <c r="B554" s="46"/>
+      <c r="B554" s="42"/>
       <c r="C554" s="1" t="s">
         <v>606</v>
       </c>
@@ -35355,7 +35359,7 @@
         <v>1030</v>
       </c>
       <c r="P554" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q554" s="3">
         <v>1800</v>
@@ -35374,7 +35378,7 @@
       <c r="A555" s="3">
         <v>1142</v>
       </c>
-      <c r="B555" s="46"/>
+      <c r="B555" s="42"/>
       <c r="C555" s="1" t="s">
         <v>610</v>
       </c>
@@ -35409,7 +35413,7 @@
         <v>1030</v>
       </c>
       <c r="P555" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q555" s="3">
         <v>1800</v>
@@ -35428,7 +35432,7 @@
       <c r="A556" s="3">
         <v>1143</v>
       </c>
-      <c r="B556" s="46"/>
+      <c r="B556" s="42"/>
       <c r="C556" s="1" t="s">
         <v>614</v>
       </c>
@@ -35463,7 +35467,7 @@
         <v>1030</v>
       </c>
       <c r="P556" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q556" s="3">
         <v>1800</v>
@@ -35482,7 +35486,7 @@
       <c r="A557" s="3">
         <v>1144</v>
       </c>
-      <c r="B557" s="46" t="s">
+      <c r="B557" s="42" t="s">
         <v>618</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -35519,7 +35523,7 @@
         <v>1030</v>
       </c>
       <c r="P557" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q557" s="3">
         <v>1800</v>
@@ -35538,7 +35542,7 @@
       <c r="A558" s="3">
         <v>1145</v>
       </c>
-      <c r="B558" s="46"/>
+      <c r="B558" s="42"/>
       <c r="C558" s="1" t="s">
         <v>622</v>
       </c>
@@ -35573,7 +35577,7 @@
         <v>1030</v>
       </c>
       <c r="P558" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q558" s="3">
         <v>1800</v>
@@ -35592,7 +35596,7 @@
       <c r="A559" s="3">
         <v>1146</v>
       </c>
-      <c r="B559" s="46"/>
+      <c r="B559" s="42"/>
       <c r="C559" s="1" t="s">
         <v>626</v>
       </c>
@@ -35627,7 +35631,7 @@
         <v>1030</v>
       </c>
       <c r="P559" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q559" s="3">
         <v>1800</v>
@@ -35646,7 +35650,7 @@
       <c r="A560" s="3">
         <v>1147</v>
       </c>
-      <c r="B560" s="46"/>
+      <c r="B560" s="42"/>
       <c r="C560" s="1" t="s">
         <v>630</v>
       </c>
@@ -35681,7 +35685,7 @@
         <v>1030</v>
       </c>
       <c r="P560" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q560" s="3">
         <v>1800</v>
@@ -35734,7 +35738,7 @@
         <v>1030</v>
       </c>
       <c r="P561" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q561" s="2">
         <v>1800</v>
@@ -35787,7 +35791,7 @@
         <v>1030</v>
       </c>
       <c r="P562" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q562" s="2">
         <v>1800</v>
@@ -35840,7 +35844,7 @@
         <v>1030</v>
       </c>
       <c r="P563" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q563" s="2">
         <v>1800</v>
@@ -35893,7 +35897,7 @@
         <v>1030</v>
       </c>
       <c r="P564" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Q564" s="2">
         <v>1800</v>
@@ -35947,7 +35951,7 @@
         <v>1030</v>
       </c>
       <c r="P565" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Q565" s="3">
         <v>1800</v>
@@ -36001,7 +36005,7 @@
         <v>1030</v>
       </c>
       <c r="P566" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q566" s="3">
         <v>1800</v>
@@ -36055,7 +36059,7 @@
         <v>1030</v>
       </c>
       <c r="P567" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q567" s="3">
         <v>1800</v>
@@ -36109,7 +36113,7 @@
         <v>1030</v>
       </c>
       <c r="P568" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q568" s="3">
         <v>1800</v>
@@ -36163,7 +36167,7 @@
         <v>1030</v>
       </c>
       <c r="P569" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q569" s="3">
         <v>1800</v>
@@ -36217,7 +36221,7 @@
         <v>1030</v>
       </c>
       <c r="P570" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q570" s="3">
         <v>1800</v>
@@ -36270,7 +36274,7 @@
         <v>1030</v>
       </c>
       <c r="P571" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q571" s="2">
         <v>1800</v>
@@ -36323,7 +36327,7 @@
         <v>1030</v>
       </c>
       <c r="P572" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q572" s="2">
         <v>1800</v>
@@ -36376,7 +36380,7 @@
         <v>1030</v>
       </c>
       <c r="P573" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q573" s="2">
         <v>1800</v>
@@ -36429,7 +36433,7 @@
         <v>1030</v>
       </c>
       <c r="P574" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q574" s="2">
         <v>1800</v>
@@ -36482,7 +36486,7 @@
         <v>1030</v>
       </c>
       <c r="P575" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q575" s="2">
         <v>1800</v>
@@ -36535,7 +36539,7 @@
         <v>1030</v>
       </c>
       <c r="P576" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q576" s="2">
         <v>1800</v>
@@ -36589,7 +36593,7 @@
         <v>1030</v>
       </c>
       <c r="P577" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q577" s="3">
         <v>1800</v>
@@ -36643,7 +36647,7 @@
         <v>1030</v>
       </c>
       <c r="P578" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q578" s="3">
         <v>1800</v>
@@ -36697,7 +36701,7 @@
         <v>1030</v>
       </c>
       <c r="P579" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Q579" s="3">
         <v>1800</v>
@@ -36751,7 +36755,7 @@
         <v>1030</v>
       </c>
       <c r="P580" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q580" s="3">
         <v>1800</v>
@@ -36804,8 +36808,8 @@
       <c r="O581" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="P581" s="42" t="s">
-        <v>1356</v>
+      <c r="P581" s="41" t="s">
+        <v>1355</v>
       </c>
       <c r="Q581" s="3">
         <v>1800</v>
@@ -36859,7 +36863,7 @@
         <v>1030</v>
       </c>
       <c r="P582" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q582" s="3">
         <v>1800</v>
@@ -36913,7 +36917,7 @@
         <v>1030</v>
       </c>
       <c r="P583" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q583" s="3">
         <v>1800</v>
@@ -36967,7 +36971,7 @@
         <v>1030</v>
       </c>
       <c r="P584" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q584" s="3">
         <v>1800</v>
@@ -37021,7 +37025,7 @@
         <v>1030</v>
       </c>
       <c r="P585" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q585" s="3">
         <v>1800</v>
@@ -37075,7 +37079,7 @@
         <v>1030</v>
       </c>
       <c r="P586" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q586" s="3">
         <v>1800</v>
@@ -37129,7 +37133,7 @@
         <v>1030</v>
       </c>
       <c r="P587" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q587" s="3">
         <v>1800</v>
@@ -37183,7 +37187,7 @@
         <v>1030</v>
       </c>
       <c r="P588" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q588" s="3">
         <v>1800</v>
@@ -37237,7 +37241,7 @@
         <v>1030</v>
       </c>
       <c r="P589" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q589" s="3">
         <v>1800</v>
@@ -37291,7 +37295,7 @@
         <v>1030</v>
       </c>
       <c r="P590" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Q590" s="3">
         <v>1800</v>
@@ -37345,7 +37349,7 @@
         <v>1030</v>
       </c>
       <c r="P591" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q591" s="3">
         <v>1800</v>
@@ -37399,7 +37403,7 @@
         <v>1030</v>
       </c>
       <c r="P592" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q592" s="3">
         <v>1800</v>
@@ -37453,7 +37457,7 @@
         <v>1030</v>
       </c>
       <c r="P593" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q593" s="3">
         <v>1800</v>
@@ -37507,7 +37511,7 @@
         <v>1030</v>
       </c>
       <c r="P594" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q594" s="3">
         <v>1800</v>
@@ -37561,7 +37565,7 @@
         <v>1030</v>
       </c>
       <c r="P595" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q595" s="3">
         <v>1800</v>
@@ -37615,7 +37619,7 @@
         <v>1030</v>
       </c>
       <c r="P596" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q596" s="3">
         <v>1800</v>
@@ -37669,7 +37673,7 @@
         <v>1030</v>
       </c>
       <c r="P597" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q597" s="3">
         <v>1800</v>
@@ -37723,7 +37727,7 @@
         <v>1030</v>
       </c>
       <c r="P598" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q598" s="3">
         <v>1800</v>
@@ -37747,7 +37751,7 @@
         <v>109</v>
       </c>
       <c r="D599" s="39" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>780</v>
@@ -37777,7 +37781,7 @@
         <v>1030</v>
       </c>
       <c r="P599" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q599" s="3">
         <v>1800</v>
@@ -37831,7 +37835,7 @@
         <v>1030</v>
       </c>
       <c r="P600" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q600" s="3">
         <v>1800</v>
@@ -37885,7 +37889,7 @@
         <v>1030</v>
       </c>
       <c r="P601" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q601" s="3">
         <v>1800</v>
@@ -37993,7 +37997,7 @@
         <v>1030</v>
       </c>
       <c r="P603" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q603" s="3">
         <v>1800</v>
@@ -38047,7 +38051,7 @@
         <v>1030</v>
       </c>
       <c r="P604" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q604" s="3">
         <v>1800</v>
@@ -38101,7 +38105,7 @@
         <v>1030</v>
       </c>
       <c r="P605" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q605" s="3">
         <v>1800</v>
@@ -38155,7 +38159,7 @@
         <v>1030</v>
       </c>
       <c r="P606" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q606" s="3">
         <v>1800</v>
@@ -38209,7 +38213,7 @@
         <v>1030</v>
       </c>
       <c r="P607" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q607" s="3">
         <v>1800</v>
@@ -38263,7 +38267,7 @@
         <v>1030</v>
       </c>
       <c r="P608" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q608" s="3">
         <v>1800</v>
@@ -38317,7 +38321,7 @@
         <v>1030</v>
       </c>
       <c r="P609" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q609" s="3">
         <v>1800</v>
@@ -38371,7 +38375,7 @@
         <v>1030</v>
       </c>
       <c r="P610" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q610" s="3">
         <v>1800</v>
@@ -38425,7 +38429,7 @@
         <v>1030</v>
       </c>
       <c r="P611" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q611" s="3">
         <v>1800</v>
@@ -38479,7 +38483,7 @@
         <v>1030</v>
       </c>
       <c r="P612" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q612" s="3">
         <v>1800</v>
@@ -38533,7 +38537,7 @@
         <v>1030</v>
       </c>
       <c r="P613" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q613" s="3">
         <v>1800</v>
@@ -38587,7 +38591,7 @@
         <v>1030</v>
       </c>
       <c r="P614" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q614" s="3">
         <v>1800</v>
@@ -38718,13 +38722,13 @@
         <v>1204</v>
       </c>
       <c r="C618" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D618" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="D618" s="25" t="s">
+      <c r="E618" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E618" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="F618" s="3" t="s">
         <v>1035</v>
@@ -38754,7 +38758,7 @@
         <v>1288</v>
       </c>
       <c r="P618" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q618" s="3">
         <v>3000</v>
@@ -38772,7 +38776,7 @@
         <v>136963</v>
       </c>
       <c r="Y618" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.35">
@@ -38780,13 +38784,13 @@
         <v>1205</v>
       </c>
       <c r="C619" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D619" s="29" t="s">
         <v>1210</v>
       </c>
-      <c r="D619" s="29" t="s">
+      <c r="E619" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="E619" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="F619" s="3" t="s">
         <v>1035</v>
@@ -38816,7 +38820,7 @@
         <v>1289</v>
       </c>
       <c r="P619" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q619" s="3">
         <v>3000</v>
@@ -38834,7 +38838,7 @@
         <v>42811</v>
       </c>
       <c r="Y619" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.35">
@@ -38842,13 +38846,13 @@
         <v>1206</v>
       </c>
       <c r="C620" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D620" s="29" t="s">
         <v>1214</v>
       </c>
-      <c r="D620" s="29" t="s">
+      <c r="E620" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E620" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="F620" s="3" t="s">
         <v>1035</v>
@@ -38878,7 +38882,7 @@
         <v>1290</v>
       </c>
       <c r="P620" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q620" s="3">
         <v>3000</v>
@@ -38896,7 +38900,7 @@
         <v>136963</v>
       </c>
       <c r="Y620" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.35">
@@ -38904,13 +38908,13 @@
         <v>1207</v>
       </c>
       <c r="C621" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D621" s="29" t="s">
         <v>1217</v>
       </c>
-      <c r="D621" s="29" t="s">
+      <c r="E621" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="F621" s="3" t="s">
         <v>1035</v>
@@ -38940,7 +38944,7 @@
         <v>1291</v>
       </c>
       <c r="P621" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q621" s="3">
         <v>3000</v>
@@ -38958,7 +38962,7 @@
         <v>136963</v>
       </c>
       <c r="Y621" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.35">
@@ -38966,13 +38970,13 @@
         <v>1208</v>
       </c>
       <c r="C622" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D622" s="29" t="s">
         <v>1220</v>
       </c>
-      <c r="D622" s="29" t="s">
+      <c r="E622" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="F622" s="3" t="s">
         <v>1035</v>
@@ -39002,7 +39006,7 @@
         <v>1292</v>
       </c>
       <c r="P622" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q622" s="3">
         <v>3000</v>
@@ -39020,7 +39024,7 @@
         <v>42823</v>
       </c>
       <c r="Y622" s="28" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.35">
@@ -39028,13 +39032,13 @@
         <v>1209</v>
       </c>
       <c r="C623" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D623" s="29" t="s">
         <v>1224</v>
       </c>
-      <c r="D623" s="29" t="s">
+      <c r="E623" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="F623" s="3" t="s">
         <v>1035</v>
@@ -39064,7 +39068,7 @@
         <v>1293</v>
       </c>
       <c r="P623" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q623" s="3">
         <v>3000</v>
@@ -39082,7 +39086,7 @@
         <v>42811</v>
       </c>
       <c r="Y623" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.35">
@@ -39090,13 +39094,13 @@
         <v>1210</v>
       </c>
       <c r="C624" s="30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D624" s="29" t="s">
         <v>1227</v>
       </c>
-      <c r="D624" s="29" t="s">
+      <c r="E624" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="E624" s="1" t="s">
-        <v>1229</v>
       </c>
       <c r="F624" s="3" t="s">
         <v>1035</v>
@@ -39126,7 +39130,7 @@
         <v>1294</v>
       </c>
       <c r="P624" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q624" s="3">
         <v>3000</v>
@@ -39144,7 +39148,7 @@
         <v>42823</v>
       </c>
       <c r="Y624" s="28" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.35">
@@ -39152,13 +39156,13 @@
         <v>1211</v>
       </c>
       <c r="C625" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D625" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="D625" s="29" t="s">
+      <c r="E625" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="E625" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="F625" s="3" t="s">
         <v>1035</v>
@@ -39188,7 +39192,7 @@
         <v>1295</v>
       </c>
       <c r="P625" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q625" s="3">
         <v>3000</v>
@@ -39206,7 +39210,7 @@
         <v>136957</v>
       </c>
       <c r="Y625" s="28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.35">
@@ -39214,13 +39218,13 @@
         <v>1212</v>
       </c>
       <c r="C626" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D626" s="29" t="s">
         <v>1235</v>
       </c>
-      <c r="D626" s="29" t="s">
+      <c r="E626" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E626" s="1" t="s">
-        <v>1237</v>
       </c>
       <c r="F626" s="3" t="s">
         <v>1035</v>
@@ -39250,7 +39254,7 @@
         <v>1296</v>
       </c>
       <c r="P626" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q626" s="3">
         <v>3000</v>
@@ -39268,7 +39272,7 @@
         <v>42830</v>
       </c>
       <c r="Y626" s="28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.35">
@@ -39276,13 +39280,13 @@
         <v>1213</v>
       </c>
       <c r="C627" s="30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D627" s="29" t="s">
         <v>1239</v>
       </c>
-      <c r="D627" s="29" t="s">
+      <c r="E627" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>1241</v>
       </c>
       <c r="F627" s="3" t="s">
         <v>1035</v>
@@ -39312,7 +39316,7 @@
         <v>1297</v>
       </c>
       <c r="P627" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q627" s="3">
         <v>3000</v>
@@ -39330,7 +39334,7 @@
         <v>42830</v>
       </c>
       <c r="Y627" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.35">
@@ -39338,13 +39342,13 @@
         <v>1214</v>
       </c>
       <c r="C628" s="32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D628" s="29" t="s">
         <v>1243</v>
       </c>
-      <c r="D628" s="29" t="s">
+      <c r="E628" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="F628" s="3" t="s">
         <v>1035</v>
@@ -39374,7 +39378,7 @@
         <v>1298</v>
       </c>
       <c r="P628" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q628" s="3">
         <v>3000</v>
@@ -39392,7 +39396,7 @@
         <v>136957</v>
       </c>
       <c r="Y628" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.35">
@@ -39400,13 +39404,13 @@
         <v>1215</v>
       </c>
       <c r="C629" s="30" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D629" s="29" t="s">
         <v>1246</v>
       </c>
-      <c r="D629" s="29" t="s">
+      <c r="E629" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="F629" s="3" t="s">
         <v>1035</v>
@@ -39436,7 +39440,7 @@
         <v>1299</v>
       </c>
       <c r="P629" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q629" s="3">
         <v>3000</v>
@@ -39454,7 +39458,7 @@
         <v>42825</v>
       </c>
       <c r="Y629" s="28" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.35">
@@ -39462,13 +39466,13 @@
         <v>1216</v>
       </c>
       <c r="C630" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D630" s="29" t="s">
         <v>1250</v>
       </c>
-      <c r="D630" s="29" t="s">
+      <c r="E630" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>1252</v>
       </c>
       <c r="F630" s="3" t="s">
         <v>1035</v>
@@ -39498,7 +39502,7 @@
         <v>1300</v>
       </c>
       <c r="P630" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q630" s="3">
         <v>3000</v>
@@ -39516,7 +39520,7 @@
         <v>136957</v>
       </c>
       <c r="Y630" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.35">
@@ -39524,13 +39528,13 @@
         <v>1217</v>
       </c>
       <c r="C631" s="30" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D631" s="29" t="s">
         <v>1253</v>
       </c>
-      <c r="D631" s="29" t="s">
+      <c r="E631" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="F631" s="3" t="s">
         <v>1035</v>
@@ -39560,7 +39564,7 @@
         <v>1301</v>
       </c>
       <c r="P631" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q631" s="3">
         <v>3000</v>
@@ -39578,7 +39582,7 @@
         <v>42825</v>
       </c>
       <c r="Y631" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="632" spans="1:25" x14ac:dyDescent="0.35">
@@ -39586,13 +39590,13 @@
         <v>1218</v>
       </c>
       <c r="C632" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D632" s="29" t="s">
         <v>1256</v>
       </c>
-      <c r="D632" s="29" t="s">
+      <c r="E632" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="E632" s="1" t="s">
-        <v>1258</v>
       </c>
       <c r="F632" s="3" t="s">
         <v>1035</v>
@@ -39622,7 +39626,7 @@
         <v>1302</v>
       </c>
       <c r="P632" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q632" s="3">
         <v>3000</v>
@@ -39640,7 +39644,7 @@
         <v>42813</v>
       </c>
       <c r="Y632" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.35">
@@ -39648,13 +39652,13 @@
         <v>1219</v>
       </c>
       <c r="C633" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D633" s="29" t="s">
         <v>1260</v>
       </c>
-      <c r="D633" s="29" t="s">
+      <c r="E633" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="E633" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="F633" s="3" t="s">
         <v>1035</v>
@@ -39684,7 +39688,7 @@
         <v>1303</v>
       </c>
       <c r="P633" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q633" s="3">
         <v>3000</v>
@@ -39702,7 +39706,7 @@
         <v>42813</v>
       </c>
       <c r="Y633" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.35">
@@ -39710,13 +39714,13 @@
         <v>1220</v>
       </c>
       <c r="C634" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D634" s="29" t="s">
         <v>1263</v>
       </c>
-      <c r="D634" s="29" t="s">
+      <c r="E634" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="E634" s="1" t="s">
-        <v>1265</v>
       </c>
       <c r="F634" s="3" t="s">
         <v>1035</v>
@@ -39746,7 +39750,7 @@
         <v>1304</v>
       </c>
       <c r="P634" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q634" s="3">
         <v>3000</v>
@@ -39764,7 +39768,7 @@
         <v>42813</v>
       </c>
       <c r="Y634" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.35">
@@ -39772,13 +39776,13 @@
         <v>1221</v>
       </c>
       <c r="C635" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D635" s="29" t="s">
         <v>1266</v>
       </c>
-      <c r="D635" s="29" t="s">
+      <c r="E635" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E635" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="F635" s="3" t="s">
         <v>1035</v>
@@ -39808,7 +39812,7 @@
         <v>1305</v>
       </c>
       <c r="P635" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q635" s="3">
         <v>3000</v>
@@ -39826,7 +39830,7 @@
         <v>42813</v>
       </c>
       <c r="Y635" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.35">
@@ -39834,13 +39838,13 @@
         <v>1222</v>
       </c>
       <c r="C636" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D636" s="29" t="s">
         <v>1269</v>
       </c>
-      <c r="D636" s="29" t="s">
+      <c r="E636" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="E636" s="1" t="s">
-        <v>1271</v>
       </c>
       <c r="F636" s="3" t="s">
         <v>1035</v>
@@ -39870,7 +39874,7 @@
         <v>1306</v>
       </c>
       <c r="P636" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q636" s="3">
         <v>3000</v>
@@ -39888,7 +39892,7 @@
         <v>42813</v>
       </c>
       <c r="Y636" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.35">
@@ -39896,13 +39900,13 @@
         <v>1223</v>
       </c>
       <c r="C637" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D637" s="29" t="s">
         <v>1272</v>
       </c>
-      <c r="D637" s="29" t="s">
+      <c r="E637" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="E637" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="F637" s="3" t="s">
         <v>1035</v>
@@ -39932,7 +39936,7 @@
         <v>1307</v>
       </c>
       <c r="P637" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q637" s="3">
         <v>3000</v>
@@ -39950,7 +39954,7 @@
         <v>42813</v>
       </c>
       <c r="Y637" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.35">
@@ -39958,13 +39962,13 @@
         <v>1224</v>
       </c>
       <c r="C638" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D638" s="29" t="s">
         <v>1275</v>
       </c>
-      <c r="D638" s="29" t="s">
+      <c r="E638" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="E638" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="F638" s="3" t="s">
         <v>1035</v>
@@ -39994,7 +39998,7 @@
         <v>1308</v>
       </c>
       <c r="P638" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q638" s="3">
         <v>3000</v>
@@ -40012,7 +40016,7 @@
         <v>42813</v>
       </c>
       <c r="Y638" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.35">
@@ -40020,13 +40024,13 @@
         <v>1225</v>
       </c>
       <c r="C639" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D639" s="29" t="s">
         <v>1278</v>
       </c>
-      <c r="D639" s="29" t="s">
+      <c r="E639" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="E639" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="F639" s="3" t="s">
         <v>1035</v>
@@ -40056,7 +40060,7 @@
         <v>1309</v>
       </c>
       <c r="P639" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q639" s="3">
         <v>3000</v>
@@ -40074,7 +40078,7 @@
         <v>42829</v>
       </c>
       <c r="Y639" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.35">
@@ -40082,13 +40086,13 @@
         <v>1226</v>
       </c>
       <c r="C640" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D640" s="29" t="s">
         <v>1281</v>
       </c>
-      <c r="D640" s="29" t="s">
+      <c r="E640" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="E640" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="F640" s="3" t="s">
         <v>1035</v>
@@ -40118,7 +40122,7 @@
         <v>1310</v>
       </c>
       <c r="P640" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q640" s="3">
         <v>3000</v>
@@ -40136,7 +40140,7 @@
         <v>42829</v>
       </c>
       <c r="Y640" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="641" spans="1:25" x14ac:dyDescent="0.35">
@@ -40144,13 +40148,13 @@
         <v>1227</v>
       </c>
       <c r="C641" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D641" s="29" t="s">
         <v>1284</v>
       </c>
-      <c r="D641" s="29" t="s">
+      <c r="E641" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="E641" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="F641" s="3" t="s">
         <v>1035</v>
@@ -40180,7 +40184,7 @@
         <v>1311</v>
       </c>
       <c r="P641" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q641" s="3">
         <v>3000</v>
@@ -40198,7 +40202,7 @@
         <v>42829</v>
       </c>
       <c r="Y641" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="642" spans="1:25" x14ac:dyDescent="0.35">
@@ -40206,13 +40210,13 @@
         <v>1228</v>
       </c>
       <c r="C642" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D642" s="29" t="s">
         <v>1287</v>
       </c>
-      <c r="D642" s="29" t="s">
+      <c r="E642" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="E642" s="1" t="s">
-        <v>1289</v>
       </c>
       <c r="F642" s="3" t="s">
         <v>1035</v>
@@ -40242,7 +40246,7 @@
         <v>1312</v>
       </c>
       <c r="P642" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q642" s="3">
         <v>3000</v>
@@ -40260,7 +40264,7 @@
         <v>42829</v>
       </c>
       <c r="Y642" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.35">
@@ -40268,13 +40272,13 @@
         <v>1229</v>
       </c>
       <c r="C643" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D643" s="29" t="s">
         <v>1290</v>
       </c>
-      <c r="D643" s="29" t="s">
+      <c r="E643" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="F643" s="3" t="s">
         <v>1035</v>
@@ -40304,7 +40308,7 @@
         <v>1313</v>
       </c>
       <c r="P643" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q643" s="3">
         <v>3000</v>
@@ -40322,7 +40326,7 @@
         <v>42829</v>
       </c>
       <c r="Y643" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="644" spans="1:25" x14ac:dyDescent="0.35">
@@ -40330,13 +40334,13 @@
         <v>1230</v>
       </c>
       <c r="C644" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D644" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="D644" s="29" t="s">
+      <c r="E644" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="F644" s="3" t="s">
         <v>1035</v>
@@ -40366,7 +40370,7 @@
         <v>1314</v>
       </c>
       <c r="P644" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q644" s="3">
         <v>3000</v>
@@ -40384,7 +40388,7 @@
         <v>42829</v>
       </c>
       <c r="Y644" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="645" spans="1:25" x14ac:dyDescent="0.35">
@@ -40392,13 +40396,13 @@
         <v>1231</v>
       </c>
       <c r="C645" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D645" s="29" t="s">
         <v>1296</v>
       </c>
-      <c r="D645" s="29" t="s">
+      <c r="E645" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="E645" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="F645" s="3" t="s">
         <v>1035</v>
@@ -40428,7 +40432,7 @@
         <v>1315</v>
       </c>
       <c r="P645" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q645" s="3">
         <v>3000</v>
@@ -40446,7 +40450,7 @@
         <v>42829</v>
       </c>
       <c r="Y645" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="646" spans="1:25" x14ac:dyDescent="0.35">
@@ -40454,13 +40458,13 @@
         <v>1232</v>
       </c>
       <c r="C646" s="30" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D646" s="29" t="s">
         <v>1299</v>
       </c>
-      <c r="D646" s="29" t="s">
+      <c r="E646" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="E646" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="F646" s="3" t="s">
         <v>1035</v>
@@ -40490,7 +40494,7 @@
         <v>1316</v>
       </c>
       <c r="P646" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q646" s="3">
         <v>3000</v>
@@ -40508,7 +40512,7 @@
         <v>145909</v>
       </c>
       <c r="Y646" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="647" spans="1:25" x14ac:dyDescent="0.35">
@@ -40516,13 +40520,13 @@
         <v>1233</v>
       </c>
       <c r="C647" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D647" s="29" t="s">
         <v>1303</v>
       </c>
-      <c r="D647" s="29" t="s">
+      <c r="E647" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="E647" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="F647" s="3" t="s">
         <v>1035</v>
@@ -40552,7 +40556,7 @@
         <v>1317</v>
       </c>
       <c r="P647" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q647" s="3">
         <v>3000</v>
@@ -40570,7 +40574,7 @@
         <v>145909</v>
       </c>
       <c r="Y647" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="648" spans="1:25" x14ac:dyDescent="0.35">
@@ -40578,13 +40582,13 @@
         <v>1234</v>
       </c>
       <c r="C648" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D648" s="29" t="s">
         <v>1306</v>
       </c>
-      <c r="D648" s="29" t="s">
+      <c r="E648" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="E648" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="F648" s="3" t="s">
         <v>1035</v>
@@ -40614,7 +40618,7 @@
         <v>1318</v>
       </c>
       <c r="P648" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q648" s="3">
         <v>3000</v>
@@ -40632,7 +40636,7 @@
         <v>145909</v>
       </c>
       <c r="Y648" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="649" spans="1:25" x14ac:dyDescent="0.35">
@@ -40640,13 +40644,13 @@
         <v>1235</v>
       </c>
       <c r="C649" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D649" s="29" t="s">
         <v>1309</v>
       </c>
-      <c r="D649" s="29" t="s">
+      <c r="E649" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="E649" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="F649" s="3" t="s">
         <v>1035</v>
@@ -40676,7 +40680,7 @@
         <v>1319</v>
       </c>
       <c r="P649" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q649" s="3">
         <v>3000</v>
@@ -40694,7 +40698,7 @@
         <v>145909</v>
       </c>
       <c r="Y649" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="650" spans="1:25" x14ac:dyDescent="0.35">
@@ -40702,13 +40706,13 @@
         <v>1236</v>
       </c>
       <c r="C650" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D650" s="29" t="s">
         <v>1312</v>
       </c>
-      <c r="D650" s="29" t="s">
+      <c r="E650" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="E650" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="F650" s="3" t="s">
         <v>1035</v>
@@ -40738,7 +40742,7 @@
         <v>1320</v>
       </c>
       <c r="P650" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q650" s="3">
         <v>3000</v>
@@ -40756,7 +40760,7 @@
         <v>145909</v>
       </c>
       <c r="Y650" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="651" spans="1:25" x14ac:dyDescent="0.35">
@@ -40764,13 +40768,13 @@
         <v>1237</v>
       </c>
       <c r="C651" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D651" s="29" t="s">
         <v>1315</v>
       </c>
-      <c r="D651" s="29" t="s">
+      <c r="E651" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="E651" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="F651" s="3" t="s">
         <v>1035</v>
@@ -40800,7 +40804,7 @@
         <v>1321</v>
       </c>
       <c r="P651" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q651" s="3">
         <v>3000</v>
@@ -40818,7 +40822,7 @@
         <v>145909</v>
       </c>
       <c r="Y651" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="652" spans="1:25" x14ac:dyDescent="0.35">
@@ -40826,13 +40830,13 @@
         <v>1238</v>
       </c>
       <c r="C652" s="30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D652" s="29" t="s">
         <v>1318</v>
       </c>
-      <c r="D652" s="29" t="s">
+      <c r="E652" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="E652" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="F652" s="3" t="s">
         <v>1035</v>
@@ -40862,7 +40866,7 @@
         <v>1322</v>
       </c>
       <c r="P652" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q652" s="3">
         <v>3000</v>
@@ -40880,7 +40884,7 @@
         <v>145909</v>
       </c>
       <c r="Y652" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="653" spans="1:25" x14ac:dyDescent="0.35">
@@ -40888,13 +40892,13 @@
         <v>1239</v>
       </c>
       <c r="C653" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D653" s="29" t="s">
         <v>1321</v>
       </c>
-      <c r="D653" s="29" t="s">
+      <c r="E653" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="E653" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="F653" s="3" t="s">
         <v>1035</v>
@@ -40924,7 +40928,7 @@
         <v>1323</v>
       </c>
       <c r="P653" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q653" s="3">
         <v>3000</v>
@@ -40942,7 +40946,7 @@
         <v>145904</v>
       </c>
       <c r="Y653" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="654" spans="1:25" x14ac:dyDescent="0.35">
@@ -40950,13 +40954,13 @@
         <v>1240</v>
       </c>
       <c r="C654" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D654" s="29" t="s">
         <v>1325</v>
       </c>
-      <c r="D654" s="29" t="s">
+      <c r="E654" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="E654" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="F654" s="3" t="s">
         <v>1035</v>
@@ -40986,7 +40990,7 @@
         <v>1324</v>
       </c>
       <c r="P654" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q654" s="3">
         <v>3000</v>
@@ -41004,7 +41008,7 @@
         <v>145912</v>
       </c>
       <c r="Y654" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="655" spans="1:25" x14ac:dyDescent="0.35">
@@ -41012,13 +41016,13 @@
         <v>1241</v>
       </c>
       <c r="C655" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D655" s="29" t="s">
         <v>1329</v>
       </c>
-      <c r="D655" s="29" t="s">
+      <c r="E655" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="E655" s="1" t="s">
-        <v>1331</v>
       </c>
       <c r="F655" s="3" t="s">
         <v>1035</v>
@@ -41048,7 +41052,7 @@
         <v>1325</v>
       </c>
       <c r="P655" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q655" s="3">
         <v>3000</v>
@@ -41066,7 +41070,7 @@
         <v>145904</v>
       </c>
       <c r="Y655" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="656" spans="1:25" x14ac:dyDescent="0.35">
@@ -41074,13 +41078,13 @@
         <v>1242</v>
       </c>
       <c r="C656" s="30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D656" s="29" t="s">
         <v>1332</v>
       </c>
-      <c r="D656" s="29" t="s">
+      <c r="E656" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>1334</v>
       </c>
       <c r="F656" s="3" t="s">
         <v>1035</v>
@@ -41110,7 +41114,7 @@
         <v>1326</v>
       </c>
       <c r="P656" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q656" s="3">
         <v>3000</v>
@@ -41128,7 +41132,7 @@
         <v>145912</v>
       </c>
       <c r="Y656" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="657" spans="1:25" x14ac:dyDescent="0.35">
@@ -41136,13 +41140,13 @@
         <v>1243</v>
       </c>
       <c r="C657" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D657" s="29" t="s">
         <v>1335</v>
       </c>
-      <c r="D657" s="29" t="s">
+      <c r="E657" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="E657" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="F657" s="3" t="s">
         <v>1035</v>
@@ -41172,7 +41176,7 @@
         <v>1327</v>
       </c>
       <c r="P657" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q657" s="3">
         <v>3000</v>
@@ -41190,7 +41194,7 @@
         <v>145912</v>
       </c>
       <c r="Y657" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="658" spans="1:25" x14ac:dyDescent="0.35">
@@ -41198,13 +41202,13 @@
         <v>1244</v>
       </c>
       <c r="C658" s="30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D658" s="29" t="s">
         <v>1338</v>
       </c>
-      <c r="D658" s="29" t="s">
+      <c r="E658" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="E658" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="F658" s="3" t="s">
         <v>1035</v>
@@ -41234,7 +41238,7 @@
         <v>1328</v>
       </c>
       <c r="P658" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q658" s="3">
         <v>3000</v>
@@ -41252,7 +41256,7 @@
         <v>145912</v>
       </c>
       <c r="Y658" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="659" spans="1:25" x14ac:dyDescent="0.35">
@@ -41260,13 +41264,13 @@
         <v>1245</v>
       </c>
       <c r="C659" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D659" s="29" t="s">
         <v>1341</v>
       </c>
-      <c r="D659" s="29" t="s">
+      <c r="E659" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="E659" s="1" t="s">
-        <v>1343</v>
       </c>
       <c r="F659" s="3" t="s">
         <v>1035</v>
@@ -41296,7 +41300,7 @@
         <v>1329</v>
       </c>
       <c r="P659" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q659" s="3">
         <v>3000</v>
@@ -41314,7 +41318,7 @@
         <v>145904</v>
       </c>
       <c r="Y659" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="660" spans="1:25" x14ac:dyDescent="0.35">
@@ -41336,13 +41340,13 @@
         <v>1246</v>
       </c>
       <c r="C661" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D661" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="D661" s="25" t="s">
+      <c r="E661" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E661" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="F661" s="3" t="s">
         <v>1035</v>
@@ -41369,7 +41373,7 @@
         <v>1288</v>
       </c>
       <c r="P661" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q661" s="3">
         <v>3000</v>
@@ -41387,7 +41391,7 @@
         <v>136963</v>
       </c>
       <c r="Y661" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="662" spans="1:25" x14ac:dyDescent="0.35">
@@ -41395,13 +41399,13 @@
         <v>1247</v>
       </c>
       <c r="C662" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D662" s="29" t="s">
         <v>1210</v>
       </c>
-      <c r="D662" s="29" t="s">
+      <c r="E662" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="F662" s="3" t="s">
         <v>1035</v>
@@ -41428,7 +41432,7 @@
         <v>1289</v>
       </c>
       <c r="P662" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q662" s="3">
         <v>3000</v>
@@ -41446,7 +41450,7 @@
         <v>42811</v>
       </c>
       <c r="Y662" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="663" spans="1:25" x14ac:dyDescent="0.35">
@@ -41454,13 +41458,13 @@
         <v>1248</v>
       </c>
       <c r="C663" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D663" s="29" t="s">
         <v>1214</v>
       </c>
-      <c r="D663" s="29" t="s">
+      <c r="E663" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E663" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="F663" s="3" t="s">
         <v>1035</v>
@@ -41487,7 +41491,7 @@
         <v>1290</v>
       </c>
       <c r="P663" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q663" s="3">
         <v>3000</v>
@@ -41505,7 +41509,7 @@
         <v>136963</v>
       </c>
       <c r="Y663" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="664" spans="1:25" x14ac:dyDescent="0.35">
@@ -41513,13 +41517,13 @@
         <v>1249</v>
       </c>
       <c r="C664" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D664" s="29" t="s">
         <v>1217</v>
       </c>
-      <c r="D664" s="29" t="s">
+      <c r="E664" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="E664" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="F664" s="3" t="s">
         <v>1035</v>
@@ -41546,7 +41550,7 @@
         <v>1291</v>
       </c>
       <c r="P664" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q664" s="3">
         <v>3000</v>
@@ -41564,7 +41568,7 @@
         <v>136963</v>
       </c>
       <c r="Y664" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="665" spans="1:25" x14ac:dyDescent="0.35">
@@ -41572,13 +41576,13 @@
         <v>1250</v>
       </c>
       <c r="C665" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D665" s="29" t="s">
         <v>1220</v>
       </c>
-      <c r="D665" s="29" t="s">
+      <c r="E665" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="E665" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="F665" s="3" t="s">
         <v>1035</v>
@@ -41605,7 +41609,7 @@
         <v>1292</v>
       </c>
       <c r="P665" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q665" s="3">
         <v>3000</v>
@@ -41623,7 +41627,7 @@
         <v>42823</v>
       </c>
       <c r="Y665" s="28" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="666" spans="1:25" x14ac:dyDescent="0.35">
@@ -41631,13 +41635,13 @@
         <v>1251</v>
       </c>
       <c r="C666" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D666" s="29" t="s">
         <v>1224</v>
       </c>
-      <c r="D666" s="29" t="s">
+      <c r="E666" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="E666" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="F666" s="3" t="s">
         <v>1035</v>
@@ -41664,7 +41668,7 @@
         <v>1293</v>
       </c>
       <c r="P666" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q666" s="3">
         <v>3000</v>
@@ -41682,7 +41686,7 @@
         <v>42811</v>
       </c>
       <c r="Y666" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="667" spans="1:25" x14ac:dyDescent="0.35">
@@ -41690,13 +41694,13 @@
         <v>1252</v>
       </c>
       <c r="C667" s="30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D667" s="29" t="s">
         <v>1227</v>
       </c>
-      <c r="D667" s="29" t="s">
+      <c r="E667" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="E667" s="1" t="s">
-        <v>1229</v>
       </c>
       <c r="F667" s="3" t="s">
         <v>1035</v>
@@ -41723,7 +41727,7 @@
         <v>1294</v>
       </c>
       <c r="P667" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q667" s="3">
         <v>3000</v>
@@ -41741,7 +41745,7 @@
         <v>42823</v>
       </c>
       <c r="Y667" s="28" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="668" spans="1:25" x14ac:dyDescent="0.35">
@@ -41749,13 +41753,13 @@
         <v>1253</v>
       </c>
       <c r="C668" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D668" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="D668" s="29" t="s">
+      <c r="E668" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="E668" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="F668" s="3" t="s">
         <v>1035</v>
@@ -41782,7 +41786,7 @@
         <v>1295</v>
       </c>
       <c r="P668" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q668" s="3">
         <v>3000</v>
@@ -41800,7 +41804,7 @@
         <v>136957</v>
       </c>
       <c r="Y668" s="28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="669" spans="1:25" x14ac:dyDescent="0.35">
@@ -41808,13 +41812,13 @@
         <v>1254</v>
       </c>
       <c r="C669" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D669" s="29" t="s">
         <v>1235</v>
       </c>
-      <c r="D669" s="29" t="s">
+      <c r="E669" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E669" s="1" t="s">
-        <v>1237</v>
       </c>
       <c r="F669" s="3" t="s">
         <v>1035</v>
@@ -41841,7 +41845,7 @@
         <v>1296</v>
       </c>
       <c r="P669" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q669" s="3">
         <v>3000</v>
@@ -41859,7 +41863,7 @@
         <v>42830</v>
       </c>
       <c r="Y669" s="28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="670" spans="1:25" x14ac:dyDescent="0.35">
@@ -41867,13 +41871,13 @@
         <v>1255</v>
       </c>
       <c r="C670" s="30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D670" s="29" t="s">
         <v>1239</v>
       </c>
-      <c r="D670" s="29" t="s">
+      <c r="E670" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="E670" s="1" t="s">
-        <v>1241</v>
       </c>
       <c r="F670" s="3" t="s">
         <v>1035</v>
@@ -41900,7 +41904,7 @@
         <v>1297</v>
       </c>
       <c r="P670" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q670" s="3">
         <v>3000</v>
@@ -41918,7 +41922,7 @@
         <v>42830</v>
       </c>
       <c r="Y670" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="671" spans="1:25" x14ac:dyDescent="0.35">
@@ -41926,13 +41930,13 @@
         <v>1256</v>
       </c>
       <c r="C671" s="32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D671" s="29" t="s">
         <v>1243</v>
       </c>
-      <c r="D671" s="29" t="s">
+      <c r="E671" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="E671" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="F671" s="3" t="s">
         <v>1035</v>
@@ -41959,7 +41963,7 @@
         <v>1298</v>
       </c>
       <c r="P671" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q671" s="3">
         <v>3000</v>
@@ -41977,7 +41981,7 @@
         <v>136957</v>
       </c>
       <c r="Y671" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="672" spans="1:25" x14ac:dyDescent="0.35">
@@ -41985,13 +41989,13 @@
         <v>1257</v>
       </c>
       <c r="C672" s="30" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D672" s="29" t="s">
         <v>1246</v>
       </c>
-      <c r="D672" s="29" t="s">
+      <c r="E672" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="E672" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="F672" s="3" t="s">
         <v>1035</v>
@@ -42018,7 +42022,7 @@
         <v>1299</v>
       </c>
       <c r="P672" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q672" s="3">
         <v>3000</v>
@@ -42036,7 +42040,7 @@
         <v>42825</v>
       </c>
       <c r="Y672" s="28" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="673" spans="1:25" x14ac:dyDescent="0.35">
@@ -42044,13 +42048,13 @@
         <v>1258</v>
       </c>
       <c r="C673" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D673" s="29" t="s">
         <v>1250</v>
       </c>
-      <c r="D673" s="29" t="s">
+      <c r="E673" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="E673" s="1" t="s">
-        <v>1252</v>
       </c>
       <c r="F673" s="3" t="s">
         <v>1035</v>
@@ -42077,7 +42081,7 @@
         <v>1300</v>
       </c>
       <c r="P673" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q673" s="3">
         <v>3000</v>
@@ -42095,7 +42099,7 @@
         <v>136957</v>
       </c>
       <c r="Y673" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="674" spans="1:25" x14ac:dyDescent="0.35">
@@ -42103,13 +42107,13 @@
         <v>1259</v>
       </c>
       <c r="C674" s="30" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D674" s="29" t="s">
         <v>1253</v>
       </c>
-      <c r="D674" s="29" t="s">
+      <c r="E674" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="F674" s="3" t="s">
         <v>1035</v>
@@ -42136,7 +42140,7 @@
         <v>1301</v>
       </c>
       <c r="P674" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q674" s="3">
         <v>3000</v>
@@ -42154,7 +42158,7 @@
         <v>42825</v>
       </c>
       <c r="Y674" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="675" spans="1:25" x14ac:dyDescent="0.35">
@@ -42162,13 +42166,13 @@
         <v>1260</v>
       </c>
       <c r="C675" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D675" s="29" t="s">
         <v>1256</v>
       </c>
-      <c r="D675" s="29" t="s">
+      <c r="E675" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="E675" s="1" t="s">
-        <v>1258</v>
       </c>
       <c r="F675" s="3" t="s">
         <v>1035</v>
@@ -42195,7 +42199,7 @@
         <v>1302</v>
       </c>
       <c r="P675" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q675" s="3">
         <v>3000</v>
@@ -42213,7 +42217,7 @@
         <v>42813</v>
       </c>
       <c r="Y675" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="676" spans="1:25" x14ac:dyDescent="0.35">
@@ -42221,13 +42225,13 @@
         <v>1261</v>
       </c>
       <c r="C676" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D676" s="29" t="s">
         <v>1260</v>
       </c>
-      <c r="D676" s="29" t="s">
+      <c r="E676" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="E676" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="F676" s="3" t="s">
         <v>1035</v>
@@ -42254,7 +42258,7 @@
         <v>1303</v>
       </c>
       <c r="P676" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q676" s="3">
         <v>3000</v>
@@ -42272,7 +42276,7 @@
         <v>42813</v>
       </c>
       <c r="Y676" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="677" spans="1:25" x14ac:dyDescent="0.35">
@@ -42280,13 +42284,13 @@
         <v>1262</v>
       </c>
       <c r="C677" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D677" s="29" t="s">
         <v>1263</v>
       </c>
-      <c r="D677" s="29" t="s">
+      <c r="E677" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="E677" s="1" t="s">
-        <v>1265</v>
       </c>
       <c r="F677" s="3" t="s">
         <v>1035</v>
@@ -42313,7 +42317,7 @@
         <v>1304</v>
       </c>
       <c r="P677" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q677" s="3">
         <v>3000</v>
@@ -42331,7 +42335,7 @@
         <v>42813</v>
       </c>
       <c r="Y677" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="678" spans="1:25" x14ac:dyDescent="0.35">
@@ -42339,13 +42343,13 @@
         <v>1263</v>
       </c>
       <c r="C678" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D678" s="29" t="s">
         <v>1266</v>
       </c>
-      <c r="D678" s="29" t="s">
+      <c r="E678" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E678" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="F678" s="3" t="s">
         <v>1035</v>
@@ -42372,7 +42376,7 @@
         <v>1305</v>
       </c>
       <c r="P678" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q678" s="3">
         <v>3000</v>
@@ -42390,7 +42394,7 @@
         <v>42813</v>
       </c>
       <c r="Y678" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="679" spans="1:25" x14ac:dyDescent="0.35">
@@ -42398,13 +42402,13 @@
         <v>1264</v>
       </c>
       <c r="C679" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D679" s="29" t="s">
         <v>1269</v>
       </c>
-      <c r="D679" s="29" t="s">
+      <c r="E679" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="E679" s="1" t="s">
-        <v>1271</v>
       </c>
       <c r="F679" s="3" t="s">
         <v>1035</v>
@@ -42431,7 +42435,7 @@
         <v>1306</v>
       </c>
       <c r="P679" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q679" s="3">
         <v>3000</v>
@@ -42449,7 +42453,7 @@
         <v>42813</v>
       </c>
       <c r="Y679" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="680" spans="1:25" x14ac:dyDescent="0.35">
@@ -42457,13 +42461,13 @@
         <v>1265</v>
       </c>
       <c r="C680" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D680" s="29" t="s">
         <v>1272</v>
       </c>
-      <c r="D680" s="29" t="s">
+      <c r="E680" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="E680" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="F680" s="3" t="s">
         <v>1035</v>
@@ -42490,7 +42494,7 @@
         <v>1307</v>
       </c>
       <c r="P680" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q680" s="3">
         <v>3000</v>
@@ -42508,7 +42512,7 @@
         <v>42813</v>
       </c>
       <c r="Y680" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="681" spans="1:25" x14ac:dyDescent="0.35">
@@ -42516,13 +42520,13 @@
         <v>1266</v>
       </c>
       <c r="C681" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D681" s="29" t="s">
         <v>1275</v>
       </c>
-      <c r="D681" s="29" t="s">
+      <c r="E681" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="E681" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="F681" s="3" t="s">
         <v>1035</v>
@@ -42549,7 +42553,7 @@
         <v>1308</v>
       </c>
       <c r="P681" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q681" s="3">
         <v>3000</v>
@@ -42567,7 +42571,7 @@
         <v>42813</v>
       </c>
       <c r="Y681" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="682" spans="1:25" x14ac:dyDescent="0.35">
@@ -42575,13 +42579,13 @@
         <v>1267</v>
       </c>
       <c r="C682" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D682" s="29" t="s">
         <v>1278</v>
       </c>
-      <c r="D682" s="29" t="s">
+      <c r="E682" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="E682" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="F682" s="3" t="s">
         <v>1035</v>
@@ -42608,7 +42612,7 @@
         <v>1309</v>
       </c>
       <c r="P682" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q682" s="3">
         <v>3000</v>
@@ -42626,7 +42630,7 @@
         <v>42829</v>
       </c>
       <c r="Y682" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="683" spans="1:25" x14ac:dyDescent="0.35">
@@ -42634,13 +42638,13 @@
         <v>1268</v>
       </c>
       <c r="C683" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D683" s="29" t="s">
         <v>1281</v>
       </c>
-      <c r="D683" s="29" t="s">
+      <c r="E683" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="F683" s="3" t="s">
         <v>1035</v>
@@ -42667,7 +42671,7 @@
         <v>1310</v>
       </c>
       <c r="P683" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q683" s="3">
         <v>3000</v>
@@ -42685,7 +42689,7 @@
         <v>42829</v>
       </c>
       <c r="Y683" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="684" spans="1:25" x14ac:dyDescent="0.35">
@@ -42693,13 +42697,13 @@
         <v>1269</v>
       </c>
       <c r="C684" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D684" s="29" t="s">
         <v>1284</v>
       </c>
-      <c r="D684" s="29" t="s">
+      <c r="E684" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="E684" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="F684" s="3" t="s">
         <v>1035</v>
@@ -42726,7 +42730,7 @@
         <v>1311</v>
       </c>
       <c r="P684" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q684" s="3">
         <v>3000</v>
@@ -42744,7 +42748,7 @@
         <v>42829</v>
       </c>
       <c r="Y684" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="685" spans="1:25" x14ac:dyDescent="0.35">
@@ -42752,13 +42756,13 @@
         <v>1270</v>
       </c>
       <c r="C685" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D685" s="29" t="s">
         <v>1287</v>
       </c>
-      <c r="D685" s="29" t="s">
+      <c r="E685" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>1289</v>
       </c>
       <c r="F685" s="3" t="s">
         <v>1035</v>
@@ -42785,7 +42789,7 @@
         <v>1312</v>
       </c>
       <c r="P685" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q685" s="3">
         <v>3000</v>
@@ -42803,7 +42807,7 @@
         <v>42829</v>
       </c>
       <c r="Y685" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="686" spans="1:25" x14ac:dyDescent="0.35">
@@ -42811,13 +42815,13 @@
         <v>1271</v>
       </c>
       <c r="C686" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D686" s="29" t="s">
         <v>1290</v>
       </c>
-      <c r="D686" s="29" t="s">
+      <c r="E686" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="E686" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="F686" s="3" t="s">
         <v>1035</v>
@@ -42844,7 +42848,7 @@
         <v>1313</v>
       </c>
       <c r="P686" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q686" s="3">
         <v>3000</v>
@@ -42862,7 +42866,7 @@
         <v>42829</v>
       </c>
       <c r="Y686" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="687" spans="1:25" x14ac:dyDescent="0.35">
@@ -42870,13 +42874,13 @@
         <v>1272</v>
       </c>
       <c r="C687" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D687" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="D687" s="29" t="s">
+      <c r="E687" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="E687" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="F687" s="3" t="s">
         <v>1035</v>
@@ -42903,7 +42907,7 @@
         <v>1314</v>
       </c>
       <c r="P687" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q687" s="3">
         <v>3000</v>
@@ -42921,7 +42925,7 @@
         <v>42829</v>
       </c>
       <c r="Y687" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="688" spans="1:25" x14ac:dyDescent="0.35">
@@ -42929,13 +42933,13 @@
         <v>1273</v>
       </c>
       <c r="C688" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D688" s="29" t="s">
         <v>1296</v>
       </c>
-      <c r="D688" s="29" t="s">
+      <c r="E688" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="E688" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="F688" s="3" t="s">
         <v>1035</v>
@@ -42962,7 +42966,7 @@
         <v>1315</v>
       </c>
       <c r="P688" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q688" s="3">
         <v>3000</v>
@@ -42980,7 +42984,7 @@
         <v>42829</v>
       </c>
       <c r="Y688" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="689" spans="1:25" x14ac:dyDescent="0.35">
@@ -42988,13 +42992,13 @@
         <v>1274</v>
       </c>
       <c r="C689" s="30" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D689" s="29" t="s">
         <v>1299</v>
       </c>
-      <c r="D689" s="29" t="s">
+      <c r="E689" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="E689" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="F689" s="3" t="s">
         <v>1035</v>
@@ -43021,7 +43025,7 @@
         <v>1316</v>
       </c>
       <c r="P689" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q689" s="3">
         <v>3000</v>
@@ -43039,7 +43043,7 @@
         <v>145909</v>
       </c>
       <c r="Y689" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="690" spans="1:25" x14ac:dyDescent="0.35">
@@ -43047,13 +43051,13 @@
         <v>1275</v>
       </c>
       <c r="C690" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D690" s="29" t="s">
         <v>1303</v>
       </c>
-      <c r="D690" s="29" t="s">
+      <c r="E690" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="E690" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="F690" s="3" t="s">
         <v>1035</v>
@@ -43080,7 +43084,7 @@
         <v>1317</v>
       </c>
       <c r="P690" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q690" s="3">
         <v>3000</v>
@@ -43098,7 +43102,7 @@
         <v>145909</v>
       </c>
       <c r="Y690" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="691" spans="1:25" x14ac:dyDescent="0.35">
@@ -43106,13 +43110,13 @@
         <v>1276</v>
       </c>
       <c r="C691" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D691" s="29" t="s">
         <v>1306</v>
       </c>
-      <c r="D691" s="29" t="s">
+      <c r="E691" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="E691" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="F691" s="3" t="s">
         <v>1035</v>
@@ -43139,7 +43143,7 @@
         <v>1318</v>
       </c>
       <c r="P691" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q691" s="3">
         <v>3000</v>
@@ -43157,7 +43161,7 @@
         <v>145909</v>
       </c>
       <c r="Y691" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="692" spans="1:25" x14ac:dyDescent="0.35">
@@ -43165,13 +43169,13 @@
         <v>1277</v>
       </c>
       <c r="C692" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D692" s="29" t="s">
         <v>1309</v>
       </c>
-      <c r="D692" s="29" t="s">
+      <c r="E692" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="E692" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="F692" s="3" t="s">
         <v>1035</v>
@@ -43198,7 +43202,7 @@
         <v>1319</v>
       </c>
       <c r="P692" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q692" s="3">
         <v>3000</v>
@@ -43216,7 +43220,7 @@
         <v>145909</v>
       </c>
       <c r="Y692" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="693" spans="1:25" x14ac:dyDescent="0.35">
@@ -43224,13 +43228,13 @@
         <v>1278</v>
       </c>
       <c r="C693" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D693" s="29" t="s">
         <v>1312</v>
       </c>
-      <c r="D693" s="29" t="s">
+      <c r="E693" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="E693" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="F693" s="3" t="s">
         <v>1035</v>
@@ -43257,7 +43261,7 @@
         <v>1320</v>
       </c>
       <c r="P693" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q693" s="3">
         <v>3000</v>
@@ -43275,7 +43279,7 @@
         <v>145909</v>
       </c>
       <c r="Y693" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="694" spans="1:25" x14ac:dyDescent="0.35">
@@ -43283,13 +43287,13 @@
         <v>1279</v>
       </c>
       <c r="C694" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D694" s="29" t="s">
         <v>1315</v>
       </c>
-      <c r="D694" s="29" t="s">
+      <c r="E694" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="E694" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="F694" s="3" t="s">
         <v>1035</v>
@@ -43316,7 +43320,7 @@
         <v>1321</v>
       </c>
       <c r="P694" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q694" s="3">
         <v>3000</v>
@@ -43334,7 +43338,7 @@
         <v>145909</v>
       </c>
       <c r="Y694" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="695" spans="1:25" x14ac:dyDescent="0.35">
@@ -43342,13 +43346,13 @@
         <v>1280</v>
       </c>
       <c r="C695" s="30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D695" s="29" t="s">
         <v>1318</v>
       </c>
-      <c r="D695" s="29" t="s">
+      <c r="E695" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="E695" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="F695" s="3" t="s">
         <v>1035</v>
@@ -43375,7 +43379,7 @@
         <v>1322</v>
       </c>
       <c r="P695" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q695" s="3">
         <v>3000</v>
@@ -43393,7 +43397,7 @@
         <v>145909</v>
       </c>
       <c r="Y695" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="696" spans="1:25" x14ac:dyDescent="0.35">
@@ -43401,13 +43405,13 @@
         <v>1281</v>
       </c>
       <c r="C696" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D696" s="29" t="s">
         <v>1321</v>
       </c>
-      <c r="D696" s="29" t="s">
+      <c r="E696" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="E696" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="F696" s="3" t="s">
         <v>1035</v>
@@ -43434,7 +43438,7 @@
         <v>1323</v>
       </c>
       <c r="P696" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q696" s="3">
         <v>3000</v>
@@ -43452,7 +43456,7 @@
         <v>145904</v>
       </c>
       <c r="Y696" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="697" spans="1:25" x14ac:dyDescent="0.35">
@@ -43460,13 +43464,13 @@
         <v>1282</v>
       </c>
       <c r="C697" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D697" s="29" t="s">
         <v>1325</v>
       </c>
-      <c r="D697" s="29" t="s">
+      <c r="E697" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="E697" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="F697" s="3" t="s">
         <v>1035</v>
@@ -43493,7 +43497,7 @@
         <v>1324</v>
       </c>
       <c r="P697" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q697" s="3">
         <v>3000</v>
@@ -43511,7 +43515,7 @@
         <v>145912</v>
       </c>
       <c r="Y697" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="698" spans="1:25" x14ac:dyDescent="0.35">
@@ -43519,13 +43523,13 @@
         <v>1283</v>
       </c>
       <c r="C698" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D698" s="29" t="s">
         <v>1329</v>
       </c>
-      <c r="D698" s="29" t="s">
+      <c r="E698" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="E698" s="1" t="s">
-        <v>1331</v>
       </c>
       <c r="F698" s="3" t="s">
         <v>1035</v>
@@ -43552,7 +43556,7 @@
         <v>1325</v>
       </c>
       <c r="P698" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q698" s="3">
         <v>3000</v>
@@ -43570,7 +43574,7 @@
         <v>145904</v>
       </c>
       <c r="Y698" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="699" spans="1:25" x14ac:dyDescent="0.35">
@@ -43578,13 +43582,13 @@
         <v>1284</v>
       </c>
       <c r="C699" s="30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D699" s="29" t="s">
         <v>1332</v>
       </c>
-      <c r="D699" s="29" t="s">
+      <c r="E699" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E699" s="1" t="s">
-        <v>1334</v>
       </c>
       <c r="F699" s="3" t="s">
         <v>1035</v>
@@ -43611,7 +43615,7 @@
         <v>1326</v>
       </c>
       <c r="P699" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q699" s="3">
         <v>3000</v>
@@ -43629,7 +43633,7 @@
         <v>145912</v>
       </c>
       <c r="Y699" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="700" spans="1:25" x14ac:dyDescent="0.35">
@@ -43637,13 +43641,13 @@
         <v>1285</v>
       </c>
       <c r="C700" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D700" s="29" t="s">
         <v>1335</v>
       </c>
-      <c r="D700" s="29" t="s">
+      <c r="E700" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="E700" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="F700" s="3" t="s">
         <v>1035</v>
@@ -43670,7 +43674,7 @@
         <v>1327</v>
       </c>
       <c r="P700" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q700" s="3">
         <v>3000</v>
@@ -43688,7 +43692,7 @@
         <v>145912</v>
       </c>
       <c r="Y700" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="701" spans="1:25" x14ac:dyDescent="0.35">
@@ -43696,13 +43700,13 @@
         <v>1286</v>
       </c>
       <c r="C701" s="30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D701" s="29" t="s">
         <v>1338</v>
       </c>
-      <c r="D701" s="29" t="s">
+      <c r="E701" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="E701" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="F701" s="3" t="s">
         <v>1035</v>
@@ -43729,7 +43733,7 @@
         <v>1328</v>
       </c>
       <c r="P701" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q701" s="3">
         <v>3000</v>
@@ -43747,7 +43751,7 @@
         <v>145912</v>
       </c>
       <c r="Y701" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="702" spans="1:25" x14ac:dyDescent="0.35">
@@ -43755,13 +43759,13 @@
         <v>1287</v>
       </c>
       <c r="C702" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D702" s="29" t="s">
         <v>1341</v>
       </c>
-      <c r="D702" s="29" t="s">
+      <c r="E702" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="E702" s="1" t="s">
-        <v>1343</v>
       </c>
       <c r="F702" s="3" t="s">
         <v>1035</v>
@@ -43788,7 +43792,7 @@
         <v>1329</v>
       </c>
       <c r="P702" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q702" s="3">
         <v>3000</v>
@@ -43806,7 +43810,7 @@
         <v>145904</v>
       </c>
       <c r="Y702" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="704" spans="1:25" x14ac:dyDescent="0.35">
@@ -43814,13 +43818,13 @@
         <v>1288</v>
       </c>
       <c r="C704" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D704" s="29" t="s">
         <v>1205</v>
       </c>
-      <c r="D704" s="29" t="s">
+      <c r="E704" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E704" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="F704" s="3" t="s">
         <v>1035</v>
@@ -43844,7 +43848,7 @@
         <v>2</v>
       </c>
       <c r="P704" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q704" s="3">
         <v>3000</v>
@@ -43862,7 +43866,7 @@
         <v>136963</v>
       </c>
       <c r="Y704" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="705" spans="1:25" x14ac:dyDescent="0.35">
@@ -43870,13 +43874,13 @@
         <v>1289</v>
       </c>
       <c r="C705" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D705" s="29" t="s">
         <v>1210</v>
       </c>
-      <c r="D705" s="29" t="s">
+      <c r="E705" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="E705" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="F705" s="3" t="s">
         <v>1035</v>
@@ -43900,7 +43904,7 @@
         <v>2</v>
       </c>
       <c r="P705" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q705" s="3">
         <v>3000</v>
@@ -43918,7 +43922,7 @@
         <v>42811</v>
       </c>
       <c r="Y705" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="706" spans="1:25" x14ac:dyDescent="0.35">
@@ -43926,13 +43930,13 @@
         <v>1290</v>
       </c>
       <c r="C706" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D706" s="29" t="s">
         <v>1214</v>
       </c>
-      <c r="D706" s="29" t="s">
+      <c r="E706" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E706" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="F706" s="3" t="s">
         <v>1035</v>
@@ -43956,7 +43960,7 @@
         <v>2</v>
       </c>
       <c r="P706" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q706" s="3">
         <v>3000</v>
@@ -43974,7 +43978,7 @@
         <v>136963</v>
       </c>
       <c r="Y706" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="707" spans="1:25" x14ac:dyDescent="0.35">
@@ -43982,13 +43986,13 @@
         <v>1291</v>
       </c>
       <c r="C707" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D707" s="29" t="s">
         <v>1217</v>
       </c>
-      <c r="D707" s="29" t="s">
+      <c r="E707" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="E707" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="F707" s="3" t="s">
         <v>1035</v>
@@ -44012,7 +44016,7 @@
         <v>2</v>
       </c>
       <c r="P707" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q707" s="3">
         <v>3000</v>
@@ -44030,7 +44034,7 @@
         <v>136963</v>
       </c>
       <c r="Y707" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="708" spans="1:25" x14ac:dyDescent="0.35">
@@ -44038,13 +44042,13 @@
         <v>1292</v>
       </c>
       <c r="C708" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D708" s="29" t="s">
         <v>1220</v>
       </c>
-      <c r="D708" s="29" t="s">
+      <c r="E708" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="E708" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="F708" s="3" t="s">
         <v>1035</v>
@@ -44068,7 +44072,7 @@
         <v>2</v>
       </c>
       <c r="P708" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q708" s="3">
         <v>3000</v>
@@ -44086,7 +44090,7 @@
         <v>42823</v>
       </c>
       <c r="Y708" s="28" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="709" spans="1:25" x14ac:dyDescent="0.35">
@@ -44094,13 +44098,13 @@
         <v>1293</v>
       </c>
       <c r="C709" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D709" s="29" t="s">
         <v>1224</v>
       </c>
-      <c r="D709" s="29" t="s">
+      <c r="E709" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="E709" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="F709" s="3" t="s">
         <v>1035</v>
@@ -44124,7 +44128,7 @@
         <v>2</v>
       </c>
       <c r="P709" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q709" s="3">
         <v>3000</v>
@@ -44142,7 +44146,7 @@
         <v>42811</v>
       </c>
       <c r="Y709" s="28" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="710" spans="1:25" x14ac:dyDescent="0.35">
@@ -44150,13 +44154,13 @@
         <v>1294</v>
       </c>
       <c r="C710" s="30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D710" s="29" t="s">
         <v>1227</v>
       </c>
-      <c r="D710" s="29" t="s">
+      <c r="E710" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="E710" s="1" t="s">
-        <v>1229</v>
       </c>
       <c r="F710" s="3" t="s">
         <v>1035</v>
@@ -44180,7 +44184,7 @@
         <v>2</v>
       </c>
       <c r="P710" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q710" s="3">
         <v>3000</v>
@@ -44198,7 +44202,7 @@
         <v>42823</v>
       </c>
       <c r="Y710" s="28" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="711" spans="1:25" x14ac:dyDescent="0.35">
@@ -44206,13 +44210,13 @@
         <v>1295</v>
       </c>
       <c r="C711" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D711" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="D711" s="29" t="s">
+      <c r="E711" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="E711" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="F711" s="3" t="s">
         <v>1035</v>
@@ -44236,7 +44240,7 @@
         <v>2</v>
       </c>
       <c r="P711" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q711" s="3">
         <v>3000</v>
@@ -44254,7 +44258,7 @@
         <v>136957</v>
       </c>
       <c r="Y711" s="28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="712" spans="1:25" x14ac:dyDescent="0.35">
@@ -44262,13 +44266,13 @@
         <v>1296</v>
       </c>
       <c r="C712" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D712" s="29" t="s">
         <v>1235</v>
       </c>
-      <c r="D712" s="29" t="s">
+      <c r="E712" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E712" s="1" t="s">
-        <v>1237</v>
       </c>
       <c r="F712" s="3" t="s">
         <v>1035</v>
@@ -44292,7 +44296,7 @@
         <v>2</v>
       </c>
       <c r="P712" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q712" s="3">
         <v>3000</v>
@@ -44310,7 +44314,7 @@
         <v>42830</v>
       </c>
       <c r="Y712" s="28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="713" spans="1:25" x14ac:dyDescent="0.35">
@@ -44318,13 +44322,13 @@
         <v>1297</v>
       </c>
       <c r="C713" s="30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D713" s="29" t="s">
         <v>1239</v>
       </c>
-      <c r="D713" s="29" t="s">
+      <c r="E713" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="E713" s="1" t="s">
-        <v>1241</v>
       </c>
       <c r="F713" s="3" t="s">
         <v>1035</v>
@@ -44348,7 +44352,7 @@
         <v>2</v>
       </c>
       <c r="P713" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q713" s="3">
         <v>3000</v>
@@ -44366,7 +44370,7 @@
         <v>42830</v>
       </c>
       <c r="Y713" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="714" spans="1:25" x14ac:dyDescent="0.35">
@@ -44374,13 +44378,13 @@
         <v>1298</v>
       </c>
       <c r="C714" s="32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D714" s="29" t="s">
         <v>1243</v>
       </c>
-      <c r="D714" s="29" t="s">
+      <c r="E714" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="E714" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="F714" s="3" t="s">
         <v>1035</v>
@@ -44404,7 +44408,7 @@
         <v>2</v>
       </c>
       <c r="P714" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q714" s="3">
         <v>3000</v>
@@ -44422,7 +44426,7 @@
         <v>136957</v>
       </c>
       <c r="Y714" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="715" spans="1:25" x14ac:dyDescent="0.35">
@@ -44430,13 +44434,13 @@
         <v>1299</v>
       </c>
       <c r="C715" s="30" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D715" s="29" t="s">
         <v>1246</v>
       </c>
-      <c r="D715" s="29" t="s">
+      <c r="E715" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="E715" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="F715" s="3" t="s">
         <v>1035</v>
@@ -44460,7 +44464,7 @@
         <v>2</v>
       </c>
       <c r="P715" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q715" s="3">
         <v>3000</v>
@@ -44478,7 +44482,7 @@
         <v>42825</v>
       </c>
       <c r="Y715" s="28" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="716" spans="1:25" x14ac:dyDescent="0.35">
@@ -44486,13 +44490,13 @@
         <v>1300</v>
       </c>
       <c r="C716" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D716" s="29" t="s">
         <v>1250</v>
       </c>
-      <c r="D716" s="29" t="s">
+      <c r="E716" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="E716" s="1" t="s">
-        <v>1252</v>
       </c>
       <c r="F716" s="3" t="s">
         <v>1035</v>
@@ -44516,7 +44520,7 @@
         <v>2</v>
       </c>
       <c r="P716" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q716" s="3">
         <v>3000</v>
@@ -44534,7 +44538,7 @@
         <v>136957</v>
       </c>
       <c r="Y716" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="717" spans="1:25" x14ac:dyDescent="0.35">
@@ -44542,13 +44546,13 @@
         <v>1301</v>
       </c>
       <c r="C717" s="30" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D717" s="29" t="s">
         <v>1253</v>
       </c>
-      <c r="D717" s="29" t="s">
+      <c r="E717" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="E717" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="F717" s="3" t="s">
         <v>1035</v>
@@ -44572,7 +44576,7 @@
         <v>2</v>
       </c>
       <c r="P717" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q717" s="3">
         <v>3000</v>
@@ -44590,7 +44594,7 @@
         <v>42825</v>
       </c>
       <c r="Y717" s="28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="718" spans="1:25" x14ac:dyDescent="0.35">
@@ -44598,13 +44602,13 @@
         <v>1302</v>
       </c>
       <c r="C718" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D718" s="29" t="s">
         <v>1256</v>
       </c>
-      <c r="D718" s="29" t="s">
+      <c r="E718" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="E718" s="1" t="s">
-        <v>1258</v>
       </c>
       <c r="F718" s="3" t="s">
         <v>1035</v>
@@ -44628,7 +44632,7 @@
         <v>2</v>
       </c>
       <c r="P718" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q718" s="3">
         <v>3000</v>
@@ -44646,7 +44650,7 @@
         <v>42813</v>
       </c>
       <c r="Y718" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="719" spans="1:25" x14ac:dyDescent="0.35">
@@ -44654,13 +44658,13 @@
         <v>1303</v>
       </c>
       <c r="C719" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D719" s="29" t="s">
         <v>1260</v>
       </c>
-      <c r="D719" s="29" t="s">
+      <c r="E719" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="E719" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="F719" s="3" t="s">
         <v>1035</v>
@@ -44684,7 +44688,7 @@
         <v>2</v>
       </c>
       <c r="P719" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q719" s="3">
         <v>3000</v>
@@ -44702,7 +44706,7 @@
         <v>42813</v>
       </c>
       <c r="Y719" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="720" spans="1:25" x14ac:dyDescent="0.35">
@@ -44710,13 +44714,13 @@
         <v>1304</v>
       </c>
       <c r="C720" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D720" s="29" t="s">
         <v>1263</v>
       </c>
-      <c r="D720" s="29" t="s">
+      <c r="E720" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="E720" s="1" t="s">
-        <v>1265</v>
       </c>
       <c r="F720" s="3" t="s">
         <v>1035</v>
@@ -44740,7 +44744,7 @@
         <v>2</v>
       </c>
       <c r="P720" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q720" s="3">
         <v>3000</v>
@@ -44758,7 +44762,7 @@
         <v>42813</v>
       </c>
       <c r="Y720" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="721" spans="1:25" x14ac:dyDescent="0.35">
@@ -44766,13 +44770,13 @@
         <v>1305</v>
       </c>
       <c r="C721" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D721" s="29" t="s">
         <v>1266</v>
       </c>
-      <c r="D721" s="29" t="s">
+      <c r="E721" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E721" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="F721" s="3" t="s">
         <v>1035</v>
@@ -44796,7 +44800,7 @@
         <v>2</v>
       </c>
       <c r="P721" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q721" s="3">
         <v>3000</v>
@@ -44814,7 +44818,7 @@
         <v>42813</v>
       </c>
       <c r="Y721" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="722" spans="1:25" x14ac:dyDescent="0.35">
@@ -44822,13 +44826,13 @@
         <v>1306</v>
       </c>
       <c r="C722" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D722" s="29" t="s">
         <v>1269</v>
       </c>
-      <c r="D722" s="29" t="s">
+      <c r="E722" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>1271</v>
       </c>
       <c r="F722" s="3" t="s">
         <v>1035</v>
@@ -44852,7 +44856,7 @@
         <v>2</v>
       </c>
       <c r="P722" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q722" s="3">
         <v>3000</v>
@@ -44870,7 +44874,7 @@
         <v>42813</v>
       </c>
       <c r="Y722" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="723" spans="1:25" x14ac:dyDescent="0.35">
@@ -44878,13 +44882,13 @@
         <v>1307</v>
       </c>
       <c r="C723" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D723" s="29" t="s">
         <v>1272</v>
       </c>
-      <c r="D723" s="29" t="s">
+      <c r="E723" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="E723" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="F723" s="3" t="s">
         <v>1035</v>
@@ -44908,7 +44912,7 @@
         <v>2</v>
       </c>
       <c r="P723" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q723" s="3">
         <v>3000</v>
@@ -44926,7 +44930,7 @@
         <v>42813</v>
       </c>
       <c r="Y723" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="724" spans="1:25" x14ac:dyDescent="0.35">
@@ -44934,13 +44938,13 @@
         <v>1308</v>
       </c>
       <c r="C724" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D724" s="29" t="s">
         <v>1275</v>
       </c>
-      <c r="D724" s="29" t="s">
+      <c r="E724" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="E724" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="F724" s="3" t="s">
         <v>1035</v>
@@ -44964,7 +44968,7 @@
         <v>2</v>
       </c>
       <c r="P724" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q724" s="3">
         <v>3000</v>
@@ -44982,7 +44986,7 @@
         <v>42813</v>
       </c>
       <c r="Y724" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="725" spans="1:25" x14ac:dyDescent="0.35">
@@ -44990,13 +44994,13 @@
         <v>1309</v>
       </c>
       <c r="C725" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D725" s="29" t="s">
         <v>1278</v>
       </c>
-      <c r="D725" s="29" t="s">
+      <c r="E725" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="E725" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="F725" s="3" t="s">
         <v>1035</v>
@@ -45020,7 +45024,7 @@
         <v>2</v>
       </c>
       <c r="P725" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q725" s="3">
         <v>3000</v>
@@ -45038,7 +45042,7 @@
         <v>42829</v>
       </c>
       <c r="Y725" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="726" spans="1:25" x14ac:dyDescent="0.35">
@@ -45046,13 +45050,13 @@
         <v>1310</v>
       </c>
       <c r="C726" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D726" s="29" t="s">
         <v>1281</v>
       </c>
-      <c r="D726" s="29" t="s">
+      <c r="E726" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="E726" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="F726" s="3" t="s">
         <v>1035</v>
@@ -45076,7 +45080,7 @@
         <v>2</v>
       </c>
       <c r="P726" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q726" s="3">
         <v>3000</v>
@@ -45094,7 +45098,7 @@
         <v>42829</v>
       </c>
       <c r="Y726" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="727" spans="1:25" x14ac:dyDescent="0.35">
@@ -45102,13 +45106,13 @@
         <v>1311</v>
       </c>
       <c r="C727" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D727" s="29" t="s">
         <v>1284</v>
       </c>
-      <c r="D727" s="29" t="s">
+      <c r="E727" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="E727" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="F727" s="3" t="s">
         <v>1035</v>
@@ -45132,7 +45136,7 @@
         <v>2</v>
       </c>
       <c r="P727" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q727" s="3">
         <v>3000</v>
@@ -45150,7 +45154,7 @@
         <v>42829</v>
       </c>
       <c r="Y727" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="728" spans="1:25" x14ac:dyDescent="0.35">
@@ -45158,13 +45162,13 @@
         <v>1312</v>
       </c>
       <c r="C728" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D728" s="29" t="s">
         <v>1287</v>
       </c>
-      <c r="D728" s="29" t="s">
+      <c r="E728" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="E728" s="1" t="s">
-        <v>1289</v>
       </c>
       <c r="F728" s="3" t="s">
         <v>1035</v>
@@ -45188,7 +45192,7 @@
         <v>2</v>
       </c>
       <c r="P728" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q728" s="3">
         <v>3000</v>
@@ -45206,7 +45210,7 @@
         <v>42829</v>
       </c>
       <c r="Y728" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="729" spans="1:25" x14ac:dyDescent="0.35">
@@ -45214,13 +45218,13 @@
         <v>1313</v>
       </c>
       <c r="C729" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D729" s="29" t="s">
         <v>1290</v>
       </c>
-      <c r="D729" s="29" t="s">
+      <c r="E729" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="E729" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="F729" s="3" t="s">
         <v>1035</v>
@@ -45244,7 +45248,7 @@
         <v>2</v>
       </c>
       <c r="P729" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q729" s="3">
         <v>3000</v>
@@ -45262,7 +45266,7 @@
         <v>42829</v>
       </c>
       <c r="Y729" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="730" spans="1:25" x14ac:dyDescent="0.35">
@@ -45270,13 +45274,13 @@
         <v>1314</v>
       </c>
       <c r="C730" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D730" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="D730" s="29" t="s">
+      <c r="E730" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="E730" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="F730" s="3" t="s">
         <v>1035</v>
@@ -45300,7 +45304,7 @@
         <v>2</v>
       </c>
       <c r="P730" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q730" s="3">
         <v>3000</v>
@@ -45318,7 +45322,7 @@
         <v>42829</v>
       </c>
       <c r="Y730" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="731" spans="1:25" x14ac:dyDescent="0.35">
@@ -45326,13 +45330,13 @@
         <v>1315</v>
       </c>
       <c r="C731" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D731" s="29" t="s">
         <v>1296</v>
       </c>
-      <c r="D731" s="29" t="s">
+      <c r="E731" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="F731" s="3" t="s">
         <v>1035</v>
@@ -45356,7 +45360,7 @@
         <v>2</v>
       </c>
       <c r="P731" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q731" s="3">
         <v>3000</v>
@@ -45374,7 +45378,7 @@
         <v>42829</v>
       </c>
       <c r="Y731" s="28" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="732" spans="1:25" x14ac:dyDescent="0.35">
@@ -45382,13 +45386,13 @@
         <v>1316</v>
       </c>
       <c r="C732" s="30" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D732" s="29" t="s">
         <v>1299</v>
       </c>
-      <c r="D732" s="29" t="s">
+      <c r="E732" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="E732" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="F732" s="3" t="s">
         <v>1035</v>
@@ -45412,7 +45416,7 @@
         <v>2</v>
       </c>
       <c r="P732" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q732" s="3">
         <v>3000</v>
@@ -45430,7 +45434,7 @@
         <v>145909</v>
       </c>
       <c r="Y732" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="733" spans="1:25" x14ac:dyDescent="0.35">
@@ -45438,13 +45442,13 @@
         <v>1317</v>
       </c>
       <c r="C733" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D733" s="29" t="s">
         <v>1303</v>
       </c>
-      <c r="D733" s="29" t="s">
+      <c r="E733" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="E733" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="F733" s="3" t="s">
         <v>1035</v>
@@ -45468,7 +45472,7 @@
         <v>2</v>
       </c>
       <c r="P733" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q733" s="3">
         <v>3000</v>
@@ -45486,7 +45490,7 @@
         <v>145909</v>
       </c>
       <c r="Y733" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="734" spans="1:25" x14ac:dyDescent="0.35">
@@ -45494,13 +45498,13 @@
         <v>1318</v>
       </c>
       <c r="C734" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D734" s="29" t="s">
         <v>1306</v>
       </c>
-      <c r="D734" s="29" t="s">
+      <c r="E734" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="E734" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="F734" s="3" t="s">
         <v>1035</v>
@@ -45524,7 +45528,7 @@
         <v>2</v>
       </c>
       <c r="P734" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q734" s="3">
         <v>3000</v>
@@ -45542,7 +45546,7 @@
         <v>145909</v>
       </c>
       <c r="Y734" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="735" spans="1:25" x14ac:dyDescent="0.35">
@@ -45550,13 +45554,13 @@
         <v>1319</v>
       </c>
       <c r="C735" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D735" s="29" t="s">
         <v>1309</v>
       </c>
-      <c r="D735" s="29" t="s">
+      <c r="E735" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="E735" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="F735" s="3" t="s">
         <v>1035</v>
@@ -45580,7 +45584,7 @@
         <v>2</v>
       </c>
       <c r="P735" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q735" s="3">
         <v>3000</v>
@@ -45598,7 +45602,7 @@
         <v>145909</v>
       </c>
       <c r="Y735" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="736" spans="1:25" x14ac:dyDescent="0.35">
@@ -45606,13 +45610,13 @@
         <v>1320</v>
       </c>
       <c r="C736" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D736" s="29" t="s">
         <v>1312</v>
       </c>
-      <c r="D736" s="29" t="s">
+      <c r="E736" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="E736" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="F736" s="3" t="s">
         <v>1035</v>
@@ -45636,7 +45640,7 @@
         <v>2</v>
       </c>
       <c r="P736" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q736" s="3">
         <v>3000</v>
@@ -45654,7 +45658,7 @@
         <v>145909</v>
       </c>
       <c r="Y736" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="737" spans="1:25" x14ac:dyDescent="0.35">
@@ -45662,13 +45666,13 @@
         <v>1321</v>
       </c>
       <c r="C737" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D737" s="29" t="s">
         <v>1315</v>
       </c>
-      <c r="D737" s="29" t="s">
+      <c r="E737" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="E737" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="F737" s="3" t="s">
         <v>1035</v>
@@ -45692,7 +45696,7 @@
         <v>2</v>
       </c>
       <c r="P737" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q737" s="3">
         <v>3000</v>
@@ -45710,7 +45714,7 @@
         <v>145909</v>
       </c>
       <c r="Y737" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="738" spans="1:25" x14ac:dyDescent="0.35">
@@ -45718,13 +45722,13 @@
         <v>1322</v>
       </c>
       <c r="C738" s="30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D738" s="29" t="s">
         <v>1318</v>
       </c>
-      <c r="D738" s="29" t="s">
+      <c r="E738" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="E738" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="F738" s="3" t="s">
         <v>1035</v>
@@ -45748,7 +45752,7 @@
         <v>2</v>
       </c>
       <c r="P738" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q738" s="3">
         <v>3000</v>
@@ -45766,7 +45770,7 @@
         <v>145909</v>
       </c>
       <c r="Y738" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="739" spans="1:25" x14ac:dyDescent="0.35">
@@ -45774,13 +45778,13 @@
         <v>1323</v>
       </c>
       <c r="C739" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D739" s="29" t="s">
         <v>1321</v>
       </c>
-      <c r="D739" s="29" t="s">
+      <c r="E739" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="E739" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="F739" s="3" t="s">
         <v>1035</v>
@@ -45804,7 +45808,7 @@
         <v>2</v>
       </c>
       <c r="P739" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q739" s="3">
         <v>3000</v>
@@ -45822,7 +45826,7 @@
         <v>145904</v>
       </c>
       <c r="Y739" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="740" spans="1:25" x14ac:dyDescent="0.35">
@@ -45830,13 +45834,13 @@
         <v>1324</v>
       </c>
       <c r="C740" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D740" s="29" t="s">
         <v>1325</v>
       </c>
-      <c r="D740" s="29" t="s">
+      <c r="E740" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="E740" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="F740" s="3" t="s">
         <v>1035</v>
@@ -45860,7 +45864,7 @@
         <v>2</v>
       </c>
       <c r="P740" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q740" s="3">
         <v>3000</v>
@@ -45878,7 +45882,7 @@
         <v>145912</v>
       </c>
       <c r="Y740" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="741" spans="1:25" x14ac:dyDescent="0.35">
@@ -45886,13 +45890,13 @@
         <v>1325</v>
       </c>
       <c r="C741" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D741" s="29" t="s">
         <v>1329</v>
       </c>
-      <c r="D741" s="29" t="s">
+      <c r="E741" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="E741" s="1" t="s">
-        <v>1331</v>
       </c>
       <c r="F741" s="3" t="s">
         <v>1035</v>
@@ -45916,7 +45920,7 @@
         <v>2</v>
       </c>
       <c r="P741" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q741" s="3">
         <v>3000</v>
@@ -45934,7 +45938,7 @@
         <v>145904</v>
       </c>
       <c r="Y741" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="742" spans="1:25" x14ac:dyDescent="0.35">
@@ -45942,13 +45946,13 @@
         <v>1326</v>
       </c>
       <c r="C742" s="30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D742" s="29" t="s">
         <v>1332</v>
       </c>
-      <c r="D742" s="29" t="s">
+      <c r="E742" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E742" s="1" t="s">
-        <v>1334</v>
       </c>
       <c r="F742" s="3" t="s">
         <v>1035</v>
@@ -45972,7 +45976,7 @@
         <v>2</v>
       </c>
       <c r="P742" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q742" s="3">
         <v>3000</v>
@@ -45990,7 +45994,7 @@
         <v>145912</v>
       </c>
       <c r="Y742" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="743" spans="1:25" x14ac:dyDescent="0.35">
@@ -45998,13 +46002,13 @@
         <v>1327</v>
       </c>
       <c r="C743" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D743" s="29" t="s">
         <v>1335</v>
       </c>
-      <c r="D743" s="29" t="s">
+      <c r="E743" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="E743" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="F743" s="3" t="s">
         <v>1035</v>
@@ -46028,7 +46032,7 @@
         <v>2</v>
       </c>
       <c r="P743" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q743" s="3">
         <v>3000</v>
@@ -46046,7 +46050,7 @@
         <v>145912</v>
       </c>
       <c r="Y743" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="744" spans="1:25" x14ac:dyDescent="0.35">
@@ -46054,13 +46058,13 @@
         <v>1328</v>
       </c>
       <c r="C744" s="30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D744" s="29" t="s">
         <v>1338</v>
       </c>
-      <c r="D744" s="29" t="s">
+      <c r="E744" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="E744" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="F744" s="3" t="s">
         <v>1035</v>
@@ -46084,7 +46088,7 @@
         <v>2</v>
       </c>
       <c r="P744" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q744" s="3">
         <v>3000</v>
@@ -46102,7 +46106,7 @@
         <v>145912</v>
       </c>
       <c r="Y744" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="745" spans="1:25" x14ac:dyDescent="0.35">
@@ -46110,13 +46114,13 @@
         <v>1329</v>
       </c>
       <c r="C745" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D745" s="29" t="s">
         <v>1341</v>
       </c>
-      <c r="D745" s="29" t="s">
+      <c r="E745" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="E745" s="1" t="s">
-        <v>1343</v>
       </c>
       <c r="F745" s="3" t="s">
         <v>1035</v>
@@ -46140,7 +46144,7 @@
         <v>2</v>
       </c>
       <c r="P745" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q745" s="3">
         <v>3000</v>
@@ -46158,11 +46162,86 @@
         <v>145904</v>
       </c>
       <c r="Y745" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B287:B293"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="B312:B318"/>
+    <mergeCell ref="B319:B325"/>
+    <mergeCell ref="B326:B330"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B438:B442"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="B481:B485"/>
+    <mergeCell ref="B486:B490"/>
+    <mergeCell ref="B491:B497"/>
+    <mergeCell ref="B498:B504"/>
+    <mergeCell ref="B505:B510"/>
+    <mergeCell ref="B511:B515"/>
     <mergeCell ref="B542:B544"/>
     <mergeCell ref="B553:B556"/>
     <mergeCell ref="B557:B560"/>
@@ -46171,81 +46250,6 @@
     <mergeCell ref="B530:B534"/>
     <mergeCell ref="B535:B539"/>
     <mergeCell ref="B540:B541"/>
-    <mergeCell ref="B486:B490"/>
-    <mergeCell ref="B491:B497"/>
-    <mergeCell ref="B498:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B515"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="B481:B485"/>
-    <mergeCell ref="B438:B442"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B423"/>
-    <mergeCell ref="B424:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B331:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B318"/>
-    <mergeCell ref="B319:B325"/>
-    <mergeCell ref="B326:B330"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B287:B293"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
